--- a/InternetFootprint_Final.xlsx
+++ b/InternetFootprint_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robringer/Library/Mobile Documents/com~apple~CloudDocs/Documents/Research/2020_21/datafootprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6CA2F1-50A3-674B-AC7D-47A592D7B6D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F279519-9BA5-914C-9D48-7747B6114B01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1725" uniqueCount="283">
   <si>
     <t>Netflix</t>
   </si>
@@ -739,9 +739,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">In the case of the water and land footprints for electricity use (columns G-I and P-R in the footprint tabs), only minimum and maximum values were available in the literature. Following Mahlooji et al. (2020) [14] and Ristic et al. (2019) [10], to estimate the median values, we applied a truncated lognormal distribution. </t>
-  </si>
-  <si>
     <t>The energy mix considered in this study was based on the average portfolio in a given country or globally. Regional differences in energy mix within the same country (e.g., increased use of renewables in various parts of the United States) are not considered, potentially leading to overestimation of the environmental footprints in places where internet providers are increasing the share of renewable energies in their supply portfolios.</t>
   </si>
   <si>
@@ -1023,6 +1020,12 @@
   <si>
     <t>Aslan et al. [1]</t>
   </si>
+  <si>
+    <t xml:space="preserve">In the case of the water and land footprints for electricity use (columns G-I and P-R in the footprint tabs), only minimum and maximum values were available in the literature. Following Mahlooji et al. [14] and Ristic et al. [10], to estimate the median values, we applied a truncated lognormal distribution. </t>
+  </si>
+  <si>
+    <t>Environmental footprints are based on the values reported in the literature and have been previously used by scientific studies. Nonetheless, as explained by Ristic et al. [10] and Mahlooji et al. [14], these values are associated with uncertainties due to different assumptions in the calculations of footprints, variability in the methods of energy generation, and differences in energy production efficiency in different places around the world. So, as all large-scale footprint studies, these values can under-represent or over-represent footprint values in different countries.</t>
+  </si>
 </sst>
 </file>
 
@@ -1032,7 +1035,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1233,6 +1236,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1669,7 +1679,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="266">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1975,10 +1985,26 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1986,47 +2012,92 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2043,39 +2114,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2087,49 +2125,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2144,20 +2139,47 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2166,22 +2188,16 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2404,10 +2420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5907B-72D9-B048-A89C-5D157FFDEFDC}">
-  <dimension ref="A2:O46"/>
+  <dimension ref="A2:O47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
@@ -2421,38 +2437,38 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="B2" s="252" t="s">
+      <c r="B2" s="191" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+    </row>
+    <row r="3" spans="1:12" ht="28" customHeight="1">
+      <c r="A3" s="187"/>
+      <c r="B3" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="252"/>
-      <c r="D2" s="252"/>
-      <c r="E2" s="252"/>
-      <c r="F2" s="252"/>
-      <c r="G2" s="252"/>
-      <c r="H2" s="252"/>
-      <c r="I2" s="252"/>
-      <c r="J2" s="252"/>
-      <c r="K2" s="252"/>
-      <c r="L2" s="252"/>
-    </row>
-    <row r="3" spans="1:12" ht="28" customHeight="1">
-      <c r="A3" s="251"/>
-      <c r="B3" s="253" t="s">
-        <v>276</v>
-      </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="253"/>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253"/>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253"/>
-      <c r="L3" s="253"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="192"/>
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
     </row>
     <row r="4" spans="1:12">
-      <c r="A4" s="251"/>
+      <c r="A4" s="187"/>
     </row>
     <row r="5" spans="1:12" ht="18">
       <c r="B5" s="70" t="s">
@@ -2471,320 +2487,320 @@
         <v>94</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="191" t="s">
+      <c r="D9" s="196" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="191"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="191"/>
-      <c r="I9" s="191"/>
-      <c r="J9" s="191"/>
-      <c r="K9" s="191"/>
+      <c r="E9" s="196"/>
+      <c r="F9" s="196"/>
+      <c r="G9" s="196"/>
+      <c r="H9" s="196"/>
+      <c r="I9" s="196"/>
+      <c r="J9" s="196"/>
+      <c r="K9" s="196"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="188" t="s">
+      <c r="D10" s="194" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="194"/>
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="188" t="s">
+      <c r="D11" s="194" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="75"/>
-      <c r="D12" s="188" t="s">
+      <c r="D12" s="194" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="188"/>
-      <c r="F12" s="188"/>
-      <c r="G12" s="188"/>
-      <c r="H12" s="188"/>
-      <c r="I12" s="188"/>
-      <c r="J12" s="188"/>
-      <c r="K12" s="188"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="194"/>
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="188" t="s">
+      <c r="D13" s="194" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="188"/>
-      <c r="F13" s="188"/>
-      <c r="G13" s="188"/>
-      <c r="H13" s="188"/>
-      <c r="I13" s="188"/>
-      <c r="J13" s="188"/>
-      <c r="K13" s="188"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="194"/>
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="75"/>
-      <c r="D14" s="188" t="s">
+      <c r="D14" s="194" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="188"/>
-      <c r="F14" s="188"/>
-      <c r="G14" s="188"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="188"/>
-      <c r="J14" s="188"/>
-      <c r="K14" s="188"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="194"/>
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="75"/>
-      <c r="D15" s="188" t="s">
+      <c r="D15" s="194" t="s">
         <v>138</v>
       </c>
-      <c r="E15" s="188"/>
-      <c r="F15" s="188"/>
-      <c r="G15" s="188"/>
-      <c r="H15" s="188"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="188"/>
-      <c r="K15" s="188"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="75"/>
-      <c r="D16" s="188" t="s">
+      <c r="D16" s="194" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="194"/>
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="75"/>
-      <c r="D17" s="188" t="s">
+      <c r="D17" s="194" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="188"/>
-      <c r="F17" s="188"/>
-      <c r="G17" s="188"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="188"/>
-      <c r="J17" s="188"/>
-      <c r="K17" s="188"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="188" t="s">
+      <c r="D18" s="194" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="188"/>
-      <c r="F18" s="188"/>
-      <c r="G18" s="188"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="188"/>
-      <c r="J18" s="188"/>
-      <c r="K18" s="188"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="75"/>
-      <c r="D19" s="188" t="s">
+      <c r="D19" s="194" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="188"/>
-      <c r="F19" s="188"/>
-      <c r="G19" s="188"/>
-      <c r="H19" s="188"/>
-      <c r="I19" s="188"/>
-      <c r="J19" s="188"/>
-      <c r="K19" s="188"/>
+      <c r="E19" s="194"/>
+      <c r="F19" s="194"/>
+      <c r="G19" s="194"/>
+      <c r="H19" s="194"/>
+      <c r="I19" s="194"/>
+      <c r="J19" s="194"/>
+      <c r="K19" s="194"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="75"/>
-      <c r="D20" s="188" t="s">
+      <c r="D20" s="194" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="188"/>
-      <c r="F20" s="188"/>
-      <c r="G20" s="188"/>
-      <c r="H20" s="188"/>
-      <c r="I20" s="188"/>
-      <c r="J20" s="188"/>
-      <c r="K20" s="188"/>
+      <c r="E20" s="194"/>
+      <c r="F20" s="194"/>
+      <c r="G20" s="194"/>
+      <c r="H20" s="194"/>
+      <c r="I20" s="194"/>
+      <c r="J20" s="194"/>
+      <c r="K20" s="194"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="188" t="s">
+      <c r="D21" s="194" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="188"/>
-      <c r="F21" s="188"/>
-      <c r="G21" s="188"/>
-      <c r="H21" s="188"/>
-      <c r="I21" s="188"/>
-      <c r="J21" s="188"/>
-      <c r="K21" s="188"/>
+      <c r="E21" s="194"/>
+      <c r="F21" s="194"/>
+      <c r="G21" s="194"/>
+      <c r="H21" s="194"/>
+      <c r="I21" s="194"/>
+      <c r="J21" s="194"/>
+      <c r="K21" s="194"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="188" t="s">
+      <c r="D22" s="194" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="188"/>
-      <c r="K22" s="188"/>
+      <c r="E22" s="194"/>
+      <c r="F22" s="194"/>
+      <c r="G22" s="194"/>
+      <c r="H22" s="194"/>
+      <c r="I22" s="194"/>
+      <c r="J22" s="194"/>
+      <c r="K22" s="194"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="188" t="s">
+      <c r="D23" s="194" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="188"/>
-      <c r="F23" s="188"/>
-      <c r="G23" s="188"/>
-      <c r="H23" s="188"/>
-      <c r="I23" s="188"/>
-      <c r="J23" s="188"/>
-      <c r="K23" s="188"/>
+      <c r="E23" s="194"/>
+      <c r="F23" s="194"/>
+      <c r="G23" s="194"/>
+      <c r="H23" s="194"/>
+      <c r="I23" s="194"/>
+      <c r="J23" s="194"/>
+      <c r="K23" s="194"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="188" t="s">
+      <c r="D24" s="194" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="188"/>
-      <c r="F24" s="188"/>
-      <c r="G24" s="188"/>
-      <c r="H24" s="188"/>
-      <c r="I24" s="188"/>
-      <c r="J24" s="188"/>
-      <c r="K24" s="188"/>
+      <c r="E24" s="194"/>
+      <c r="F24" s="194"/>
+      <c r="G24" s="194"/>
+      <c r="H24" s="194"/>
+      <c r="I24" s="194"/>
+      <c r="J24" s="194"/>
+      <c r="K24" s="194"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="75"/>
-      <c r="D25" s="188" t="s">
+      <c r="D25" s="194" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="188"/>
-      <c r="F25" s="188"/>
-      <c r="G25" s="188"/>
-      <c r="H25" s="188"/>
-      <c r="I25" s="188"/>
-      <c r="J25" s="188"/>
-      <c r="K25" s="188"/>
+      <c r="E25" s="194"/>
+      <c r="F25" s="194"/>
+      <c r="G25" s="194"/>
+      <c r="H25" s="194"/>
+      <c r="I25" s="194"/>
+      <c r="J25" s="194"/>
+      <c r="K25" s="194"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="75"/>
-      <c r="D26" s="188" t="s">
+      <c r="D26" s="194" t="s">
         <v>179</v>
       </c>
-      <c r="E26" s="188"/>
-      <c r="F26" s="188"/>
-      <c r="G26" s="188"/>
-      <c r="H26" s="188"/>
-      <c r="I26" s="188"/>
-      <c r="J26" s="188"/>
-      <c r="K26" s="188"/>
+      <c r="E26" s="194"/>
+      <c r="F26" s="194"/>
+      <c r="G26" s="194"/>
+      <c r="H26" s="194"/>
+      <c r="I26" s="194"/>
+      <c r="J26" s="194"/>
+      <c r="K26" s="194"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="190" t="s">
+      <c r="D27" s="197" t="s">
         <v>133</v>
       </c>
-      <c r="E27" s="190"/>
-      <c r="F27" s="190"/>
-      <c r="G27" s="190"/>
-      <c r="H27" s="190"/>
-      <c r="I27" s="190"/>
-      <c r="J27" s="190"/>
-      <c r="K27" s="190"/>
+      <c r="E27" s="197"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
+      <c r="H27" s="197"/>
+      <c r="I27" s="197"/>
+      <c r="J27" s="197"/>
+      <c r="K27" s="197"/>
     </row>
     <row r="28" spans="2:11" ht="28" customHeight="1">
-      <c r="B28" s="192" t="s">
+      <c r="B28" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="C28" s="192"/>
-      <c r="D28" s="190" t="s">
+      <c r="C28" s="193"/>
+      <c r="D28" s="197" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="190"/>
-      <c r="F28" s="190"/>
-      <c r="G28" s="190"/>
-      <c r="H28" s="190"/>
-      <c r="I28" s="190"/>
-      <c r="J28" s="190"/>
-      <c r="K28" s="190"/>
+      <c r="E28" s="197"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
+      <c r="H28" s="197"/>
+      <c r="I28" s="197"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
     </row>
     <row r="31" spans="2:11" ht="18">
       <c r="B31" s="70" t="s">
@@ -2794,60 +2810,60 @@
     </row>
     <row r="32" spans="2:11" ht="7" customHeight="1"/>
     <row r="33" spans="2:15">
-      <c r="B33" s="188" t="s">
+      <c r="B33" s="194" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="188"/>
-      <c r="D33" s="188"/>
-      <c r="E33" s="188"/>
-      <c r="F33" s="188"/>
-      <c r="G33" s="188"/>
-      <c r="H33" s="188"/>
-      <c r="I33" s="188"/>
-      <c r="J33" s="188"/>
-      <c r="K33" s="188"/>
+      <c r="C33" s="194"/>
+      <c r="D33" s="194"/>
+      <c r="E33" s="194"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="194"/>
+      <c r="H33" s="194"/>
+      <c r="I33" s="194"/>
+      <c r="J33" s="194"/>
+      <c r="K33" s="194"/>
     </row>
     <row r="34" spans="2:15" ht="28" customHeight="1">
-      <c r="B34" s="189" t="s">
+      <c r="B34" s="195" t="s">
         <v>182</v>
       </c>
-      <c r="C34" s="189"/>
-      <c r="D34" s="189"/>
-      <c r="E34" s="189"/>
-      <c r="F34" s="189"/>
-      <c r="G34" s="189"/>
-      <c r="H34" s="189"/>
-      <c r="I34" s="189"/>
-      <c r="J34" s="189"/>
-      <c r="K34" s="189"/>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
     </row>
     <row r="35" spans="2:15">
-      <c r="B35" s="188" t="s">
+      <c r="B35" s="194" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="188"/>
-      <c r="D35" s="188"/>
-      <c r="E35" s="188"/>
-      <c r="F35" s="188"/>
-      <c r="G35" s="188"/>
-      <c r="H35" s="188"/>
-      <c r="I35" s="188"/>
-      <c r="J35" s="188"/>
-      <c r="K35" s="188"/>
+      <c r="C35" s="194"/>
+      <c r="D35" s="194"/>
+      <c r="E35" s="194"/>
+      <c r="F35" s="194"/>
+      <c r="G35" s="194"/>
+      <c r="H35" s="194"/>
+      <c r="I35" s="194"/>
+      <c r="J35" s="194"/>
+      <c r="K35" s="194"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="188" t="s">
+      <c r="B36" s="194" t="s">
         <v>185</v>
       </c>
-      <c r="C36" s="188"/>
-      <c r="D36" s="188"/>
-      <c r="E36" s="188"/>
-      <c r="F36" s="188"/>
-      <c r="G36" s="188"/>
-      <c r="H36" s="188"/>
-      <c r="I36" s="188"/>
-      <c r="J36" s="188"/>
-      <c r="K36" s="188"/>
+      <c r="C36" s="194"/>
+      <c r="D36" s="194"/>
+      <c r="E36" s="194"/>
+      <c r="F36" s="194"/>
+      <c r="G36" s="194"/>
+      <c r="H36" s="194"/>
+      <c r="I36" s="194"/>
+      <c r="J36" s="194"/>
+      <c r="K36" s="194"/>
     </row>
     <row r="39" spans="2:15" ht="18">
       <c r="B39" s="70" t="s">
@@ -2860,116 +2876,142 @@
       <c r="C40" s="70"/>
     </row>
     <row r="41" spans="2:15" ht="15" customHeight="1">
-      <c r="B41" s="186" t="s">
+      <c r="B41" s="189" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="186"/>
-      <c r="D41" s="186"/>
-      <c r="E41" s="186"/>
-      <c r="F41" s="186"/>
-      <c r="G41" s="186"/>
-      <c r="H41" s="186"/>
-      <c r="I41" s="186"/>
-      <c r="J41" s="186"/>
-      <c r="K41" s="186"/>
+      <c r="C41" s="189"/>
+      <c r="D41" s="189"/>
+      <c r="E41" s="189"/>
+      <c r="F41" s="189"/>
+      <c r="G41" s="189"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="189"/>
+      <c r="J41" s="189"/>
+      <c r="K41" s="189"/>
       <c r="L41" s="80"/>
       <c r="M41" s="80"/>
       <c r="N41" s="80"/>
       <c r="O41" s="80"/>
     </row>
     <row r="42" spans="2:15" ht="28" customHeight="1">
-      <c r="B42" s="187" t="s">
+      <c r="B42" s="190" t="s">
         <v>130</v>
       </c>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
-      <c r="I42" s="187"/>
-      <c r="J42" s="187"/>
-      <c r="K42" s="187"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="190"/>
+      <c r="I42" s="190"/>
+      <c r="J42" s="190"/>
+      <c r="K42" s="190"/>
       <c r="L42" s="78"/>
       <c r="M42" s="78"/>
       <c r="N42" s="78"/>
       <c r="O42" s="78"/>
     </row>
     <row r="43" spans="2:15" ht="39" customHeight="1">
-      <c r="B43" s="187" t="s">
-        <v>187</v>
-      </c>
-      <c r="C43" s="187"/>
-      <c r="D43" s="187"/>
-      <c r="E43" s="187"/>
-      <c r="F43" s="187"/>
-      <c r="G43" s="187"/>
-      <c r="H43" s="187"/>
-      <c r="I43" s="187"/>
-      <c r="J43" s="187"/>
-      <c r="K43" s="187"/>
+      <c r="B43" s="209" t="s">
+        <v>281</v>
+      </c>
+      <c r="C43" s="190"/>
+      <c r="D43" s="190"/>
+      <c r="E43" s="190"/>
+      <c r="F43" s="190"/>
+      <c r="G43" s="190"/>
+      <c r="H43" s="190"/>
+      <c r="I43" s="190"/>
+      <c r="J43" s="190"/>
+      <c r="K43" s="190"/>
       <c r="L43" s="79"/>
       <c r="M43" s="79"/>
       <c r="N43" s="79"/>
       <c r="O43" s="79"/>
     </row>
     <row r="44" spans="2:15" ht="56" customHeight="1">
-      <c r="B44" s="187" t="s">
-        <v>188</v>
-      </c>
-      <c r="C44" s="187"/>
-      <c r="D44" s="187"/>
-      <c r="E44" s="187"/>
-      <c r="F44" s="187"/>
-      <c r="G44" s="187"/>
-      <c r="H44" s="187"/>
-      <c r="I44" s="187"/>
-      <c r="J44" s="187"/>
-      <c r="K44" s="187"/>
+      <c r="B44" s="190" t="s">
+        <v>187</v>
+      </c>
+      <c r="C44" s="190"/>
+      <c r="D44" s="190"/>
+      <c r="E44" s="190"/>
+      <c r="F44" s="190"/>
+      <c r="G44" s="190"/>
+      <c r="H44" s="190"/>
+      <c r="I44" s="190"/>
+      <c r="J44" s="190"/>
+      <c r="K44" s="190"/>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
     </row>
     <row r="45" spans="2:15" ht="47" customHeight="1">
-      <c r="B45" s="187" t="s">
-        <v>189</v>
-      </c>
-      <c r="C45" s="187"/>
-      <c r="D45" s="187"/>
-      <c r="E45" s="187"/>
-      <c r="F45" s="187"/>
-      <c r="G45" s="187"/>
-      <c r="H45" s="187"/>
-      <c r="I45" s="187"/>
-      <c r="J45" s="187"/>
-      <c r="K45" s="187"/>
+      <c r="B45" s="190" t="s">
+        <v>188</v>
+      </c>
+      <c r="C45" s="190"/>
+      <c r="D45" s="190"/>
+      <c r="E45" s="190"/>
+      <c r="F45" s="190"/>
+      <c r="G45" s="190"/>
+      <c r="H45" s="190"/>
+      <c r="I45" s="190"/>
+      <c r="J45" s="190"/>
+      <c r="K45" s="190"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
     </row>
-    <row r="46" spans="2:15" ht="30" customHeight="1">
-      <c r="B46" s="187" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="187"/>
-      <c r="D46" s="187"/>
-      <c r="E46" s="187"/>
-      <c r="F46" s="187"/>
-      <c r="G46" s="187"/>
-      <c r="H46" s="187"/>
-      <c r="I46" s="187"/>
-      <c r="J46" s="187"/>
-      <c r="K46" s="187"/>
+    <row r="46" spans="2:15" ht="73" customHeight="1">
+      <c r="B46" s="265" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="265"/>
+      <c r="D46" s="265"/>
+      <c r="E46" s="265"/>
+      <c r="F46" s="265"/>
+      <c r="G46" s="265"/>
+      <c r="H46" s="265"/>
+      <c r="I46" s="265"/>
+      <c r="J46" s="265"/>
+      <c r="K46" s="265"/>
+      <c r="L46" s="186"/>
+      <c r="M46" s="186"/>
+      <c r="N46" s="186"/>
+      <c r="O46" s="186"/>
+    </row>
+    <row r="47" spans="2:15" ht="30" customHeight="1">
+      <c r="B47" s="190" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="190"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190"/>
+      <c r="G47" s="190"/>
+      <c r="H47" s="190"/>
+      <c r="I47" s="190"/>
+      <c r="J47" s="190"/>
+      <c r="K47" s="190"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B45:K45"/>
+  <mergeCells count="34">
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="D28:K28"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B28:C28"/>
@@ -2986,18 +3028,11 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B45:K45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3064,87 +3099,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -5299,12 +5334,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -5313,13 +5348,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5336,13 +5371,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -5359,13 +5394,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5382,13 +5417,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5574,6 +5609,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -5587,15 +5631,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5662,87 +5697,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -7849,12 +7884,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -7863,13 +7898,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -7886,13 +7921,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -7909,13 +7944,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -7932,13 +7967,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -8108,6 +8143,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -8121,15 +8165,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8196,87 +8231,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -10430,12 +10465,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="H17" s="61"/>
@@ -10454,13 +10489,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -10477,13 +10512,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -10500,13 +10535,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -10523,13 +10558,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -10699,6 +10734,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -10712,15 +10756,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10787,87 +10822,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>170</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -13023,24 +13058,24 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="194" t="s">
+      <c r="C17" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -13057,13 +13092,13 @@
       <c r="B18" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="190" t="s">
         <v>171</v>
       </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -13080,13 +13115,13 @@
       <c r="B19" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
+      <c r="C19" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -13103,13 +13138,13 @@
       <c r="B20" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
+      <c r="C20" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -13279,6 +13314,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -13292,15 +13336,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13367,87 +13402,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -15602,12 +15637,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -15616,13 +15651,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -15639,13 +15674,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -15662,13 +15697,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -15685,13 +15720,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -15877,6 +15912,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -15890,15 +15934,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15972,80 +16007,80 @@
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -18151,12 +18186,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -18165,13 +18200,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -18188,13 +18223,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -18211,13 +18246,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -18234,13 +18269,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18410,11 +18445,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -18431,6 +18461,11 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18497,87 +18532,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -20732,13 +20767,13 @@
       <c r="B17" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C17" s="194" t="s">
+      <c r="C17" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="194"/>
-      <c r="E17" s="194"/>
-      <c r="F17" s="194"/>
-      <c r="G17" s="194"/>
+      <c r="D17" s="210"/>
+      <c r="E17" s="210"/>
+      <c r="F17" s="210"/>
+      <c r="G17" s="210"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -20755,13 +20790,13 @@
       <c r="B18" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C18" s="187" t="s">
+      <c r="C18" s="190" t="s">
         <v>174</v>
       </c>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -20778,13 +20813,13 @@
       <c r="B19" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C19" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D19" s="186"/>
-      <c r="E19" s="186"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
+      <c r="C19" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D19" s="189"/>
+      <c r="E19" s="189"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -20801,13 +20836,13 @@
       <c r="B20" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C20" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
+      <c r="C20" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -20961,6 +20996,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -20973,14 +21016,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21047,87 +21082,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="13">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>176</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -23281,72 +23316,69 @@
     <row r="16" spans="1:47" ht="13">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1"/>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
     </row>
     <row r="21" spans="2:7" ht="28">
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -23356,11 +23388,14 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23401,49 +23436,49 @@
   <sheetData>
     <row r="2" spans="2:19" ht="16" customHeight="1">
       <c r="F2" s="69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14" thickBot="1"/>
     <row r="4" spans="2:19" ht="15.75" customHeight="1">
-      <c r="F4" s="229" t="s">
+      <c r="F4" s="215" t="s">
         <v>177</v>
       </c>
-      <c r="G4" s="230"/>
-      <c r="H4" s="230"/>
-      <c r="I4" s="230"/>
-      <c r="J4" s="230"/>
-      <c r="K4" s="230"/>
-      <c r="L4" s="230"/>
-      <c r="M4" s="230"/>
-      <c r="N4" s="231"/>
-      <c r="P4" s="206" t="s">
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216"/>
+      <c r="N4" s="217"/>
+      <c r="P4" s="227" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="207"/>
+      <c r="Q4" s="228"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B5" s="212" t="s">
+      <c r="B5" s="213" t="s">
         <v>150</v>
       </c>
-      <c r="C5" s="212"/>
+      <c r="C5" s="213"/>
       <c r="D5" s="214"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="228" t="s">
+      <c r="F5" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="226"/>
-      <c r="H5" s="226"/>
-      <c r="I5" s="222" t="s">
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="223"/>
-      <c r="K5" s="224"/>
-      <c r="L5" s="225" t="s">
+      <c r="J5" s="233"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="226"/>
-      <c r="N5" s="227"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="237"/>
       <c r="P5" s="103" t="s">
         <v>69</v>
       </c>
@@ -23972,8 +24007,8 @@
         <f>'Global Footprints'!AU13*$Q$7*$Q$5</f>
         <v>3072094861.660079</v>
       </c>
-      <c r="Q16" s="193"/>
-      <c r="R16" s="193"/>
+      <c r="Q16" s="207"/>
+      <c r="R16" s="207"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" customHeight="1">
@@ -24088,42 +24123,42 @@
       <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F20" s="229" t="s">
+      <c r="F20" s="215" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="230"/>
-      <c r="H20" s="230"/>
-      <c r="I20" s="230"/>
-      <c r="J20" s="230"/>
-      <c r="K20" s="230"/>
-      <c r="L20" s="230"/>
-      <c r="M20" s="230"/>
-      <c r="N20" s="231"/>
+      <c r="G20" s="216"/>
+      <c r="H20" s="216"/>
+      <c r="I20" s="216"/>
+      <c r="J20" s="216"/>
+      <c r="K20" s="216"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="216"/>
+      <c r="N20" s="217"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B21" s="212" t="s">
+      <c r="B21" s="213" t="s">
         <v>150</v>
       </c>
-      <c r="C21" s="212"/>
+      <c r="C21" s="213"/>
       <c r="D21" s="214"/>
-      <c r="F21" s="228" t="s">
+      <c r="F21" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="226"/>
-      <c r="H21" s="226"/>
-      <c r="I21" s="222" t="s">
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="223"/>
-      <c r="K21" s="224"/>
-      <c r="L21" s="225" t="s">
+      <c r="J21" s="233"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="226"/>
-      <c r="N21" s="227"/>
+      <c r="M21" s="236"/>
+      <c r="N21" s="237"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
@@ -24824,17 +24859,17 @@
       <c r="W35" s="60"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F36" s="208" t="s">
-        <v>191</v>
-      </c>
-      <c r="G36" s="209"/>
-      <c r="H36" s="209"/>
-      <c r="I36" s="209"/>
-      <c r="J36" s="209"/>
-      <c r="K36" s="209"/>
-      <c r="L36" s="209"/>
-      <c r="M36" s="209"/>
-      <c r="N36" s="210"/>
+      <c r="F36" s="229" t="s">
+        <v>190</v>
+      </c>
+      <c r="G36" s="230"/>
+      <c r="H36" s="230"/>
+      <c r="I36" s="230"/>
+      <c r="J36" s="230"/>
+      <c r="K36" s="230"/>
+      <c r="L36" s="230"/>
+      <c r="M36" s="230"/>
+      <c r="N36" s="231"/>
       <c r="O36" s="64"/>
       <c r="R36" s="64"/>
       <c r="T36" s="5"/>
@@ -24843,20 +24878,20 @@
       <c r="W36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F37" s="211" t="s">
-        <v>192</v>
-      </c>
-      <c r="G37" s="212"/>
-      <c r="H37" s="212"/>
-      <c r="I37" s="213" t="s">
+      <c r="F37" s="224" t="s">
+        <v>191</v>
+      </c>
+      <c r="G37" s="213"/>
+      <c r="H37" s="213"/>
+      <c r="I37" s="218" t="s">
+        <v>194</v>
+      </c>
+      <c r="J37" s="213"/>
+      <c r="K37" s="213"/>
+      <c r="L37" s="218" t="s">
         <v>195</v>
       </c>
-      <c r="J37" s="212"/>
-      <c r="K37" s="212"/>
-      <c r="L37" s="213" t="s">
-        <v>196</v>
-      </c>
-      <c r="M37" s="212"/>
+      <c r="M37" s="213"/>
       <c r="N37" s="214"/>
       <c r="O37" s="64"/>
       <c r="R37" s="64"/>
@@ -24867,28 +24902,28 @@
     </row>
     <row r="38" spans="2:23" ht="15.75" customHeight="1">
       <c r="F38" s="108" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="73" t="s">
         <v>193</v>
-      </c>
-      <c r="G38" s="73" t="s">
-        <v>194</v>
       </c>
       <c r="H38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="I38" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="J38" s="73" t="s">
         <v>193</v>
-      </c>
-      <c r="J38" s="73" t="s">
-        <v>194</v>
       </c>
       <c r="K38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="L38" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="M38" s="73" t="s">
         <v>193</v>
-      </c>
-      <c r="M38" s="73" t="s">
-        <v>194</v>
       </c>
       <c r="N38" s="109" t="s">
         <v>92</v>
@@ -24962,17 +24997,17 @@
       <c r="W41" s="60"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F42" s="208" t="s">
-        <v>197</v>
-      </c>
-      <c r="G42" s="209"/>
-      <c r="H42" s="209"/>
-      <c r="I42" s="209"/>
-      <c r="J42" s="209"/>
-      <c r="K42" s="209"/>
-      <c r="L42" s="209"/>
-      <c r="M42" s="209"/>
-      <c r="N42" s="210"/>
+      <c r="F42" s="229" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="230"/>
+      <c r="H42" s="230"/>
+      <c r="I42" s="230"/>
+      <c r="J42" s="230"/>
+      <c r="K42" s="230"/>
+      <c r="L42" s="230"/>
+      <c r="M42" s="230"/>
+      <c r="N42" s="231"/>
       <c r="O42" s="64"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="64"/>
@@ -24982,20 +25017,20 @@
       <c r="W42" s="60"/>
     </row>
     <row r="43" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F43" s="211" t="s">
-        <v>199</v>
-      </c>
-      <c r="G43" s="212"/>
-      <c r="H43" s="212"/>
-      <c r="I43" s="213" t="s">
-        <v>203</v>
-      </c>
-      <c r="J43" s="212"/>
-      <c r="K43" s="212"/>
-      <c r="L43" s="213" t="s">
-        <v>210</v>
-      </c>
-      <c r="M43" s="212"/>
+      <c r="F43" s="224" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="213"/>
+      <c r="H43" s="213"/>
+      <c r="I43" s="218" t="s">
+        <v>202</v>
+      </c>
+      <c r="J43" s="213"/>
+      <c r="K43" s="213"/>
+      <c r="L43" s="218" t="s">
+        <v>209</v>
+      </c>
+      <c r="M43" s="213"/>
       <c r="N43" s="214"/>
       <c r="O43" s="64"/>
       <c r="Q43" s="5"/>
@@ -25006,24 +25041,24 @@
       <c r="W43" s="60"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F44" s="217" t="s">
-        <v>200</v>
-      </c>
-      <c r="G44" s="218"/>
+      <c r="F44" s="225" t="s">
+        <v>199</v>
+      </c>
+      <c r="G44" s="226"/>
       <c r="H44" s="116">
         <f>G39*1000000</f>
         <v>34271985878260.867</v>
       </c>
       <c r="I44" s="219" t="s">
-        <v>206</v>
-      </c>
-      <c r="J44" s="216"/>
+        <v>205</v>
+      </c>
+      <c r="J44" s="220"/>
       <c r="K44" s="117">
         <f>J39/1056</f>
         <v>751141372.67813277</v>
       </c>
       <c r="L44" s="119" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M44" s="117">
         <f>M39*1000000000</f>
@@ -25039,24 +25074,24 @@
       <c r="W44" s="60"/>
     </row>
     <row r="45" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F45" s="217" t="s">
-        <v>201</v>
-      </c>
-      <c r="G45" s="218"/>
+      <c r="F45" s="225" t="s">
+        <v>200</v>
+      </c>
+      <c r="G45" s="226"/>
       <c r="H45" s="116">
         <f>G39*1000</f>
         <v>34271985878.260864</v>
       </c>
       <c r="I45" s="219" t="s">
-        <v>207</v>
-      </c>
-      <c r="J45" s="216"/>
+        <v>206</v>
+      </c>
+      <c r="J45" s="220"/>
       <c r="K45" s="117">
         <f>J39/833</f>
         <v>952227238.35307097</v>
       </c>
       <c r="L45" s="119" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="M45" s="117">
         <f>M39*1000000</f>
@@ -25072,24 +25107,24 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="F46" s="217" t="s">
-        <v>202</v>
-      </c>
-      <c r="G46" s="218"/>
+      <c r="F46" s="225" t="s">
+        <v>201</v>
+      </c>
+      <c r="G46" s="226"/>
       <c r="H46" s="116">
         <f>G39</f>
         <v>34271985.878260866</v>
       </c>
       <c r="I46" s="219" t="s">
-        <v>273</v>
-      </c>
-      <c r="J46" s="216"/>
+        <v>272</v>
+      </c>
+      <c r="J46" s="220"/>
       <c r="K46" s="117">
         <f>J39/287</f>
         <v>2763781496.6833038</v>
       </c>
       <c r="L46" s="119" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M46" s="117">
         <f>M39</f>
@@ -25104,24 +25139,24 @@
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F47" s="215" t="s">
+      <c r="F47" s="221" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="216"/>
+      <c r="G47" s="220"/>
       <c r="H47" s="123">
         <f>1/(0.000403)*G39</f>
         <v>85042148581.292465</v>
       </c>
       <c r="I47" s="219" t="s">
-        <v>205</v>
-      </c>
-      <c r="J47" s="216"/>
+        <v>204</v>
+      </c>
+      <c r="J47" s="220"/>
       <c r="K47" s="117">
         <f>J39/200</f>
         <v>3966026447.740541</v>
       </c>
       <c r="L47" s="119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M47" s="117">
         <f>M39*0.386102</f>
@@ -25136,24 +25171,24 @@
       <c r="V47" s="64"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F48" s="215" t="s">
+      <c r="F48" s="221" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="216"/>
+      <c r="G48" s="220"/>
       <c r="H48" s="123">
         <f>H44/8887</f>
         <v>3856417900.1081204</v>
       </c>
       <c r="I48" s="219" t="s">
-        <v>208</v>
-      </c>
-      <c r="J48" s="216"/>
+        <v>207</v>
+      </c>
+      <c r="J48" s="220"/>
       <c r="K48" s="117">
         <f>J39/533</f>
         <v>1488190036.6756251</v>
       </c>
       <c r="L48" s="119" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="M48" s="117">
         <f>M39*247.105</f>
@@ -25168,24 +25203,24 @@
       <c r="V48" s="64"/>
     </row>
     <row r="49" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F49" s="215" t="s">
+      <c r="F49" s="221" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="216"/>
+      <c r="G49" s="220"/>
       <c r="H49" s="123">
         <f>(1/8.67)*H46</f>
         <v>3952939.5476656132</v>
       </c>
       <c r="I49" s="219" t="s">
-        <v>209</v>
-      </c>
-      <c r="J49" s="216"/>
+        <v>208</v>
+      </c>
+      <c r="J49" s="220"/>
       <c r="K49" s="117">
         <f>J39/296</f>
         <v>2679747599.8246899</v>
       </c>
       <c r="L49" s="119" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M49" s="117">
         <f>M45/5350</f>
@@ -25200,18 +25235,18 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F50" s="215" t="s">
+      <c r="F50" s="221" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="216"/>
+      <c r="G50" s="220"/>
       <c r="H50" s="123">
         <f>(1/0.43)*(H46)</f>
         <v>79702292.740141556</v>
       </c>
       <c r="I50" s="219" t="s">
-        <v>204</v>
-      </c>
-      <c r="J50" s="216"/>
+        <v>203</v>
+      </c>
+      <c r="J50" s="220"/>
       <c r="K50" s="117">
         <f>J39/15415</f>
         <v>51456716.804937281</v>
@@ -25227,18 +25262,18 @@
       <c r="V50" s="64"/>
     </row>
     <row r="51" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F51" s="215" t="s">
+      <c r="F51" s="221" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="216"/>
+      <c r="G51" s="220"/>
       <c r="H51" s="123">
         <f>(1/75.54)*H46</f>
         <v>453693.22052238369</v>
       </c>
-      <c r="I51" s="216" t="s">
+      <c r="I51" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="216"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="117">
         <f>J39/2500000</f>
         <v>317282.11581924325</v>
@@ -25254,18 +25289,18 @@
       <c r="V51" s="64"/>
     </row>
     <row r="52" spans="6:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F52" s="220" t="s">
+      <c r="F52" s="222" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="221"/>
+      <c r="G52" s="223"/>
       <c r="H52" s="124">
         <f>1/(0.06)*H46</f>
         <v>571199764.63768113</v>
       </c>
-      <c r="I52" s="221" t="s">
+      <c r="I52" s="223" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="221"/>
+      <c r="J52" s="223"/>
       <c r="K52" s="120">
         <f>J39/(1000*100000)</f>
         <v>7932.0528954810816</v>
@@ -25314,11 +25349,22 @@
     <row r="77" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F36:N36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="L43:N43"/>
     <mergeCell ref="F51:G51"/>
@@ -25335,22 +25381,11 @@
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="I43:K43"/>
     <mergeCell ref="F21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25427,149 +25462,149 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="125"/>
-      <c r="B3" s="246" t="s">
-        <v>217</v>
-      </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="247"/>
-      <c r="G3" s="247"/>
-      <c r="H3" s="247"/>
-      <c r="I3" s="247"/>
-      <c r="J3" s="248"/>
+      <c r="B3" s="239" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
+      <c r="H3" s="240"/>
+      <c r="I3" s="240"/>
+      <c r="J3" s="241"/>
       <c r="K3" s="125"/>
-      <c r="L3" s="232" t="s">
-        <v>246</v>
-      </c>
-      <c r="M3" s="233"/>
-      <c r="N3" s="233"/>
-      <c r="O3" s="233"/>
-      <c r="P3" s="233"/>
-      <c r="Q3" s="233"/>
-      <c r="R3" s="234"/>
+      <c r="L3" s="245" t="s">
+        <v>245</v>
+      </c>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="247"/>
       <c r="S3" s="163"/>
-      <c r="T3" s="241" t="s">
-        <v>259</v>
-      </c>
-      <c r="U3" s="242"/>
-      <c r="V3" s="242"/>
-      <c r="W3" s="242"/>
-      <c r="X3" s="242"/>
-      <c r="Y3" s="243"/>
+      <c r="T3" s="254" t="s">
+        <v>258</v>
+      </c>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="256"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="125"/>
-      <c r="B4" s="250" t="s">
+      <c r="B4" s="244" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="245" t="s">
+      <c r="C4" s="243" t="s">
+        <v>217</v>
+      </c>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243" t="s">
         <v>218</v>
       </c>
-      <c r="D4" s="245"/>
-      <c r="E4" s="245" t="s">
+      <c r="F4" s="243"/>
+      <c r="G4" s="243" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="245"/>
-      <c r="G4" s="245" t="s">
+      <c r="H4" s="243"/>
+      <c r="I4" s="218" t="s">
         <v>220</v>
-      </c>
-      <c r="H4" s="245"/>
-      <c r="I4" s="213" t="s">
-        <v>221</v>
       </c>
       <c r="J4" s="214"/>
       <c r="K4" s="125"/>
-      <c r="L4" s="235" t="s">
+      <c r="L4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="245" t="s">
+      <c r="M4" s="243" t="s">
+        <v>246</v>
+      </c>
+      <c r="N4" s="243"/>
+      <c r="O4" s="243" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="245"/>
-      <c r="O4" s="245" t="s">
+      <c r="P4" s="243"/>
+      <c r="Q4" s="218" t="s">
         <v>248</v>
       </c>
-      <c r="P4" s="245"/>
-      <c r="Q4" s="213" t="s">
-        <v>249</v>
-      </c>
-      <c r="R4" s="244"/>
+      <c r="R4" s="251"/>
       <c r="S4" s="126"/>
       <c r="T4" s="158" t="s">
+        <v>250</v>
+      </c>
+      <c r="U4" s="249" t="s">
         <v>251</v>
       </c>
-      <c r="U4" s="237" t="s">
-        <v>252</v>
-      </c>
-      <c r="V4" s="237"/>
-      <c r="W4" s="237"/>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="238"/>
+      <c r="V4" s="249"/>
+      <c r="W4" s="249"/>
+      <c r="X4" s="249"/>
+      <c r="Y4" s="250"/>
     </row>
     <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="125"/>
-      <c r="B5" s="250"/>
+      <c r="B5" s="244"/>
       <c r="C5" s="126" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="126" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J5" s="109" t="s">
         <v>92</v>
       </c>
       <c r="K5" s="125"/>
-      <c r="L5" s="235"/>
+      <c r="L5" s="248"/>
       <c r="M5" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N5" s="163" t="s">
         <v>92</v>
       </c>
       <c r="O5" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P5" s="163" t="s">
         <v>92</v>
       </c>
       <c r="Q5" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R5" s="167" t="s">
         <v>92</v>
       </c>
       <c r="S5" s="163"/>
       <c r="T5" s="159" t="s">
+        <v>252</v>
+      </c>
+      <c r="U5" s="249" t="s">
         <v>253</v>
       </c>
-      <c r="U5" s="237" t="s">
-        <v>254</v>
-      </c>
-      <c r="V5" s="237"/>
-      <c r="W5" s="237"/>
-      <c r="X5" s="237"/>
-      <c r="Y5" s="238"/>
+      <c r="V5" s="249"/>
+      <c r="W5" s="249"/>
+      <c r="X5" s="249"/>
+      <c r="Y5" s="250"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="125"/>
       <c r="B6" s="136" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C6" s="128">
         <v>1</v>
@@ -25633,18 +25668,18 @@
       <c r="T6" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="237" t="s">
-        <v>255</v>
-      </c>
-      <c r="V6" s="237"/>
-      <c r="W6" s="237"/>
-      <c r="X6" s="237"/>
-      <c r="Y6" s="238"/>
+      <c r="U6" s="249" t="s">
+        <v>254</v>
+      </c>
+      <c r="V6" s="249"/>
+      <c r="W6" s="249"/>
+      <c r="X6" s="249"/>
+      <c r="Y6" s="250"/>
     </row>
     <row r="7" spans="1:25" ht="14">
       <c r="A7" s="125"/>
       <c r="B7" s="140" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C7" s="129">
         <v>1.35</v>
@@ -25708,18 +25743,18 @@
       <c r="T7" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="237" t="s">
-        <v>256</v>
-      </c>
-      <c r="V7" s="237"/>
-      <c r="W7" s="237"/>
-      <c r="X7" s="237"/>
-      <c r="Y7" s="238"/>
+      <c r="U7" s="249" t="s">
+        <v>255</v>
+      </c>
+      <c r="V7" s="249"/>
+      <c r="W7" s="249"/>
+      <c r="X7" s="249"/>
+      <c r="Y7" s="250"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="125"/>
       <c r="B8" s="140" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="129">
         <v>0.9</v>
@@ -25781,20 +25816,20 @@
       </c>
       <c r="S8" s="164"/>
       <c r="T8" s="162" t="s">
+        <v>256</v>
+      </c>
+      <c r="U8" s="252" t="s">
         <v>257</v>
       </c>
-      <c r="U8" s="239" t="s">
-        <v>258</v>
-      </c>
-      <c r="V8" s="239"/>
-      <c r="W8" s="239"/>
-      <c r="X8" s="239"/>
-      <c r="Y8" s="240"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="252"/>
+      <c r="X8" s="252"/>
+      <c r="Y8" s="253"/>
     </row>
     <row r="9" spans="1:25" ht="14">
       <c r="A9" s="125"/>
       <c r="B9" s="140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C9" s="129">
         <v>0.22500000000000001</v>
@@ -25859,7 +25894,7 @@
     <row r="10" spans="1:25" ht="14">
       <c r="A10" s="125"/>
       <c r="B10" s="140" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C10" s="129" t="s">
         <v>9</v>
@@ -25888,7 +25923,7 @@
       </c>
       <c r="K10" s="125"/>
       <c r="L10" s="158" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M10" s="178" t="s">
         <v>9</v>
@@ -25916,7 +25951,7 @@
     <row r="11" spans="1:25" ht="16">
       <c r="A11" s="125"/>
       <c r="B11" s="140" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C11" s="129">
         <v>0.1</v>
@@ -25986,7 +26021,7 @@
     <row r="12" spans="1:25" ht="16" customHeight="1">
       <c r="A12" s="125"/>
       <c r="B12" s="140" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="129">
         <v>0.54</v>
@@ -26020,7 +26055,7 @@
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="M12" s="170">
         <f t="shared" ref="M12:M15" si="8">E12*15*4</f>
@@ -26056,7 +26091,7 @@
     <row r="13" spans="1:25" ht="16">
       <c r="A13" s="125"/>
       <c r="B13" s="140" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="129">
         <v>0.45</v>
@@ -26090,7 +26125,7 @@
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="153" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="M13" s="170">
         <f t="shared" si="8"/>
@@ -26126,7 +26161,7 @@
     <row r="14" spans="1:25" ht="17">
       <c r="A14" s="125"/>
       <c r="B14" s="140" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C14" s="129" t="s">
         <v>9</v>
@@ -26157,7 +26192,7 @@
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="153" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="M14" s="178" t="s">
         <v>9</v>
@@ -26190,7 +26225,7 @@
     <row r="15" spans="1:25" ht="20" customHeight="1">
       <c r="A15" s="125"/>
       <c r="B15" s="140" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C15" s="129">
         <v>0.27</v>
@@ -26224,7 +26259,7 @@
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="153" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M15" s="170">
         <f t="shared" si="8"/>
@@ -26260,7 +26295,7 @@
     <row r="16" spans="1:25" ht="17">
       <c r="A16" s="125"/>
       <c r="B16" s="140" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C16" s="129" t="s">
         <v>9</v>
@@ -26291,7 +26326,7 @@
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="153" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="M16" s="178" t="s">
         <v>9</v>
@@ -26324,7 +26359,7 @@
     <row r="17" spans="1:27" ht="16">
       <c r="A17" s="125"/>
       <c r="B17" s="140" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C17" s="129">
         <v>0.09</v>
@@ -26394,7 +26429,7 @@
     <row r="18" spans="1:27" ht="17">
       <c r="A18" s="125"/>
       <c r="B18" s="140" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C18" s="129" t="s">
         <v>9</v>
@@ -26425,7 +26460,7 @@
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="154" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M18" s="172" t="s">
         <v>9</v>
@@ -26458,7 +26493,7 @@
     <row r="19" spans="1:27" ht="18" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="140" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C19" s="129" t="s">
         <v>9</v>
@@ -26489,7 +26524,7 @@
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="154" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="M19" s="172" t="s">
         <v>9</v>
@@ -26522,7 +26557,7 @@
     <row r="20" spans="1:27" ht="17">
       <c r="A20" s="125"/>
       <c r="B20" s="140" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C20" s="129" t="s">
         <v>9</v>
@@ -26552,7 +26587,7 @@
         <v>1.7709769696969699</v>
       </c>
       <c r="L20" s="154" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="M20" s="172" t="s">
         <v>9</v>
@@ -26585,7 +26620,7 @@
     <row r="21" spans="1:27" ht="16">
       <c r="A21" s="125"/>
       <c r="B21" s="140" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C21" s="129">
         <v>0.48</v>
@@ -26618,7 +26653,7 @@
         <v>15.496048484848485</v>
       </c>
       <c r="L21" s="154" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M21" s="170">
         <f>E21*2*30</f>
@@ -26654,7 +26689,7 @@
     <row r="22" spans="1:27" ht="16">
       <c r="A22" s="125"/>
       <c r="B22" s="140" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C22" s="130">
         <v>8.0000000000000002E-3</v>
@@ -26687,7 +26722,7 @@
         <v>4.4274424242424244</v>
       </c>
       <c r="L22" s="155" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="M22" s="170">
         <f>E22*1*30</f>
@@ -26723,7 +26758,7 @@
     <row r="23" spans="1:27" ht="16">
       <c r="A23" s="125"/>
       <c r="B23" s="140" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C23" s="130">
         <v>4.0000000000000001E-3</v>
@@ -26756,7 +26791,7 @@
         <v>1.2175466666666668</v>
       </c>
       <c r="L23" s="155" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="M23" s="170">
         <f>E23*1*30</f>
@@ -26792,7 +26827,7 @@
     <row r="24" spans="1:27" ht="16">
       <c r="A24" s="125"/>
       <c r="B24" s="140" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C24" s="130">
         <v>0.04</v>
@@ -26825,7 +26860,7 @@
         <v>3.3205818181818185</v>
       </c>
       <c r="L24" s="156" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M24" s="170">
         <f>E24*4*30</f>
@@ -26861,7 +26896,7 @@
     <row r="25" spans="1:27" ht="18" thickBot="1">
       <c r="A25" s="125"/>
       <c r="B25" s="142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C25" s="143" t="s">
         <v>9</v>
@@ -26891,7 +26926,7 @@
         <v>1.6602909090909093</v>
       </c>
       <c r="L25" s="157" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M25" s="173" t="s">
         <v>9</v>
@@ -26944,13 +26979,13 @@
       <c r="X26" s="102"/>
     </row>
     <row r="27" spans="1:27" ht="16">
-      <c r="B27" s="249" t="s">
-        <v>237</v>
-      </c>
-      <c r="C27" s="249"/>
-      <c r="D27" s="249"/>
-      <c r="E27" s="249"/>
-      <c r="F27" s="249"/>
+      <c r="B27" s="242" t="s">
+        <v>236</v>
+      </c>
+      <c r="C27" s="242"/>
+      <c r="D27" s="242"/>
+      <c r="E27" s="242"/>
+      <c r="F27" s="242"/>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="R27" s="150"/>
@@ -26962,7 +26997,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="B29" s="71" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -27005,19 +27040,19 @@
     </row>
     <row r="32" spans="1:27" ht="16">
       <c r="B32" s="125"/>
-      <c r="C32" s="232" t="s">
-        <v>274</v>
-      </c>
-      <c r="D32" s="233"/>
-      <c r="E32" s="233"/>
-      <c r="F32" s="233"/>
-      <c r="G32" s="233"/>
-      <c r="H32" s="233"/>
-      <c r="I32" s="233"/>
-      <c r="J32" s="233"/>
-      <c r="K32" s="233"/>
-      <c r="L32" s="233"/>
-      <c r="M32" s="234"/>
+      <c r="C32" s="245" t="s">
+        <v>273</v>
+      </c>
+      <c r="D32" s="246"/>
+      <c r="E32" s="246"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="246"/>
+      <c r="M32" s="247"/>
       <c r="N32" s="151"/>
       <c r="O32" s="151"/>
       <c r="P32"/>
@@ -27035,31 +27070,31 @@
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="125"/>
-      <c r="C33" s="235" t="s">
+      <c r="C33" s="248" t="s">
         <v>6</v>
       </c>
       <c r="D33" s="219" t="s">
-        <v>206</v>
-      </c>
-      <c r="E33" s="216"/>
+        <v>205</v>
+      </c>
+      <c r="E33" s="220"/>
       <c r="F33" s="219" t="s">
-        <v>273</v>
-      </c>
-      <c r="G33" s="216"/>
+        <v>272</v>
+      </c>
+      <c r="G33" s="220"/>
       <c r="H33" s="219" t="s">
-        <v>205</v>
-      </c>
-      <c r="I33" s="216"/>
+        <v>204</v>
+      </c>
+      <c r="I33" s="220"/>
       <c r="J33" s="219" t="s">
+        <v>207</v>
+      </c>
+      <c r="K33" s="220"/>
+      <c r="L33" s="219" t="s">
         <v>208</v>
       </c>
-      <c r="K33" s="216"/>
-      <c r="L33" s="219" t="s">
-        <v>209</v>
-      </c>
-      <c r="M33" s="236"/>
+      <c r="M33" s="257"/>
       <c r="N33" s="219"/>
-      <c r="O33" s="216"/>
+      <c r="O33" s="220"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -27075,36 +27110,36 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="125"/>
-      <c r="C34" s="235"/>
+      <c r="C34" s="248"/>
       <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="G34" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="I34" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="K34" s="163" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="M34" s="167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="N34" s="127"/>
       <c r="O34" s="127"/>
@@ -27355,7 +27390,7 @@
     </row>
     <row r="39" spans="2:27">
       <c r="C39" s="179" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>9</v>
@@ -27450,7 +27485,7 @@
     </row>
     <row r="41" spans="2:27" ht="14">
       <c r="C41" s="140" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D41" s="168">
         <f t="shared" ref="D41:E41" si="40">O12/1056</f>
@@ -27500,7 +27535,7 @@
     </row>
     <row r="42" spans="2:27" ht="14">
       <c r="C42" s="140" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D42" s="168">
         <f t="shared" ref="D42:E42" si="45">O13/1056</f>
@@ -27550,7 +27585,7 @@
     </row>
     <row r="43" spans="2:27" ht="14">
       <c r="C43" s="140" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D43" s="180" t="s">
         <v>9</v>
@@ -27595,7 +27630,7 @@
     </row>
     <row r="44" spans="2:27" ht="28">
       <c r="C44" s="140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D44" s="168">
         <f t="shared" ref="D44:E44" si="53">O15/1056</f>
@@ -27645,7 +27680,7 @@
     </row>
     <row r="45" spans="2:27" ht="14">
       <c r="C45" s="140" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D45" s="180" t="s">
         <v>9</v>
@@ -27740,7 +27775,7 @@
     </row>
     <row r="47" spans="2:27" ht="14">
       <c r="C47" s="140" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D47" s="180" t="s">
         <v>9</v>
@@ -27785,7 +27820,7 @@
     </row>
     <row r="48" spans="2:27" ht="14">
       <c r="C48" s="140" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D48" s="180" t="s">
         <v>9</v>
@@ -27830,7 +27865,7 @@
     </row>
     <row r="49" spans="3:27" ht="14">
       <c r="C49" s="140" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D49" s="180" t="s">
         <v>9</v>
@@ -27875,7 +27910,7 @@
     </row>
     <row r="50" spans="3:27" ht="14">
       <c r="C50" s="140" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D50" s="168">
         <f t="shared" ref="D50:E50" si="75">O21/1056</f>
@@ -27925,7 +27960,7 @@
     </row>
     <row r="51" spans="3:27" ht="14">
       <c r="C51" s="140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D51" s="168">
         <f t="shared" ref="D51:E51" si="80">O22/1056</f>
@@ -27975,7 +28010,7 @@
     </row>
     <row r="52" spans="3:27" ht="14">
       <c r="C52" s="140" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D52" s="168">
         <f t="shared" ref="D52:E52" si="85">O23/1056</f>
@@ -28025,7 +28060,7 @@
     </row>
     <row r="53" spans="3:27" ht="28">
       <c r="C53" s="140" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D53" s="168">
         <f t="shared" ref="D53:E53" si="90">O24/1056</f>
@@ -28075,7 +28110,7 @@
     </row>
     <row r="54" spans="3:27" ht="15" thickBot="1">
       <c r="C54" s="142" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D54" s="182" t="s">
         <v>9</v>
@@ -28198,24 +28233,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="C33:C34"/>
@@ -28224,6 +28241,24 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28290,87 +28325,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="197" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="201" t="s">
         <v>152</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="197" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="201" t="s">
         <v>153</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="197" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="201" t="s">
         <v>154</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -30479,37 +30514,37 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="47" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -30526,13 +30561,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -30549,13 +30584,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -30815,6 +30850,19 @@
     <row r="89" ht="13"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -30824,19 +30872,6 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30857,62 +30892,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16">
-      <c r="B2" s="254" t="s">
-        <v>277</v>
-      </c>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
-      <c r="E2" s="254"/>
-      <c r="F2" s="254"/>
-      <c r="G2" s="254"/>
-      <c r="H2" s="254"/>
-      <c r="I2" s="254"/>
-      <c r="J2" s="254"/>
-      <c r="K2" s="254"/>
-      <c r="L2" s="254"/>
-      <c r="M2" s="254"/>
-      <c r="N2" s="254"/>
-      <c r="O2" s="254"/>
+      <c r="B2" s="263" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="263"/>
+      <c r="D2" s="263"/>
+      <c r="E2" s="263"/>
+      <c r="F2" s="263"/>
+      <c r="G2" s="263"/>
+      <c r="H2" s="263"/>
+      <c r="I2" s="263"/>
+      <c r="J2" s="263"/>
+      <c r="K2" s="263"/>
+      <c r="L2" s="263"/>
+      <c r="M2" s="263"/>
+      <c r="N2" s="263"/>
+      <c r="O2" s="263"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="255" t="s">
+      <c r="C3" s="264" t="s">
         <v>131</v>
       </c>
-      <c r="D3" s="255"/>
-      <c r="E3" s="255"/>
-      <c r="F3" s="255"/>
-      <c r="G3" s="255"/>
-      <c r="H3" s="255"/>
-      <c r="I3" s="255"/>
-      <c r="J3" s="255"/>
-      <c r="K3" s="255"/>
-      <c r="L3" s="255"/>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
+      <c r="D3" s="264"/>
+      <c r="E3" s="264"/>
+      <c r="F3" s="264"/>
+      <c r="G3" s="264"/>
+      <c r="H3" s="264"/>
+      <c r="I3" s="264"/>
+      <c r="J3" s="264"/>
+      <c r="K3" s="264"/>
+      <c r="L3" s="264"/>
+      <c r="M3" s="264"/>
+      <c r="N3" s="264"/>
+      <c r="O3" s="264"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="260" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
+      <c r="D4" s="260"/>
+      <c r="E4" s="260"/>
+      <c r="F4" s="260"/>
+      <c r="G4" s="260"/>
+      <c r="H4" s="260"/>
+      <c r="I4" s="260"/>
+      <c r="J4" s="260"/>
+      <c r="K4" s="260"/>
+      <c r="L4" s="260"/>
+      <c r="M4" s="260"/>
+      <c r="N4" s="260"/>
+      <c r="O4" s="260"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5">
@@ -30923,630 +30958,654 @@
       </c>
     </row>
     <row r="6" spans="2:15" ht="38" customHeight="1">
-      <c r="B6" s="258">
+      <c r="B6" s="188">
         <v>4</v>
       </c>
-      <c r="C6" s="257" t="s">
+      <c r="C6" s="261" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="257"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="257"/>
-      <c r="L6" s="257"/>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="257"/>
+      <c r="D6" s="261"/>
+      <c r="E6" s="261"/>
+      <c r="F6" s="261"/>
+      <c r="G6" s="261"/>
+      <c r="H6" s="261"/>
+      <c r="I6" s="261"/>
+      <c r="J6" s="261"/>
+      <c r="K6" s="261"/>
+      <c r="L6" s="261"/>
+      <c r="M6" s="261"/>
+      <c r="N6" s="261"/>
+      <c r="O6" s="261"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="186" t="s">
+      <c r="C7" s="189" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="186"/>
-      <c r="E7" s="186"/>
-      <c r="F7" s="186"/>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
-      <c r="K7" s="186"/>
-      <c r="L7" s="186"/>
-      <c r="M7" s="186"/>
-      <c r="N7" s="186"/>
-      <c r="O7" s="186"/>
+      <c r="D7" s="189"/>
+      <c r="E7" s="189"/>
+      <c r="F7" s="189"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
+      <c r="K7" s="189"/>
+      <c r="L7" s="189"/>
+      <c r="M7" s="189"/>
+      <c r="N7" s="189"/>
+      <c r="O7" s="189"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="256" t="s">
+      <c r="C8" s="260" t="s">
         <v>142</v>
       </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
-      <c r="G8" s="256"/>
-      <c r="H8" s="256"/>
-      <c r="I8" s="256"/>
-      <c r="J8" s="256"/>
-      <c r="K8" s="256"/>
-      <c r="L8" s="256"/>
-      <c r="M8" s="256"/>
-      <c r="N8" s="256"/>
-      <c r="O8" s="256"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="260"/>
+      <c r="F8" s="260"/>
+      <c r="G8" s="260"/>
+      <c r="H8" s="260"/>
+      <c r="I8" s="260"/>
+      <c r="J8" s="260"/>
+      <c r="K8" s="260"/>
+      <c r="L8" s="260"/>
+      <c r="M8" s="260"/>
+      <c r="N8" s="260"/>
+      <c r="O8" s="260"/>
     </row>
     <row r="9" spans="2:15" s="3" customFormat="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="186" t="s">
+      <c r="C9" s="189" t="s">
         <v>148</v>
       </c>
-      <c r="D9" s="186"/>
-      <c r="E9" s="186"/>
-      <c r="F9" s="186"/>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
-      <c r="K9" s="186"/>
-      <c r="L9" s="186"/>
-      <c r="M9" s="186"/>
-      <c r="N9" s="186"/>
-      <c r="O9" s="186"/>
+      <c r="D9" s="189"/>
+      <c r="E9" s="189"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
+      <c r="K9" s="189"/>
+      <c r="L9" s="189"/>
+      <c r="M9" s="189"/>
+      <c r="N9" s="189"/>
+      <c r="O9" s="189"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="186" t="s">
+      <c r="C10" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="186"/>
-      <c r="E10" s="186"/>
-      <c r="F10" s="186"/>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
-      <c r="K10" s="186"/>
-      <c r="L10" s="186"/>
-      <c r="M10" s="186"/>
-      <c r="N10" s="186"/>
-      <c r="O10" s="186"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="189"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="189"/>
+      <c r="N10" s="189"/>
+      <c r="O10" s="189"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="259" t="s">
-        <v>279</v>
-      </c>
-      <c r="D11" s="186"/>
-      <c r="E11" s="186"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
-      <c r="K11" s="186"/>
-      <c r="L11" s="186"/>
-      <c r="M11" s="186"/>
-      <c r="N11" s="186"/>
-      <c r="O11" s="186"/>
+      <c r="C11" s="208" t="s">
+        <v>278</v>
+      </c>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="189"/>
+      <c r="N11" s="189"/>
+      <c r="O11" s="189"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="259" t="s">
-        <v>278</v>
-      </c>
-      <c r="D12" s="186"/>
-      <c r="E12" s="186"/>
-      <c r="F12" s="186"/>
-      <c r="G12" s="186"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="186"/>
-      <c r="J12" s="186"/>
-      <c r="K12" s="186"/>
-      <c r="L12" s="186"/>
-      <c r="M12" s="186"/>
-      <c r="N12" s="186"/>
-      <c r="O12" s="186"/>
+      <c r="C12" s="208" t="s">
+        <v>277</v>
+      </c>
+      <c r="D12" s="189"/>
+      <c r="E12" s="189"/>
+      <c r="F12" s="189"/>
+      <c r="G12" s="189"/>
+      <c r="H12" s="189"/>
+      <c r="I12" s="189"/>
+      <c r="J12" s="189"/>
+      <c r="K12" s="189"/>
+      <c r="L12" s="189"/>
+      <c r="M12" s="189"/>
+      <c r="N12" s="189"/>
+      <c r="O12" s="189"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="186" t="s">
+      <c r="C13" s="189" t="s">
         <v>144</v>
       </c>
-      <c r="D13" s="186"/>
-      <c r="E13" s="186"/>
-      <c r="F13" s="186"/>
-      <c r="G13" s="186"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="186"/>
-      <c r="J13" s="186"/>
-      <c r="K13" s="186"/>
-      <c r="L13" s="186"/>
-      <c r="M13" s="186"/>
-      <c r="N13" s="186"/>
-      <c r="O13" s="186"/>
+      <c r="D13" s="189"/>
+      <c r="E13" s="189"/>
+      <c r="F13" s="189"/>
+      <c r="G13" s="189"/>
+      <c r="H13" s="189"/>
+      <c r="I13" s="189"/>
+      <c r="J13" s="189"/>
+      <c r="K13" s="189"/>
+      <c r="L13" s="189"/>
+      <c r="M13" s="189"/>
+      <c r="N13" s="189"/>
+      <c r="O13" s="189"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="256" t="s">
+      <c r="C14" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="256"/>
-      <c r="E14" s="256"/>
-      <c r="F14" s="256"/>
-      <c r="G14" s="256"/>
-      <c r="H14" s="256"/>
-      <c r="I14" s="256"/>
-      <c r="J14" s="256"/>
-      <c r="K14" s="256"/>
-      <c r="L14" s="256"/>
-      <c r="M14" s="256"/>
-      <c r="N14" s="256"/>
-      <c r="O14" s="256"/>
+      <c r="D14" s="260"/>
+      <c r="E14" s="260"/>
+      <c r="F14" s="260"/>
+      <c r="G14" s="260"/>
+      <c r="H14" s="260"/>
+      <c r="I14" s="260"/>
+      <c r="J14" s="260"/>
+      <c r="K14" s="260"/>
+      <c r="L14" s="260"/>
+      <c r="M14" s="260"/>
+      <c r="N14" s="260"/>
+      <c r="O14" s="260"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="256" t="s">
+      <c r="C15" s="260" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="256"/>
-      <c r="E15" s="256"/>
-      <c r="F15" s="256"/>
-      <c r="G15" s="256"/>
-      <c r="H15" s="256"/>
-      <c r="I15" s="256"/>
-      <c r="J15" s="256"/>
-      <c r="K15" s="256"/>
-      <c r="L15" s="256"/>
-      <c r="M15" s="256"/>
-      <c r="N15" s="256"/>
-      <c r="O15" s="256"/>
+      <c r="D15" s="260"/>
+      <c r="E15" s="260"/>
+      <c r="F15" s="260"/>
+      <c r="G15" s="260"/>
+      <c r="H15" s="260"/>
+      <c r="I15" s="260"/>
+      <c r="J15" s="260"/>
+      <c r="K15" s="260"/>
+      <c r="L15" s="260"/>
+      <c r="M15" s="260"/>
+      <c r="N15" s="260"/>
+      <c r="O15" s="260"/>
     </row>
     <row r="16" spans="2:15" ht="29" customHeight="1">
-      <c r="B16" s="258">
+      <c r="B16" s="188">
         <v>14</v>
       </c>
-      <c r="C16" s="257" t="s">
+      <c r="C16" s="261" t="s">
         <v>186</v>
       </c>
-      <c r="D16" s="257"/>
-      <c r="E16" s="257"/>
-      <c r="F16" s="257"/>
-      <c r="G16" s="257"/>
-      <c r="H16" s="257"/>
-      <c r="I16" s="257"/>
-      <c r="J16" s="257"/>
-      <c r="K16" s="257"/>
-      <c r="L16" s="257"/>
-      <c r="M16" s="257"/>
-      <c r="N16" s="257"/>
-      <c r="O16" s="257"/>
+      <c r="D16" s="261"/>
+      <c r="E16" s="261"/>
+      <c r="F16" s="261"/>
+      <c r="G16" s="261"/>
+      <c r="H16" s="261"/>
+      <c r="I16" s="261"/>
+      <c r="J16" s="261"/>
+      <c r="K16" s="261"/>
+      <c r="L16" s="261"/>
+      <c r="M16" s="261"/>
+      <c r="N16" s="261"/>
+      <c r="O16" s="261"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="260" t="s">
+      <c r="C17" s="262" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="260"/>
-      <c r="E17" s="260"/>
-      <c r="F17" s="260"/>
-      <c r="G17" s="260"/>
-      <c r="H17" s="260"/>
-      <c r="I17" s="260"/>
-      <c r="J17" s="260"/>
-      <c r="K17" s="260"/>
-      <c r="L17" s="260"/>
-      <c r="M17" s="260"/>
-      <c r="N17" s="260"/>
-      <c r="O17" s="260"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="262"/>
+      <c r="I17" s="262"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="262"/>
+      <c r="O17" s="262"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="261" t="s">
+      <c r="C18" s="258" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="261"/>
-      <c r="E18" s="261"/>
-      <c r="F18" s="261"/>
-      <c r="G18" s="261"/>
-      <c r="H18" s="261"/>
-      <c r="I18" s="261"/>
-      <c r="J18" s="261"/>
-      <c r="K18" s="261"/>
-      <c r="L18" s="261"/>
-      <c r="M18" s="261"/>
-      <c r="N18" s="261"/>
-      <c r="O18" s="261"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="258"/>
+      <c r="I18" s="258"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="258"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="261" t="s">
+      <c r="C19" s="258" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="261"/>
-      <c r="E19" s="261"/>
-      <c r="F19" s="261"/>
-      <c r="G19" s="261"/>
-      <c r="H19" s="261"/>
-      <c r="I19" s="261"/>
-      <c r="J19" s="261"/>
-      <c r="K19" s="261"/>
-      <c r="L19" s="261"/>
-      <c r="M19" s="261"/>
-      <c r="N19" s="261"/>
-      <c r="O19" s="261"/>
+      <c r="D19" s="258"/>
+      <c r="E19" s="258"/>
+      <c r="F19" s="258"/>
+      <c r="G19" s="258"/>
+      <c r="H19" s="258"/>
+      <c r="I19" s="258"/>
+      <c r="J19" s="258"/>
+      <c r="K19" s="258"/>
+      <c r="L19" s="258"/>
+      <c r="M19" s="258"/>
+      <c r="N19" s="258"/>
+      <c r="O19" s="258"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="261" t="s">
+      <c r="C20" s="258" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="261"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="261"/>
-      <c r="G20" s="261"/>
-      <c r="H20" s="261"/>
-      <c r="I20" s="261"/>
-      <c r="J20" s="261"/>
-      <c r="K20" s="261"/>
-      <c r="L20" s="261"/>
-      <c r="M20" s="261"/>
-      <c r="N20" s="261"/>
-      <c r="O20" s="261"/>
+      <c r="D20" s="258"/>
+      <c r="E20" s="258"/>
+      <c r="F20" s="258"/>
+      <c r="G20" s="258"/>
+      <c r="H20" s="258"/>
+      <c r="I20" s="258"/>
+      <c r="J20" s="258"/>
+      <c r="K20" s="258"/>
+      <c r="L20" s="258"/>
+      <c r="M20" s="258"/>
+      <c r="N20" s="258"/>
+      <c r="O20" s="258"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="261" t="s">
+      <c r="C21" s="258" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="261"/>
-      <c r="E21" s="261"/>
-      <c r="F21" s="261"/>
-      <c r="G21" s="261"/>
-      <c r="H21" s="261"/>
-      <c r="I21" s="261"/>
-      <c r="J21" s="261"/>
-      <c r="K21" s="261"/>
-      <c r="L21" s="261"/>
-      <c r="M21" s="261"/>
-      <c r="N21" s="261"/>
-      <c r="O21" s="261"/>
+      <c r="D21" s="258"/>
+      <c r="E21" s="258"/>
+      <c r="F21" s="258"/>
+      <c r="G21" s="258"/>
+      <c r="H21" s="258"/>
+      <c r="I21" s="258"/>
+      <c r="J21" s="258"/>
+      <c r="K21" s="258"/>
+      <c r="L21" s="258"/>
+      <c r="M21" s="258"/>
+      <c r="N21" s="258"/>
+      <c r="O21" s="258"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="259" t="s">
-        <v>244</v>
-      </c>
-      <c r="D22" s="259"/>
-      <c r="E22" s="259"/>
-      <c r="F22" s="259"/>
-      <c r="G22" s="259"/>
-      <c r="H22" s="259"/>
-      <c r="I22" s="259"/>
-      <c r="J22" s="259"/>
-      <c r="K22" s="259"/>
-      <c r="L22" s="259"/>
-      <c r="M22" s="259"/>
-      <c r="N22" s="259"/>
-      <c r="O22" s="259"/>
+      <c r="C22" s="208" t="s">
+        <v>243</v>
+      </c>
+      <c r="D22" s="208"/>
+      <c r="E22" s="208"/>
+      <c r="F22" s="208"/>
+      <c r="G22" s="208"/>
+      <c r="H22" s="208"/>
+      <c r="I22" s="208"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
+      <c r="L22" s="208"/>
+      <c r="M22" s="208"/>
+      <c r="N22" s="208"/>
+      <c r="O22" s="208"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="261" t="s">
+      <c r="C23" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="261"/>
-      <c r="E23" s="261"/>
-      <c r="F23" s="261"/>
-      <c r="G23" s="261"/>
-      <c r="H23" s="261"/>
-      <c r="I23" s="261"/>
-      <c r="J23" s="261"/>
-      <c r="K23" s="261"/>
-      <c r="L23" s="261"/>
-      <c r="M23" s="261"/>
-      <c r="N23" s="261"/>
-      <c r="O23" s="261"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="258"/>
+      <c r="F23" s="258"/>
+      <c r="G23" s="258"/>
+      <c r="H23" s="258"/>
+      <c r="I23" s="258"/>
+      <c r="J23" s="258"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="258"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="258"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="261" t="s">
+      <c r="C24" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="261"/>
-      <c r="E24" s="261"/>
-      <c r="F24" s="261"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="261"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="261"/>
-      <c r="K24" s="261"/>
-      <c r="L24" s="261"/>
-      <c r="M24" s="261"/>
-      <c r="N24" s="261"/>
-      <c r="O24" s="261"/>
+      <c r="D24" s="258"/>
+      <c r="E24" s="258"/>
+      <c r="F24" s="258"/>
+      <c r="G24" s="258"/>
+      <c r="H24" s="258"/>
+      <c r="I24" s="258"/>
+      <c r="J24" s="258"/>
+      <c r="K24" s="258"/>
+      <c r="L24" s="258"/>
+      <c r="M24" s="258"/>
+      <c r="N24" s="258"/>
+      <c r="O24" s="258"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="261" t="s">
+      <c r="C25" s="258" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="261"/>
-      <c r="E25" s="261"/>
-      <c r="F25" s="261"/>
-      <c r="G25" s="261"/>
-      <c r="H25" s="261"/>
-      <c r="I25" s="261"/>
-      <c r="J25" s="261"/>
-      <c r="K25" s="261"/>
-      <c r="L25" s="261"/>
-      <c r="M25" s="261"/>
-      <c r="N25" s="261"/>
-      <c r="O25" s="261"/>
+      <c r="D25" s="258"/>
+      <c r="E25" s="258"/>
+      <c r="F25" s="258"/>
+      <c r="G25" s="258"/>
+      <c r="H25" s="258"/>
+      <c r="I25" s="258"/>
+      <c r="J25" s="258"/>
+      <c r="K25" s="258"/>
+      <c r="L25" s="258"/>
+      <c r="M25" s="258"/>
+      <c r="N25" s="258"/>
+      <c r="O25" s="258"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="261" t="s">
+      <c r="C26" s="258" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="261"/>
-      <c r="E26" s="261"/>
-      <c r="F26" s="261"/>
-      <c r="G26" s="261"/>
-      <c r="H26" s="261"/>
-      <c r="I26" s="261"/>
-      <c r="J26" s="261"/>
-      <c r="K26" s="261"/>
-      <c r="L26" s="261"/>
-      <c r="M26" s="261"/>
-      <c r="N26" s="261"/>
-      <c r="O26" s="261"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="258"/>
+      <c r="I26" s="258"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
+      <c r="O26" s="258"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="261" t="s">
+      <c r="C27" s="258" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="261"/>
-      <c r="E27" s="261"/>
-      <c r="F27" s="261"/>
-      <c r="G27" s="261"/>
-      <c r="H27" s="261"/>
-      <c r="I27" s="261"/>
-      <c r="J27" s="261"/>
-      <c r="K27" s="261"/>
-      <c r="L27" s="261"/>
-      <c r="M27" s="261"/>
-      <c r="N27" s="261"/>
-      <c r="O27" s="261"/>
+      <c r="D27" s="258"/>
+      <c r="E27" s="258"/>
+      <c r="F27" s="258"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="258"/>
+      <c r="I27" s="258"/>
+      <c r="J27" s="258"/>
+      <c r="K27" s="258"/>
+      <c r="L27" s="258"/>
+      <c r="M27" s="258"/>
+      <c r="N27" s="258"/>
+      <c r="O27" s="258"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="261" t="s">
+      <c r="C28" s="258" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="261"/>
-      <c r="E28" s="261"/>
-      <c r="F28" s="261"/>
-      <c r="G28" s="261"/>
-      <c r="H28" s="261"/>
-      <c r="I28" s="261"/>
-      <c r="J28" s="261"/>
-      <c r="K28" s="261"/>
-      <c r="L28" s="261"/>
-      <c r="M28" s="261"/>
-      <c r="N28" s="261"/>
-      <c r="O28" s="261"/>
+      <c r="D28" s="258"/>
+      <c r="E28" s="258"/>
+      <c r="F28" s="258"/>
+      <c r="G28" s="258"/>
+      <c r="H28" s="258"/>
+      <c r="I28" s="258"/>
+      <c r="J28" s="258"/>
+      <c r="K28" s="258"/>
+      <c r="L28" s="258"/>
+      <c r="M28" s="258"/>
+      <c r="N28" s="258"/>
+      <c r="O28" s="258"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="261" t="s">
+      <c r="C29" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="261"/>
-      <c r="E29" s="261"/>
-      <c r="F29" s="261"/>
-      <c r="G29" s="261"/>
-      <c r="H29" s="261"/>
-      <c r="I29" s="261"/>
-      <c r="J29" s="261"/>
-      <c r="K29" s="261"/>
-      <c r="L29" s="261"/>
-      <c r="M29" s="261"/>
-      <c r="N29" s="261"/>
-      <c r="O29" s="261"/>
+      <c r="D29" s="258"/>
+      <c r="E29" s="258"/>
+      <c r="F29" s="258"/>
+      <c r="G29" s="258"/>
+      <c r="H29" s="258"/>
+      <c r="I29" s="258"/>
+      <c r="J29" s="258"/>
+      <c r="K29" s="258"/>
+      <c r="L29" s="258"/>
+      <c r="M29" s="258"/>
+      <c r="N29" s="258"/>
+      <c r="O29" s="258"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="261" t="s">
+      <c r="C30" s="258" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="261"/>
-      <c r="E30" s="261"/>
-      <c r="F30" s="261"/>
-      <c r="G30" s="261"/>
-      <c r="H30" s="261"/>
-      <c r="I30" s="261"/>
-      <c r="J30" s="261"/>
-      <c r="K30" s="261"/>
-      <c r="L30" s="261"/>
-      <c r="M30" s="261"/>
-      <c r="N30" s="261"/>
-      <c r="O30" s="261"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="258"/>
+      <c r="I30" s="258"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
+      <c r="O30" s="258"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="261" t="s">
+      <c r="C31" s="258" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="261"/>
-      <c r="E31" s="261"/>
-      <c r="F31" s="261"/>
-      <c r="G31" s="261"/>
-      <c r="H31" s="261"/>
-      <c r="I31" s="261"/>
-      <c r="J31" s="261"/>
-      <c r="K31" s="261"/>
-      <c r="L31" s="261"/>
-      <c r="M31" s="261"/>
-      <c r="N31" s="261"/>
-      <c r="O31" s="261"/>
+      <c r="D31" s="258"/>
+      <c r="E31" s="258"/>
+      <c r="F31" s="258"/>
+      <c r="G31" s="258"/>
+      <c r="H31" s="258"/>
+      <c r="I31" s="258"/>
+      <c r="J31" s="258"/>
+      <c r="K31" s="258"/>
+      <c r="L31" s="258"/>
+      <c r="M31" s="258"/>
+      <c r="N31" s="258"/>
+      <c r="O31" s="258"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="261" t="s">
+      <c r="C32" s="258" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="261"/>
-      <c r="E32" s="261"/>
-      <c r="F32" s="261"/>
-      <c r="G32" s="261"/>
-      <c r="H32" s="261"/>
-      <c r="I32" s="261"/>
-      <c r="J32" s="261"/>
-      <c r="K32" s="261"/>
-      <c r="L32" s="261"/>
-      <c r="M32" s="261"/>
-      <c r="N32" s="261"/>
-      <c r="O32" s="261"/>
+      <c r="D32" s="258"/>
+      <c r="E32" s="258"/>
+      <c r="F32" s="258"/>
+      <c r="G32" s="258"/>
+      <c r="H32" s="258"/>
+      <c r="I32" s="258"/>
+      <c r="J32" s="258"/>
+      <c r="K32" s="258"/>
+      <c r="L32" s="258"/>
+      <c r="M32" s="258"/>
+      <c r="N32" s="258"/>
+      <c r="O32" s="258"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="261" t="s">
+      <c r="C33" s="258" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="261"/>
-      <c r="H33" s="261"/>
-      <c r="I33" s="261"/>
-      <c r="J33" s="261"/>
-      <c r="K33" s="261"/>
-      <c r="L33" s="261"/>
-      <c r="M33" s="261"/>
-      <c r="N33" s="261"/>
-      <c r="O33" s="261"/>
+      <c r="D33" s="258"/>
+      <c r="E33" s="258"/>
+      <c r="F33" s="258"/>
+      <c r="G33" s="258"/>
+      <c r="H33" s="258"/>
+      <c r="I33" s="258"/>
+      <c r="J33" s="258"/>
+      <c r="K33" s="258"/>
+      <c r="L33" s="258"/>
+      <c r="M33" s="258"/>
+      <c r="N33" s="258"/>
+      <c r="O33" s="258"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="261" t="s">
+      <c r="C34" s="258" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="261"/>
-      <c r="E34" s="261"/>
-      <c r="F34" s="261"/>
-      <c r="G34" s="261"/>
-      <c r="H34" s="261"/>
-      <c r="I34" s="261"/>
-      <c r="J34" s="261"/>
-      <c r="K34" s="261"/>
-      <c r="L34" s="261"/>
-      <c r="M34" s="261"/>
-      <c r="N34" s="261"/>
-      <c r="O34" s="261"/>
+      <c r="D34" s="258"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="258"/>
+      <c r="G34" s="258"/>
+      <c r="H34" s="258"/>
+      <c r="I34" s="258"/>
+      <c r="J34" s="258"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="258"/>
+      <c r="M34" s="258"/>
+      <c r="N34" s="258"/>
+      <c r="O34" s="258"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="261" t="s">
+      <c r="C35" s="258" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="261"/>
-      <c r="E35" s="261"/>
-      <c r="F35" s="261"/>
-      <c r="G35" s="261"/>
-      <c r="H35" s="261"/>
-      <c r="I35" s="261"/>
-      <c r="J35" s="261"/>
-      <c r="K35" s="261"/>
-      <c r="L35" s="261"/>
-      <c r="M35" s="261"/>
-      <c r="N35" s="261"/>
-      <c r="O35" s="261"/>
+      <c r="D35" s="258"/>
+      <c r="E35" s="258"/>
+      <c r="F35" s="258"/>
+      <c r="G35" s="258"/>
+      <c r="H35" s="258"/>
+      <c r="I35" s="258"/>
+      <c r="J35" s="258"/>
+      <c r="K35" s="258"/>
+      <c r="L35" s="258"/>
+      <c r="M35" s="258"/>
+      <c r="N35" s="258"/>
+      <c r="O35" s="258"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="262" t="s">
+      <c r="C36" s="259" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="262"/>
-      <c r="E36" s="262"/>
-      <c r="F36" s="262"/>
-      <c r="G36" s="262"/>
-      <c r="H36" s="262"/>
-      <c r="I36" s="262"/>
-      <c r="J36" s="262"/>
-      <c r="K36" s="262"/>
-      <c r="L36" s="262"/>
-      <c r="M36" s="262"/>
-      <c r="N36" s="262"/>
-      <c r="O36" s="262"/>
+      <c r="D36" s="259"/>
+      <c r="E36" s="259"/>
+      <c r="F36" s="259"/>
+      <c r="G36" s="259"/>
+      <c r="H36" s="259"/>
+      <c r="I36" s="259"/>
+      <c r="J36" s="259"/>
+      <c r="K36" s="259"/>
+      <c r="L36" s="259"/>
+      <c r="M36" s="259"/>
+      <c r="N36" s="259"/>
+      <c r="O36" s="259"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C13:O13"/>
+    <mergeCell ref="C26:O26"/>
+    <mergeCell ref="C15:O15"/>
+    <mergeCell ref="C16:O16"/>
+    <mergeCell ref="C17:O17"/>
+    <mergeCell ref="C18:O18"/>
+    <mergeCell ref="C19:O19"/>
+    <mergeCell ref="C20:O20"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
     <mergeCell ref="C33:O33"/>
     <mergeCell ref="C34:O34"/>
     <mergeCell ref="C35:O35"/>
@@ -31557,30 +31616,6 @@
     <mergeCell ref="C30:O30"/>
     <mergeCell ref="C31:O31"/>
     <mergeCell ref="C32:O32"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C26:O26"/>
-    <mergeCell ref="C15:O15"/>
-    <mergeCell ref="C16:O16"/>
-    <mergeCell ref="C17:O17"/>
-    <mergeCell ref="C18:O18"/>
-    <mergeCell ref="C19:O19"/>
-    <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:O7"/>
-    <mergeCell ref="C8:O8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31647,87 +31682,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -33842,12 +33877,12 @@
         <v>589.39900000000011</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -33856,13 +33891,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -33879,13 +33914,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -33902,13 +33937,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -33925,13 +33960,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -34101,6 +34136,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -34114,15 +34158,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34189,87 +34224,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -36429,12 +36464,12 @@
         <v>6634.9010000000007</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -36443,13 +36478,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -36466,13 +36501,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -36489,13 +36524,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -36512,13 +36547,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -36693,13 +36728,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="AG16:AI16"/>
     <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
@@ -36708,13 +36743,13 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36781,87 +36816,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -38969,12 +39004,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="68"/>
@@ -38984,13 +39019,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -39007,13 +39042,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -39030,13 +39065,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -39053,13 +39088,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -39245,12 +39280,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:B2"/>
@@ -39267,6 +39296,12 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39333,87 +39368,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -41572,12 +41607,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -41586,13 +41621,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -41609,13 +41644,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>162</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -41632,13 +41667,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -41655,13 +41690,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -41847,6 +41882,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -41860,15 +41904,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -41935,87 +41970,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="205"/>
+      <c r="B2" s="212"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -44170,12 +44205,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -44197,13 +44232,13 @@
       <c r="B19" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C19" s="194" t="s">
+      <c r="C19" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="194"/>
-      <c r="E19" s="194"/>
-      <c r="F19" s="194"/>
-      <c r="G19" s="194"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -44220,13 +44255,13 @@
       <c r="B20" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C20" s="187" t="s">
+      <c r="C20" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D20" s="187"/>
-      <c r="E20" s="187"/>
-      <c r="F20" s="187"/>
-      <c r="G20" s="187"/>
+      <c r="D20" s="190"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -44243,13 +44278,13 @@
       <c r="B21" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C21" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="186"/>
-      <c r="E21" s="186"/>
-      <c r="F21" s="186"/>
-      <c r="G21" s="186"/>
+      <c r="C21" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D21" s="189"/>
+      <c r="E21" s="189"/>
+      <c r="F21" s="189"/>
+      <c r="G21" s="189"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -44266,13 +44301,13 @@
       <c r="B22" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D22" s="187"/>
-      <c r="E22" s="187"/>
-      <c r="F22" s="187"/>
-      <c r="G22" s="187"/>
+      <c r="C22" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -44442,6 +44477,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -44455,15 +44499,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44530,87 +44565,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -46764,12 +46799,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -46778,13 +46813,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -46801,13 +46836,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -46824,13 +46859,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -46847,13 +46882,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -47039,6 +47074,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -47052,15 +47096,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47127,87 +47162,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="193" t="s">
+      <c r="A2" s="207" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="193"/>
+      <c r="B2" s="207"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="201" t="s">
+      <c r="D2" s="198" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="198"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="202" t="s">
+      <c r="E2" s="199"/>
+      <c r="F2" s="200"/>
+      <c r="G2" s="211" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="198"/>
-      <c r="I2" s="198"/>
-      <c r="J2" s="203" t="s">
+      <c r="H2" s="199"/>
+      <c r="I2" s="199"/>
+      <c r="J2" s="202" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="198"/>
-      <c r="L2" s="198"/>
-      <c r="M2" s="203" t="s">
+      <c r="K2" s="199"/>
+      <c r="L2" s="199"/>
+      <c r="M2" s="202" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="198"/>
-      <c r="O2" s="199"/>
-      <c r="P2" s="200" t="s">
+      <c r="N2" s="199"/>
+      <c r="O2" s="200"/>
+      <c r="P2" s="203" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="198"/>
-      <c r="R2" s="199"/>
+      <c r="Q2" s="199"/>
+      <c r="R2" s="200"/>
       <c r="S2" s="204" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="199"/>
-      <c r="U2" s="201" t="s">
+      <c r="T2" s="200"/>
+      <c r="U2" s="198" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="198"/>
-      <c r="W2" s="199"/>
-      <c r="X2" s="201" t="s">
+      <c r="V2" s="199"/>
+      <c r="W2" s="200"/>
+      <c r="X2" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="198"/>
-      <c r="Z2" s="199"/>
-      <c r="AA2" s="201" t="s">
+      <c r="Y2" s="199"/>
+      <c r="Z2" s="200"/>
+      <c r="AA2" s="198" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="198"/>
-      <c r="AC2" s="199"/>
-      <c r="AD2" s="202" t="s">
+      <c r="AB2" s="199"/>
+      <c r="AC2" s="200"/>
+      <c r="AD2" s="211" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="198"/>
-      <c r="AF2" s="199"/>
-      <c r="AG2" s="202" t="s">
+      <c r="AE2" s="199"/>
+      <c r="AF2" s="200"/>
+      <c r="AG2" s="211" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="198"/>
-      <c r="AI2" s="199"/>
-      <c r="AJ2" s="202" t="s">
+      <c r="AH2" s="199"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="211" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="198"/>
-      <c r="AL2" s="199"/>
-      <c r="AM2" s="200" t="s">
+      <c r="AK2" s="199"/>
+      <c r="AL2" s="200"/>
+      <c r="AM2" s="203" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="198"/>
-      <c r="AO2" s="199"/>
-      <c r="AP2" s="200" t="s">
+      <c r="AN2" s="199"/>
+      <c r="AO2" s="200"/>
+      <c r="AP2" s="203" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="198"/>
-      <c r="AR2" s="199"/>
-      <c r="AS2" s="200" t="s">
+      <c r="AQ2" s="199"/>
+      <c r="AR2" s="200"/>
+      <c r="AS2" s="203" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="198"/>
-      <c r="AU2" s="199"/>
+      <c r="AT2" s="199"/>
+      <c r="AU2" s="200"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -49362,12 +49397,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="195"/>
-      <c r="AH16" s="196"/>
-      <c r="AI16" s="196"/>
-      <c r="AP16" s="195"/>
-      <c r="AQ16" s="196"/>
-      <c r="AR16" s="196"/>
+      <c r="AG16" s="205"/>
+      <c r="AH16" s="206"/>
+      <c r="AI16" s="206"/>
+      <c r="AP16" s="205"/>
+      <c r="AQ16" s="206"/>
+      <c r="AR16" s="206"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -49376,13 +49411,13 @@
       <c r="B18" s="84" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="194" t="s">
+      <c r="C18" s="210" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="194"/>
-      <c r="E18" s="194"/>
-      <c r="F18" s="194"/>
-      <c r="G18" s="194"/>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -49399,13 +49434,13 @@
       <c r="B19" s="82" t="s">
         <v>140</v>
       </c>
-      <c r="C19" s="187" t="s">
+      <c r="C19" s="190" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="187"/>
-      <c r="E19" s="187"/>
-      <c r="F19" s="187"/>
-      <c r="G19" s="187"/>
+      <c r="D19" s="190"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -49422,13 +49457,13 @@
       <c r="B20" s="71" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="259" t="s">
-        <v>281</v>
-      </c>
-      <c r="D20" s="186"/>
-      <c r="E20" s="186"/>
-      <c r="F20" s="186"/>
-      <c r="G20" s="186"/>
+      <c r="C20" s="208" t="s">
+        <v>280</v>
+      </c>
+      <c r="D20" s="189"/>
+      <c r="E20" s="189"/>
+      <c r="F20" s="189"/>
+      <c r="G20" s="189"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -49445,13 +49480,13 @@
       <c r="B21" s="83" t="s">
         <v>155</v>
       </c>
-      <c r="C21" s="263" t="s">
-        <v>280</v>
-      </c>
-      <c r="D21" s="187"/>
-      <c r="E21" s="187"/>
-      <c r="F21" s="187"/>
-      <c r="G21" s="187"/>
+      <c r="C21" s="209" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="190"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -49637,6 +49672,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -49650,15 +49694,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InternetFootprint_Final.xlsx
+++ b/InternetFootprint_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robringer/Library/Mobile Documents/com~apple~CloudDocs/Documents/Research/2020_21/datafootprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A44BEB-694A-E940-889D-7ED2A482C0FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8EBAE0-E7E7-6748-A9A0-20D0D3A0AA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5280" yWindow="3620" windowWidth="20880" windowHeight="13060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="460" windowWidth="24580" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="28" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1727" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="286">
   <si>
     <t>Netflix</t>
   </si>
@@ -518,9 +518,6 @@
     <t>C. Kang, D. Alba, A. Satariano,The New York Times(2020).</t>
   </si>
   <si>
-    <t>Model inputs were obtained from various sources within the scientific literature and public agency reports.</t>
-  </si>
-  <si>
     <t>Carbon, water, and land footprints of internet use for India, given their specific energy mix.</t>
   </si>
   <si>
@@ -725,9 +722,6 @@
       </rPr>
       <t> 717 (2020): 135035.</t>
     </r>
-  </si>
-  <si>
-    <t>The energy mix considered in this study was based on the average portfolio in a given country or globally. Regional differences in energy mix within the same country (e.g., increased use of renewables in various parts of the United States) are not considered, potentially leading to overestimation of the environmental footprints in places where internet providers are increasing the share of renewable energies in their supply portfolios.</t>
   </si>
   <si>
     <t xml:space="preserve">We assumed a 20% increase in global internet use due to the COVID-19 pandemic [5]. This value likely differs from country to country, but there is a lack of publicly available data detailing the increase. </t>
@@ -1006,9 +1000,6 @@
     <t xml:space="preserve">In the case of the water and land footprints for electricity use (columns G-I and P-R in the footprint tabs), only minimum and maximum values were available in the literature. Following Mahlooji et al. [14] and Ristic et al. [10], to estimate the median values, we applied a truncated lognormal distribution. </t>
   </si>
   <si>
-    <t>Environmental footprints are based on the values reported in the literature and have been previously used by scientific studies. Nonetheless, as explained by Ristic et al. [10] and Mahlooji et al. [14], these values are associated with uncertainties due to different assumptions in the calculations of footprints, variability in the methods of energy generation, and differences in energy production efficiency in different places around the world. So, as all large-scale footprint studies, these values can under-represent or over-represent footprint values in different countries.</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Kamiya, G. </t>
     </r>
@@ -1033,9 +1024,6 @@
       </rPr>
       <t xml:space="preserve">. https://www.iea.org/reports/data- centres-and-data-transmission-networks (2020). </t>
     </r>
-  </si>
-  <si>
-    <t>This analysis did not take the various end-use devices (e.g., smartphones, laptops, tablets, etc.) into account, which are often considered to be separate from the internet network [1], nor did it account for mobile networks. Mobile networks have been shown to have higher electricity intensities than fixed-line networks [35], but global-scale data is unavailable, thus mobile networks were not included here.</t>
   </si>
   <si>
     <r>
@@ -1076,7 +1064,22 @@
     <t>Aslan et al. [1], IEA [36]</t>
   </si>
   <si>
-    <t xml:space="preserve">The electricity used for data storage and transmission was assumed to be constant across the entire globe based on the value estimated by [1,36]. Thus, our analysis may undersestimate the environmental footprint of internet use, especially in countries with developing economies, which are likely to consume more electricity for data storage and transmission. Additionally, the estimates may overestimate the environmental footprint in the US and Europe, where efficiency improvements have been made since the publication of [1]. That being said, the results presented in [1,36] are the most recent peer-reviewed data, therefore were considered to be adequate for this study. </t>
+    <t>Required information for estimations were obtained from various sources within the scientific literature and public agency reports.</t>
+  </si>
+  <si>
+    <t>These estimations did not take the various end-use devices (e.g., smartphones, laptops, tablets, etc.) into account, which are often considered to be separate from the internet network [1], nor did it account for mobile networks. Mobile networks have been shown to have higher electricity intensities than fixed-line networks [35], but global-scale data is unavailable, thus mobile networks were not included here.</t>
+  </si>
+  <si>
+    <t>The energy mix considered in the estimations was based on the average portfolio in a given country or globally. Regional differences in energy mix within the same country (e.g., increased use of renewables in various parts of the United States) are not considered, potentially leading to overestimation of the environmental footprints in places where internet providers are increasing the share of renewable energies in their supply portfolios.</t>
+  </si>
+  <si>
+    <t>Environmental footprints are based on the values reported in the literature and have been previously used by scientific studies. Nonetheless, as explained by Ristic et al. [10] and Mahlooji et al. [14], these values are associated with major uncertainties due to different assumptions in the calculations of footprints, variability in the methods of energy generation, and differences in energy production, data center, and transmission network efficiencies in different places around the world. So, as all large-scale footprint studies, the primary purpose of these calculations is to provide a rough estimate and understanding of the scale of the environmental footprints. The resulting values can under-represent or over-represent footprint values in different places as the estimation does not capture site-specific conditions that can vary significantly around the world.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In practice, energy use for data storage and transmission does not increase linearly with increased internet use. Our estimation disregards this nonlinearity and relies on average energy use per gigabyte of data, as done in [1,10,36]. Similarly, the footprints of energy production do not change linearly with increased energy use. Our estimations disregard this nonlinearity as well as other factors, such as the change in the energy mix by change in level of production or hour of use (e.g., during peak hours). These simplifying assumptions, which are common in large-scale footprinting studies, can result in over- or under-estimation of the increased footprints as the result of increased internet use or footprint reductions by certain actions by users (e.g., changing video quality). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The electricity used for data storage and transmission was assumed to be constant across the entire globe based on the value estimated by [1,36]. Thus, these estimations may under-estimate the environmental footprint of internet use, especially in countries with developing economies, which are likely to consume more electricity for data storage and transmission. Additionally, the estimates may overestimate the environmental footprint in countries with a better state of technology (e.g., US and Europe), where efficiency improvements have been made since the publication of [1]. That being said, the results presented in [1,36] are the most recent peer-reviewed data available and thus were considered to be adequate for this rough estimation. </t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2059,25 +2062,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2092,53 +2089,93 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2161,18 +2198,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2181,28 +2206,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2216,11 +2237,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2232,43 +2253,10 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2279,6 +2267,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2500,7 +2506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5907B-72D9-B048-A89C-5D157FFDEFDC}">
-  <dimension ref="A2:O47"/>
+  <dimension ref="A2:O48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2516,7 +2522,7 @@
   <sheetData>
     <row r="2" spans="1:12">
       <c r="B2" s="194" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C2" s="194"/>
       <c r="D2" s="194"/>
@@ -2531,19 +2537,19 @@
     </row>
     <row r="3" spans="1:12" ht="28" customHeight="1">
       <c r="A3" s="187"/>
-      <c r="B3" s="197" t="s">
-        <v>270</v>
-      </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
+      <c r="B3" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="C3" s="195"/>
+      <c r="D3" s="195"/>
+      <c r="E3" s="195"/>
+      <c r="F3" s="195"/>
+      <c r="G3" s="195"/>
+      <c r="H3" s="195"/>
+      <c r="I3" s="195"/>
+      <c r="J3" s="195"/>
+      <c r="K3" s="195"/>
+      <c r="L3" s="195"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="187"/>
@@ -2557,7 +2563,7 @@
     <row r="6" spans="1:12" ht="7" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="B7" s="69" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2565,383 +2571,383 @@
         <v>94</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="198" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
+      <c r="E9" s="198"/>
+      <c r="F9" s="198"/>
+      <c r="G9" s="198"/>
+      <c r="H9" s="198"/>
+      <c r="I9" s="198"/>
+      <c r="J9" s="198"/>
+      <c r="K9" s="198"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="192" t="s">
+      <c r="D10" s="190" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
+      <c r="E10" s="190"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="190"/>
+      <c r="I10" s="190"/>
+      <c r="J10" s="190"/>
+      <c r="K10" s="190"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="192" t="s">
+      <c r="D11" s="190" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
+      <c r="E11" s="190"/>
+      <c r="F11" s="190"/>
+      <c r="G11" s="190"/>
+      <c r="H11" s="190"/>
+      <c r="I11" s="190"/>
+      <c r="J11" s="190"/>
+      <c r="K11" s="190"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="75"/>
-      <c r="D12" s="192" t="s">
+      <c r="D12" s="190" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
+      <c r="E12" s="190"/>
+      <c r="F12" s="190"/>
+      <c r="G12" s="190"/>
+      <c r="H12" s="190"/>
+      <c r="I12" s="190"/>
+      <c r="J12" s="190"/>
+      <c r="K12" s="190"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="192" t="s">
+      <c r="D13" s="190" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="190"/>
+      <c r="G13" s="190"/>
+      <c r="H13" s="190"/>
+      <c r="I13" s="190"/>
+      <c r="J13" s="190"/>
+      <c r="K13" s="190"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="75"/>
-      <c r="D14" s="192" t="s">
+      <c r="D14" s="190" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="190"/>
+      <c r="I14" s="190"/>
+      <c r="J14" s="190"/>
+      <c r="K14" s="190"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="75"/>
-      <c r="D15" s="192" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
+      <c r="D15" s="190" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" s="190"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="190"/>
+      <c r="H15" s="190"/>
+      <c r="I15" s="190"/>
+      <c r="J15" s="190"/>
+      <c r="K15" s="190"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="75"/>
-      <c r="D16" s="192" t="s">
+      <c r="D16" s="190" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
+      <c r="E16" s="190"/>
+      <c r="F16" s="190"/>
+      <c r="G16" s="190"/>
+      <c r="H16" s="190"/>
+      <c r="I16" s="190"/>
+      <c r="J16" s="190"/>
+      <c r="K16" s="190"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="75"/>
-      <c r="D17" s="192" t="s">
+      <c r="D17" s="190" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
+      <c r="E17" s="190"/>
+      <c r="F17" s="190"/>
+      <c r="G17" s="190"/>
+      <c r="H17" s="190"/>
+      <c r="I17" s="190"/>
+      <c r="J17" s="190"/>
+      <c r="K17" s="190"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="192" t="s">
+      <c r="D18" s="190" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="190"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="75"/>
-      <c r="D19" s="192" t="s">
+      <c r="D19" s="190" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
+      <c r="E19" s="190"/>
+      <c r="F19" s="190"/>
+      <c r="G19" s="190"/>
+      <c r="H19" s="190"/>
+      <c r="I19" s="190"/>
+      <c r="J19" s="190"/>
+      <c r="K19" s="190"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="75"/>
-      <c r="D20" s="192" t="s">
+      <c r="D20" s="190" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="192"/>
-      <c r="F20" s="192"/>
-      <c r="G20" s="192"/>
-      <c r="H20" s="192"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="192"/>
-      <c r="K20" s="192"/>
+      <c r="E20" s="190"/>
+      <c r="F20" s="190"/>
+      <c r="G20" s="190"/>
+      <c r="H20" s="190"/>
+      <c r="I20" s="190"/>
+      <c r="J20" s="190"/>
+      <c r="K20" s="190"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="192" t="s">
+      <c r="D21" s="190" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="192"/>
-      <c r="F21" s="192"/>
-      <c r="G21" s="192"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192"/>
-      <c r="J21" s="192"/>
-      <c r="K21" s="192"/>
+      <c r="E21" s="190"/>
+      <c r="F21" s="190"/>
+      <c r="G21" s="190"/>
+      <c r="H21" s="190"/>
+      <c r="I21" s="190"/>
+      <c r="J21" s="190"/>
+      <c r="K21" s="190"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="192" t="s">
+      <c r="D22" s="190" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="190"/>
+      <c r="I22" s="190"/>
+      <c r="J22" s="190"/>
+      <c r="K22" s="190"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="192" t="s">
+      <c r="D23" s="190" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="192"/>
-      <c r="F23" s="192"/>
-      <c r="G23" s="192"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
-      <c r="K23" s="192"/>
+      <c r="E23" s="190"/>
+      <c r="F23" s="190"/>
+      <c r="G23" s="190"/>
+      <c r="H23" s="190"/>
+      <c r="I23" s="190"/>
+      <c r="J23" s="190"/>
+      <c r="K23" s="190"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="192" t="s">
+      <c r="D24" s="190" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="192"/>
-      <c r="F24" s="192"/>
-      <c r="G24" s="192"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
-      <c r="K24" s="192"/>
+      <c r="E24" s="190"/>
+      <c r="F24" s="190"/>
+      <c r="G24" s="190"/>
+      <c r="H24" s="190"/>
+      <c r="I24" s="190"/>
+      <c r="J24" s="190"/>
+      <c r="K24" s="190"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="75"/>
-      <c r="D25" s="192" t="s">
+      <c r="D25" s="190" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="192"/>
-      <c r="F25" s="192"/>
-      <c r="G25" s="192"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
-      <c r="K25" s="192"/>
+      <c r="E25" s="190"/>
+      <c r="F25" s="190"/>
+      <c r="G25" s="190"/>
+      <c r="H25" s="190"/>
+      <c r="I25" s="190"/>
+      <c r="J25" s="190"/>
+      <c r="K25" s="190"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="75"/>
-      <c r="D26" s="192" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="192"/>
-      <c r="F26" s="192"/>
-      <c r="G26" s="192"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
-      <c r="K26" s="192"/>
+      <c r="D26" s="190" t="s">
+        <v>175</v>
+      </c>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="190"/>
+      <c r="I26" s="190"/>
+      <c r="J26" s="190"/>
+      <c r="K26" s="190"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="195" t="s">
+      <c r="D27" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
+      <c r="E27" s="191"/>
+      <c r="F27" s="191"/>
+      <c r="G27" s="191"/>
+      <c r="H27" s="191"/>
+      <c r="I27" s="191"/>
+      <c r="J27" s="191"/>
+      <c r="K27" s="191"/>
     </row>
     <row r="28" spans="2:11" ht="28" customHeight="1">
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="196" t="s">
+        <v>176</v>
+      </c>
+      <c r="C28" s="196"/>
+      <c r="D28" s="191" t="s">
         <v>177</v>
       </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="195" t="s">
-        <v>178</v>
-      </c>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
+      <c r="E28" s="191"/>
+      <c r="F28" s="191"/>
+      <c r="G28" s="191"/>
+      <c r="H28" s="191"/>
+      <c r="I28" s="191"/>
+      <c r="J28" s="191"/>
+      <c r="K28" s="191"/>
     </row>
     <row r="31" spans="2:11" ht="18">
       <c r="B31" s="70" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C31" s="70"/>
     </row>
     <row r="32" spans="2:11" ht="7" customHeight="1"/>
     <row r="33" spans="2:15">
       <c r="B33" s="194" t="s">
-        <v>280</v>
-      </c>
-      <c r="C33" s="192"/>
-      <c r="D33" s="192"/>
-      <c r="E33" s="192"/>
-      <c r="F33" s="192"/>
-      <c r="G33" s="192"/>
-      <c r="H33" s="192"/>
-      <c r="I33" s="192"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="192"/>
+        <v>276</v>
+      </c>
+      <c r="C33" s="190"/>
+      <c r="D33" s="190"/>
+      <c r="E33" s="190"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="190"/>
+      <c r="H33" s="190"/>
+      <c r="I33" s="190"/>
+      <c r="J33" s="190"/>
+      <c r="K33" s="190"/>
     </row>
     <row r="34" spans="2:15" ht="28" customHeight="1">
-      <c r="B34" s="199" t="s">
-        <v>179</v>
-      </c>
-      <c r="C34" s="199"/>
-      <c r="D34" s="199"/>
-      <c r="E34" s="199"/>
-      <c r="F34" s="199"/>
-      <c r="G34" s="199"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="199"/>
-      <c r="J34" s="199"/>
-      <c r="K34" s="199"/>
+      <c r="B34" s="197" t="s">
+        <v>178</v>
+      </c>
+      <c r="C34" s="197"/>
+      <c r="D34" s="197"/>
+      <c r="E34" s="197"/>
+      <c r="F34" s="197"/>
+      <c r="G34" s="197"/>
+      <c r="H34" s="197"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="197"/>
+      <c r="K34" s="197"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="194" t="s">
-        <v>281</v>
-      </c>
-      <c r="C35" s="192"/>
-      <c r="D35" s="192"/>
-      <c r="E35" s="192"/>
-      <c r="F35" s="192"/>
-      <c r="G35" s="192"/>
-      <c r="H35" s="192"/>
-      <c r="I35" s="192"/>
-      <c r="J35" s="192"/>
-      <c r="K35" s="192"/>
+        <v>277</v>
+      </c>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="190"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="192" t="s">
-        <v>181</v>
-      </c>
-      <c r="C36" s="192"/>
-      <c r="D36" s="192"/>
-      <c r="E36" s="192"/>
-      <c r="F36" s="192"/>
-      <c r="G36" s="192"/>
-      <c r="H36" s="192"/>
-      <c r="I36" s="192"/>
-      <c r="J36" s="192"/>
-      <c r="K36" s="192"/>
+      <c r="B36" s="190" t="s">
+        <v>180</v>
+      </c>
+      <c r="C36" s="190"/>
+      <c r="D36" s="190"/>
+      <c r="E36" s="190"/>
+      <c r="F36" s="190"/>
+      <c r="G36" s="190"/>
+      <c r="H36" s="190"/>
+      <c r="I36" s="190"/>
+      <c r="J36" s="190"/>
+      <c r="K36" s="190"/>
     </row>
     <row r="39" spans="2:15" ht="18">
       <c r="B39" s="70" t="s">
@@ -2954,134 +2960,156 @@
       <c r="C40" s="70"/>
     </row>
     <row r="41" spans="2:15" ht="15" customHeight="1">
-      <c r="B41" s="202" t="s">
-        <v>135</v>
-      </c>
-      <c r="C41" s="202"/>
-      <c r="D41" s="202"/>
-      <c r="E41" s="202"/>
-      <c r="F41" s="202"/>
-      <c r="G41" s="202"/>
-      <c r="H41" s="202"/>
-      <c r="I41" s="202"/>
-      <c r="J41" s="202"/>
-      <c r="K41" s="202"/>
+      <c r="B41" s="192" t="s">
+        <v>280</v>
+      </c>
+      <c r="C41" s="192"/>
+      <c r="D41" s="192"/>
+      <c r="E41" s="192"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
+      <c r="I41" s="192"/>
+      <c r="J41" s="192"/>
+      <c r="K41" s="192"/>
       <c r="L41" s="80"/>
       <c r="M41" s="80"/>
       <c r="N41" s="80"/>
       <c r="O41" s="80"/>
     </row>
     <row r="42" spans="2:15" ht="46" customHeight="1">
-      <c r="B42" s="190" t="s">
-        <v>278</v>
-      </c>
-      <c r="C42" s="190"/>
-      <c r="D42" s="190"/>
-      <c r="E42" s="190"/>
-      <c r="F42" s="190"/>
-      <c r="G42" s="190"/>
-      <c r="H42" s="190"/>
-      <c r="I42" s="190"/>
-      <c r="J42" s="190"/>
-      <c r="K42" s="190"/>
+      <c r="B42" s="193" t="s">
+        <v>281</v>
+      </c>
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="193"/>
       <c r="L42" s="78"/>
       <c r="M42" s="78"/>
       <c r="N42" s="78"/>
       <c r="O42" s="78"/>
     </row>
     <row r="43" spans="2:15" ht="39" customHeight="1">
-      <c r="B43" s="190" t="s">
-        <v>275</v>
-      </c>
-      <c r="C43" s="190"/>
-      <c r="D43" s="190"/>
-      <c r="E43" s="190"/>
-      <c r="F43" s="190"/>
-      <c r="G43" s="190"/>
-      <c r="H43" s="190"/>
-      <c r="I43" s="190"/>
-      <c r="J43" s="190"/>
-      <c r="K43" s="190"/>
+      <c r="B43" s="193" t="s">
+        <v>273</v>
+      </c>
+      <c r="C43" s="193"/>
+      <c r="D43" s="193"/>
+      <c r="E43" s="193"/>
+      <c r="F43" s="193"/>
+      <c r="G43" s="193"/>
+      <c r="H43" s="193"/>
+      <c r="I43" s="193"/>
+      <c r="J43" s="193"/>
+      <c r="K43" s="193"/>
       <c r="L43" s="79"/>
       <c r="M43" s="79"/>
       <c r="N43" s="79"/>
       <c r="O43" s="79"/>
     </row>
     <row r="44" spans="2:15" ht="56" customHeight="1">
-      <c r="B44" s="190" t="s">
-        <v>183</v>
-      </c>
-      <c r="C44" s="190"/>
-      <c r="D44" s="190"/>
-      <c r="E44" s="190"/>
-      <c r="F44" s="190"/>
-      <c r="G44" s="190"/>
-      <c r="H44" s="190"/>
-      <c r="I44" s="190"/>
-      <c r="J44" s="190"/>
-      <c r="K44" s="190"/>
+      <c r="B44" s="193" t="s">
+        <v>282</v>
+      </c>
+      <c r="C44" s="193"/>
+      <c r="D44" s="193"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="193"/>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
     </row>
-    <row r="45" spans="2:15" ht="74" customHeight="1">
-      <c r="B45" s="190" t="s">
-        <v>284</v>
-      </c>
-      <c r="C45" s="190"/>
-      <c r="D45" s="190"/>
-      <c r="E45" s="190"/>
-      <c r="F45" s="190"/>
-      <c r="G45" s="190"/>
-      <c r="H45" s="190"/>
-      <c r="I45" s="190"/>
-      <c r="J45" s="190"/>
-      <c r="K45" s="190"/>
+    <row r="45" spans="2:15" ht="84" customHeight="1">
+      <c r="B45" s="193" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" s="193"/>
+      <c r="D45" s="193"/>
+      <c r="E45" s="193"/>
+      <c r="F45" s="193"/>
+      <c r="G45" s="193"/>
+      <c r="H45" s="193"/>
+      <c r="I45" s="193"/>
+      <c r="J45" s="193"/>
+      <c r="K45" s="193"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
     </row>
-    <row r="46" spans="2:15" ht="73" customHeight="1">
-      <c r="B46" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="C46" s="193"/>
-      <c r="D46" s="193"/>
-      <c r="E46" s="193"/>
-      <c r="F46" s="193"/>
-      <c r="G46" s="193"/>
-      <c r="H46" s="193"/>
-      <c r="I46" s="193"/>
-      <c r="J46" s="193"/>
-      <c r="K46" s="193"/>
+    <row r="46" spans="2:15" ht="99" customHeight="1">
+      <c r="B46" s="199" t="s">
+        <v>283</v>
+      </c>
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+      <c r="G46" s="199"/>
+      <c r="H46" s="199"/>
+      <c r="I46" s="199"/>
+      <c r="J46" s="199"/>
+      <c r="K46" s="199"/>
       <c r="L46" s="186"/>
       <c r="M46" s="186"/>
       <c r="N46" s="186"/>
       <c r="O46" s="186"/>
     </row>
-    <row r="47" spans="2:15" ht="30" customHeight="1">
-      <c r="B47" s="190" t="s">
-        <v>184</v>
-      </c>
-      <c r="C47" s="190"/>
-      <c r="D47" s="190"/>
-      <c r="E47" s="190"/>
-      <c r="F47" s="190"/>
-      <c r="G47" s="190"/>
-      <c r="H47" s="190"/>
-      <c r="I47" s="190"/>
-      <c r="J47" s="190"/>
-      <c r="K47" s="190"/>
+    <row r="47" spans="2:15" ht="90" customHeight="1">
+      <c r="B47" s="271" t="s">
+        <v>284</v>
+      </c>
+      <c r="C47" s="197"/>
+      <c r="D47" s="197"/>
+      <c r="E47" s="197"/>
+      <c r="F47" s="197"/>
+      <c r="G47" s="197"/>
+      <c r="H47" s="197"/>
+      <c r="I47" s="197"/>
+      <c r="J47" s="197"/>
+      <c r="K47" s="197"/>
+    </row>
+    <row r="48" spans="2:15" ht="33" customHeight="1">
+      <c r="B48" s="193" t="s">
+        <v>182</v>
+      </c>
+      <c r="C48" s="193"/>
+      <c r="D48" s="193"/>
+      <c r="E48" s="193"/>
+      <c r="F48" s="193"/>
+      <c r="G48" s="193"/>
+      <c r="H48" s="193"/>
+      <c r="I48" s="193"/>
+      <c r="J48" s="193"/>
+      <c r="K48" s="193"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B44:K44"/>
+  <mergeCells count="35">
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B47:K47"/>
     <mergeCell ref="B45:K45"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
@@ -3098,19 +3126,12 @@
     <mergeCell ref="B42:K42"/>
     <mergeCell ref="B43:K43"/>
     <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B44:K44"/>
     <mergeCell ref="D18:K18"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3175,87 +3196,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -5315,7 +5336,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -5410,27 +5431,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5445,15 +5466,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -5468,15 +5489,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5491,15 +5512,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5685,6 +5706,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -5698,15 +5728,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5771,87 +5792,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="214"/>
+      <c r="A2" s="209" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" s="215"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -7911,7 +7932,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -7958,27 +7979,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -7993,15 +8014,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -8016,15 +8037,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -8039,15 +8060,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -8217,6 +8238,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -8230,15 +8260,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8303,87 +8324,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="214"/>
+      <c r="A2" s="209" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="215"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -10442,7 +10463,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -10537,12 +10558,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="H17" s="61"/>
@@ -10559,15 +10580,15 @@
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -10582,15 +10603,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -10605,15 +10626,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -10628,15 +10649,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -10806,6 +10827,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -10819,15 +10849,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10892,87 +10913,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>167</v>
-      </c>
-      <c r="B2" s="214"/>
+      <c r="A2" s="209" t="s">
+        <v>166</v>
+      </c>
+      <c r="B2" s="215"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -13033,7 +13054,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -13128,24 +13149,24 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -13160,15 +13181,15 @@
     </row>
     <row r="18" spans="2:18" ht="28" customHeight="1">
       <c r="B18" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>168</v>
-      </c>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C18" s="210" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -13183,15 +13204,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C19" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -13206,15 +13227,15 @@
     </row>
     <row r="20" spans="2:18" ht="28" customHeight="1">
       <c r="B20" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -13384,6 +13405,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -13397,15 +13427,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13470,87 +13491,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>169</v>
-      </c>
-      <c r="B2" s="214"/>
+      <c r="A2" s="209" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="215"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -15610,7 +15631,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -15705,27 +15726,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -15740,15 +15761,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -15763,15 +15784,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -15786,15 +15807,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -15980,6 +16001,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -15993,15 +16023,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16067,86 +16088,86 @@
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
       <c r="A2" s="81" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -18205,7 +18226,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -18252,27 +18273,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -18287,15 +18308,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -18310,15 +18331,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -18333,15 +18354,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18511,11 +18532,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -18532,6 +18548,11 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18595,87 +18616,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -20734,7 +20755,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -20828,15 +20849,15 @@
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C17" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C17" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="203"/>
-      <c r="E17" s="203"/>
-      <c r="F17" s="203"/>
-      <c r="G17" s="203"/>
+      <c r="D17" s="212"/>
+      <c r="E17" s="212"/>
+      <c r="F17" s="212"/>
+      <c r="G17" s="212"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -20851,15 +20872,15 @@
     </row>
     <row r="18" spans="2:18" ht="29" customHeight="1">
       <c r="B18" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="191" t="s">
-        <v>171</v>
-      </c>
-      <c r="D18" s="191"/>
-      <c r="E18" s="191"/>
-      <c r="F18" s="191"/>
-      <c r="G18" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C18" s="210" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="210"/>
+      <c r="E18" s="210"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -20874,15 +20895,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C19" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D19" s="196"/>
-      <c r="E19" s="196"/>
-      <c r="F19" s="196"/>
-      <c r="G19" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C19" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -20897,15 +20918,15 @@
     </row>
     <row r="20" spans="2:18" ht="28" customHeight="1">
       <c r="B20" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -21059,6 +21080,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -21071,14 +21100,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21143,87 +21164,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="13">
-      <c r="A2" s="201" t="s">
-        <v>173</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -23282,7 +23303,7 @@
     </row>
     <row r="15" spans="1:47" ht="13">
       <c r="A15" s="86" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -23377,72 +23398,69 @@
     <row r="16" spans="1:47" ht="13">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1"/>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
     </row>
     <row r="21" spans="2:7" ht="28">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -23452,11 +23470,14 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23497,49 +23518,49 @@
   <sheetData>
     <row r="2" spans="2:19" ht="16" customHeight="1">
       <c r="F2" s="69" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14" thickBot="1"/>
     <row r="4" spans="2:19" ht="15.75" customHeight="1">
-      <c r="F4" s="240" t="s">
-        <v>174</v>
-      </c>
-      <c r="G4" s="241"/>
-      <c r="H4" s="241"/>
-      <c r="I4" s="241"/>
-      <c r="J4" s="241"/>
-      <c r="K4" s="241"/>
-      <c r="L4" s="241"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="242"/>
-      <c r="P4" s="221" t="s">
+      <c r="F4" s="219" t="s">
+        <v>173</v>
+      </c>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
+      <c r="K4" s="220"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="220"/>
+      <c r="N4" s="221"/>
+      <c r="P4" s="233" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="222"/>
+      <c r="Q4" s="234"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B5" s="227" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="227"/>
-      <c r="D5" s="229"/>
+      <c r="B5" s="217" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="217"/>
+      <c r="D5" s="218"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="236" t="s">
+      <c r="F5" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="234"/>
-      <c r="H5" s="234"/>
-      <c r="I5" s="230" t="s">
+      <c r="G5" s="224"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="231"/>
-      <c r="K5" s="232"/>
-      <c r="L5" s="233" t="s">
+      <c r="J5" s="239"/>
+      <c r="K5" s="240"/>
+      <c r="L5" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="234"/>
-      <c r="N5" s="235"/>
+      <c r="M5" s="224"/>
+      <c r="N5" s="242"/>
       <c r="P5" s="103" t="s">
         <v>69</v>
       </c>
@@ -24068,8 +24089,8 @@
         <f>'Global Footprints'!AU13*$Q$7*$Q$5</f>
         <v>3072094861.660079</v>
       </c>
-      <c r="Q16" s="201"/>
-      <c r="R16" s="201"/>
+      <c r="Q16" s="209"/>
+      <c r="R16" s="209"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" customHeight="1">
@@ -24124,7 +24145,7 @@
     </row>
     <row r="18" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3">
         <v>26565</v>
@@ -24184,42 +24205,42 @@
       <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F20" s="240" t="s">
+      <c r="F20" s="219" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="241"/>
-      <c r="H20" s="241"/>
-      <c r="I20" s="241"/>
-      <c r="J20" s="241"/>
-      <c r="K20" s="241"/>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="242"/>
+      <c r="G20" s="220"/>
+      <c r="H20" s="220"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="220"/>
+      <c r="K20" s="220"/>
+      <c r="L20" s="220"/>
+      <c r="M20" s="220"/>
+      <c r="N20" s="221"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B21" s="227" t="s">
-        <v>148</v>
-      </c>
-      <c r="C21" s="227"/>
-      <c r="D21" s="229"/>
-      <c r="F21" s="236" t="s">
+      <c r="B21" s="217" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="217"/>
+      <c r="D21" s="218"/>
+      <c r="F21" s="223" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="234"/>
-      <c r="H21" s="234"/>
-      <c r="I21" s="230" t="s">
+      <c r="G21" s="224"/>
+      <c r="H21" s="224"/>
+      <c r="I21" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="231"/>
-      <c r="K21" s="232"/>
-      <c r="L21" s="233" t="s">
+      <c r="J21" s="239"/>
+      <c r="K21" s="240"/>
+      <c r="L21" s="241" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="234"/>
-      <c r="N21" s="235"/>
+      <c r="M21" s="224"/>
+      <c r="N21" s="242"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
@@ -24862,7 +24883,7 @@
     </row>
     <row r="34" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="B34" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C34" s="3">
         <v>26565</v>
@@ -24920,17 +24941,17 @@
       <c r="W35" s="60"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F36" s="223" t="s">
-        <v>185</v>
-      </c>
-      <c r="G36" s="224"/>
-      <c r="H36" s="224"/>
-      <c r="I36" s="224"/>
-      <c r="J36" s="224"/>
-      <c r="K36" s="224"/>
-      <c r="L36" s="224"/>
-      <c r="M36" s="224"/>
-      <c r="N36" s="225"/>
+      <c r="F36" s="235" t="s">
+        <v>183</v>
+      </c>
+      <c r="G36" s="236"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="236"/>
+      <c r="J36" s="236"/>
+      <c r="K36" s="236"/>
+      <c r="L36" s="236"/>
+      <c r="M36" s="236"/>
+      <c r="N36" s="237"/>
       <c r="O36" s="64"/>
       <c r="R36" s="64"/>
       <c r="T36" s="5"/>
@@ -24939,21 +24960,21 @@
       <c r="W36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F37" s="226" t="s">
-        <v>186</v>
-      </c>
-      <c r="G37" s="227"/>
-      <c r="H37" s="227"/>
-      <c r="I37" s="228" t="s">
-        <v>189</v>
-      </c>
-      <c r="J37" s="227"/>
-      <c r="K37" s="227"/>
-      <c r="L37" s="228" t="s">
-        <v>190</v>
-      </c>
-      <c r="M37" s="227"/>
-      <c r="N37" s="229"/>
+      <c r="F37" s="230" t="s">
+        <v>184</v>
+      </c>
+      <c r="G37" s="217"/>
+      <c r="H37" s="217"/>
+      <c r="I37" s="222" t="s">
+        <v>187</v>
+      </c>
+      <c r="J37" s="217"/>
+      <c r="K37" s="217"/>
+      <c r="L37" s="222" t="s">
+        <v>188</v>
+      </c>
+      <c r="M37" s="217"/>
+      <c r="N37" s="218"/>
       <c r="O37" s="64"/>
       <c r="R37" s="64"/>
       <c r="T37" s="5"/>
@@ -24963,28 +24984,28 @@
     </row>
     <row r="38" spans="2:23" ht="15.75" customHeight="1">
       <c r="F38" s="108" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G38" s="73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="I38" s="73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J38" s="73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="L38" s="73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M38" s="73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N38" s="109" t="s">
         <v>92</v>
@@ -25058,17 +25079,17 @@
       <c r="W41" s="60"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F42" s="223" t="s">
-        <v>191</v>
-      </c>
-      <c r="G42" s="224"/>
-      <c r="H42" s="224"/>
-      <c r="I42" s="224"/>
-      <c r="J42" s="224"/>
-      <c r="K42" s="224"/>
-      <c r="L42" s="224"/>
-      <c r="M42" s="224"/>
-      <c r="N42" s="225"/>
+      <c r="F42" s="235" t="s">
+        <v>189</v>
+      </c>
+      <c r="G42" s="236"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
+      <c r="J42" s="236"/>
+      <c r="K42" s="236"/>
+      <c r="L42" s="236"/>
+      <c r="M42" s="236"/>
+      <c r="N42" s="237"/>
       <c r="O42" s="64"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="64"/>
@@ -25078,21 +25099,21 @@
       <c r="W42" s="60"/>
     </row>
     <row r="43" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F43" s="226" t="s">
-        <v>193</v>
-      </c>
-      <c r="G43" s="227"/>
-      <c r="H43" s="227"/>
-      <c r="I43" s="228" t="s">
-        <v>197</v>
-      </c>
-      <c r="J43" s="227"/>
-      <c r="K43" s="227"/>
-      <c r="L43" s="228" t="s">
-        <v>204</v>
-      </c>
-      <c r="M43" s="227"/>
-      <c r="N43" s="229"/>
+      <c r="F43" s="230" t="s">
+        <v>191</v>
+      </c>
+      <c r="G43" s="217"/>
+      <c r="H43" s="217"/>
+      <c r="I43" s="222" t="s">
+        <v>195</v>
+      </c>
+      <c r="J43" s="217"/>
+      <c r="K43" s="217"/>
+      <c r="L43" s="222" t="s">
+        <v>202</v>
+      </c>
+      <c r="M43" s="217"/>
+      <c r="N43" s="218"/>
       <c r="O43" s="64"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="64"/>
@@ -25102,24 +25123,24 @@
       <c r="W43" s="60"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F44" s="219" t="s">
-        <v>194</v>
-      </c>
-      <c r="G44" s="220"/>
+      <c r="F44" s="231" t="s">
+        <v>192</v>
+      </c>
+      <c r="G44" s="232"/>
       <c r="H44" s="116">
         <f>G39*1000000</f>
         <v>34271985878260.867</v>
       </c>
-      <c r="I44" s="237" t="s">
-        <v>200</v>
-      </c>
-      <c r="J44" s="218"/>
+      <c r="I44" s="225" t="s">
+        <v>198</v>
+      </c>
+      <c r="J44" s="226"/>
       <c r="K44" s="117">
         <f>J39/1056</f>
         <v>751141372.67813277</v>
       </c>
       <c r="L44" s="119" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="M44" s="117">
         <f>M39*1000000000</f>
@@ -25135,24 +25156,24 @@
       <c r="W44" s="60"/>
     </row>
     <row r="45" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F45" s="219" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="220"/>
+      <c r="F45" s="231" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="232"/>
       <c r="H45" s="116">
         <f>G39*1000</f>
         <v>34271985878.260864</v>
       </c>
-      <c r="I45" s="237" t="s">
-        <v>201</v>
-      </c>
-      <c r="J45" s="218"/>
+      <c r="I45" s="225" t="s">
+        <v>199</v>
+      </c>
+      <c r="J45" s="226"/>
       <c r="K45" s="117">
         <f>J39/833</f>
         <v>952227238.35307097</v>
       </c>
       <c r="L45" s="119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M45" s="117">
         <f>M39*1000000</f>
@@ -25168,24 +25189,24 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="F46" s="219" t="s">
-        <v>196</v>
-      </c>
-      <c r="G46" s="220"/>
+      <c r="F46" s="231" t="s">
+        <v>194</v>
+      </c>
+      <c r="G46" s="232"/>
       <c r="H46" s="116">
         <f>G39</f>
         <v>34271985.878260866</v>
       </c>
-      <c r="I46" s="237" t="s">
-        <v>267</v>
-      </c>
-      <c r="J46" s="218"/>
+      <c r="I46" s="225" t="s">
+        <v>265</v>
+      </c>
+      <c r="J46" s="226"/>
       <c r="K46" s="117">
         <f>J39/287</f>
         <v>2763781496.6833038</v>
       </c>
       <c r="L46" s="119" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="M46" s="117">
         <f>M39</f>
@@ -25200,24 +25221,24 @@
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F47" s="217" t="s">
+      <c r="F47" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="218"/>
+      <c r="G47" s="226"/>
       <c r="H47" s="123">
         <f>1/(0.000403)*G39</f>
         <v>85042148581.292465</v>
       </c>
-      <c r="I47" s="237" t="s">
-        <v>199</v>
-      </c>
-      <c r="J47" s="218"/>
+      <c r="I47" s="225" t="s">
+        <v>197</v>
+      </c>
+      <c r="J47" s="226"/>
       <c r="K47" s="117">
         <f>J39/200</f>
         <v>3966026447.740541</v>
       </c>
       <c r="L47" s="119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M47" s="117">
         <f>M39*0.386102</f>
@@ -25232,24 +25253,24 @@
       <c r="V47" s="64"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F48" s="217" t="s">
+      <c r="F48" s="227" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="218"/>
+      <c r="G48" s="226"/>
       <c r="H48" s="123">
         <f>H44/8887</f>
         <v>3856417900.1081204</v>
       </c>
-      <c r="I48" s="237" t="s">
-        <v>202</v>
-      </c>
-      <c r="J48" s="218"/>
+      <c r="I48" s="225" t="s">
+        <v>200</v>
+      </c>
+      <c r="J48" s="226"/>
       <c r="K48" s="117">
         <f>J39/533</f>
         <v>1488190036.6756251</v>
       </c>
       <c r="L48" s="119" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="M48" s="117">
         <f>M39*247.105</f>
@@ -25264,24 +25285,24 @@
       <c r="V48" s="64"/>
     </row>
     <row r="49" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F49" s="217" t="s">
+      <c r="F49" s="227" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="218"/>
+      <c r="G49" s="226"/>
       <c r="H49" s="123">
         <f>(1/8.67)*H46</f>
         <v>3952939.5476656132</v>
       </c>
-      <c r="I49" s="237" t="s">
-        <v>203</v>
-      </c>
-      <c r="J49" s="218"/>
+      <c r="I49" s="225" t="s">
+        <v>201</v>
+      </c>
+      <c r="J49" s="226"/>
       <c r="K49" s="117">
         <f>J39/296</f>
         <v>2679747599.8246899</v>
       </c>
       <c r="L49" s="119" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M49" s="117">
         <f>M45/5350</f>
@@ -25296,18 +25317,18 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F50" s="217" t="s">
+      <c r="F50" s="227" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="218"/>
+      <c r="G50" s="226"/>
       <c r="H50" s="123">
         <f>(1/0.43)*(H46)</f>
         <v>79702292.740141556</v>
       </c>
-      <c r="I50" s="237" t="s">
-        <v>198</v>
-      </c>
-      <c r="J50" s="218"/>
+      <c r="I50" s="225" t="s">
+        <v>196</v>
+      </c>
+      <c r="J50" s="226"/>
       <c r="K50" s="117">
         <f>J39/15415</f>
         <v>51456716.804937281</v>
@@ -25323,18 +25344,18 @@
       <c r="V50" s="64"/>
     </row>
     <row r="51" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F51" s="217" t="s">
+      <c r="F51" s="227" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="218"/>
+      <c r="G51" s="226"/>
       <c r="H51" s="123">
         <f>(1/75.54)*H46</f>
         <v>453693.22052238369</v>
       </c>
-      <c r="I51" s="218" t="s">
+      <c r="I51" s="226" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="218"/>
+      <c r="J51" s="226"/>
       <c r="K51" s="117">
         <f>J39/2500000</f>
         <v>317282.11581924325</v>
@@ -25350,18 +25371,18 @@
       <c r="V51" s="64"/>
     </row>
     <row r="52" spans="6:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F52" s="238" t="s">
+      <c r="F52" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="239"/>
+      <c r="G52" s="229"/>
       <c r="H52" s="124">
         <f>1/(0.06)*H46</f>
         <v>571199764.63768113</v>
       </c>
-      <c r="I52" s="239" t="s">
+      <c r="I52" s="229" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="239"/>
+      <c r="J52" s="229"/>
       <c r="K52" s="120">
         <f>J39/(1000*100000)</f>
         <v>7932.0528954810816</v>
@@ -25410,12 +25431,22 @@
     <row r="77" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F36:N36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
     <mergeCell ref="I44:J44"/>
     <mergeCell ref="L43:N43"/>
     <mergeCell ref="F51:G51"/>
@@ -25432,22 +25463,12 @@
     <mergeCell ref="F47:G47"/>
     <mergeCell ref="F49:G49"/>
     <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25521,149 +25542,149 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="125"/>
-      <c r="B3" s="257" t="s">
-        <v>211</v>
-      </c>
-      <c r="C3" s="258"/>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-      <c r="G3" s="258"/>
-      <c r="H3" s="258"/>
-      <c r="I3" s="258"/>
-      <c r="J3" s="259"/>
+      <c r="B3" s="243" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="244"/>
+      <c r="D3" s="244"/>
+      <c r="E3" s="244"/>
+      <c r="F3" s="244"/>
+      <c r="G3" s="244"/>
+      <c r="H3" s="244"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="245"/>
       <c r="K3" s="125"/>
-      <c r="L3" s="243" t="s">
-        <v>240</v>
-      </c>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
-      <c r="Q3" s="244"/>
-      <c r="R3" s="245"/>
+      <c r="L3" s="249" t="s">
+        <v>238</v>
+      </c>
+      <c r="M3" s="250"/>
+      <c r="N3" s="250"/>
+      <c r="O3" s="250"/>
+      <c r="P3" s="250"/>
+      <c r="Q3" s="250"/>
+      <c r="R3" s="251"/>
       <c r="S3" s="163"/>
-      <c r="T3" s="252" t="s">
-        <v>253</v>
-      </c>
-      <c r="U3" s="253"/>
-      <c r="V3" s="253"/>
-      <c r="W3" s="253"/>
-      <c r="X3" s="253"/>
-      <c r="Y3" s="254"/>
+      <c r="T3" s="258" t="s">
+        <v>251</v>
+      </c>
+      <c r="U3" s="259"/>
+      <c r="V3" s="259"/>
+      <c r="W3" s="259"/>
+      <c r="X3" s="259"/>
+      <c r="Y3" s="260"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="125"/>
-      <c r="B4" s="261" t="s">
+      <c r="B4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="256" t="s">
+      <c r="C4" s="247" t="s">
+        <v>210</v>
+      </c>
+      <c r="D4" s="247"/>
+      <c r="E4" s="247" t="s">
+        <v>211</v>
+      </c>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247" t="s">
         <v>212</v>
       </c>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256" t="s">
+      <c r="H4" s="247"/>
+      <c r="I4" s="222" t="s">
         <v>213</v>
       </c>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256" t="s">
-        <v>214</v>
-      </c>
-      <c r="H4" s="256"/>
-      <c r="I4" s="228" t="s">
-        <v>215</v>
-      </c>
-      <c r="J4" s="229"/>
+      <c r="J4" s="218"/>
       <c r="K4" s="125"/>
-      <c r="L4" s="246" t="s">
+      <c r="L4" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="256" t="s">
+      <c r="M4" s="247" t="s">
+        <v>239</v>
+      </c>
+      <c r="N4" s="247"/>
+      <c r="O4" s="247" t="s">
+        <v>240</v>
+      </c>
+      <c r="P4" s="247"/>
+      <c r="Q4" s="222" t="s">
         <v>241</v>
-      </c>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256" t="s">
-        <v>242</v>
-      </c>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="228" t="s">
-        <v>243</v>
       </c>
       <c r="R4" s="255"/>
       <c r="S4" s="126"/>
       <c r="T4" s="158" t="s">
-        <v>245</v>
-      </c>
-      <c r="U4" s="248" t="s">
-        <v>246</v>
-      </c>
-      <c r="V4" s="248"/>
-      <c r="W4" s="248"/>
-      <c r="X4" s="248"/>
-      <c r="Y4" s="249"/>
+        <v>243</v>
+      </c>
+      <c r="U4" s="253" t="s">
+        <v>244</v>
+      </c>
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+      <c r="X4" s="253"/>
+      <c r="Y4" s="254"/>
     </row>
     <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="125"/>
-      <c r="B5" s="261"/>
+      <c r="B5" s="248"/>
       <c r="C5" s="126" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="126" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J5" s="109" t="s">
         <v>92</v>
       </c>
       <c r="K5" s="125"/>
-      <c r="L5" s="246"/>
+      <c r="L5" s="252"/>
       <c r="M5" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N5" s="163" t="s">
         <v>92</v>
       </c>
       <c r="O5" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="P5" s="163" t="s">
         <v>92</v>
       </c>
       <c r="Q5" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="R5" s="167" t="s">
         <v>92</v>
       </c>
       <c r="S5" s="163"/>
       <c r="T5" s="159" t="s">
-        <v>247</v>
-      </c>
-      <c r="U5" s="248" t="s">
-        <v>248</v>
-      </c>
-      <c r="V5" s="248"/>
-      <c r="W5" s="248"/>
-      <c r="X5" s="248"/>
-      <c r="Y5" s="249"/>
+        <v>245</v>
+      </c>
+      <c r="U5" s="253" t="s">
+        <v>246</v>
+      </c>
+      <c r="V5" s="253"/>
+      <c r="W5" s="253"/>
+      <c r="X5" s="253"/>
+      <c r="Y5" s="254"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="125"/>
       <c r="B6" s="136" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C6" s="128">
         <v>1</v>
@@ -25727,18 +25748,18 @@
       <c r="T6" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="248" t="s">
-        <v>249</v>
-      </c>
-      <c r="V6" s="248"/>
-      <c r="W6" s="248"/>
-      <c r="X6" s="248"/>
-      <c r="Y6" s="249"/>
+      <c r="U6" s="253" t="s">
+        <v>247</v>
+      </c>
+      <c r="V6" s="253"/>
+      <c r="W6" s="253"/>
+      <c r="X6" s="253"/>
+      <c r="Y6" s="254"/>
     </row>
     <row r="7" spans="1:25" ht="14">
       <c r="A7" s="125"/>
       <c r="B7" s="140" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C7" s="129">
         <v>1.35</v>
@@ -25802,18 +25823,18 @@
       <c r="T7" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="248" t="s">
-        <v>250</v>
-      </c>
-      <c r="V7" s="248"/>
-      <c r="W7" s="248"/>
-      <c r="X7" s="248"/>
-      <c r="Y7" s="249"/>
+      <c r="U7" s="253" t="s">
+        <v>248</v>
+      </c>
+      <c r="V7" s="253"/>
+      <c r="W7" s="253"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="254"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="125"/>
       <c r="B8" s="140" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C8" s="129">
         <v>0.9</v>
@@ -25875,20 +25896,20 @@
       </c>
       <c r="S8" s="164"/>
       <c r="T8" s="162" t="s">
-        <v>251</v>
-      </c>
-      <c r="U8" s="250" t="s">
-        <v>252</v>
-      </c>
-      <c r="V8" s="250"/>
-      <c r="W8" s="250"/>
-      <c r="X8" s="250"/>
-      <c r="Y8" s="251"/>
+        <v>249</v>
+      </c>
+      <c r="U8" s="256" t="s">
+        <v>250</v>
+      </c>
+      <c r="V8" s="256"/>
+      <c r="W8" s="256"/>
+      <c r="X8" s="256"/>
+      <c r="Y8" s="257"/>
     </row>
     <row r="9" spans="1:25" ht="14">
       <c r="A9" s="125"/>
       <c r="B9" s="140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C9" s="129">
         <v>0.22500000000000001</v>
@@ -25953,7 +25974,7 @@
     <row r="10" spans="1:25" ht="14">
       <c r="A10" s="125"/>
       <c r="B10" s="140" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C10" s="129" t="s">
         <v>9</v>
@@ -25982,7 +26003,7 @@
       </c>
       <c r="K10" s="125"/>
       <c r="L10" s="158" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M10" s="178" t="s">
         <v>9</v>
@@ -26010,7 +26031,7 @@
     <row r="11" spans="1:25" ht="16">
       <c r="A11" s="125"/>
       <c r="B11" s="140" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C11" s="129">
         <v>0.1</v>
@@ -26080,7 +26101,7 @@
     <row r="12" spans="1:25" ht="16" customHeight="1">
       <c r="A12" s="125"/>
       <c r="B12" s="140" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C12" s="129">
         <v>0.54</v>
@@ -26114,7 +26135,7 @@
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="153" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M12" s="170">
         <f t="shared" ref="M12:M15" si="8">E12*15*4</f>
@@ -26150,7 +26171,7 @@
     <row r="13" spans="1:25" ht="16">
       <c r="A13" s="125"/>
       <c r="B13" s="140" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C13" s="129">
         <v>0.45</v>
@@ -26184,7 +26205,7 @@
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="153" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M13" s="170">
         <f t="shared" si="8"/>
@@ -26220,7 +26241,7 @@
     <row r="14" spans="1:25" ht="17">
       <c r="A14" s="125"/>
       <c r="B14" s="140" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C14" s="129" t="s">
         <v>9</v>
@@ -26251,7 +26272,7 @@
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="153" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M14" s="178" t="s">
         <v>9</v>
@@ -26284,7 +26305,7 @@
     <row r="15" spans="1:25" ht="27" customHeight="1">
       <c r="A15" s="125"/>
       <c r="B15" s="140" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C15" s="129">
         <v>0.27</v>
@@ -26318,7 +26339,7 @@
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="153" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="M15" s="170">
         <f t="shared" si="8"/>
@@ -26354,7 +26375,7 @@
     <row r="16" spans="1:25" ht="17">
       <c r="A16" s="125"/>
       <c r="B16" s="140" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C16" s="129" t="s">
         <v>9</v>
@@ -26385,7 +26406,7 @@
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="153" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M16" s="178" t="s">
         <v>9</v>
@@ -26418,7 +26439,7 @@
     <row r="17" spans="1:27" ht="16">
       <c r="A17" s="125"/>
       <c r="B17" s="140" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" s="129">
         <v>0.09</v>
@@ -26488,7 +26509,7 @@
     <row r="18" spans="1:27" ht="17">
       <c r="A18" s="125"/>
       <c r="B18" s="140" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C18" s="129" t="s">
         <v>9</v>
@@ -26519,7 +26540,7 @@
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="154" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M18" s="172" t="s">
         <v>9</v>
@@ -26552,7 +26573,7 @@
     <row r="19" spans="1:27" ht="18" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C19" s="129" t="s">
         <v>9</v>
@@ -26583,7 +26604,7 @@
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="154" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M19" s="172" t="s">
         <v>9</v>
@@ -26616,7 +26637,7 @@
     <row r="20" spans="1:27" ht="17">
       <c r="A20" s="125"/>
       <c r="B20" s="140" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="129" t="s">
         <v>9</v>
@@ -26646,7 +26667,7 @@
         <v>1.7709769696969699</v>
       </c>
       <c r="L20" s="154" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="M20" s="172" t="s">
         <v>9</v>
@@ -26679,7 +26700,7 @@
     <row r="21" spans="1:27" ht="16">
       <c r="A21" s="125"/>
       <c r="B21" s="140" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="129">
         <v>0.48</v>
@@ -26712,7 +26733,7 @@
         <v>15.496048484848485</v>
       </c>
       <c r="L21" s="154" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M21" s="170">
         <f>E21*2*30</f>
@@ -26748,7 +26769,7 @@
     <row r="22" spans="1:27" ht="16">
       <c r="A22" s="125"/>
       <c r="B22" s="140" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C22" s="130">
         <v>8.0000000000000002E-3</v>
@@ -26781,7 +26802,7 @@
         <v>4.4274424242424244</v>
       </c>
       <c r="L22" s="155" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="M22" s="170">
         <f>E22*1*30</f>
@@ -26817,7 +26838,7 @@
     <row r="23" spans="1:27" ht="16">
       <c r="A23" s="125"/>
       <c r="B23" s="140" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C23" s="130">
         <v>4.0000000000000001E-3</v>
@@ -26850,7 +26871,7 @@
         <v>1.2175466666666668</v>
       </c>
       <c r="L23" s="155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M23" s="170">
         <f>E23*1*30</f>
@@ -26886,7 +26907,7 @@
     <row r="24" spans="1:27" ht="16">
       <c r="A24" s="125"/>
       <c r="B24" s="140" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C24" s="130">
         <v>0.04</v>
@@ -26919,7 +26940,7 @@
         <v>3.3205818181818185</v>
       </c>
       <c r="L24" s="156" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M24" s="170">
         <f>E24*4*30</f>
@@ -26955,7 +26976,7 @@
     <row r="25" spans="1:27" ht="18" thickBot="1">
       <c r="A25" s="125"/>
       <c r="B25" s="142" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C25" s="143" t="s">
         <v>9</v>
@@ -26985,7 +27006,7 @@
         <v>1.6602909090909093</v>
       </c>
       <c r="L25" s="157" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M25" s="173" t="s">
         <v>9</v>
@@ -27038,13 +27059,13 @@
       <c r="X26" s="102"/>
     </row>
     <row r="27" spans="1:27" ht="16">
-      <c r="B27" s="260" t="s">
-        <v>231</v>
-      </c>
-      <c r="C27" s="260"/>
-      <c r="D27" s="260"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="260"/>
+      <c r="B27" s="246" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="246"/>
+      <c r="D27" s="246"/>
+      <c r="E27" s="246"/>
+      <c r="F27" s="246"/>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="R27" s="150"/>
@@ -27056,7 +27077,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="B29" s="71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -27099,19 +27120,19 @@
     </row>
     <row r="32" spans="1:27" ht="16">
       <c r="B32" s="125"/>
-      <c r="C32" s="243" t="s">
-        <v>268</v>
-      </c>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="244"/>
-      <c r="K32" s="244"/>
-      <c r="L32" s="244"/>
-      <c r="M32" s="245"/>
+      <c r="C32" s="249" t="s">
+        <v>266</v>
+      </c>
+      <c r="D32" s="250"/>
+      <c r="E32" s="250"/>
+      <c r="F32" s="250"/>
+      <c r="G32" s="250"/>
+      <c r="H32" s="250"/>
+      <c r="I32" s="250"/>
+      <c r="J32" s="250"/>
+      <c r="K32" s="250"/>
+      <c r="L32" s="250"/>
+      <c r="M32" s="251"/>
       <c r="N32" s="151"/>
       <c r="O32" s="151"/>
       <c r="P32"/>
@@ -27129,31 +27150,31 @@
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="125"/>
-      <c r="C33" s="246" t="s">
+      <c r="C33" s="252" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="237" t="s">
+      <c r="D33" s="225" t="s">
+        <v>198</v>
+      </c>
+      <c r="E33" s="226"/>
+      <c r="F33" s="225" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" s="226"/>
+      <c r="H33" s="225" t="s">
+        <v>197</v>
+      </c>
+      <c r="I33" s="226"/>
+      <c r="J33" s="225" t="s">
         <v>200</v>
       </c>
-      <c r="E33" s="218"/>
-      <c r="F33" s="237" t="s">
-        <v>267</v>
-      </c>
-      <c r="G33" s="218"/>
-      <c r="H33" s="237" t="s">
-        <v>199</v>
-      </c>
-      <c r="I33" s="218"/>
-      <c r="J33" s="237" t="s">
-        <v>202</v>
-      </c>
-      <c r="K33" s="218"/>
-      <c r="L33" s="237" t="s">
-        <v>203</v>
-      </c>
-      <c r="M33" s="247"/>
-      <c r="N33" s="237"/>
-      <c r="O33" s="218"/>
+      <c r="K33" s="226"/>
+      <c r="L33" s="225" t="s">
+        <v>201</v>
+      </c>
+      <c r="M33" s="261"/>
+      <c r="N33" s="225"/>
+      <c r="O33" s="226"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -27169,36 +27190,36 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="125"/>
-      <c r="C34" s="246"/>
+      <c r="C34" s="252"/>
       <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="G34" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="I34" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="J34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="K34" s="163" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="L34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="M34" s="167" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="N34" s="127"/>
       <c r="O34" s="127"/>
@@ -27449,7 +27470,7 @@
     </row>
     <row r="39" spans="2:27">
       <c r="C39" s="179" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>9</v>
@@ -27544,7 +27565,7 @@
     </row>
     <row r="41" spans="2:27" ht="14">
       <c r="C41" s="140" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D41" s="168">
         <f t="shared" ref="D41:E41" si="40">O12/1056</f>
@@ -27594,7 +27615,7 @@
     </row>
     <row r="42" spans="2:27" ht="14">
       <c r="C42" s="140" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D42" s="168">
         <f t="shared" ref="D42:E42" si="45">O13/1056</f>
@@ -27644,7 +27665,7 @@
     </row>
     <row r="43" spans="2:27" ht="14">
       <c r="C43" s="140" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D43" s="180" t="s">
         <v>9</v>
@@ -27689,7 +27710,7 @@
     </row>
     <row r="44" spans="2:27" ht="28">
       <c r="C44" s="140" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D44" s="168">
         <f t="shared" ref="D44:E44" si="53">O15/1056</f>
@@ -27739,7 +27760,7 @@
     </row>
     <row r="45" spans="2:27" ht="14">
       <c r="C45" s="140" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D45" s="180" t="s">
         <v>9</v>
@@ -27834,7 +27855,7 @@
     </row>
     <row r="47" spans="2:27" ht="14">
       <c r="C47" s="140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D47" s="180" t="s">
         <v>9</v>
@@ -27879,7 +27900,7 @@
     </row>
     <row r="48" spans="2:27" ht="14">
       <c r="C48" s="140" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D48" s="180" t="s">
         <v>9</v>
@@ -27924,7 +27945,7 @@
     </row>
     <row r="49" spans="3:27" ht="14">
       <c r="C49" s="140" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D49" s="180" t="s">
         <v>9</v>
@@ -27969,7 +27990,7 @@
     </row>
     <row r="50" spans="3:27" ht="14">
       <c r="C50" s="140" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D50" s="168">
         <f t="shared" ref="D50:E50" si="75">O21/1056</f>
@@ -28019,7 +28040,7 @@
     </row>
     <row r="51" spans="3:27" ht="14">
       <c r="C51" s="140" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D51" s="168">
         <f t="shared" ref="D51:E51" si="80">O22/1056</f>
@@ -28069,7 +28090,7 @@
     </row>
     <row r="52" spans="3:27" ht="14">
       <c r="C52" s="140" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D52" s="168">
         <f t="shared" ref="D52:E52" si="85">O23/1056</f>
@@ -28119,7 +28140,7 @@
     </row>
     <row r="53" spans="3:27" ht="28">
       <c r="C53" s="140" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D53" s="168">
         <f t="shared" ref="D53:E53" si="90">O24/1056</f>
@@ -28169,7 +28190,7 @@
     </row>
     <row r="54" spans="3:27" ht="15" thickBot="1">
       <c r="C54" s="142" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D54" s="182" t="s">
         <v>9</v>
@@ -28292,24 +28313,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="C33:C34"/>
@@ -28318,6 +28321,24 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28382,87 +28403,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="210" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="203" t="s">
         <v>149</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="210" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="203" t="s">
         <v>150</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="210" t="s">
-        <v>151</v>
-      </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -30522,7 +30543,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -30571,37 +30592,37 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="47" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>143</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -30616,15 +30637,15 @@
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -30639,15 +30660,15 @@
     </row>
     <row r="21" spans="1:18" ht="31" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -30907,6 +30928,19 @@
     <row r="89" ht="13"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -30916,19 +30950,6 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30947,742 +30968,748 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16">
-      <c r="B2" s="263" t="s">
-        <v>271</v>
-      </c>
-      <c r="C2" s="263"/>
-      <c r="D2" s="263"/>
-      <c r="E2" s="263"/>
-      <c r="F2" s="263"/>
-      <c r="G2" s="263"/>
-      <c r="H2" s="263"/>
-      <c r="I2" s="263"/>
-      <c r="J2" s="263"/>
-      <c r="K2" s="263"/>
-      <c r="L2" s="263"/>
-      <c r="M2" s="263"/>
-      <c r="N2" s="263"/>
-      <c r="O2" s="263"/>
+      <c r="B2" s="269" t="s">
+        <v>269</v>
+      </c>
+      <c r="C2" s="269"/>
+      <c r="D2" s="269"/>
+      <c r="E2" s="269"/>
+      <c r="F2" s="269"/>
+      <c r="G2" s="269"/>
+      <c r="H2" s="269"/>
+      <c r="I2" s="269"/>
+      <c r="J2" s="269"/>
+      <c r="K2" s="269"/>
+      <c r="L2" s="269"/>
+      <c r="M2" s="269"/>
+      <c r="N2" s="269"/>
+      <c r="O2" s="269"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="264" t="s">
+      <c r="C3" s="270" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="264"/>
-      <c r="E3" s="264"/>
-      <c r="F3" s="264"/>
-      <c r="G3" s="264"/>
-      <c r="H3" s="264"/>
-      <c r="I3" s="264"/>
-      <c r="J3" s="264"/>
-      <c r="K3" s="264"/>
-      <c r="L3" s="264"/>
-      <c r="M3" s="264"/>
-      <c r="N3" s="264"/>
-      <c r="O3" s="264"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="270"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="270"/>
+      <c r="M3" s="270"/>
+      <c r="N3" s="270"/>
+      <c r="O3" s="270"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="262" t="s">
+      <c r="C4" s="266" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
-      <c r="G4" s="262"/>
-      <c r="H4" s="262"/>
-      <c r="I4" s="262"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="262"/>
-      <c r="N4" s="262"/>
-      <c r="O4" s="262"/>
+      <c r="D4" s="266"/>
+      <c r="E4" s="266"/>
+      <c r="F4" s="266"/>
+      <c r="G4" s="266"/>
+      <c r="H4" s="266"/>
+      <c r="I4" s="266"/>
+      <c r="J4" s="266"/>
+      <c r="K4" s="266"/>
+      <c r="L4" s="266"/>
+      <c r="M4" s="266"/>
+      <c r="N4" s="266"/>
+      <c r="O4" s="266"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="38" customHeight="1">
       <c r="B6" s="188">
         <v>4</v>
       </c>
-      <c r="C6" s="265" t="s">
+      <c r="C6" s="267" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="265"/>
-      <c r="E6" s="265"/>
-      <c r="F6" s="265"/>
-      <c r="G6" s="265"/>
-      <c r="H6" s="265"/>
-      <c r="I6" s="265"/>
-      <c r="J6" s="265"/>
-      <c r="K6" s="265"/>
-      <c r="L6" s="265"/>
-      <c r="M6" s="265"/>
-      <c r="N6" s="265"/>
-      <c r="O6" s="265"/>
+      <c r="D6" s="267"/>
+      <c r="E6" s="267"/>
+      <c r="F6" s="267"/>
+      <c r="G6" s="267"/>
+      <c r="H6" s="267"/>
+      <c r="I6" s="267"/>
+      <c r="J6" s="267"/>
+      <c r="K6" s="267"/>
+      <c r="L6" s="267"/>
+      <c r="M6" s="267"/>
+      <c r="N6" s="267"/>
+      <c r="O6" s="267"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="196" t="s">
+      <c r="C7" s="211" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="196"/>
-      <c r="E7" s="196"/>
-      <c r="F7" s="196"/>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
+      <c r="D7" s="211"/>
+      <c r="E7" s="211"/>
+      <c r="F7" s="211"/>
+      <c r="G7" s="211"/>
+      <c r="H7" s="211"/>
+      <c r="I7" s="211"/>
+      <c r="J7" s="211"/>
+      <c r="K7" s="211"/>
+      <c r="L7" s="211"/>
+      <c r="M7" s="211"/>
+      <c r="N7" s="211"/>
+      <c r="O7" s="211"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="262" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="262"/>
-      <c r="E8" s="262"/>
-      <c r="F8" s="262"/>
-      <c r="G8" s="262"/>
-      <c r="H8" s="262"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
-      <c r="K8" s="262"/>
-      <c r="L8" s="262"/>
-      <c r="M8" s="262"/>
-      <c r="N8" s="262"/>
-      <c r="O8" s="262"/>
+      <c r="C8" s="266" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="266"/>
+      <c r="E8" s="266"/>
+      <c r="F8" s="266"/>
+      <c r="G8" s="266"/>
+      <c r="H8" s="266"/>
+      <c r="I8" s="266"/>
+      <c r="J8" s="266"/>
+      <c r="K8" s="266"/>
+      <c r="L8" s="266"/>
+      <c r="M8" s="266"/>
+      <c r="N8" s="266"/>
+      <c r="O8" s="266"/>
     </row>
     <row r="9" spans="2:15" s="3" customFormat="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="196" t="s">
-        <v>146</v>
-      </c>
-      <c r="D9" s="196"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="196"/>
-      <c r="G9" s="196"/>
-      <c r="H9" s="196"/>
-      <c r="I9" s="196"/>
-      <c r="J9" s="196"/>
-      <c r="K9" s="196"/>
-      <c r="L9" s="196"/>
-      <c r="M9" s="196"/>
-      <c r="N9" s="196"/>
-      <c r="O9" s="196"/>
+      <c r="C9" s="211" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="211"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="211"/>
+      <c r="K9" s="211"/>
+      <c r="L9" s="211"/>
+      <c r="M9" s="211"/>
+      <c r="N9" s="211"/>
+      <c r="O9" s="211"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="196" t="s">
-        <v>145</v>
-      </c>
-      <c r="D10" s="196"/>
-      <c r="E10" s="196"/>
-      <c r="F10" s="196"/>
-      <c r="G10" s="196"/>
-      <c r="H10" s="196"/>
-      <c r="I10" s="196"/>
-      <c r="J10" s="196"/>
-      <c r="K10" s="196"/>
-      <c r="L10" s="196"/>
-      <c r="M10" s="196"/>
-      <c r="N10" s="196"/>
-      <c r="O10" s="196"/>
+      <c r="C10" s="211" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" s="211"/>
+      <c r="E10" s="211"/>
+      <c r="F10" s="211"/>
+      <c r="G10" s="211"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="211"/>
+      <c r="K10" s="211"/>
+      <c r="L10" s="211"/>
+      <c r="M10" s="211"/>
+      <c r="N10" s="211"/>
+      <c r="O10" s="211"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="202" t="s">
-        <v>273</v>
-      </c>
-      <c r="D11" s="196"/>
-      <c r="E11" s="196"/>
-      <c r="F11" s="196"/>
-      <c r="G11" s="196"/>
-      <c r="H11" s="196"/>
-      <c r="I11" s="196"/>
-      <c r="J11" s="196"/>
-      <c r="K11" s="196"/>
-      <c r="L11" s="196"/>
-      <c r="M11" s="196"/>
-      <c r="N11" s="196"/>
-      <c r="O11" s="196"/>
+      <c r="C11" s="192" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="211"/>
+      <c r="E11" s="211"/>
+      <c r="F11" s="211"/>
+      <c r="G11" s="211"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="211"/>
+      <c r="K11" s="211"/>
+      <c r="L11" s="211"/>
+      <c r="M11" s="211"/>
+      <c r="N11" s="211"/>
+      <c r="O11" s="211"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="202" t="s">
-        <v>272</v>
-      </c>
-      <c r="D12" s="196"/>
-      <c r="E12" s="196"/>
-      <c r="F12" s="196"/>
-      <c r="G12" s="196"/>
-      <c r="H12" s="196"/>
-      <c r="I12" s="196"/>
-      <c r="J12" s="196"/>
-      <c r="K12" s="196"/>
-      <c r="L12" s="196"/>
-      <c r="M12" s="196"/>
-      <c r="N12" s="196"/>
-      <c r="O12" s="196"/>
+      <c r="C12" s="192" t="s">
+        <v>270</v>
+      </c>
+      <c r="D12" s="211"/>
+      <c r="E12" s="211"/>
+      <c r="F12" s="211"/>
+      <c r="G12" s="211"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="211"/>
+      <c r="K12" s="211"/>
+      <c r="L12" s="211"/>
+      <c r="M12" s="211"/>
+      <c r="N12" s="211"/>
+      <c r="O12" s="211"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="196" t="s">
-        <v>142</v>
-      </c>
-      <c r="D13" s="196"/>
-      <c r="E13" s="196"/>
-      <c r="F13" s="196"/>
-      <c r="G13" s="196"/>
-      <c r="H13" s="196"/>
-      <c r="I13" s="196"/>
-      <c r="J13" s="196"/>
-      <c r="K13" s="196"/>
-      <c r="L13" s="196"/>
-      <c r="M13" s="196"/>
-      <c r="N13" s="196"/>
-      <c r="O13" s="196"/>
+      <c r="C13" s="211" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" s="211"/>
+      <c r="E13" s="211"/>
+      <c r="F13" s="211"/>
+      <c r="G13" s="211"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="211"/>
+      <c r="J13" s="211"/>
+      <c r="K13" s="211"/>
+      <c r="L13" s="211"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="211"/>
+      <c r="O13" s="211"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="262" t="s">
+      <c r="C14" s="266" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="262"/>
-      <c r="E14" s="262"/>
-      <c r="F14" s="262"/>
-      <c r="G14" s="262"/>
-      <c r="H14" s="262"/>
-      <c r="I14" s="262"/>
-      <c r="J14" s="262"/>
-      <c r="K14" s="262"/>
-      <c r="L14" s="262"/>
-      <c r="M14" s="262"/>
-      <c r="N14" s="262"/>
-      <c r="O14" s="262"/>
+      <c r="D14" s="266"/>
+      <c r="E14" s="266"/>
+      <c r="F14" s="266"/>
+      <c r="G14" s="266"/>
+      <c r="H14" s="266"/>
+      <c r="I14" s="266"/>
+      <c r="J14" s="266"/>
+      <c r="K14" s="266"/>
+      <c r="L14" s="266"/>
+      <c r="M14" s="266"/>
+      <c r="N14" s="266"/>
+      <c r="O14" s="266"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="262" t="s">
+      <c r="C15" s="266" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="262"/>
-      <c r="E15" s="262"/>
-      <c r="F15" s="262"/>
-      <c r="G15" s="262"/>
-      <c r="H15" s="262"/>
-      <c r="I15" s="262"/>
-      <c r="J15" s="262"/>
-      <c r="K15" s="262"/>
-      <c r="L15" s="262"/>
-      <c r="M15" s="262"/>
-      <c r="N15" s="262"/>
-      <c r="O15" s="262"/>
+      <c r="D15" s="266"/>
+      <c r="E15" s="266"/>
+      <c r="F15" s="266"/>
+      <c r="G15" s="266"/>
+      <c r="H15" s="266"/>
+      <c r="I15" s="266"/>
+      <c r="J15" s="266"/>
+      <c r="K15" s="266"/>
+      <c r="L15" s="266"/>
+      <c r="M15" s="266"/>
+      <c r="N15" s="266"/>
+      <c r="O15" s="266"/>
     </row>
     <row r="16" spans="2:15" ht="29" customHeight="1">
       <c r="B16" s="188">
         <v>14</v>
       </c>
-      <c r="C16" s="265" t="s">
-        <v>182</v>
-      </c>
-      <c r="D16" s="265"/>
-      <c r="E16" s="265"/>
-      <c r="F16" s="265"/>
-      <c r="G16" s="265"/>
-      <c r="H16" s="265"/>
-      <c r="I16" s="265"/>
-      <c r="J16" s="265"/>
-      <c r="K16" s="265"/>
-      <c r="L16" s="265"/>
-      <c r="M16" s="265"/>
-      <c r="N16" s="265"/>
-      <c r="O16" s="265"/>
+      <c r="C16" s="267" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="267"/>
+      <c r="E16" s="267"/>
+      <c r="F16" s="267"/>
+      <c r="G16" s="267"/>
+      <c r="H16" s="267"/>
+      <c r="I16" s="267"/>
+      <c r="J16" s="267"/>
+      <c r="K16" s="267"/>
+      <c r="L16" s="267"/>
+      <c r="M16" s="267"/>
+      <c r="N16" s="267"/>
+      <c r="O16" s="267"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="267" t="s">
+      <c r="C17" s="268" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="267"/>
-      <c r="E17" s="267"/>
-      <c r="F17" s="267"/>
-      <c r="G17" s="267"/>
-      <c r="H17" s="267"/>
-      <c r="I17" s="267"/>
-      <c r="J17" s="267"/>
-      <c r="K17" s="267"/>
-      <c r="L17" s="267"/>
-      <c r="M17" s="267"/>
-      <c r="N17" s="267"/>
-      <c r="O17" s="267"/>
+      <c r="D17" s="268"/>
+      <c r="E17" s="268"/>
+      <c r="F17" s="268"/>
+      <c r="G17" s="268"/>
+      <c r="H17" s="268"/>
+      <c r="I17" s="268"/>
+      <c r="J17" s="268"/>
+      <c r="K17" s="268"/>
+      <c r="L17" s="268"/>
+      <c r="M17" s="268"/>
+      <c r="N17" s="268"/>
+      <c r="O17" s="268"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="266" t="s">
+      <c r="C18" s="262" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="266"/>
-      <c r="E18" s="266"/>
-      <c r="F18" s="266"/>
-      <c r="G18" s="266"/>
-      <c r="H18" s="266"/>
-      <c r="I18" s="266"/>
-      <c r="J18" s="266"/>
-      <c r="K18" s="266"/>
-      <c r="L18" s="266"/>
-      <c r="M18" s="266"/>
-      <c r="N18" s="266"/>
-      <c r="O18" s="266"/>
+      <c r="D18" s="262"/>
+      <c r="E18" s="262"/>
+      <c r="F18" s="262"/>
+      <c r="G18" s="262"/>
+      <c r="H18" s="262"/>
+      <c r="I18" s="262"/>
+      <c r="J18" s="262"/>
+      <c r="K18" s="262"/>
+      <c r="L18" s="262"/>
+      <c r="M18" s="262"/>
+      <c r="N18" s="262"/>
+      <c r="O18" s="262"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="266" t="s">
+      <c r="C19" s="262" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="266"/>
-      <c r="E19" s="266"/>
-      <c r="F19" s="266"/>
-      <c r="G19" s="266"/>
-      <c r="H19" s="266"/>
-      <c r="I19" s="266"/>
-      <c r="J19" s="266"/>
-      <c r="K19" s="266"/>
-      <c r="L19" s="266"/>
-      <c r="M19" s="266"/>
-      <c r="N19" s="266"/>
-      <c r="O19" s="266"/>
+      <c r="D19" s="262"/>
+      <c r="E19" s="262"/>
+      <c r="F19" s="262"/>
+      <c r="G19" s="262"/>
+      <c r="H19" s="262"/>
+      <c r="I19" s="262"/>
+      <c r="J19" s="262"/>
+      <c r="K19" s="262"/>
+      <c r="L19" s="262"/>
+      <c r="M19" s="262"/>
+      <c r="N19" s="262"/>
+      <c r="O19" s="262"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="266" t="s">
+      <c r="C20" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="266"/>
-      <c r="E20" s="266"/>
-      <c r="F20" s="266"/>
-      <c r="G20" s="266"/>
-      <c r="H20" s="266"/>
-      <c r="I20" s="266"/>
-      <c r="J20" s="266"/>
-      <c r="K20" s="266"/>
-      <c r="L20" s="266"/>
-      <c r="M20" s="266"/>
-      <c r="N20" s="266"/>
-      <c r="O20" s="266"/>
+      <c r="D20" s="262"/>
+      <c r="E20" s="262"/>
+      <c r="F20" s="262"/>
+      <c r="G20" s="262"/>
+      <c r="H20" s="262"/>
+      <c r="I20" s="262"/>
+      <c r="J20" s="262"/>
+      <c r="K20" s="262"/>
+      <c r="L20" s="262"/>
+      <c r="M20" s="262"/>
+      <c r="N20" s="262"/>
+      <c r="O20" s="262"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="266" t="s">
+      <c r="C21" s="262" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="266"/>
-      <c r="E21" s="266"/>
-      <c r="F21" s="266"/>
-      <c r="G21" s="266"/>
-      <c r="H21" s="266"/>
-      <c r="I21" s="266"/>
-      <c r="J21" s="266"/>
-      <c r="K21" s="266"/>
-      <c r="L21" s="266"/>
-      <c r="M21" s="266"/>
-      <c r="N21" s="266"/>
-      <c r="O21" s="266"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="262"/>
+      <c r="I21" s="262"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
+      <c r="O21" s="262"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="202" t="s">
-        <v>238</v>
-      </c>
-      <c r="D22" s="202"/>
-      <c r="E22" s="202"/>
-      <c r="F22" s="202"/>
-      <c r="G22" s="202"/>
-      <c r="H22" s="202"/>
-      <c r="I22" s="202"/>
-      <c r="J22" s="202"/>
-      <c r="K22" s="202"/>
-      <c r="L22" s="202"/>
-      <c r="M22" s="202"/>
-      <c r="N22" s="202"/>
-      <c r="O22" s="202"/>
+      <c r="C22" s="192" t="s">
+        <v>236</v>
+      </c>
+      <c r="D22" s="192"/>
+      <c r="E22" s="192"/>
+      <c r="F22" s="192"/>
+      <c r="G22" s="192"/>
+      <c r="H22" s="192"/>
+      <c r="I22" s="192"/>
+      <c r="J22" s="192"/>
+      <c r="K22" s="192"/>
+      <c r="L22" s="192"/>
+      <c r="M22" s="192"/>
+      <c r="N22" s="192"/>
+      <c r="O22" s="192"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="266" t="s">
+      <c r="C23" s="262" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="266"/>
-      <c r="E23" s="266"/>
-      <c r="F23" s="266"/>
-      <c r="G23" s="266"/>
-      <c r="H23" s="266"/>
-      <c r="I23" s="266"/>
-      <c r="J23" s="266"/>
-      <c r="K23" s="266"/>
-      <c r="L23" s="266"/>
-      <c r="M23" s="266"/>
-      <c r="N23" s="266"/>
-      <c r="O23" s="266"/>
+      <c r="D23" s="262"/>
+      <c r="E23" s="262"/>
+      <c r="F23" s="262"/>
+      <c r="G23" s="262"/>
+      <c r="H23" s="262"/>
+      <c r="I23" s="262"/>
+      <c r="J23" s="262"/>
+      <c r="K23" s="262"/>
+      <c r="L23" s="262"/>
+      <c r="M23" s="262"/>
+      <c r="N23" s="262"/>
+      <c r="O23" s="262"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="266" t="s">
+      <c r="C24" s="262" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="266"/>
-      <c r="E24" s="266"/>
-      <c r="F24" s="266"/>
-      <c r="G24" s="266"/>
-      <c r="H24" s="266"/>
-      <c r="I24" s="266"/>
-      <c r="J24" s="266"/>
-      <c r="K24" s="266"/>
-      <c r="L24" s="266"/>
-      <c r="M24" s="266"/>
-      <c r="N24" s="266"/>
-      <c r="O24" s="266"/>
+      <c r="D24" s="262"/>
+      <c r="E24" s="262"/>
+      <c r="F24" s="262"/>
+      <c r="G24" s="262"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="262"/>
+      <c r="J24" s="262"/>
+      <c r="K24" s="262"/>
+      <c r="L24" s="262"/>
+      <c r="M24" s="262"/>
+      <c r="N24" s="262"/>
+      <c r="O24" s="262"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="266" t="s">
+      <c r="C25" s="262" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="266"/>
-      <c r="E25" s="266"/>
-      <c r="F25" s="266"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="266"/>
-      <c r="I25" s="266"/>
-      <c r="J25" s="266"/>
-      <c r="K25" s="266"/>
-      <c r="L25" s="266"/>
-      <c r="M25" s="266"/>
-      <c r="N25" s="266"/>
-      <c r="O25" s="266"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262"/>
+      <c r="H25" s="262"/>
+      <c r="I25" s="262"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262"/>
+      <c r="O25" s="262"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="266" t="s">
+      <c r="C26" s="262" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="266"/>
-      <c r="E26" s="266"/>
-      <c r="F26" s="266"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="266"/>
-      <c r="I26" s="266"/>
-      <c r="J26" s="266"/>
-      <c r="K26" s="266"/>
-      <c r="L26" s="266"/>
-      <c r="M26" s="266"/>
-      <c r="N26" s="266"/>
-      <c r="O26" s="266"/>
+      <c r="D26" s="262"/>
+      <c r="E26" s="262"/>
+      <c r="F26" s="262"/>
+      <c r="G26" s="262"/>
+      <c r="H26" s="262"/>
+      <c r="I26" s="262"/>
+      <c r="J26" s="262"/>
+      <c r="K26" s="262"/>
+      <c r="L26" s="262"/>
+      <c r="M26" s="262"/>
+      <c r="N26" s="262"/>
+      <c r="O26" s="262"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="266" t="s">
+      <c r="C27" s="262" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="266"/>
-      <c r="E27" s="266"/>
-      <c r="F27" s="266"/>
-      <c r="G27" s="266"/>
-      <c r="H27" s="266"/>
-      <c r="I27" s="266"/>
-      <c r="J27" s="266"/>
-      <c r="K27" s="266"/>
-      <c r="L27" s="266"/>
-      <c r="M27" s="266"/>
-      <c r="N27" s="266"/>
-      <c r="O27" s="266"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="262"/>
+      <c r="G27" s="262"/>
+      <c r="H27" s="262"/>
+      <c r="I27" s="262"/>
+      <c r="J27" s="262"/>
+      <c r="K27" s="262"/>
+      <c r="L27" s="262"/>
+      <c r="M27" s="262"/>
+      <c r="N27" s="262"/>
+      <c r="O27" s="262"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="266" t="s">
+      <c r="C28" s="262" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="266"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="266"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="266"/>
-      <c r="I28" s="266"/>
-      <c r="J28" s="266"/>
-      <c r="K28" s="266"/>
-      <c r="L28" s="266"/>
-      <c r="M28" s="266"/>
-      <c r="N28" s="266"/>
-      <c r="O28" s="266"/>
+      <c r="D28" s="262"/>
+      <c r="E28" s="262"/>
+      <c r="F28" s="262"/>
+      <c r="G28" s="262"/>
+      <c r="H28" s="262"/>
+      <c r="I28" s="262"/>
+      <c r="J28" s="262"/>
+      <c r="K28" s="262"/>
+      <c r="L28" s="262"/>
+      <c r="M28" s="262"/>
+      <c r="N28" s="262"/>
+      <c r="O28" s="262"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="266" t="s">
+      <c r="C29" s="262" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="266"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="266"/>
-      <c r="G29" s="266"/>
-      <c r="H29" s="266"/>
-      <c r="I29" s="266"/>
-      <c r="J29" s="266"/>
-      <c r="K29" s="266"/>
-      <c r="L29" s="266"/>
-      <c r="M29" s="266"/>
-      <c r="N29" s="266"/>
-      <c r="O29" s="266"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="262"/>
+      <c r="F29" s="262"/>
+      <c r="G29" s="262"/>
+      <c r="H29" s="262"/>
+      <c r="I29" s="262"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="262"/>
+      <c r="M29" s="262"/>
+      <c r="N29" s="262"/>
+      <c r="O29" s="262"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="266" t="s">
+      <c r="C30" s="262" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="266"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="266"/>
-      <c r="G30" s="266"/>
-      <c r="H30" s="266"/>
-      <c r="I30" s="266"/>
-      <c r="J30" s="266"/>
-      <c r="K30" s="266"/>
-      <c r="L30" s="266"/>
-      <c r="M30" s="266"/>
-      <c r="N30" s="266"/>
-      <c r="O30" s="266"/>
+      <c r="D30" s="262"/>
+      <c r="E30" s="262"/>
+      <c r="F30" s="262"/>
+      <c r="G30" s="262"/>
+      <c r="H30" s="262"/>
+      <c r="I30" s="262"/>
+      <c r="J30" s="262"/>
+      <c r="K30" s="262"/>
+      <c r="L30" s="262"/>
+      <c r="M30" s="262"/>
+      <c r="N30" s="262"/>
+      <c r="O30" s="262"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="266" t="s">
+      <c r="C31" s="262" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="266"/>
-      <c r="E31" s="266"/>
-      <c r="F31" s="266"/>
-      <c r="G31" s="266"/>
-      <c r="H31" s="266"/>
-      <c r="I31" s="266"/>
-      <c r="J31" s="266"/>
-      <c r="K31" s="266"/>
-      <c r="L31" s="266"/>
-      <c r="M31" s="266"/>
-      <c r="N31" s="266"/>
-      <c r="O31" s="266"/>
+      <c r="D31" s="262"/>
+      <c r="E31" s="262"/>
+      <c r="F31" s="262"/>
+      <c r="G31" s="262"/>
+      <c r="H31" s="262"/>
+      <c r="I31" s="262"/>
+      <c r="J31" s="262"/>
+      <c r="K31" s="262"/>
+      <c r="L31" s="262"/>
+      <c r="M31" s="262"/>
+      <c r="N31" s="262"/>
+      <c r="O31" s="262"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="266" t="s">
+      <c r="C32" s="262" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="266"/>
-      <c r="E32" s="266"/>
-      <c r="F32" s="266"/>
-      <c r="G32" s="266"/>
-      <c r="H32" s="266"/>
-      <c r="I32" s="266"/>
-      <c r="J32" s="266"/>
-      <c r="K32" s="266"/>
-      <c r="L32" s="266"/>
-      <c r="M32" s="266"/>
-      <c r="N32" s="266"/>
-      <c r="O32" s="266"/>
+      <c r="D32" s="262"/>
+      <c r="E32" s="262"/>
+      <c r="F32" s="262"/>
+      <c r="G32" s="262"/>
+      <c r="H32" s="262"/>
+      <c r="I32" s="262"/>
+      <c r="J32" s="262"/>
+      <c r="K32" s="262"/>
+      <c r="L32" s="262"/>
+      <c r="M32" s="262"/>
+      <c r="N32" s="262"/>
+      <c r="O32" s="262"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="266" t="s">
+      <c r="C33" s="262" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="266"/>
-      <c r="E33" s="266"/>
-      <c r="F33" s="266"/>
-      <c r="G33" s="266"/>
-      <c r="H33" s="266"/>
-      <c r="I33" s="266"/>
-      <c r="J33" s="266"/>
-      <c r="K33" s="266"/>
-      <c r="L33" s="266"/>
-      <c r="M33" s="266"/>
-      <c r="N33" s="266"/>
-      <c r="O33" s="266"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="262"/>
+      <c r="H33" s="262"/>
+      <c r="I33" s="262"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="262"/>
+      <c r="L33" s="262"/>
+      <c r="M33" s="262"/>
+      <c r="N33" s="262"/>
+      <c r="O33" s="262"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="266" t="s">
+      <c r="C34" s="262" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="266"/>
-      <c r="E34" s="266"/>
-      <c r="F34" s="266"/>
-      <c r="G34" s="266"/>
-      <c r="H34" s="266"/>
-      <c r="I34" s="266"/>
-      <c r="J34" s="266"/>
-      <c r="K34" s="266"/>
-      <c r="L34" s="266"/>
-      <c r="M34" s="266"/>
-      <c r="N34" s="266"/>
-      <c r="O34" s="266"/>
+      <c r="D34" s="262"/>
+      <c r="E34" s="262"/>
+      <c r="F34" s="262"/>
+      <c r="G34" s="262"/>
+      <c r="H34" s="262"/>
+      <c r="I34" s="262"/>
+      <c r="J34" s="262"/>
+      <c r="K34" s="262"/>
+      <c r="L34" s="262"/>
+      <c r="M34" s="262"/>
+      <c r="N34" s="262"/>
+      <c r="O34" s="262"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="266" t="s">
+      <c r="C35" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="266"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
-      <c r="H35" s="266"/>
-      <c r="I35" s="266"/>
-      <c r="J35" s="266"/>
-      <c r="K35" s="266"/>
-      <c r="L35" s="266"/>
-      <c r="M35" s="266"/>
-      <c r="N35" s="266"/>
-      <c r="O35" s="266"/>
+      <c r="D35" s="262"/>
+      <c r="E35" s="262"/>
+      <c r="F35" s="262"/>
+      <c r="G35" s="262"/>
+      <c r="H35" s="262"/>
+      <c r="I35" s="262"/>
+      <c r="J35" s="262"/>
+      <c r="K35" s="262"/>
+      <c r="L35" s="262"/>
+      <c r="M35" s="262"/>
+      <c r="N35" s="262"/>
+      <c r="O35" s="262"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="270" t="s">
+      <c r="C36" s="265" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="270"/>
-      <c r="E36" s="270"/>
-      <c r="F36" s="270"/>
-      <c r="G36" s="270"/>
-      <c r="H36" s="270"/>
-      <c r="I36" s="270"/>
-      <c r="J36" s="270"/>
-      <c r="K36" s="270"/>
-      <c r="L36" s="270"/>
-      <c r="M36" s="270"/>
-      <c r="N36" s="270"/>
-      <c r="O36" s="270"/>
+      <c r="D36" s="265"/>
+      <c r="E36" s="265"/>
+      <c r="F36" s="265"/>
+      <c r="G36" s="265"/>
+      <c r="H36" s="265"/>
+      <c r="I36" s="265"/>
+      <c r="J36" s="265"/>
+      <c r="K36" s="265"/>
+      <c r="L36" s="265"/>
+      <c r="M36" s="265"/>
+      <c r="N36" s="265"/>
+      <c r="O36" s="265"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="189">
         <v>35</v>
       </c>
-      <c r="C37" s="268" t="s">
-        <v>277</v>
-      </c>
-      <c r="D37" s="268"/>
-      <c r="E37" s="268"/>
-      <c r="F37" s="268"/>
-      <c r="G37" s="268"/>
-      <c r="H37" s="268"/>
-      <c r="I37" s="268"/>
-      <c r="J37" s="268"/>
-      <c r="K37" s="268"/>
-      <c r="L37" s="268"/>
-      <c r="M37" s="268"/>
-      <c r="N37" s="268"/>
-      <c r="O37" s="268"/>
+      <c r="C37" s="263" t="s">
+        <v>274</v>
+      </c>
+      <c r="D37" s="263"/>
+      <c r="E37" s="263"/>
+      <c r="F37" s="263"/>
+      <c r="G37" s="263"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="263"/>
+      <c r="J37" s="263"/>
+      <c r="K37" s="263"/>
+      <c r="L37" s="263"/>
+      <c r="M37" s="263"/>
+      <c r="N37" s="263"/>
+      <c r="O37" s="263"/>
     </row>
     <row r="38" spans="2:15" ht="29" customHeight="1">
       <c r="B38" s="188">
         <v>36</v>
       </c>
-      <c r="C38" s="269" t="s">
-        <v>279</v>
-      </c>
-      <c r="D38" s="269"/>
-      <c r="E38" s="269"/>
-      <c r="F38" s="269"/>
-      <c r="G38" s="269"/>
-      <c r="H38" s="269"/>
-      <c r="I38" s="269"/>
-      <c r="J38" s="269"/>
-      <c r="K38" s="269"/>
-      <c r="L38" s="269"/>
-      <c r="M38" s="269"/>
-      <c r="N38" s="269"/>
-      <c r="O38" s="269"/>
+      <c r="C38" s="264" t="s">
+        <v>275</v>
+      </c>
+      <c r="D38" s="264"/>
+      <c r="E38" s="264"/>
+      <c r="F38" s="264"/>
+      <c r="G38" s="264"/>
+      <c r="H38" s="264"/>
+      <c r="I38" s="264"/>
+      <c r="J38" s="264"/>
+      <c r="K38" s="264"/>
+      <c r="L38" s="264"/>
+      <c r="M38" s="264"/>
+      <c r="N38" s="264"/>
+      <c r="O38" s="264"/>
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C30:O30"/>
-    <mergeCell ref="C31:O31"/>
-    <mergeCell ref="C37:O37"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C27:O27"/>
+    <mergeCell ref="C28:O28"/>
+    <mergeCell ref="C29:O29"/>
+    <mergeCell ref="C9:O9"/>
+    <mergeCell ref="C10:O10"/>
+    <mergeCell ref="C11:O11"/>
+    <mergeCell ref="C12:O12"/>
+    <mergeCell ref="C14:O14"/>
+    <mergeCell ref="C13:O13"/>
     <mergeCell ref="C26:O26"/>
     <mergeCell ref="C15:O15"/>
     <mergeCell ref="C16:O16"/>
@@ -31695,21 +31722,15 @@
     <mergeCell ref="C23:O23"/>
     <mergeCell ref="C24:O24"/>
     <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C27:O27"/>
-    <mergeCell ref="C28:O28"/>
-    <mergeCell ref="C29:O29"/>
-    <mergeCell ref="C9:O9"/>
-    <mergeCell ref="C10:O10"/>
-    <mergeCell ref="C11:O11"/>
-    <mergeCell ref="C12:O12"/>
-    <mergeCell ref="C14:O14"/>
-    <mergeCell ref="C13:O13"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31773,87 +31794,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="214"/>
+      <c r="A2" s="209" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="215"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="215"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -33961,34 +33982,34 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="A16" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="68">
         <f>SUM(B4:B15)</f>
         <v>589.39900000000011</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -34003,15 +34024,15 @@
     </row>
     <row r="19" spans="2:18" ht="13">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -34026,15 +34047,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -34049,15 +34070,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -34227,6 +34248,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -34240,15 +34270,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34313,87 +34334,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="215"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -36546,34 +36567,34 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="A16" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B16" s="68">
         <f>SUM(B4:B15)</f>
         <v>6634.9010000000007</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -36588,15 +36609,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>154</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -36611,15 +36632,15 @@
     </row>
     <row r="20" spans="2:18" ht="13">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -36634,15 +36655,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -36673,7 +36694,7 @@
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
       <c r="B23" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="71"/>
@@ -36817,13 +36838,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="AG16:AI16"/>
     <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
@@ -36832,13 +36853,13 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36903,87 +36924,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
       </c>
       <c r="T2" s="216"/>
-      <c r="U2" s="204" t="s">
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -39043,7 +39064,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -39091,12 +39112,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="68"/>
@@ -39104,15 +39125,15 @@
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -39127,15 +39148,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -39150,15 +39171,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -39173,15 +39194,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -39367,12 +39388,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:B2"/>
@@ -39389,6 +39404,12 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39452,87 +39473,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -41595,7 +41616,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -41691,27 +41712,27 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -41726,15 +41747,15 @@
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>159</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>158</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -41749,15 +41770,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -41772,15 +41793,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -41966,6 +41987,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -41979,15 +42009,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42050,87 +42071,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="214"/>
+      <c r="A2" s="209" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="215"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -44190,7 +44211,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -44285,12 +44306,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -44310,15 +44331,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C19" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -44333,15 +44354,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D20" s="191"/>
-      <c r="E20" s="191"/>
-      <c r="F20" s="191"/>
-      <c r="G20" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C20" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -44356,15 +44377,15 @@
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
       <c r="B21" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D21" s="196"/>
-      <c r="E21" s="196"/>
-      <c r="F21" s="196"/>
-      <c r="G21" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C21" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D21" s="211"/>
+      <c r="E21" s="211"/>
+      <c r="F21" s="211"/>
+      <c r="G21" s="211"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -44379,15 +44400,15 @@
     </row>
     <row r="22" spans="2:18" ht="28" customHeight="1">
       <c r="B22" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C22" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D22" s="191"/>
-      <c r="E22" s="191"/>
-      <c r="F22" s="191"/>
-      <c r="G22" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C22" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D22" s="210"/>
+      <c r="E22" s="210"/>
+      <c r="F22" s="210"/>
+      <c r="G22" s="210"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -44557,6 +44578,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -44570,15 +44600,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44643,87 +44664,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -46782,7 +46803,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -46877,27 +46898,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -46912,15 +46933,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -46935,15 +46956,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -46958,15 +46979,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -47152,6 +47173,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -47165,15 +47195,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47237,87 +47258,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="201" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="201"/>
+      <c r="A2" s="209" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="209"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="200" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="207" t="s">
+      <c r="E2" s="201"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="213" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="212" t="s">
+      <c r="H2" s="201"/>
+      <c r="I2" s="201"/>
+      <c r="J2" s="204" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="212" t="s">
+      <c r="K2" s="201"/>
+      <c r="L2" s="201"/>
+      <c r="M2" s="204" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="211" t="s">
+      <c r="N2" s="201"/>
+      <c r="O2" s="202"/>
+      <c r="P2" s="205" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="213" t="s">
-        <v>282</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="201"/>
+      <c r="R2" s="202"/>
+      <c r="S2" s="206" t="s">
+        <v>278</v>
+      </c>
+      <c r="T2" s="202"/>
+      <c r="U2" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="201"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="201"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="201"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="213" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="201"/>
+      <c r="AF2" s="202"/>
+      <c r="AG2" s="213" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="201"/>
+      <c r="AI2" s="202"/>
+      <c r="AJ2" s="213" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="211" t="s">
+      <c r="AK2" s="201"/>
+      <c r="AL2" s="202"/>
+      <c r="AM2" s="205" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="211" t="s">
+      <c r="AN2" s="201"/>
+      <c r="AO2" s="202"/>
+      <c r="AP2" s="205" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="211" t="s">
+      <c r="AQ2" s="201"/>
+      <c r="AR2" s="202"/>
+      <c r="AS2" s="205" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="201"/>
+      <c r="AU2" s="202"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -49377,7 +49398,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -49472,27 +49493,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="208"/>
-      <c r="AH16" s="209"/>
-      <c r="AI16" s="209"/>
-      <c r="AP16" s="208"/>
-      <c r="AQ16" s="209"/>
-      <c r="AR16" s="209"/>
+      <c r="AG16" s="207"/>
+      <c r="AH16" s="208"/>
+      <c r="AI16" s="208"/>
+      <c r="AP16" s="207"/>
+      <c r="AQ16" s="208"/>
+      <c r="AR16" s="208"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="203" t="s">
+        <v>138</v>
+      </c>
+      <c r="C18" s="212" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -49507,15 +49528,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="191" t="s">
-        <v>141</v>
-      </c>
-      <c r="D19" s="191"/>
-      <c r="E19" s="191"/>
-      <c r="F19" s="191"/>
-      <c r="G19" s="191"/>
+        <v>137</v>
+      </c>
+      <c r="C19" s="210" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -49530,15 +49551,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="202" t="s">
-        <v>283</v>
-      </c>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
+        <v>146</v>
+      </c>
+      <c r="C20" s="192" t="s">
+        <v>279</v>
+      </c>
+      <c r="D20" s="211"/>
+      <c r="E20" s="211"/>
+      <c r="F20" s="211"/>
+      <c r="G20" s="211"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -49553,15 +49574,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>152</v>
-      </c>
-      <c r="C21" s="190" t="s">
-        <v>274</v>
-      </c>
-      <c r="D21" s="191"/>
-      <c r="E21" s="191"/>
-      <c r="F21" s="191"/>
-      <c r="G21" s="191"/>
+        <v>151</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -49747,6 +49768,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -49760,15 +49790,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InternetFootprint_Final.xlsx
+++ b/InternetFootprint_Final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robringer/Library/Mobile Documents/com~apple~CloudDocs/Documents/Research/2020_21/datafootprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C8EBAE0-E7E7-6748-A9A0-20D0D3A0AA39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54673834-2982-F948-84AD-CA7985FBCFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2240" yWindow="460" windowWidth="24580" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="288">
   <si>
     <t>Netflix</t>
   </si>
@@ -1081,6 +1081,12 @@
   <si>
     <t xml:space="preserve">The electricity used for data storage and transmission was assumed to be constant across the entire globe based on the value estimated by [1,36]. Thus, these estimations may under-estimate the environmental footprint of internet use, especially in countries with developing economies, which are likely to consume more electricity for data storage and transmission. Additionally, the estimates may overestimate the environmental footprint in countries with a better state of technology (e.g., US and Europe), where efficiency improvements have been made since the publication of [1]. That being said, the results presented in [1,36] are the most recent peer-reviewed data available and thus were considered to be adequate for this rough estimation. </t>
   </si>
+  <si>
+    <t>https://www.epa.gov/energy/greenhouse-gas-equivalencies-calculator</t>
+  </si>
+  <si>
+    <t>NOTE: The carbon footprint conversions were calculated using the US Environmental Protection Agency's Greenhouse Gas Equivalencies Calculator [37].</t>
+  </si>
 </sst>
 </file>
 
@@ -1749,7 +1755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2062,20 +2068,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2083,36 +2096,12 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2125,57 +2114,44 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2198,6 +2174,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2206,24 +2194,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2237,11 +2229,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2253,10 +2245,43 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2269,22 +2294,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2537,19 +2550,19 @@
     </row>
     <row r="3" spans="1:12" ht="28" customHeight="1">
       <c r="A3" s="187"/>
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="198" t="s">
         <v>268</v>
       </c>
-      <c r="C3" s="195"/>
-      <c r="D3" s="195"/>
-      <c r="E3" s="195"/>
-      <c r="F3" s="195"/>
-      <c r="G3" s="195"/>
-      <c r="H3" s="195"/>
-      <c r="I3" s="195"/>
-      <c r="J3" s="195"/>
-      <c r="K3" s="195"/>
-      <c r="L3" s="195"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="198"/>
+      <c r="H3" s="198"/>
+      <c r="I3" s="198"/>
+      <c r="J3" s="198"/>
+      <c r="K3" s="198"/>
+      <c r="L3" s="198"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="187"/>
@@ -2571,320 +2584,320 @@
         <v>94</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="198" t="s">
+      <c r="D9" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="198"/>
-      <c r="F9" s="198"/>
-      <c r="G9" s="198"/>
-      <c r="H9" s="198"/>
-      <c r="I9" s="198"/>
-      <c r="J9" s="198"/>
-      <c r="K9" s="198"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="200"/>
+      <c r="I9" s="200"/>
+      <c r="J9" s="200"/>
+      <c r="K9" s="200"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="190" t="s">
+      <c r="D10" s="193" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="190"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="190"/>
-      <c r="H10" s="190"/>
-      <c r="I10" s="190"/>
-      <c r="J10" s="190"/>
-      <c r="K10" s="190"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="193"/>
+      <c r="G10" s="193"/>
+      <c r="H10" s="193"/>
+      <c r="I10" s="193"/>
+      <c r="J10" s="193"/>
+      <c r="K10" s="193"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="190" t="s">
+      <c r="D11" s="193" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="190"/>
-      <c r="F11" s="190"/>
-      <c r="G11" s="190"/>
-      <c r="H11" s="190"/>
-      <c r="I11" s="190"/>
-      <c r="J11" s="190"/>
-      <c r="K11" s="190"/>
+      <c r="E11" s="193"/>
+      <c r="F11" s="193"/>
+      <c r="G11" s="193"/>
+      <c r="H11" s="193"/>
+      <c r="I11" s="193"/>
+      <c r="J11" s="193"/>
+      <c r="K11" s="193"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="75"/>
-      <c r="D12" s="190" t="s">
+      <c r="D12" s="193" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="190"/>
-      <c r="F12" s="190"/>
-      <c r="G12" s="190"/>
-      <c r="H12" s="190"/>
-      <c r="I12" s="190"/>
-      <c r="J12" s="190"/>
-      <c r="K12" s="190"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="190" t="s">
+      <c r="D13" s="193" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="190"/>
-      <c r="I13" s="190"/>
-      <c r="J13" s="190"/>
-      <c r="K13" s="190"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="75"/>
-      <c r="D14" s="190" t="s">
+      <c r="D14" s="193" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="190"/>
-      <c r="G14" s="190"/>
-      <c r="H14" s="190"/>
-      <c r="I14" s="190"/>
-      <c r="J14" s="190"/>
-      <c r="K14" s="190"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="75"/>
-      <c r="D15" s="190" t="s">
+      <c r="D15" s="193" t="s">
         <v>135</v>
       </c>
-      <c r="E15" s="190"/>
-      <c r="F15" s="190"/>
-      <c r="G15" s="190"/>
-      <c r="H15" s="190"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="190"/>
-      <c r="K15" s="190"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="75"/>
-      <c r="D16" s="190" t="s">
+      <c r="D16" s="193" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="190"/>
-      <c r="F16" s="190"/>
-      <c r="G16" s="190"/>
-      <c r="H16" s="190"/>
-      <c r="I16" s="190"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="190"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="193"/>
+      <c r="G16" s="193"/>
+      <c r="H16" s="193"/>
+      <c r="I16" s="193"/>
+      <c r="J16" s="193"/>
+      <c r="K16" s="193"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="75"/>
-      <c r="D17" s="190" t="s">
+      <c r="D17" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="190"/>
-      <c r="F17" s="190"/>
-      <c r="G17" s="190"/>
-      <c r="H17" s="190"/>
-      <c r="I17" s="190"/>
-      <c r="J17" s="190"/>
-      <c r="K17" s="190"/>
+      <c r="E17" s="193"/>
+      <c r="F17" s="193"/>
+      <c r="G17" s="193"/>
+      <c r="H17" s="193"/>
+      <c r="I17" s="193"/>
+      <c r="J17" s="193"/>
+      <c r="K17" s="193"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="190" t="s">
+      <c r="D18" s="193" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="190"/>
-      <c r="F18" s="190"/>
-      <c r="G18" s="190"/>
-      <c r="H18" s="190"/>
-      <c r="I18" s="190"/>
-      <c r="J18" s="190"/>
-      <c r="K18" s="190"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="75"/>
-      <c r="D19" s="190" t="s">
+      <c r="D19" s="193" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="190"/>
-      <c r="F19" s="190"/>
-      <c r="G19" s="190"/>
-      <c r="H19" s="190"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="190"/>
-      <c r="K19" s="190"/>
+      <c r="E19" s="193"/>
+      <c r="F19" s="193"/>
+      <c r="G19" s="193"/>
+      <c r="H19" s="193"/>
+      <c r="I19" s="193"/>
+      <c r="J19" s="193"/>
+      <c r="K19" s="193"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="75"/>
-      <c r="D20" s="190" t="s">
+      <c r="D20" s="193" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="190"/>
-      <c r="H20" s="190"/>
-      <c r="I20" s="190"/>
-      <c r="J20" s="190"/>
-      <c r="K20" s="190"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+      <c r="G20" s="193"/>
+      <c r="H20" s="193"/>
+      <c r="I20" s="193"/>
+      <c r="J20" s="193"/>
+      <c r="K20" s="193"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="190" t="s">
+      <c r="D21" s="193" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
+      <c r="E21" s="193"/>
+      <c r="F21" s="193"/>
+      <c r="G21" s="193"/>
+      <c r="H21" s="193"/>
+      <c r="I21" s="193"/>
+      <c r="J21" s="193"/>
+      <c r="K21" s="193"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="190" t="s">
+      <c r="D22" s="193" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="190"/>
-      <c r="F22" s="190"/>
-      <c r="G22" s="190"/>
-      <c r="H22" s="190"/>
-      <c r="I22" s="190"/>
-      <c r="J22" s="190"/>
-      <c r="K22" s="190"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="190" t="s">
+      <c r="D23" s="193" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="190"/>
-      <c r="F23" s="190"/>
-      <c r="G23" s="190"/>
-      <c r="H23" s="190"/>
-      <c r="I23" s="190"/>
-      <c r="J23" s="190"/>
-      <c r="K23" s="190"/>
+      <c r="E23" s="193"/>
+      <c r="F23" s="193"/>
+      <c r="G23" s="193"/>
+      <c r="H23" s="193"/>
+      <c r="I23" s="193"/>
+      <c r="J23" s="193"/>
+      <c r="K23" s="193"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="190" t="s">
+      <c r="D24" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="190"/>
-      <c r="F24" s="190"/>
-      <c r="G24" s="190"/>
-      <c r="H24" s="190"/>
-      <c r="I24" s="190"/>
-      <c r="J24" s="190"/>
-      <c r="K24" s="190"/>
+      <c r="E24" s="193"/>
+      <c r="F24" s="193"/>
+      <c r="G24" s="193"/>
+      <c r="H24" s="193"/>
+      <c r="I24" s="193"/>
+      <c r="J24" s="193"/>
+      <c r="K24" s="193"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="75"/>
-      <c r="D25" s="190" t="s">
+      <c r="D25" s="193" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="190"/>
-      <c r="F25" s="190"/>
-      <c r="G25" s="190"/>
-      <c r="H25" s="190"/>
-      <c r="I25" s="190"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="190"/>
+      <c r="E25" s="193"/>
+      <c r="F25" s="193"/>
+      <c r="G25" s="193"/>
+      <c r="H25" s="193"/>
+      <c r="I25" s="193"/>
+      <c r="J25" s="193"/>
+      <c r="K25" s="193"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="75"/>
-      <c r="D26" s="190" t="s">
+      <c r="D26" s="193" t="s">
         <v>175</v>
       </c>
-      <c r="E26" s="190"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="190"/>
-      <c r="H26" s="190"/>
-      <c r="I26" s="190"/>
-      <c r="J26" s="190"/>
-      <c r="K26" s="190"/>
+      <c r="E26" s="193"/>
+      <c r="F26" s="193"/>
+      <c r="G26" s="193"/>
+      <c r="H26" s="193"/>
+      <c r="I26" s="193"/>
+      <c r="J26" s="193"/>
+      <c r="K26" s="193"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="191" t="s">
+      <c r="D27" s="195" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="191"/>
-      <c r="F27" s="191"/>
-      <c r="G27" s="191"/>
-      <c r="H27" s="191"/>
-      <c r="I27" s="191"/>
-      <c r="J27" s="191"/>
-      <c r="K27" s="191"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
     </row>
     <row r="28" spans="2:11" ht="28" customHeight="1">
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="199" t="s">
         <v>176</v>
       </c>
-      <c r="C28" s="196"/>
-      <c r="D28" s="191" t="s">
+      <c r="C28" s="199"/>
+      <c r="D28" s="195" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="191"/>
-      <c r="F28" s="191"/>
-      <c r="G28" s="191"/>
-      <c r="H28" s="191"/>
-      <c r="I28" s="191"/>
-      <c r="J28" s="191"/>
-      <c r="K28" s="191"/>
+      <c r="E28" s="195"/>
+      <c r="F28" s="195"/>
+      <c r="G28" s="195"/>
+      <c r="H28" s="195"/>
+      <c r="I28" s="195"/>
+      <c r="J28" s="195"/>
+      <c r="K28" s="195"/>
     </row>
     <row r="31" spans="2:11" ht="18">
       <c r="B31" s="70" t="s">
@@ -2897,15 +2910,15 @@
       <c r="B33" s="194" t="s">
         <v>276</v>
       </c>
-      <c r="C33" s="190"/>
-      <c r="D33" s="190"/>
-      <c r="E33" s="190"/>
-      <c r="F33" s="190"/>
-      <c r="G33" s="190"/>
-      <c r="H33" s="190"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="190"/>
-      <c r="K33" s="190"/>
+      <c r="C33" s="193"/>
+      <c r="D33" s="193"/>
+      <c r="E33" s="193"/>
+      <c r="F33" s="193"/>
+      <c r="G33" s="193"/>
+      <c r="H33" s="193"/>
+      <c r="I33" s="193"/>
+      <c r="J33" s="193"/>
+      <c r="K33" s="193"/>
     </row>
     <row r="34" spans="2:15" ht="28" customHeight="1">
       <c r="B34" s="197" t="s">
@@ -2925,29 +2938,29 @@
       <c r="B35" s="194" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="190"/>
-      <c r="D35" s="190"/>
-      <c r="E35" s="190"/>
-      <c r="F35" s="190"/>
-      <c r="G35" s="190"/>
-      <c r="H35" s="190"/>
-      <c r="I35" s="190"/>
-      <c r="J35" s="190"/>
-      <c r="K35" s="190"/>
+      <c r="C35" s="193"/>
+      <c r="D35" s="193"/>
+      <c r="E35" s="193"/>
+      <c r="F35" s="193"/>
+      <c r="G35" s="193"/>
+      <c r="H35" s="193"/>
+      <c r="I35" s="193"/>
+      <c r="J35" s="193"/>
+      <c r="K35" s="193"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="193" t="s">
         <v>180</v>
       </c>
-      <c r="C36" s="190"/>
-      <c r="D36" s="190"/>
-      <c r="E36" s="190"/>
-      <c r="F36" s="190"/>
-      <c r="G36" s="190"/>
-      <c r="H36" s="190"/>
-      <c r="I36" s="190"/>
-      <c r="J36" s="190"/>
-      <c r="K36" s="190"/>
+      <c r="C36" s="193"/>
+      <c r="D36" s="193"/>
+      <c r="E36" s="193"/>
+      <c r="F36" s="193"/>
+      <c r="G36" s="193"/>
+      <c r="H36" s="193"/>
+      <c r="I36" s="193"/>
+      <c r="J36" s="193"/>
+      <c r="K36" s="193"/>
     </row>
     <row r="39" spans="2:15" ht="18">
       <c r="B39" s="70" t="s">
@@ -2960,115 +2973,115 @@
       <c r="C40" s="70"/>
     </row>
     <row r="41" spans="2:15" ht="15" customHeight="1">
-      <c r="B41" s="192" t="s">
+      <c r="B41" s="201" t="s">
         <v>280</v>
       </c>
-      <c r="C41" s="192"/>
-      <c r="D41" s="192"/>
-      <c r="E41" s="192"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-      <c r="I41" s="192"/>
-      <c r="J41" s="192"/>
-      <c r="K41" s="192"/>
+      <c r="C41" s="201"/>
+      <c r="D41" s="201"/>
+      <c r="E41" s="201"/>
+      <c r="F41" s="201"/>
+      <c r="G41" s="201"/>
+      <c r="H41" s="201"/>
+      <c r="I41" s="201"/>
+      <c r="J41" s="201"/>
+      <c r="K41" s="201"/>
       <c r="L41" s="80"/>
       <c r="M41" s="80"/>
       <c r="N41" s="80"/>
       <c r="O41" s="80"/>
     </row>
     <row r="42" spans="2:15" ht="46" customHeight="1">
-      <c r="B42" s="193" t="s">
+      <c r="B42" s="191" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="193"/>
+      <c r="C42" s="191"/>
+      <c r="D42" s="191"/>
+      <c r="E42" s="191"/>
+      <c r="F42" s="191"/>
+      <c r="G42" s="191"/>
+      <c r="H42" s="191"/>
+      <c r="I42" s="191"/>
+      <c r="J42" s="191"/>
+      <c r="K42" s="191"/>
       <c r="L42" s="78"/>
       <c r="M42" s="78"/>
       <c r="N42" s="78"/>
       <c r="O42" s="78"/>
     </row>
     <row r="43" spans="2:15" ht="39" customHeight="1">
-      <c r="B43" s="193" t="s">
+      <c r="B43" s="191" t="s">
         <v>273</v>
       </c>
-      <c r="C43" s="193"/>
-      <c r="D43" s="193"/>
-      <c r="E43" s="193"/>
-      <c r="F43" s="193"/>
-      <c r="G43" s="193"/>
-      <c r="H43" s="193"/>
-      <c r="I43" s="193"/>
-      <c r="J43" s="193"/>
-      <c r="K43" s="193"/>
+      <c r="C43" s="191"/>
+      <c r="D43" s="191"/>
+      <c r="E43" s="191"/>
+      <c r="F43" s="191"/>
+      <c r="G43" s="191"/>
+      <c r="H43" s="191"/>
+      <c r="I43" s="191"/>
+      <c r="J43" s="191"/>
+      <c r="K43" s="191"/>
       <c r="L43" s="79"/>
       <c r="M43" s="79"/>
       <c r="N43" s="79"/>
       <c r="O43" s="79"/>
     </row>
     <row r="44" spans="2:15" ht="56" customHeight="1">
-      <c r="B44" s="193" t="s">
+      <c r="B44" s="191" t="s">
         <v>282</v>
       </c>
-      <c r="C44" s="193"/>
-      <c r="D44" s="193"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="193"/>
+      <c r="C44" s="191"/>
+      <c r="D44" s="191"/>
+      <c r="E44" s="191"/>
+      <c r="F44" s="191"/>
+      <c r="G44" s="191"/>
+      <c r="H44" s="191"/>
+      <c r="I44" s="191"/>
+      <c r="J44" s="191"/>
+      <c r="K44" s="191"/>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
     </row>
     <row r="45" spans="2:15" ht="84" customHeight="1">
-      <c r="B45" s="193" t="s">
+      <c r="B45" s="191" t="s">
         <v>285</v>
       </c>
-      <c r="C45" s="193"/>
-      <c r="D45" s="193"/>
-      <c r="E45" s="193"/>
-      <c r="F45" s="193"/>
-      <c r="G45" s="193"/>
-      <c r="H45" s="193"/>
-      <c r="I45" s="193"/>
-      <c r="J45" s="193"/>
-      <c r="K45" s="193"/>
+      <c r="C45" s="191"/>
+      <c r="D45" s="191"/>
+      <c r="E45" s="191"/>
+      <c r="F45" s="191"/>
+      <c r="G45" s="191"/>
+      <c r="H45" s="191"/>
+      <c r="I45" s="191"/>
+      <c r="J45" s="191"/>
+      <c r="K45" s="191"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
     </row>
     <row r="46" spans="2:15" ht="99" customHeight="1">
-      <c r="B46" s="199" t="s">
+      <c r="B46" s="192" t="s">
         <v>283</v>
       </c>
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
-      <c r="G46" s="199"/>
-      <c r="H46" s="199"/>
-      <c r="I46" s="199"/>
-      <c r="J46" s="199"/>
-      <c r="K46" s="199"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="192"/>
+      <c r="E46" s="192"/>
+      <c r="F46" s="192"/>
+      <c r="G46" s="192"/>
+      <c r="H46" s="192"/>
+      <c r="I46" s="192"/>
+      <c r="J46" s="192"/>
+      <c r="K46" s="192"/>
       <c r="L46" s="186"/>
       <c r="M46" s="186"/>
       <c r="N46" s="186"/>
       <c r="O46" s="186"/>
     </row>
     <row r="47" spans="2:15" ht="90" customHeight="1">
-      <c r="B47" s="271" t="s">
+      <c r="B47" s="196" t="s">
         <v>284</v>
       </c>
       <c r="C47" s="197"/>
@@ -3082,21 +3095,40 @@
       <c r="K47" s="197"/>
     </row>
     <row r="48" spans="2:15" ht="33" customHeight="1">
-      <c r="B48" s="193" t="s">
+      <c r="B48" s="191" t="s">
         <v>182</v>
       </c>
-      <c r="C48" s="193"/>
-      <c r="D48" s="193"/>
-      <c r="E48" s="193"/>
-      <c r="F48" s="193"/>
-      <c r="G48" s="193"/>
-      <c r="H48" s="193"/>
-      <c r="I48" s="193"/>
-      <c r="J48" s="193"/>
-      <c r="K48" s="193"/>
+      <c r="C48" s="191"/>
+      <c r="D48" s="191"/>
+      <c r="E48" s="191"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
+      <c r="H48" s="191"/>
+      <c r="I48" s="191"/>
+      <c r="J48" s="191"/>
+      <c r="K48" s="191"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D17:K17"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D28:K28"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B46:K46"/>
     <mergeCell ref="D19:K19"/>
@@ -3111,27 +3143,8 @@
     <mergeCell ref="D27:K27"/>
     <mergeCell ref="B47:K47"/>
     <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
     <mergeCell ref="B42:K42"/>
     <mergeCell ref="B43:K43"/>
-    <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="D18:K18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3196,87 +3209,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -5431,12 +5444,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -5445,13 +5458,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5468,13 +5481,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -5491,13 +5504,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5514,13 +5527,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5706,15 +5719,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -5728,6 +5732,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5792,87 +5805,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="216"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -7979,12 +7992,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -7993,13 +8006,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -8016,13 +8029,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -8039,13 +8052,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -8062,13 +8075,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -8238,15 +8251,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -8260,6 +8264,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8324,87 +8337,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="216"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -10558,12 +10571,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="H17" s="61"/>
@@ -10582,13 +10595,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -10605,13 +10618,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -10628,13 +10641,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -10651,13 +10664,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -10827,15 +10840,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -10849,6 +10853,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10913,87 +10926,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="216"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -13149,24 +13162,24 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C17" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -13183,13 +13196,13 @@
       <c r="B18" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="210" t="s">
+      <c r="C18" s="203" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -13206,13 +13219,13 @@
       <c r="B19" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="192" t="s">
+      <c r="C19" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -13229,13 +13242,13 @@
       <c r="B20" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -13405,15 +13418,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -13427,6 +13431,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13491,87 +13504,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="216"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -15726,12 +15739,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -15740,13 +15753,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -15763,13 +15776,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -15786,13 +15799,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -15809,13 +15822,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -16001,15 +16014,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -16023,6 +16027,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16094,80 +16107,80 @@
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -18273,12 +18286,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -18287,13 +18300,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -18310,13 +18323,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -18333,13 +18346,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -18356,13 +18369,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18532,6 +18545,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -18548,11 +18566,6 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18616,87 +18629,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>171</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -20851,13 +20864,13 @@
       <c r="B17" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="212" t="s">
+      <c r="C17" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="212"/>
-      <c r="E17" s="212"/>
-      <c r="F17" s="212"/>
-      <c r="G17" s="212"/>
+      <c r="D17" s="205"/>
+      <c r="E17" s="205"/>
+      <c r="F17" s="205"/>
+      <c r="G17" s="205"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -20874,13 +20887,13 @@
       <c r="B18" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C18" s="210" t="s">
+      <c r="C18" s="203" t="s">
         <v>170</v>
       </c>
-      <c r="D18" s="210"/>
-      <c r="E18" s="210"/>
-      <c r="F18" s="210"/>
-      <c r="G18" s="210"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -20897,13 +20910,13 @@
       <c r="B19" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C19" s="192" t="s">
+      <c r="C19" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
+      <c r="D19" s="204"/>
+      <c r="E19" s="204"/>
+      <c r="F19" s="204"/>
+      <c r="G19" s="204"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -20920,13 +20933,13 @@
       <c r="B20" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -21080,14 +21093,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -21100,6 +21105,14 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21164,87 +21177,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="13">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -23398,69 +23411,72 @@
     <row r="16" spans="1:47" ht="13">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1"/>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>142</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
     </row>
     <row r="21" spans="2:7" ht="28">
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -23470,14 +23486,11 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23487,9 +23500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD7B3E6-DEA7-A440-B622-4E527A2359AE}">
   <dimension ref="B2:W77"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
@@ -23523,44 +23534,44 @@
     </row>
     <row r="3" spans="2:19" ht="14" thickBot="1"/>
     <row r="4" spans="2:19" ht="15.75" customHeight="1">
-      <c r="F4" s="219" t="s">
+      <c r="F4" s="242" t="s">
         <v>173</v>
       </c>
-      <c r="G4" s="220"/>
-      <c r="H4" s="220"/>
-      <c r="I4" s="220"/>
-      <c r="J4" s="220"/>
-      <c r="K4" s="220"/>
-      <c r="L4" s="220"/>
-      <c r="M4" s="220"/>
-      <c r="N4" s="221"/>
-      <c r="P4" s="233" t="s">
+      <c r="G4" s="243"/>
+      <c r="H4" s="243"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="243"/>
+      <c r="N4" s="244"/>
+      <c r="P4" s="223" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="234"/>
+      <c r="Q4" s="224"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="229" t="s">
         <v>147</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="218"/>
+      <c r="C5" s="229"/>
+      <c r="D5" s="231"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="223" t="s">
+      <c r="F5" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="224"/>
-      <c r="H5" s="224"/>
-      <c r="I5" s="238" t="s">
+      <c r="G5" s="236"/>
+      <c r="H5" s="236"/>
+      <c r="I5" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="239"/>
-      <c r="K5" s="240"/>
-      <c r="L5" s="241" t="s">
+      <c r="J5" s="233"/>
+      <c r="K5" s="234"/>
+      <c r="L5" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="224"/>
-      <c r="N5" s="242"/>
+      <c r="M5" s="236"/>
+      <c r="N5" s="237"/>
       <c r="P5" s="103" t="s">
         <v>69</v>
       </c>
@@ -24089,8 +24100,8 @@
         <f>'Global Footprints'!AU13*$Q$7*$Q$5</f>
         <v>3072094861.660079</v>
       </c>
-      <c r="Q16" s="209"/>
-      <c r="R16" s="209"/>
+      <c r="Q16" s="202"/>
+      <c r="R16" s="202"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" customHeight="1">
@@ -24205,42 +24216,42 @@
       <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F20" s="219" t="s">
+      <c r="F20" s="242" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="220"/>
-      <c r="H20" s="220"/>
-      <c r="I20" s="220"/>
-      <c r="J20" s="220"/>
-      <c r="K20" s="220"/>
-      <c r="L20" s="220"/>
-      <c r="M20" s="220"/>
-      <c r="N20" s="221"/>
+      <c r="G20" s="243"/>
+      <c r="H20" s="243"/>
+      <c r="I20" s="243"/>
+      <c r="J20" s="243"/>
+      <c r="K20" s="243"/>
+      <c r="L20" s="243"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="244"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B21" s="217" t="s">
+      <c r="B21" s="229" t="s">
         <v>147</v>
       </c>
-      <c r="C21" s="217"/>
-      <c r="D21" s="218"/>
-      <c r="F21" s="223" t="s">
+      <c r="C21" s="229"/>
+      <c r="D21" s="231"/>
+      <c r="F21" s="238" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="224"/>
-      <c r="H21" s="224"/>
-      <c r="I21" s="238" t="s">
+      <c r="G21" s="236"/>
+      <c r="H21" s="236"/>
+      <c r="I21" s="232" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="239"/>
-      <c r="K21" s="240"/>
-      <c r="L21" s="241" t="s">
+      <c r="J21" s="233"/>
+      <c r="K21" s="234"/>
+      <c r="L21" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="224"/>
-      <c r="N21" s="242"/>
+      <c r="M21" s="236"/>
+      <c r="N21" s="237"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
@@ -24941,17 +24952,17 @@
       <c r="W35" s="60"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F36" s="235" t="s">
+      <c r="F36" s="225" t="s">
         <v>183</v>
       </c>
-      <c r="G36" s="236"/>
-      <c r="H36" s="236"/>
-      <c r="I36" s="236"/>
-      <c r="J36" s="236"/>
-      <c r="K36" s="236"/>
-      <c r="L36" s="236"/>
-      <c r="M36" s="236"/>
-      <c r="N36" s="237"/>
+      <c r="G36" s="226"/>
+      <c r="H36" s="226"/>
+      <c r="I36" s="226"/>
+      <c r="J36" s="226"/>
+      <c r="K36" s="226"/>
+      <c r="L36" s="226"/>
+      <c r="M36" s="226"/>
+      <c r="N36" s="227"/>
       <c r="O36" s="64"/>
       <c r="R36" s="64"/>
       <c r="T36" s="5"/>
@@ -24960,21 +24971,21 @@
       <c r="W36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F37" s="230" t="s">
+      <c r="F37" s="228" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="217"/>
-      <c r="H37" s="217"/>
-      <c r="I37" s="222" t="s">
+      <c r="G37" s="229"/>
+      <c r="H37" s="229"/>
+      <c r="I37" s="230" t="s">
         <v>187</v>
       </c>
-      <c r="J37" s="217"/>
-      <c r="K37" s="217"/>
-      <c r="L37" s="222" t="s">
+      <c r="J37" s="229"/>
+      <c r="K37" s="229"/>
+      <c r="L37" s="230" t="s">
         <v>188</v>
       </c>
-      <c r="M37" s="217"/>
-      <c r="N37" s="218"/>
+      <c r="M37" s="229"/>
+      <c r="N37" s="231"/>
       <c r="O37" s="64"/>
       <c r="R37" s="64"/>
       <c r="T37" s="5"/>
@@ -25079,17 +25090,17 @@
       <c r="W41" s="60"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F42" s="235" t="s">
+      <c r="F42" s="225" t="s">
         <v>189</v>
       </c>
-      <c r="G42" s="236"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="236"/>
-      <c r="J42" s="236"/>
-      <c r="K42" s="236"/>
-      <c r="L42" s="236"/>
-      <c r="M42" s="236"/>
-      <c r="N42" s="237"/>
+      <c r="G42" s="226"/>
+      <c r="H42" s="226"/>
+      <c r="I42" s="226"/>
+      <c r="J42" s="226"/>
+      <c r="K42" s="226"/>
+      <c r="L42" s="226"/>
+      <c r="M42" s="226"/>
+      <c r="N42" s="227"/>
       <c r="O42" s="64"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="64"/>
@@ -25099,21 +25110,21 @@
       <c r="W42" s="60"/>
     </row>
     <row r="43" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F43" s="230" t="s">
+      <c r="F43" s="228" t="s">
         <v>191</v>
       </c>
-      <c r="G43" s="217"/>
-      <c r="H43" s="217"/>
-      <c r="I43" s="222" t="s">
+      <c r="G43" s="229"/>
+      <c r="H43" s="229"/>
+      <c r="I43" s="230" t="s">
         <v>195</v>
       </c>
-      <c r="J43" s="217"/>
-      <c r="K43" s="217"/>
-      <c r="L43" s="222" t="s">
+      <c r="J43" s="229"/>
+      <c r="K43" s="229"/>
+      <c r="L43" s="230" t="s">
         <v>202</v>
       </c>
-      <c r="M43" s="217"/>
-      <c r="N43" s="218"/>
+      <c r="M43" s="229"/>
+      <c r="N43" s="231"/>
       <c r="O43" s="64"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="64"/>
@@ -25123,18 +25134,18 @@
       <c r="W43" s="60"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F44" s="231" t="s">
+      <c r="F44" s="221" t="s">
         <v>192</v>
       </c>
-      <c r="G44" s="232"/>
+      <c r="G44" s="222"/>
       <c r="H44" s="116">
         <f>G39*1000000</f>
         <v>34271985878260.867</v>
       </c>
-      <c r="I44" s="225" t="s">
+      <c r="I44" s="239" t="s">
         <v>198</v>
       </c>
-      <c r="J44" s="226"/>
+      <c r="J44" s="220"/>
       <c r="K44" s="117">
         <f>J39/1056</f>
         <v>751141372.67813277</v>
@@ -25156,18 +25167,18 @@
       <c r="W44" s="60"/>
     </row>
     <row r="45" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F45" s="231" t="s">
+      <c r="F45" s="221" t="s">
         <v>193</v>
       </c>
-      <c r="G45" s="232"/>
+      <c r="G45" s="222"/>
       <c r="H45" s="116">
         <f>G39*1000</f>
         <v>34271985878.260864</v>
       </c>
-      <c r="I45" s="225" t="s">
+      <c r="I45" s="239" t="s">
         <v>199</v>
       </c>
-      <c r="J45" s="226"/>
+      <c r="J45" s="220"/>
       <c r="K45" s="117">
         <f>J39/833</f>
         <v>952227238.35307097</v>
@@ -25189,18 +25200,18 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="F46" s="231" t="s">
+      <c r="F46" s="221" t="s">
         <v>194</v>
       </c>
-      <c r="G46" s="232"/>
+      <c r="G46" s="222"/>
       <c r="H46" s="116">
         <f>G39</f>
         <v>34271985.878260866</v>
       </c>
-      <c r="I46" s="225" t="s">
+      <c r="I46" s="239" t="s">
         <v>265</v>
       </c>
-      <c r="J46" s="226"/>
+      <c r="J46" s="220"/>
       <c r="K46" s="117">
         <f>J39/287</f>
         <v>2763781496.6833038</v>
@@ -25221,18 +25232,18 @@
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F47" s="227" t="s">
+      <c r="F47" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="226"/>
+      <c r="G47" s="220"/>
       <c r="H47" s="123">
         <f>1/(0.000403)*G39</f>
         <v>85042148581.292465</v>
       </c>
-      <c r="I47" s="225" t="s">
+      <c r="I47" s="239" t="s">
         <v>197</v>
       </c>
-      <c r="J47" s="226"/>
+      <c r="J47" s="220"/>
       <c r="K47" s="117">
         <f>J39/200</f>
         <v>3966026447.740541</v>
@@ -25253,18 +25264,18 @@
       <c r="V47" s="64"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F48" s="227" t="s">
+      <c r="F48" s="219" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="226"/>
+      <c r="G48" s="220"/>
       <c r="H48" s="123">
         <f>H44/8887</f>
         <v>3856417900.1081204</v>
       </c>
-      <c r="I48" s="225" t="s">
+      <c r="I48" s="239" t="s">
         <v>200</v>
       </c>
-      <c r="J48" s="226"/>
+      <c r="J48" s="220"/>
       <c r="K48" s="117">
         <f>J39/533</f>
         <v>1488190036.6756251</v>
@@ -25285,18 +25296,18 @@
       <c r="V48" s="64"/>
     </row>
     <row r="49" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F49" s="227" t="s">
+      <c r="F49" s="219" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="226"/>
+      <c r="G49" s="220"/>
       <c r="H49" s="123">
         <f>(1/8.67)*H46</f>
         <v>3952939.5476656132</v>
       </c>
-      <c r="I49" s="225" t="s">
+      <c r="I49" s="239" t="s">
         <v>201</v>
       </c>
-      <c r="J49" s="226"/>
+      <c r="J49" s="220"/>
       <c r="K49" s="117">
         <f>J39/296</f>
         <v>2679747599.8246899</v>
@@ -25317,18 +25328,18 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F50" s="227" t="s">
+      <c r="F50" s="219" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="226"/>
+      <c r="G50" s="220"/>
       <c r="H50" s="123">
         <f>(1/0.43)*(H46)</f>
         <v>79702292.740141556</v>
       </c>
-      <c r="I50" s="225" t="s">
+      <c r="I50" s="239" t="s">
         <v>196</v>
       </c>
-      <c r="J50" s="226"/>
+      <c r="J50" s="220"/>
       <c r="K50" s="117">
         <f>J39/15415</f>
         <v>51456716.804937281</v>
@@ -25344,18 +25355,18 @@
       <c r="V50" s="64"/>
     </row>
     <row r="51" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F51" s="227" t="s">
+      <c r="F51" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="226"/>
+      <c r="G51" s="220"/>
       <c r="H51" s="123">
         <f>(1/75.54)*H46</f>
         <v>453693.22052238369</v>
       </c>
-      <c r="I51" s="226" t="s">
+      <c r="I51" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="226"/>
+      <c r="J51" s="220"/>
       <c r="K51" s="117">
         <f>J39/2500000</f>
         <v>317282.11581924325</v>
@@ -25371,18 +25382,18 @@
       <c r="V51" s="64"/>
     </row>
     <row r="52" spans="6:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F52" s="228" t="s">
+      <c r="F52" s="240" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="229"/>
+      <c r="G52" s="241"/>
       <c r="H52" s="124">
         <f>1/(0.06)*H46</f>
         <v>571199764.63768113</v>
       </c>
-      <c r="I52" s="229" t="s">
+      <c r="I52" s="241" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="229"/>
+      <c r="J52" s="241"/>
       <c r="K52" s="120">
         <f>J39/(1000*100000)</f>
         <v>7932.0528954810816</v>
@@ -25405,7 +25416,19 @@
       <c r="U53" s="63"/>
       <c r="V53" s="64"/>
     </row>
-    <row r="54" spans="6:22" ht="31" customHeight="1"/>
+    <row r="54" spans="6:22" ht="23" customHeight="1">
+      <c r="F54" s="274" t="s">
+        <v>287</v>
+      </c>
+      <c r="G54" s="274"/>
+      <c r="H54" s="274"/>
+      <c r="I54" s="274"/>
+      <c r="J54" s="274"/>
+      <c r="K54" s="274"/>
+      <c r="L54" s="274"/>
+      <c r="M54" s="274"/>
+      <c r="N54" s="274"/>
+    </row>
     <row r="55" spans="6:22" ht="15.75" customHeight="1"/>
     <row r="56" spans="6:22" ht="15.75" customHeight="1"/>
     <row r="57" spans="6:22" ht="15.75" customHeight="1"/>
@@ -25430,7 +25453,30 @@
     <row r="76" ht="15.75" customHeight="1"/>
     <row r="77" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="38">
+  <mergeCells count="39">
+    <mergeCell ref="F54:N54"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F4:N4"/>
+    <mergeCell ref="F20:N20"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="I48:J48"/>
+    <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
     <mergeCell ref="F48:G48"/>
     <mergeCell ref="F44:G44"/>
     <mergeCell ref="F45:G45"/>
@@ -25447,28 +25493,6 @@
     <mergeCell ref="F5:H5"/>
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="I48:J48"/>
-    <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="F4:N4"/>
-    <mergeCell ref="F20:N20"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25479,7 +25503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F7F493-4DF4-134A-A226-228CD7E1D96A}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -25542,89 +25566,89 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="125"/>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="259" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="244"/>
-      <c r="D3" s="244"/>
-      <c r="E3" s="244"/>
-      <c r="F3" s="244"/>
-      <c r="G3" s="244"/>
-      <c r="H3" s="244"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="245"/>
+      <c r="C3" s="260"/>
+      <c r="D3" s="260"/>
+      <c r="E3" s="260"/>
+      <c r="F3" s="260"/>
+      <c r="G3" s="260"/>
+      <c r="H3" s="260"/>
+      <c r="I3" s="260"/>
+      <c r="J3" s="261"/>
       <c r="K3" s="125"/>
-      <c r="L3" s="249" t="s">
+      <c r="L3" s="245" t="s">
         <v>238</v>
       </c>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="251"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
+      <c r="Q3" s="246"/>
+      <c r="R3" s="247"/>
       <c r="S3" s="163"/>
-      <c r="T3" s="258" t="s">
+      <c r="T3" s="254" t="s">
         <v>251</v>
       </c>
-      <c r="U3" s="259"/>
-      <c r="V3" s="259"/>
-      <c r="W3" s="259"/>
-      <c r="X3" s="259"/>
-      <c r="Y3" s="260"/>
+      <c r="U3" s="255"/>
+      <c r="V3" s="255"/>
+      <c r="W3" s="255"/>
+      <c r="X3" s="255"/>
+      <c r="Y3" s="256"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="125"/>
-      <c r="B4" s="248" t="s">
+      <c r="B4" s="263" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="258" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="247"/>
-      <c r="E4" s="247" t="s">
+      <c r="D4" s="258"/>
+      <c r="E4" s="258" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="247"/>
-      <c r="G4" s="247" t="s">
+      <c r="F4" s="258"/>
+      <c r="G4" s="258" t="s">
         <v>212</v>
       </c>
-      <c r="H4" s="247"/>
-      <c r="I4" s="222" t="s">
+      <c r="H4" s="258"/>
+      <c r="I4" s="230" t="s">
         <v>213</v>
       </c>
-      <c r="J4" s="218"/>
+      <c r="J4" s="231"/>
       <c r="K4" s="125"/>
-      <c r="L4" s="252" t="s">
+      <c r="L4" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="247" t="s">
+      <c r="M4" s="258" t="s">
         <v>239</v>
       </c>
-      <c r="N4" s="247"/>
-      <c r="O4" s="247" t="s">
+      <c r="N4" s="258"/>
+      <c r="O4" s="258" t="s">
         <v>240</v>
       </c>
-      <c r="P4" s="247"/>
-      <c r="Q4" s="222" t="s">
+      <c r="P4" s="258"/>
+      <c r="Q4" s="230" t="s">
         <v>241</v>
       </c>
-      <c r="R4" s="255"/>
+      <c r="R4" s="257"/>
       <c r="S4" s="126"/>
       <c r="T4" s="158" t="s">
         <v>243</v>
       </c>
-      <c r="U4" s="253" t="s">
+      <c r="U4" s="250" t="s">
         <v>244</v>
       </c>
-      <c r="V4" s="253"/>
-      <c r="W4" s="253"/>
-      <c r="X4" s="253"/>
-      <c r="Y4" s="254"/>
+      <c r="V4" s="250"/>
+      <c r="W4" s="250"/>
+      <c r="X4" s="250"/>
+      <c r="Y4" s="251"/>
     </row>
     <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="125"/>
-      <c r="B5" s="248"/>
+      <c r="B5" s="263"/>
       <c r="C5" s="126" t="s">
         <v>228</v>
       </c>
@@ -25650,7 +25674,7 @@
         <v>92</v>
       </c>
       <c r="K5" s="125"/>
-      <c r="L5" s="252"/>
+      <c r="L5" s="248"/>
       <c r="M5" s="163" t="s">
         <v>185</v>
       </c>
@@ -25673,13 +25697,13 @@
       <c r="T5" s="159" t="s">
         <v>245</v>
       </c>
-      <c r="U5" s="253" t="s">
+      <c r="U5" s="250" t="s">
         <v>246</v>
       </c>
-      <c r="V5" s="253"/>
-      <c r="W5" s="253"/>
-      <c r="X5" s="253"/>
-      <c r="Y5" s="254"/>
+      <c r="V5" s="250"/>
+      <c r="W5" s="250"/>
+      <c r="X5" s="250"/>
+      <c r="Y5" s="251"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="125"/>
@@ -25748,13 +25772,13 @@
       <c r="T6" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="253" t="s">
+      <c r="U6" s="250" t="s">
         <v>247</v>
       </c>
-      <c r="V6" s="253"/>
-      <c r="W6" s="253"/>
-      <c r="X6" s="253"/>
-      <c r="Y6" s="254"/>
+      <c r="V6" s="250"/>
+      <c r="W6" s="250"/>
+      <c r="X6" s="250"/>
+      <c r="Y6" s="251"/>
     </row>
     <row r="7" spans="1:25" ht="14">
       <c r="A7" s="125"/>
@@ -25823,13 +25847,13 @@
       <c r="T7" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="253" t="s">
+      <c r="U7" s="250" t="s">
         <v>248</v>
       </c>
-      <c r="V7" s="253"/>
-      <c r="W7" s="253"/>
-      <c r="X7" s="253"/>
-      <c r="Y7" s="254"/>
+      <c r="V7" s="250"/>
+      <c r="W7" s="250"/>
+      <c r="X7" s="250"/>
+      <c r="Y7" s="251"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="125"/>
@@ -25898,13 +25922,13 @@
       <c r="T8" s="162" t="s">
         <v>249</v>
       </c>
-      <c r="U8" s="256" t="s">
+      <c r="U8" s="252" t="s">
         <v>250</v>
       </c>
-      <c r="V8" s="256"/>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="257"/>
+      <c r="V8" s="252"/>
+      <c r="W8" s="252"/>
+      <c r="X8" s="252"/>
+      <c r="Y8" s="253"/>
     </row>
     <row r="9" spans="1:25" ht="14">
       <c r="A9" s="125"/>
@@ -27059,13 +27083,13 @@
       <c r="X26" s="102"/>
     </row>
     <row r="27" spans="1:27" ht="16">
-      <c r="B27" s="246" t="s">
+      <c r="B27" s="262" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="246"/>
-      <c r="D27" s="246"/>
-      <c r="E27" s="246"/>
-      <c r="F27" s="246"/>
+      <c r="C27" s="262"/>
+      <c r="D27" s="262"/>
+      <c r="E27" s="262"/>
+      <c r="F27" s="262"/>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="R27" s="150"/>
@@ -27120,19 +27144,19 @@
     </row>
     <row r="32" spans="1:27" ht="16">
       <c r="B32" s="125"/>
-      <c r="C32" s="249" t="s">
+      <c r="C32" s="245" t="s">
         <v>266</v>
       </c>
-      <c r="D32" s="250"/>
-      <c r="E32" s="250"/>
-      <c r="F32" s="250"/>
-      <c r="G32" s="250"/>
-      <c r="H32" s="250"/>
-      <c r="I32" s="250"/>
-      <c r="J32" s="250"/>
-      <c r="K32" s="250"/>
-      <c r="L32" s="250"/>
-      <c r="M32" s="251"/>
+      <c r="D32" s="246"/>
+      <c r="E32" s="246"/>
+      <c r="F32" s="246"/>
+      <c r="G32" s="246"/>
+      <c r="H32" s="246"/>
+      <c r="I32" s="246"/>
+      <c r="J32" s="246"/>
+      <c r="K32" s="246"/>
+      <c r="L32" s="246"/>
+      <c r="M32" s="247"/>
       <c r="N32" s="151"/>
       <c r="O32" s="151"/>
       <c r="P32"/>
@@ -27150,31 +27174,31 @@
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="125"/>
-      <c r="C33" s="252" t="s">
+      <c r="C33" s="248" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="225" t="s">
+      <c r="D33" s="239" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="226"/>
-      <c r="F33" s="225" t="s">
+      <c r="E33" s="220"/>
+      <c r="F33" s="239" t="s">
         <v>265</v>
       </c>
-      <c r="G33" s="226"/>
-      <c r="H33" s="225" t="s">
+      <c r="G33" s="220"/>
+      <c r="H33" s="239" t="s">
         <v>197</v>
       </c>
-      <c r="I33" s="226"/>
-      <c r="J33" s="225" t="s">
+      <c r="I33" s="220"/>
+      <c r="J33" s="239" t="s">
         <v>200</v>
       </c>
-      <c r="K33" s="226"/>
-      <c r="L33" s="225" t="s">
+      <c r="K33" s="220"/>
+      <c r="L33" s="239" t="s">
         <v>201</v>
       </c>
-      <c r="M33" s="261"/>
-      <c r="N33" s="225"/>
-      <c r="O33" s="226"/>
+      <c r="M33" s="249"/>
+      <c r="N33" s="239"/>
+      <c r="O33" s="220"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -27190,7 +27214,7 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="125"/>
-      <c r="C34" s="252"/>
+      <c r="C34" s="248"/>
       <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
@@ -28313,6 +28337,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="C33:C34"/>
@@ -28321,24 +28363,6 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28403,87 +28427,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="203" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="212" t="s">
         <v>148</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="203" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="212" t="s">
         <v>149</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="203" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="212" t="s">
         <v>150</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -30592,37 +30616,37 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="47" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>143</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -30639,13 +30663,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -30662,13 +30686,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -30928,19 +30952,6 @@
     <row r="89" ht="13"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -30950,6 +30961,19 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30957,7 +30981,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B307FA-336F-214A-A577-25056E572739}">
-  <dimension ref="A2:O38"/>
+  <dimension ref="A2:O39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30968,62 +30992,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16">
-      <c r="B2" s="269" t="s">
+      <c r="B2" s="265" t="s">
         <v>269</v>
       </c>
-      <c r="C2" s="269"/>
-      <c r="D2" s="269"/>
-      <c r="E2" s="269"/>
-      <c r="F2" s="269"/>
-      <c r="G2" s="269"/>
-      <c r="H2" s="269"/>
-      <c r="I2" s="269"/>
-      <c r="J2" s="269"/>
-      <c r="K2" s="269"/>
-      <c r="L2" s="269"/>
-      <c r="M2" s="269"/>
-      <c r="N2" s="269"/>
-      <c r="O2" s="269"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="265"/>
+      <c r="I2" s="265"/>
+      <c r="J2" s="265"/>
+      <c r="K2" s="265"/>
+      <c r="L2" s="265"/>
+      <c r="M2" s="265"/>
+      <c r="N2" s="265"/>
+      <c r="O2" s="265"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="270" t="s">
+      <c r="C3" s="266" t="s">
         <v>129</v>
       </c>
-      <c r="D3" s="270"/>
-      <c r="E3" s="270"/>
-      <c r="F3" s="270"/>
-      <c r="G3" s="270"/>
-      <c r="H3" s="270"/>
-      <c r="I3" s="270"/>
-      <c r="J3" s="270"/>
-      <c r="K3" s="270"/>
-      <c r="L3" s="270"/>
-      <c r="M3" s="270"/>
-      <c r="N3" s="270"/>
-      <c r="O3" s="270"/>
+      <c r="D3" s="266"/>
+      <c r="E3" s="266"/>
+      <c r="F3" s="266"/>
+      <c r="G3" s="266"/>
+      <c r="H3" s="266"/>
+      <c r="I3" s="266"/>
+      <c r="J3" s="266"/>
+      <c r="K3" s="266"/>
+      <c r="L3" s="266"/>
+      <c r="M3" s="266"/>
+      <c r="N3" s="266"/>
+      <c r="O3" s="266"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="266" t="s">
+      <c r="C4" s="264" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="266"/>
-      <c r="E4" s="266"/>
-      <c r="F4" s="266"/>
-      <c r="G4" s="266"/>
-      <c r="H4" s="266"/>
-      <c r="I4" s="266"/>
-      <c r="J4" s="266"/>
-      <c r="K4" s="266"/>
-      <c r="L4" s="266"/>
-      <c r="M4" s="266"/>
-      <c r="N4" s="266"/>
-      <c r="O4" s="266"/>
+      <c r="D4" s="264"/>
+      <c r="E4" s="264"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="264"/>
+      <c r="H4" s="264"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="264"/>
+      <c r="N4" s="264"/>
+      <c r="O4" s="264"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5">
@@ -31057,181 +31081,181 @@
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="211" t="s">
+      <c r="C7" s="204" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
-      <c r="I7" s="211"/>
-      <c r="J7" s="211"/>
-      <c r="K7" s="211"/>
-      <c r="L7" s="211"/>
-      <c r="M7" s="211"/>
-      <c r="N7" s="211"/>
-      <c r="O7" s="211"/>
+      <c r="D7" s="204"/>
+      <c r="E7" s="204"/>
+      <c r="F7" s="204"/>
+      <c r="G7" s="204"/>
+      <c r="H7" s="204"/>
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="204"/>
+      <c r="L7" s="204"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="204"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="266" t="s">
+      <c r="C8" s="264" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="266"/>
-      <c r="E8" s="266"/>
-      <c r="F8" s="266"/>
-      <c r="G8" s="266"/>
-      <c r="H8" s="266"/>
-      <c r="I8" s="266"/>
-      <c r="J8" s="266"/>
-      <c r="K8" s="266"/>
-      <c r="L8" s="266"/>
-      <c r="M8" s="266"/>
-      <c r="N8" s="266"/>
-      <c r="O8" s="266"/>
+      <c r="D8" s="264"/>
+      <c r="E8" s="264"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="264"/>
+      <c r="H8" s="264"/>
+      <c r="I8" s="264"/>
+      <c r="J8" s="264"/>
+      <c r="K8" s="264"/>
+      <c r="L8" s="264"/>
+      <c r="M8" s="264"/>
+      <c r="N8" s="264"/>
+      <c r="O8" s="264"/>
     </row>
     <row r="9" spans="2:15" s="3" customFormat="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="211" t="s">
+      <c r="C9" s="204" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="211"/>
-      <c r="E9" s="211"/>
-      <c r="F9" s="211"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="211"/>
-      <c r="I9" s="211"/>
-      <c r="J9" s="211"/>
-      <c r="K9" s="211"/>
-      <c r="L9" s="211"/>
-      <c r="M9" s="211"/>
-      <c r="N9" s="211"/>
-      <c r="O9" s="211"/>
+      <c r="D9" s="204"/>
+      <c r="E9" s="204"/>
+      <c r="F9" s="204"/>
+      <c r="G9" s="204"/>
+      <c r="H9" s="204"/>
+      <c r="I9" s="204"/>
+      <c r="J9" s="204"/>
+      <c r="K9" s="204"/>
+      <c r="L9" s="204"/>
+      <c r="M9" s="204"/>
+      <c r="N9" s="204"/>
+      <c r="O9" s="204"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="211" t="s">
+      <c r="C10" s="204" t="s">
         <v>144</v>
       </c>
-      <c r="D10" s="211"/>
-      <c r="E10" s="211"/>
-      <c r="F10" s="211"/>
-      <c r="G10" s="211"/>
-      <c r="H10" s="211"/>
-      <c r="I10" s="211"/>
-      <c r="J10" s="211"/>
-      <c r="K10" s="211"/>
-      <c r="L10" s="211"/>
-      <c r="M10" s="211"/>
-      <c r="N10" s="211"/>
-      <c r="O10" s="211"/>
+      <c r="D10" s="204"/>
+      <c r="E10" s="204"/>
+      <c r="F10" s="204"/>
+      <c r="G10" s="204"/>
+      <c r="H10" s="204"/>
+      <c r="I10" s="204"/>
+      <c r="J10" s="204"/>
+      <c r="K10" s="204"/>
+      <c r="L10" s="204"/>
+      <c r="M10" s="204"/>
+      <c r="N10" s="204"/>
+      <c r="O10" s="204"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="201" t="s">
         <v>271</v>
       </c>
-      <c r="D11" s="211"/>
-      <c r="E11" s="211"/>
-      <c r="F11" s="211"/>
-      <c r="G11" s="211"/>
-      <c r="H11" s="211"/>
-      <c r="I11" s="211"/>
-      <c r="J11" s="211"/>
-      <c r="K11" s="211"/>
-      <c r="L11" s="211"/>
-      <c r="M11" s="211"/>
-      <c r="N11" s="211"/>
-      <c r="O11" s="211"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
+      <c r="I11" s="204"/>
+      <c r="J11" s="204"/>
+      <c r="K11" s="204"/>
+      <c r="L11" s="204"/>
+      <c r="M11" s="204"/>
+      <c r="N11" s="204"/>
+      <c r="O11" s="204"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="192" t="s">
+      <c r="C12" s="201" t="s">
         <v>270</v>
       </c>
-      <c r="D12" s="211"/>
-      <c r="E12" s="211"/>
-      <c r="F12" s="211"/>
-      <c r="G12" s="211"/>
-      <c r="H12" s="211"/>
-      <c r="I12" s="211"/>
-      <c r="J12" s="211"/>
-      <c r="K12" s="211"/>
-      <c r="L12" s="211"/>
-      <c r="M12" s="211"/>
-      <c r="N12" s="211"/>
-      <c r="O12" s="211"/>
+      <c r="D12" s="204"/>
+      <c r="E12" s="204"/>
+      <c r="F12" s="204"/>
+      <c r="G12" s="204"/>
+      <c r="H12" s="204"/>
+      <c r="I12" s="204"/>
+      <c r="J12" s="204"/>
+      <c r="K12" s="204"/>
+      <c r="L12" s="204"/>
+      <c r="M12" s="204"/>
+      <c r="N12" s="204"/>
+      <c r="O12" s="204"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="211" t="s">
+      <c r="C13" s="204" t="s">
         <v>141</v>
       </c>
-      <c r="D13" s="211"/>
-      <c r="E13" s="211"/>
-      <c r="F13" s="211"/>
-      <c r="G13" s="211"/>
-      <c r="H13" s="211"/>
-      <c r="I13" s="211"/>
-      <c r="J13" s="211"/>
-      <c r="K13" s="211"/>
-      <c r="L13" s="211"/>
-      <c r="M13" s="211"/>
-      <c r="N13" s="211"/>
-      <c r="O13" s="211"/>
+      <c r="D13" s="204"/>
+      <c r="E13" s="204"/>
+      <c r="F13" s="204"/>
+      <c r="G13" s="204"/>
+      <c r="H13" s="204"/>
+      <c r="I13" s="204"/>
+      <c r="J13" s="204"/>
+      <c r="K13" s="204"/>
+      <c r="L13" s="204"/>
+      <c r="M13" s="204"/>
+      <c r="N13" s="204"/>
+      <c r="O13" s="204"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="266" t="s">
+      <c r="C14" s="264" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="266"/>
-      <c r="E14" s="266"/>
-      <c r="F14" s="266"/>
-      <c r="G14" s="266"/>
-      <c r="H14" s="266"/>
-      <c r="I14" s="266"/>
-      <c r="J14" s="266"/>
-      <c r="K14" s="266"/>
-      <c r="L14" s="266"/>
-      <c r="M14" s="266"/>
-      <c r="N14" s="266"/>
-      <c r="O14" s="266"/>
+      <c r="D14" s="264"/>
+      <c r="E14" s="264"/>
+      <c r="F14" s="264"/>
+      <c r="G14" s="264"/>
+      <c r="H14" s="264"/>
+      <c r="I14" s="264"/>
+      <c r="J14" s="264"/>
+      <c r="K14" s="264"/>
+      <c r="L14" s="264"/>
+      <c r="M14" s="264"/>
+      <c r="N14" s="264"/>
+      <c r="O14" s="264"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="266" t="s">
+      <c r="C15" s="264" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="266"/>
-      <c r="E15" s="266"/>
-      <c r="F15" s="266"/>
-      <c r="G15" s="266"/>
-      <c r="H15" s="266"/>
-      <c r="I15" s="266"/>
-      <c r="J15" s="266"/>
-      <c r="K15" s="266"/>
-      <c r="L15" s="266"/>
-      <c r="M15" s="266"/>
-      <c r="N15" s="266"/>
-      <c r="O15" s="266"/>
+      <c r="D15" s="264"/>
+      <c r="E15" s="264"/>
+      <c r="F15" s="264"/>
+      <c r="G15" s="264"/>
+      <c r="H15" s="264"/>
+      <c r="I15" s="264"/>
+      <c r="J15" s="264"/>
+      <c r="K15" s="264"/>
+      <c r="L15" s="264"/>
+      <c r="M15" s="264"/>
+      <c r="N15" s="264"/>
+      <c r="O15" s="264"/>
     </row>
     <row r="16" spans="2:15" ht="29" customHeight="1">
       <c r="B16" s="188">
@@ -31257,450 +31281,479 @@
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="268" t="s">
+      <c r="C17" s="269" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="268"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="G17" s="268"/>
-      <c r="H17" s="268"/>
-      <c r="I17" s="268"/>
-      <c r="J17" s="268"/>
-      <c r="K17" s="268"/>
-      <c r="L17" s="268"/>
-      <c r="M17" s="268"/>
-      <c r="N17" s="268"/>
-      <c r="O17" s="268"/>
+      <c r="D17" s="269"/>
+      <c r="E17" s="269"/>
+      <c r="F17" s="269"/>
+      <c r="G17" s="269"/>
+      <c r="H17" s="269"/>
+      <c r="I17" s="269"/>
+      <c r="J17" s="269"/>
+      <c r="K17" s="269"/>
+      <c r="L17" s="269"/>
+      <c r="M17" s="269"/>
+      <c r="N17" s="269"/>
+      <c r="O17" s="269"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="262" t="s">
+      <c r="C18" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="262"/>
-      <c r="E18" s="262"/>
-      <c r="F18" s="262"/>
-      <c r="G18" s="262"/>
-      <c r="H18" s="262"/>
-      <c r="I18" s="262"/>
-      <c r="J18" s="262"/>
-      <c r="K18" s="262"/>
-      <c r="L18" s="262"/>
-      <c r="M18" s="262"/>
-      <c r="N18" s="262"/>
-      <c r="O18" s="262"/>
+      <c r="D18" s="268"/>
+      <c r="E18" s="268"/>
+      <c r="F18" s="268"/>
+      <c r="G18" s="268"/>
+      <c r="H18" s="268"/>
+      <c r="I18" s="268"/>
+      <c r="J18" s="268"/>
+      <c r="K18" s="268"/>
+      <c r="L18" s="268"/>
+      <c r="M18" s="268"/>
+      <c r="N18" s="268"/>
+      <c r="O18" s="268"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="262" t="s">
+      <c r="C19" s="268" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="262"/>
-      <c r="E19" s="262"/>
-      <c r="F19" s="262"/>
-      <c r="G19" s="262"/>
-      <c r="H19" s="262"/>
-      <c r="I19" s="262"/>
-      <c r="J19" s="262"/>
-      <c r="K19" s="262"/>
-      <c r="L19" s="262"/>
-      <c r="M19" s="262"/>
-      <c r="N19" s="262"/>
-      <c r="O19" s="262"/>
+      <c r="D19" s="268"/>
+      <c r="E19" s="268"/>
+      <c r="F19" s="268"/>
+      <c r="G19" s="268"/>
+      <c r="H19" s="268"/>
+      <c r="I19" s="268"/>
+      <c r="J19" s="268"/>
+      <c r="K19" s="268"/>
+      <c r="L19" s="268"/>
+      <c r="M19" s="268"/>
+      <c r="N19" s="268"/>
+      <c r="O19" s="268"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="262" t="s">
+      <c r="C20" s="268" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="262"/>
-      <c r="E20" s="262"/>
-      <c r="F20" s="262"/>
-      <c r="G20" s="262"/>
-      <c r="H20" s="262"/>
-      <c r="I20" s="262"/>
-      <c r="J20" s="262"/>
-      <c r="K20" s="262"/>
-      <c r="L20" s="262"/>
-      <c r="M20" s="262"/>
-      <c r="N20" s="262"/>
-      <c r="O20" s="262"/>
+      <c r="D20" s="268"/>
+      <c r="E20" s="268"/>
+      <c r="F20" s="268"/>
+      <c r="G20" s="268"/>
+      <c r="H20" s="268"/>
+      <c r="I20" s="268"/>
+      <c r="J20" s="268"/>
+      <c r="K20" s="268"/>
+      <c r="L20" s="268"/>
+      <c r="M20" s="268"/>
+      <c r="N20" s="268"/>
+      <c r="O20" s="268"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="262" t="s">
+      <c r="C21" s="268" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="262"/>
-      <c r="E21" s="262"/>
-      <c r="F21" s="262"/>
-      <c r="G21" s="262"/>
-      <c r="H21" s="262"/>
-      <c r="I21" s="262"/>
-      <c r="J21" s="262"/>
-      <c r="K21" s="262"/>
-      <c r="L21" s="262"/>
-      <c r="M21" s="262"/>
-      <c r="N21" s="262"/>
-      <c r="O21" s="262"/>
+      <c r="D21" s="268"/>
+      <c r="E21" s="268"/>
+      <c r="F21" s="268"/>
+      <c r="G21" s="268"/>
+      <c r="H21" s="268"/>
+      <c r="I21" s="268"/>
+      <c r="J21" s="268"/>
+      <c r="K21" s="268"/>
+      <c r="L21" s="268"/>
+      <c r="M21" s="268"/>
+      <c r="N21" s="268"/>
+      <c r="O21" s="268"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="192" t="s">
+      <c r="C22" s="201" t="s">
         <v>236</v>
       </c>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="192"/>
-      <c r="G22" s="192"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
-      <c r="K22" s="192"/>
-      <c r="L22" s="192"/>
-      <c r="M22" s="192"/>
-      <c r="N22" s="192"/>
-      <c r="O22" s="192"/>
+      <c r="D22" s="201"/>
+      <c r="E22" s="201"/>
+      <c r="F22" s="201"/>
+      <c r="G22" s="201"/>
+      <c r="H22" s="201"/>
+      <c r="I22" s="201"/>
+      <c r="J22" s="201"/>
+      <c r="K22" s="201"/>
+      <c r="L22" s="201"/>
+      <c r="M22" s="201"/>
+      <c r="N22" s="201"/>
+      <c r="O22" s="201"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="262" t="s">
+      <c r="C23" s="268" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="262"/>
-      <c r="E23" s="262"/>
-      <c r="F23" s="262"/>
-      <c r="G23" s="262"/>
-      <c r="H23" s="262"/>
-      <c r="I23" s="262"/>
-      <c r="J23" s="262"/>
-      <c r="K23" s="262"/>
-      <c r="L23" s="262"/>
-      <c r="M23" s="262"/>
-      <c r="N23" s="262"/>
-      <c r="O23" s="262"/>
+      <c r="D23" s="268"/>
+      <c r="E23" s="268"/>
+      <c r="F23" s="268"/>
+      <c r="G23" s="268"/>
+      <c r="H23" s="268"/>
+      <c r="I23" s="268"/>
+      <c r="J23" s="268"/>
+      <c r="K23" s="268"/>
+      <c r="L23" s="268"/>
+      <c r="M23" s="268"/>
+      <c r="N23" s="268"/>
+      <c r="O23" s="268"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="262" t="s">
+      <c r="C24" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="262"/>
-      <c r="E24" s="262"/>
-      <c r="F24" s="262"/>
-      <c r="G24" s="262"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="262"/>
-      <c r="J24" s="262"/>
-      <c r="K24" s="262"/>
-      <c r="L24" s="262"/>
-      <c r="M24" s="262"/>
-      <c r="N24" s="262"/>
-      <c r="O24" s="262"/>
+      <c r="D24" s="268"/>
+      <c r="E24" s="268"/>
+      <c r="F24" s="268"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="268"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="268"/>
+      <c r="K24" s="268"/>
+      <c r="L24" s="268"/>
+      <c r="M24" s="268"/>
+      <c r="N24" s="268"/>
+      <c r="O24" s="268"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="262" t="s">
+      <c r="C25" s="268" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="262"/>
-      <c r="E25" s="262"/>
-      <c r="F25" s="262"/>
-      <c r="G25" s="262"/>
-      <c r="H25" s="262"/>
-      <c r="I25" s="262"/>
-      <c r="J25" s="262"/>
-      <c r="K25" s="262"/>
-      <c r="L25" s="262"/>
-      <c r="M25" s="262"/>
-      <c r="N25" s="262"/>
-      <c r="O25" s="262"/>
+      <c r="D25" s="268"/>
+      <c r="E25" s="268"/>
+      <c r="F25" s="268"/>
+      <c r="G25" s="268"/>
+      <c r="H25" s="268"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="268"/>
+      <c r="K25" s="268"/>
+      <c r="L25" s="268"/>
+      <c r="M25" s="268"/>
+      <c r="N25" s="268"/>
+      <c r="O25" s="268"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="262" t="s">
+      <c r="C26" s="268" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="262"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="262"/>
-      <c r="G26" s="262"/>
-      <c r="H26" s="262"/>
-      <c r="I26" s="262"/>
-      <c r="J26" s="262"/>
-      <c r="K26" s="262"/>
-      <c r="L26" s="262"/>
-      <c r="M26" s="262"/>
-      <c r="N26" s="262"/>
-      <c r="O26" s="262"/>
+      <c r="D26" s="268"/>
+      <c r="E26" s="268"/>
+      <c r="F26" s="268"/>
+      <c r="G26" s="268"/>
+      <c r="H26" s="268"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="268"/>
+      <c r="M26" s="268"/>
+      <c r="N26" s="268"/>
+      <c r="O26" s="268"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="262" t="s">
+      <c r="C27" s="268" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="262"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="262"/>
-      <c r="G27" s="262"/>
-      <c r="H27" s="262"/>
-      <c r="I27" s="262"/>
-      <c r="J27" s="262"/>
-      <c r="K27" s="262"/>
-      <c r="L27" s="262"/>
-      <c r="M27" s="262"/>
-      <c r="N27" s="262"/>
-      <c r="O27" s="262"/>
+      <c r="D27" s="268"/>
+      <c r="E27" s="268"/>
+      <c r="F27" s="268"/>
+      <c r="G27" s="268"/>
+      <c r="H27" s="268"/>
+      <c r="I27" s="268"/>
+      <c r="J27" s="268"/>
+      <c r="K27" s="268"/>
+      <c r="L27" s="268"/>
+      <c r="M27" s="268"/>
+      <c r="N27" s="268"/>
+      <c r="O27" s="268"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="262" t="s">
+      <c r="C28" s="268" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="262"/>
-      <c r="E28" s="262"/>
-      <c r="F28" s="262"/>
-      <c r="G28" s="262"/>
-      <c r="H28" s="262"/>
-      <c r="I28" s="262"/>
-      <c r="J28" s="262"/>
-      <c r="K28" s="262"/>
-      <c r="L28" s="262"/>
-      <c r="M28" s="262"/>
-      <c r="N28" s="262"/>
-      <c r="O28" s="262"/>
+      <c r="D28" s="268"/>
+      <c r="E28" s="268"/>
+      <c r="F28" s="268"/>
+      <c r="G28" s="268"/>
+      <c r="H28" s="268"/>
+      <c r="I28" s="268"/>
+      <c r="J28" s="268"/>
+      <c r="K28" s="268"/>
+      <c r="L28" s="268"/>
+      <c r="M28" s="268"/>
+      <c r="N28" s="268"/>
+      <c r="O28" s="268"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="262" t="s">
+      <c r="C29" s="268" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="262"/>
-      <c r="E29" s="262"/>
-      <c r="F29" s="262"/>
-      <c r="G29" s="262"/>
-      <c r="H29" s="262"/>
-      <c r="I29" s="262"/>
-      <c r="J29" s="262"/>
-      <c r="K29" s="262"/>
-      <c r="L29" s="262"/>
-      <c r="M29" s="262"/>
-      <c r="N29" s="262"/>
-      <c r="O29" s="262"/>
+      <c r="D29" s="268"/>
+      <c r="E29" s="268"/>
+      <c r="F29" s="268"/>
+      <c r="G29" s="268"/>
+      <c r="H29" s="268"/>
+      <c r="I29" s="268"/>
+      <c r="J29" s="268"/>
+      <c r="K29" s="268"/>
+      <c r="L29" s="268"/>
+      <c r="M29" s="268"/>
+      <c r="N29" s="268"/>
+      <c r="O29" s="268"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="262" t="s">
+      <c r="C30" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="262"/>
-      <c r="E30" s="262"/>
-      <c r="F30" s="262"/>
-      <c r="G30" s="262"/>
-      <c r="H30" s="262"/>
-      <c r="I30" s="262"/>
-      <c r="J30" s="262"/>
-      <c r="K30" s="262"/>
-      <c r="L30" s="262"/>
-      <c r="M30" s="262"/>
-      <c r="N30" s="262"/>
-      <c r="O30" s="262"/>
+      <c r="D30" s="268"/>
+      <c r="E30" s="268"/>
+      <c r="F30" s="268"/>
+      <c r="G30" s="268"/>
+      <c r="H30" s="268"/>
+      <c r="I30" s="268"/>
+      <c r="J30" s="268"/>
+      <c r="K30" s="268"/>
+      <c r="L30" s="268"/>
+      <c r="M30" s="268"/>
+      <c r="N30" s="268"/>
+      <c r="O30" s="268"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="262" t="s">
+      <c r="C31" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="262"/>
-      <c r="E31" s="262"/>
-      <c r="F31" s="262"/>
-      <c r="G31" s="262"/>
-      <c r="H31" s="262"/>
-      <c r="I31" s="262"/>
-      <c r="J31" s="262"/>
-      <c r="K31" s="262"/>
-      <c r="L31" s="262"/>
-      <c r="M31" s="262"/>
-      <c r="N31" s="262"/>
-      <c r="O31" s="262"/>
+      <c r="D31" s="268"/>
+      <c r="E31" s="268"/>
+      <c r="F31" s="268"/>
+      <c r="G31" s="268"/>
+      <c r="H31" s="268"/>
+      <c r="I31" s="268"/>
+      <c r="J31" s="268"/>
+      <c r="K31" s="268"/>
+      <c r="L31" s="268"/>
+      <c r="M31" s="268"/>
+      <c r="N31" s="268"/>
+      <c r="O31" s="268"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="262" t="s">
+      <c r="C32" s="268" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="262"/>
-      <c r="E32" s="262"/>
-      <c r="F32" s="262"/>
-      <c r="G32" s="262"/>
-      <c r="H32" s="262"/>
-      <c r="I32" s="262"/>
-      <c r="J32" s="262"/>
-      <c r="K32" s="262"/>
-      <c r="L32" s="262"/>
-      <c r="M32" s="262"/>
-      <c r="N32" s="262"/>
-      <c r="O32" s="262"/>
+      <c r="D32" s="268"/>
+      <c r="E32" s="268"/>
+      <c r="F32" s="268"/>
+      <c r="G32" s="268"/>
+      <c r="H32" s="268"/>
+      <c r="I32" s="268"/>
+      <c r="J32" s="268"/>
+      <c r="K32" s="268"/>
+      <c r="L32" s="268"/>
+      <c r="M32" s="268"/>
+      <c r="N32" s="268"/>
+      <c r="O32" s="268"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="262" t="s">
+      <c r="C33" s="268" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="262"/>
-      <c r="E33" s="262"/>
-      <c r="F33" s="262"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="262"/>
-      <c r="I33" s="262"/>
-      <c r="J33" s="262"/>
-      <c r="K33" s="262"/>
-      <c r="L33" s="262"/>
-      <c r="M33" s="262"/>
-      <c r="N33" s="262"/>
-      <c r="O33" s="262"/>
+      <c r="D33" s="268"/>
+      <c r="E33" s="268"/>
+      <c r="F33" s="268"/>
+      <c r="G33" s="268"/>
+      <c r="H33" s="268"/>
+      <c r="I33" s="268"/>
+      <c r="J33" s="268"/>
+      <c r="K33" s="268"/>
+      <c r="L33" s="268"/>
+      <c r="M33" s="268"/>
+      <c r="N33" s="268"/>
+      <c r="O33" s="268"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="262" t="s">
+      <c r="C34" s="268" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="262"/>
-      <c r="E34" s="262"/>
-      <c r="F34" s="262"/>
-      <c r="G34" s="262"/>
-      <c r="H34" s="262"/>
-      <c r="I34" s="262"/>
-      <c r="J34" s="262"/>
-      <c r="K34" s="262"/>
-      <c r="L34" s="262"/>
-      <c r="M34" s="262"/>
-      <c r="N34" s="262"/>
-      <c r="O34" s="262"/>
+      <c r="D34" s="268"/>
+      <c r="E34" s="268"/>
+      <c r="F34" s="268"/>
+      <c r="G34" s="268"/>
+      <c r="H34" s="268"/>
+      <c r="I34" s="268"/>
+      <c r="J34" s="268"/>
+      <c r="K34" s="268"/>
+      <c r="L34" s="268"/>
+      <c r="M34" s="268"/>
+      <c r="N34" s="268"/>
+      <c r="O34" s="268"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="262" t="s">
+      <c r="C35" s="268" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="262"/>
-      <c r="E35" s="262"/>
-      <c r="F35" s="262"/>
-      <c r="G35" s="262"/>
-      <c r="H35" s="262"/>
-      <c r="I35" s="262"/>
-      <c r="J35" s="262"/>
-      <c r="K35" s="262"/>
-      <c r="L35" s="262"/>
-      <c r="M35" s="262"/>
-      <c r="N35" s="262"/>
-      <c r="O35" s="262"/>
+      <c r="D35" s="268"/>
+      <c r="E35" s="268"/>
+      <c r="F35" s="268"/>
+      <c r="G35" s="268"/>
+      <c r="H35" s="268"/>
+      <c r="I35" s="268"/>
+      <c r="J35" s="268"/>
+      <c r="K35" s="268"/>
+      <c r="L35" s="268"/>
+      <c r="M35" s="268"/>
+      <c r="N35" s="268"/>
+      <c r="O35" s="268"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="265" t="s">
+      <c r="C36" s="272" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="265"/>
-      <c r="E36" s="265"/>
-      <c r="F36" s="265"/>
-      <c r="G36" s="265"/>
-      <c r="H36" s="265"/>
-      <c r="I36" s="265"/>
-      <c r="J36" s="265"/>
-      <c r="K36" s="265"/>
-      <c r="L36" s="265"/>
-      <c r="M36" s="265"/>
-      <c r="N36" s="265"/>
-      <c r="O36" s="265"/>
+      <c r="D36" s="272"/>
+      <c r="E36" s="272"/>
+      <c r="F36" s="272"/>
+      <c r="G36" s="272"/>
+      <c r="H36" s="272"/>
+      <c r="I36" s="272"/>
+      <c r="J36" s="272"/>
+      <c r="K36" s="272"/>
+      <c r="L36" s="272"/>
+      <c r="M36" s="272"/>
+      <c r="N36" s="272"/>
+      <c r="O36" s="272"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="189">
         <v>35</v>
       </c>
-      <c r="C37" s="263" t="s">
+      <c r="C37" s="270" t="s">
         <v>274</v>
       </c>
-      <c r="D37" s="263"/>
-      <c r="E37" s="263"/>
-      <c r="F37" s="263"/>
-      <c r="G37" s="263"/>
-      <c r="H37" s="263"/>
-      <c r="I37" s="263"/>
-      <c r="J37" s="263"/>
-      <c r="K37" s="263"/>
-      <c r="L37" s="263"/>
-      <c r="M37" s="263"/>
-      <c r="N37" s="263"/>
-      <c r="O37" s="263"/>
+      <c r="D37" s="270"/>
+      <c r="E37" s="270"/>
+      <c r="F37" s="270"/>
+      <c r="G37" s="270"/>
+      <c r="H37" s="270"/>
+      <c r="I37" s="270"/>
+      <c r="J37" s="270"/>
+      <c r="K37" s="270"/>
+      <c r="L37" s="270"/>
+      <c r="M37" s="270"/>
+      <c r="N37" s="270"/>
+      <c r="O37" s="270"/>
     </row>
     <row r="38" spans="2:15" ht="29" customHeight="1">
       <c r="B38" s="188">
         <v>36</v>
       </c>
-      <c r="C38" s="264" t="s">
+      <c r="C38" s="271" t="s">
         <v>275</v>
       </c>
-      <c r="D38" s="264"/>
-      <c r="E38" s="264"/>
-      <c r="F38" s="264"/>
-      <c r="G38" s="264"/>
-      <c r="H38" s="264"/>
-      <c r="I38" s="264"/>
-      <c r="J38" s="264"/>
-      <c r="K38" s="264"/>
-      <c r="L38" s="264"/>
-      <c r="M38" s="264"/>
-      <c r="N38" s="264"/>
-      <c r="O38" s="264"/>
+      <c r="D38" s="271"/>
+      <c r="E38" s="271"/>
+      <c r="F38" s="271"/>
+      <c r="G38" s="271"/>
+      <c r="H38" s="271"/>
+      <c r="I38" s="271"/>
+      <c r="J38" s="271"/>
+      <c r="K38" s="271"/>
+      <c r="L38" s="271"/>
+      <c r="M38" s="271"/>
+      <c r="N38" s="271"/>
+      <c r="O38" s="271"/>
+    </row>
+    <row r="39" spans="2:15">
+      <c r="B39" s="190">
+        <v>37</v>
+      </c>
+      <c r="C39" s="273" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="273"/>
+      <c r="E39" s="273"/>
+      <c r="F39" s="273"/>
+      <c r="G39" s="273"/>
+      <c r="H39" s="273"/>
+      <c r="I39" s="273"/>
+      <c r="J39" s="273"/>
+      <c r="K39" s="273"/>
+      <c r="L39" s="273"/>
+      <c r="M39" s="273"/>
+      <c r="N39" s="273"/>
+      <c r="O39" s="273"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:O7"/>
+  <mergeCells count="37">
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="C28:O28"/>
     <mergeCell ref="C29:O29"/>
@@ -31717,20 +31770,12 @@
     <mergeCell ref="C18:O18"/>
     <mergeCell ref="C19:O19"/>
     <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C30:O30"/>
-    <mergeCell ref="C31:O31"/>
-    <mergeCell ref="C37:O37"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:O7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31794,87 +31839,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>152</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="216"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -33989,12 +34034,12 @@
         <v>589.39900000000011</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -34003,13 +34048,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -34026,13 +34071,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -34049,13 +34094,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -34072,13 +34117,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -34248,15 +34293,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -34270,6 +34306,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34334,87 +34379,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -36574,12 +36619,12 @@
         <v>6634.9010000000007</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -36588,13 +36633,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -36611,13 +36656,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -36634,13 +36679,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -36657,13 +36702,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -36838,13 +36883,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AG16:AI16"/>
     <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
@@ -36853,13 +36898,13 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36924,87 +36969,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="216"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="218"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -39112,12 +39157,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="68"/>
@@ -39127,13 +39172,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -39150,13 +39195,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -39173,13 +39218,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -39196,13 +39241,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -39388,6 +39433,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:B2"/>
@@ -39404,12 +39455,6 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39473,87 +39518,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -41712,12 +41757,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -41726,13 +41771,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -41749,13 +41794,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>158</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -41772,13 +41817,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -41795,13 +41840,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -41987,15 +42032,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -42009,6 +42045,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42071,87 +42116,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="215"/>
+      <c r="B2" s="216"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -44306,12 +44351,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -44333,13 +44378,13 @@
       <c r="B19" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C19" s="212" t="s">
+      <c r="C19" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="212"/>
-      <c r="E19" s="212"/>
-      <c r="F19" s="212"/>
-      <c r="G19" s="212"/>
+      <c r="D19" s="205"/>
+      <c r="E19" s="205"/>
+      <c r="F19" s="205"/>
+      <c r="G19" s="205"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -44356,13 +44401,13 @@
       <c r="B20" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="210" t="s">
+      <c r="C20" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -44379,13 +44424,13 @@
       <c r="B21" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="192" t="s">
+      <c r="C21" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D21" s="211"/>
-      <c r="E21" s="211"/>
-      <c r="F21" s="211"/>
-      <c r="G21" s="211"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="204"/>
+      <c r="F21" s="204"/>
+      <c r="G21" s="204"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -44402,13 +44447,13 @@
       <c r="B22" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D22" s="210"/>
-      <c r="E22" s="210"/>
-      <c r="F22" s="210"/>
-      <c r="G22" s="210"/>
+      <c r="D22" s="203"/>
+      <c r="E22" s="203"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="203"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -44578,15 +44623,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -44600,6 +44636,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44664,87 +44709,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -46898,12 +46943,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -46912,13 +46957,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -46935,13 +46980,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -46958,13 +47003,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -46981,13 +47026,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -47173,15 +47218,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -47195,6 +47231,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47258,87 +47303,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="209" t="s">
+      <c r="A2" s="202" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="209"/>
+      <c r="B2" s="202"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="200" t="s">
+      <c r="D2" s="206" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="201"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="213" t="s">
+      <c r="E2" s="207"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="209" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="201"/>
-      <c r="I2" s="201"/>
-      <c r="J2" s="204" t="s">
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="214" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="201"/>
-      <c r="L2" s="201"/>
-      <c r="M2" s="204" t="s">
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
+      <c r="M2" s="214" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="201"/>
-      <c r="O2" s="202"/>
-      <c r="P2" s="205" t="s">
+      <c r="N2" s="207"/>
+      <c r="O2" s="208"/>
+      <c r="P2" s="213" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="201"/>
-      <c r="R2" s="202"/>
-      <c r="S2" s="206" t="s">
+      <c r="Q2" s="207"/>
+      <c r="R2" s="208"/>
+      <c r="S2" s="215" t="s">
         <v>278</v>
       </c>
-      <c r="T2" s="202"/>
-      <c r="U2" s="200" t="s">
+      <c r="T2" s="208"/>
+      <c r="U2" s="206" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="201"/>
-      <c r="W2" s="202"/>
-      <c r="X2" s="200" t="s">
+      <c r="V2" s="207"/>
+      <c r="W2" s="208"/>
+      <c r="X2" s="206" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="201"/>
-      <c r="Z2" s="202"/>
-      <c r="AA2" s="200" t="s">
+      <c r="Y2" s="207"/>
+      <c r="Z2" s="208"/>
+      <c r="AA2" s="206" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="201"/>
-      <c r="AC2" s="202"/>
-      <c r="AD2" s="213" t="s">
+      <c r="AB2" s="207"/>
+      <c r="AC2" s="208"/>
+      <c r="AD2" s="209" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="201"/>
-      <c r="AF2" s="202"/>
-      <c r="AG2" s="213" t="s">
+      <c r="AE2" s="207"/>
+      <c r="AF2" s="208"/>
+      <c r="AG2" s="209" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="201"/>
-      <c r="AI2" s="202"/>
-      <c r="AJ2" s="213" t="s">
+      <c r="AH2" s="207"/>
+      <c r="AI2" s="208"/>
+      <c r="AJ2" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="201"/>
-      <c r="AL2" s="202"/>
-      <c r="AM2" s="205" t="s">
+      <c r="AK2" s="207"/>
+      <c r="AL2" s="208"/>
+      <c r="AM2" s="213" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="201"/>
-      <c r="AO2" s="202"/>
-      <c r="AP2" s="205" t="s">
+      <c r="AN2" s="207"/>
+      <c r="AO2" s="208"/>
+      <c r="AP2" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="201"/>
-      <c r="AR2" s="202"/>
-      <c r="AS2" s="205" t="s">
+      <c r="AQ2" s="207"/>
+      <c r="AR2" s="208"/>
+      <c r="AS2" s="213" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="201"/>
-      <c r="AU2" s="202"/>
+      <c r="AT2" s="207"/>
+      <c r="AU2" s="208"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -49493,12 +49538,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="207"/>
-      <c r="AH16" s="208"/>
-      <c r="AI16" s="208"/>
-      <c r="AP16" s="207"/>
-      <c r="AQ16" s="208"/>
-      <c r="AR16" s="208"/>
+      <c r="AG16" s="210"/>
+      <c r="AH16" s="211"/>
+      <c r="AI16" s="211"/>
+      <c r="AP16" s="210"/>
+      <c r="AQ16" s="211"/>
+      <c r="AR16" s="211"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -49507,13 +49552,13 @@
       <c r="B18" s="84" t="s">
         <v>138</v>
       </c>
-      <c r="C18" s="212" t="s">
+      <c r="C18" s="205" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="212"/>
-      <c r="E18" s="212"/>
-      <c r="F18" s="212"/>
-      <c r="G18" s="212"/>
+      <c r="D18" s="205"/>
+      <c r="E18" s="205"/>
+      <c r="F18" s="205"/>
+      <c r="G18" s="205"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -49530,13 +49575,13 @@
       <c r="B19" s="82" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="210" t="s">
+      <c r="C19" s="203" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -49553,13 +49598,13 @@
       <c r="B20" s="71" t="s">
         <v>146</v>
       </c>
-      <c r="C20" s="192" t="s">
+      <c r="C20" s="201" t="s">
         <v>279</v>
       </c>
-      <c r="D20" s="211"/>
-      <c r="E20" s="211"/>
-      <c r="F20" s="211"/>
-      <c r="G20" s="211"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -49576,13 +49621,13 @@
       <c r="B21" s="83" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>272</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="203"/>
+      <c r="E21" s="203"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="203"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -49768,15 +49813,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -49790,6 +49826,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InternetFootprint_Final.xlsx
+++ b/InternetFootprint_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robringer/Library/Mobile Documents/com~apple~CloudDocs/Documents/Research/2020_21/datafootprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54673834-2982-F948-84AD-CA7985FBCFD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C614D-637A-8047-BA6D-9FA725DEFFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="460" windowWidth="24580" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33780" yWindow="1380" windowWidth="24580" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="28" r:id="rId1"/>
@@ -32,7 +32,8 @@
     <sheet name="United States Footprints" sheetId="11" r:id="rId17"/>
     <sheet name="COVID-19 Increases" sheetId="31" r:id="rId18"/>
     <sheet name="Application-based Footprints" sheetId="30" r:id="rId19"/>
-    <sheet name="References" sheetId="32" r:id="rId20"/>
+    <sheet name="Additional Text" sheetId="33" r:id="rId20"/>
+    <sheet name="References" sheetId="32" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1730" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="305">
   <si>
     <t>Netflix</t>
   </si>
@@ -439,49 +440,6 @@
     <t>Application-based Footprints</t>
   </si>
   <si>
-    <r>
-      <t>Aslan, J., Mayers, K., Koomey, J. G., &amp; France, C. (2018). Electricity intensity of Internet data transmission: Untangling the estimates. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Journal of Industrial Ecology</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>22</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(4), 785-798.</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.nature.org/en-us/get-involved/how-to-help/carbon-footprint-calculator/</t>
   </si>
   <si>
@@ -489,33 +447,6 @@
   </si>
   <si>
     <t>Assumptions and Sources of Uncertainty</t>
-  </si>
-  <si>
-    <r>
-      <t>Giljum, S., Lutter, S., Bruckner, M., &amp; Aparcana, S. (2013). State of play of national consumption-based indicators. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>A review and evaluation of available methods and data to calculate footprint-type (consumption-based) indicators for materials, water, land and carbon. Report for DG Environment of the European Commission. Sustainable Europe Research Institute (SERI), Vienna</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF222222"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
-    <t>C. Kang, D. Alba, A. Satariano,The New York Times(2020).</t>
   </si>
   <si>
     <t>Carbon, water, and land footprints of internet use for India, given their specific energy mix.</t>
@@ -1087,6 +1018,231 @@
   <si>
     <t>NOTE: The carbon footprint conversions were calculated using the US Environmental Protection Agency's Greenhouse Gas Equivalencies Calculator [37].</t>
   </si>
+  <si>
+    <t>Additional Text</t>
+  </si>
+  <si>
+    <t>Addtitional Background</t>
+  </si>
+  <si>
+    <t>https://www.gartner.com/en/newsroom/press-releases/2020-04-03-gartner-cfo-surey-reveals-74-percent-of-organizations-to-shift-some-employees-to-remote-work-permanently2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic has been a turning point for remote working, with many people continuing to work from home even after restrictions have been lifted. A recent survey found that 74\% of Chief Financial Officers (CFOs) were making plans to offer remote work options on a more permanent basis [38]. This trend has been touted as environmentally beneficial due to the global reduction in travel and work commutes [39].. However, the restrictions have also led to a significant increase in internet use---Netflix reported a 16\% increase in daily traffic between January and March 2020, while Zoom experienced a tripling of usage following the initial shutdown in the US [40]. This transformation to a more digital life has some major benefits, but, as with most trends in technology, there are also a number of hidden environmental impacts that must be uncovered (Figure 1a) to make the transition to a low-carbon and green economy successful. </t>
+  </si>
+  <si>
+    <r>
+      <t>Aslan, J., Mayers, K., Koomey, J. G., &amp; France, C. Electricity intensity of Internet data transmission: Untangling the estimates. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Journal of Industrial Ecology</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(4), 785-798 (2018).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giljum, S., Lutter, S., Bruckner, M., &amp; Aparcana, S. State of play of national consumption-based indicators. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A review and evaluation of available methods and data to calculate footprint-type (consumption-based) indicators for materials, water, land and carbon. Report for DG Environment of the European Commission. Sustainable Europe Research Institute (SERI), Vienna</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (2013).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">C. Kang, D. Alba, A. Satariano.. Surging internet traffice is slowing down our internet. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The New York Times (2020)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">P. Wang, K. Chen, S. Zhu, P. Wang, H. Zhang. Severe air pollution eventsnot avoided by reduced anthropogenic activities during covid-19 outbreak. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Resources, Conservation and Recycling</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, 158, 104814 (2020).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Koeze, E. and Popper, N. The virus changed the way we internet. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>The New York Times</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>. (2020).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">J. Malmodin, D. Lunden. The energy and carbon footprint of the global ict and e&amp;m sectors 2010–2015. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Sustainability,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 10 (9), 3027 (2018).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">E. Masanet, A. Shehabi, N. Lei, S. Smith, J. Koomey, Recalibrating globaldata center energy-use estimates. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Science</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 367 (6481) 984–986 (2020).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">There have been a number of studies estimating the carbon footprint of data storage and transmission [1,41].  Nonetheless, given the technological and efficiency improvements in the internet sector [42] and the energy supply portfolio, these values must be continuously updated. Despite their environmental significance and contribution to climate change, the water and land footprints of data use have not been well studied [9]. Moreover, there have been no studies, to our knowledge, that have discussed the land footprint of internet use. </t>
+  </si>
+  <si>
+    <t>Addtitional Results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany, one of the world’s leaders in the transition to renewable energy, has a median internet land footprint that is 204% higher than the world, while Russia has a median land footprint that is 76% lower than the world. </t>
+  </si>
+  <si>
+    <t>Considering that a number of countries reported at least a 20% increase in internet usage related to COVID-19 [5]. Starting in March 2020, the global carbon footprint could grow by approximately 34.3 million metric tons of CO2e if remote work continues for until the end of 2021. This increase in carbon emissions would require a forest twice the size of Portugal to fully sequester all the emitted CO2e. The associated water footprint is enough to fill 317,200 Olympic size swimming pools and the land footprint is the about size of Los Angeles.</t>
+  </si>
+  <si>
+    <t>Additional text that was removed from the submitted manuscript. This text offers additional explanations on background, results, and implications.</t>
+  </si>
+  <si>
+    <t>Addtitional Implications</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the largest determinants of the footprint of streaming services is  video quality. Currently, the default for many services is high-definition (occasionally, even ultra-high definition), which places the onus on the consumer to reduce the video quality to improve their footprint. However, to reduce the footprint of the internet, companies can change the default settings of their products. Numerous provider-side changes can be implemented in which consumers can be allowed to choose to `upgrade' their video quality, rather than leaving people with the option to `downgrade' without providing information on the benefits of such an action. </t>
+  </si>
+  <si>
+    <t>https://www.epa.gov/ghgreporting/greenhouse-gas-reporting-program-and-us-inventory-greenhouse-gas-emissions-and-sinks#:~:text=The%20Inventory%20of%20U.S.%20Greenhouse,economy%20using%20national%2Dlevel%20data.</t>
+  </si>
+  <si>
+    <t>A common example [of unsustainable behavior becoming the norm, and therefore difficult to change] is the use of cars in the US. Despite the adverse environmental impacts of automobiles [43], the US continues to prioritize vehicle-focused infrastructure (e.g., interstates rather than long-distance trains). This has cemented driving not only as the norm, but also as a basic necessity for many people, imposing significant barriers to building a more sustainable society that is not highly reliant on fossil fuels and private transport modes.</t>
+  </si>
 </sst>
 </file>
 
@@ -1096,7 +1252,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1319,6 +1475,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1755,7 +1918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="275">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2072,7 +2235,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2081,27 +2248,48 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2114,44 +2302,60 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2174,18 +2378,6 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2194,28 +2386,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2229,11 +2417,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2245,43 +2433,13 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2294,10 +2452,35 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2519,7 +2702,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B5907B-72D9-B048-A89C-5D157FFDEFDC}">
-  <dimension ref="A2:O48"/>
+  <dimension ref="A2:O49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2534,35 +2717,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="B2" s="194" t="s">
-        <v>267</v>
-      </c>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
+      <c r="B2" s="196" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="196"/>
+      <c r="D2" s="196"/>
+      <c r="E2" s="196"/>
+      <c r="F2" s="196"/>
+      <c r="G2" s="196"/>
+      <c r="H2" s="196"/>
+      <c r="I2" s="196"/>
+      <c r="J2" s="196"/>
+      <c r="K2" s="196"/>
+      <c r="L2" s="196"/>
     </row>
     <row r="3" spans="1:12" ht="28" customHeight="1">
       <c r="A3" s="187"/>
-      <c r="B3" s="198" t="s">
-        <v>268</v>
-      </c>
-      <c r="C3" s="198"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="198"/>
-      <c r="F3" s="198"/>
-      <c r="G3" s="198"/>
-      <c r="H3" s="198"/>
-      <c r="I3" s="198"/>
-      <c r="J3" s="198"/>
-      <c r="K3" s="198"/>
-      <c r="L3" s="198"/>
+      <c r="B3" s="197" t="s">
+        <v>265</v>
+      </c>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="187"/>
@@ -2576,7 +2759,7 @@
     <row r="6" spans="1:12" ht="7" customHeight="1"/>
     <row r="7" spans="1:12">
       <c r="B7" s="69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2600,524 +2783,561 @@
         <v>96</v>
       </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="193" t="s">
+      <c r="D10" s="195" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-      <c r="H10" s="193"/>
-      <c r="I10" s="193"/>
-      <c r="J10" s="193"/>
-      <c r="K10" s="193"/>
+      <c r="E10" s="195"/>
+      <c r="F10" s="195"/>
+      <c r="G10" s="195"/>
+      <c r="H10" s="195"/>
+      <c r="I10" s="195"/>
+      <c r="J10" s="195"/>
+      <c r="K10" s="195"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="193" t="s">
+      <c r="D11" s="195" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-      <c r="H11" s="193"/>
-      <c r="I11" s="193"/>
-      <c r="J11" s="193"/>
-      <c r="K11" s="193"/>
+      <c r="E11" s="195"/>
+      <c r="F11" s="195"/>
+      <c r="G11" s="195"/>
+      <c r="H11" s="195"/>
+      <c r="I11" s="195"/>
+      <c r="J11" s="195"/>
+      <c r="K11" s="195"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="75"/>
-      <c r="D12" s="193" t="s">
+      <c r="D12" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
+      <c r="E12" s="195"/>
+      <c r="F12" s="195"/>
+      <c r="G12" s="195"/>
+      <c r="H12" s="195"/>
+      <c r="I12" s="195"/>
+      <c r="J12" s="195"/>
+      <c r="K12" s="195"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="193" t="s">
+      <c r="D13" s="195" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
+      <c r="E13" s="195"/>
+      <c r="F13" s="195"/>
+      <c r="G13" s="195"/>
+      <c r="H13" s="195"/>
+      <c r="I13" s="195"/>
+      <c r="J13" s="195"/>
+      <c r="K13" s="195"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="75"/>
-      <c r="D14" s="193" t="s">
+      <c r="D14" s="195" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="195"/>
+      <c r="J14" s="195"/>
+      <c r="K14" s="195"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="75"/>
-      <c r="D15" s="193" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
+      <c r="D15" s="195" t="s">
+        <v>132</v>
+      </c>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="195"/>
+      <c r="K15" s="195"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="75"/>
-      <c r="D16" s="193" t="s">
+      <c r="D16" s="195" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="193"/>
+      <c r="E16" s="195"/>
+      <c r="F16" s="195"/>
+      <c r="G16" s="195"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
+      <c r="J16" s="195"/>
+      <c r="K16" s="195"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="75"/>
-      <c r="D17" s="193" t="s">
+      <c r="D17" s="195" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-      <c r="H17" s="193"/>
-      <c r="I17" s="193"/>
-      <c r="J17" s="193"/>
-      <c r="K17" s="193"/>
+      <c r="E17" s="195"/>
+      <c r="F17" s="195"/>
+      <c r="G17" s="195"/>
+      <c r="H17" s="195"/>
+      <c r="I17" s="195"/>
+      <c r="J17" s="195"/>
+      <c r="K17" s="195"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="193" t="s">
+      <c r="D18" s="195" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
+      <c r="E18" s="195"/>
+      <c r="F18" s="195"/>
+      <c r="G18" s="195"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="195"/>
+      <c r="J18" s="195"/>
+      <c r="K18" s="195"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="75"/>
-      <c r="D19" s="193" t="s">
+      <c r="D19" s="195" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
-      <c r="H19" s="193"/>
-      <c r="I19" s="193"/>
-      <c r="J19" s="193"/>
-      <c r="K19" s="193"/>
+      <c r="E19" s="195"/>
+      <c r="F19" s="195"/>
+      <c r="G19" s="195"/>
+      <c r="H19" s="195"/>
+      <c r="I19" s="195"/>
+      <c r="J19" s="195"/>
+      <c r="K19" s="195"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="75"/>
-      <c r="D20" s="193" t="s">
+      <c r="D20" s="195" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
-      <c r="G20" s="193"/>
-      <c r="H20" s="193"/>
-      <c r="I20" s="193"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="193"/>
+      <c r="E20" s="195"/>
+      <c r="F20" s="195"/>
+      <c r="G20" s="195"/>
+      <c r="H20" s="195"/>
+      <c r="I20" s="195"/>
+      <c r="J20" s="195"/>
+      <c r="K20" s="195"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="195" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="193"/>
-      <c r="F21" s="193"/>
-      <c r="G21" s="193"/>
-      <c r="H21" s="193"/>
-      <c r="I21" s="193"/>
-      <c r="J21" s="193"/>
-      <c r="K21" s="193"/>
+      <c r="E21" s="195"/>
+      <c r="F21" s="195"/>
+      <c r="G21" s="195"/>
+      <c r="H21" s="195"/>
+      <c r="I21" s="195"/>
+      <c r="J21" s="195"/>
+      <c r="K21" s="195"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="193" t="s">
+      <c r="D22" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="195"/>
+      <c r="I22" s="195"/>
+      <c r="J22" s="195"/>
+      <c r="K22" s="195"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="195" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="193"/>
-      <c r="F23" s="193"/>
-      <c r="G23" s="193"/>
-      <c r="H23" s="193"/>
-      <c r="I23" s="193"/>
-      <c r="J23" s="193"/>
-      <c r="K23" s="193"/>
+      <c r="E23" s="195"/>
+      <c r="F23" s="195"/>
+      <c r="G23" s="195"/>
+      <c r="H23" s="195"/>
+      <c r="I23" s="195"/>
+      <c r="J23" s="195"/>
+      <c r="K23" s="195"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="193" t="s">
+      <c r="D24" s="195" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="193"/>
-      <c r="F24" s="193"/>
-      <c r="G24" s="193"/>
-      <c r="H24" s="193"/>
-      <c r="I24" s="193"/>
-      <c r="J24" s="193"/>
-      <c r="K24" s="193"/>
+      <c r="E24" s="195"/>
+      <c r="F24" s="195"/>
+      <c r="G24" s="195"/>
+      <c r="H24" s="195"/>
+      <c r="I24" s="195"/>
+      <c r="J24" s="195"/>
+      <c r="K24" s="195"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="75"/>
-      <c r="D25" s="193" t="s">
+      <c r="D25" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="193"/>
-      <c r="F25" s="193"/>
-      <c r="G25" s="193"/>
-      <c r="H25" s="193"/>
-      <c r="I25" s="193"/>
-      <c r="J25" s="193"/>
-      <c r="K25" s="193"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="75"/>
-      <c r="D26" s="193" t="s">
-        <v>175</v>
-      </c>
-      <c r="E26" s="193"/>
-      <c r="F26" s="193"/>
-      <c r="G26" s="193"/>
-      <c r="H26" s="193"/>
-      <c r="I26" s="193"/>
-      <c r="J26" s="193"/>
-      <c r="K26" s="193"/>
+      <c r="D26" s="195" t="s">
+        <v>172</v>
+      </c>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="195" t="s">
+      <c r="D27" s="201" t="s">
+        <v>130</v>
+      </c>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="201"/>
+    </row>
+    <row r="28" spans="2:11" ht="30" customHeight="1">
+      <c r="B28" s="277" t="s">
+        <v>285</v>
+      </c>
+      <c r="C28" s="198"/>
+      <c r="D28" s="278" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
+    </row>
+    <row r="29" spans="2:11" ht="28" customHeight="1">
+      <c r="B29" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="198"/>
+      <c r="D29" s="201" t="s">
+        <v>174</v>
+      </c>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
+    </row>
+    <row r="32" spans="2:11" ht="18">
+      <c r="B32" s="70" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="70"/>
+    </row>
+    <row r="33" spans="2:15" ht="7" customHeight="1"/>
+    <row r="34" spans="2:15">
+      <c r="B34" s="196" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="195"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="195"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="195"/>
+      <c r="H34" s="195"/>
+      <c r="I34" s="195"/>
+      <c r="J34" s="195"/>
+      <c r="K34" s="195"/>
+    </row>
+    <row r="35" spans="2:15" ht="28" customHeight="1">
+      <c r="B35" s="199" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" s="199"/>
+      <c r="D35" s="199"/>
+      <c r="E35" s="199"/>
+      <c r="F35" s="199"/>
+      <c r="G35" s="199"/>
+      <c r="H35" s="199"/>
+      <c r="I35" s="199"/>
+      <c r="J35" s="199"/>
+      <c r="K35" s="199"/>
+    </row>
+    <row r="36" spans="2:15">
+      <c r="B36" s="196" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" s="195"/>
+      <c r="D36" s="195"/>
+      <c r="E36" s="195"/>
+      <c r="F36" s="195"/>
+      <c r="G36" s="195"/>
+      <c r="H36" s="195"/>
+      <c r="I36" s="195"/>
+      <c r="J36" s="195"/>
+      <c r="K36" s="195"/>
+    </row>
+    <row r="37" spans="2:15">
+      <c r="B37" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="195"/>
+      <c r="D37" s="195"/>
+      <c r="E37" s="195"/>
+      <c r="F37" s="195"/>
+      <c r="G37" s="195"/>
+      <c r="H37" s="195"/>
+      <c r="I37" s="195"/>
+      <c r="J37" s="195"/>
+      <c r="K37" s="195"/>
+    </row>
+    <row r="40" spans="2:15" ht="18">
+      <c r="B40" s="70" t="s">
         <v>131</v>
       </c>
-      <c r="E27" s="195"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="195"/>
-      <c r="H27" s="195"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-    </row>
-    <row r="28" spans="2:11" ht="28" customHeight="1">
-      <c r="B28" s="199" t="s">
-        <v>176</v>
-      </c>
-      <c r="C28" s="199"/>
-      <c r="D28" s="195" t="s">
-        <v>177</v>
-      </c>
-      <c r="E28" s="195"/>
-      <c r="F28" s="195"/>
-      <c r="G28" s="195"/>
-      <c r="H28" s="195"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
-    </row>
-    <row r="31" spans="2:11" ht="18">
-      <c r="B31" s="70" t="s">
-        <v>136</v>
-      </c>
-      <c r="C31" s="70"/>
-    </row>
-    <row r="32" spans="2:11" ht="7" customHeight="1"/>
-    <row r="33" spans="2:15">
-      <c r="B33" s="194" t="s">
-        <v>276</v>
-      </c>
-      <c r="C33" s="193"/>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
-      <c r="F33" s="193"/>
-      <c r="G33" s="193"/>
-      <c r="H33" s="193"/>
-      <c r="I33" s="193"/>
-      <c r="J33" s="193"/>
-      <c r="K33" s="193"/>
-    </row>
-    <row r="34" spans="2:15" ht="28" customHeight="1">
-      <c r="B34" s="197" t="s">
-        <v>178</v>
-      </c>
-      <c r="C34" s="197"/>
-      <c r="D34" s="197"/>
-      <c r="E34" s="197"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="197"/>
-      <c r="H34" s="197"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="197"/>
-      <c r="K34" s="197"/>
-    </row>
-    <row r="35" spans="2:15">
-      <c r="B35" s="194" t="s">
+      <c r="C40" s="70"/>
+    </row>
+    <row r="41" spans="2:15" ht="7" customHeight="1">
+      <c r="B41" s="70"/>
+      <c r="C41" s="70"/>
+    </row>
+    <row r="42" spans="2:15" ht="15" customHeight="1">
+      <c r="B42" s="193" t="s">
         <v>277</v>
       </c>
-      <c r="C35" s="193"/>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
-      <c r="F35" s="193"/>
-      <c r="G35" s="193"/>
-      <c r="H35" s="193"/>
-      <c r="I35" s="193"/>
-      <c r="J35" s="193"/>
-      <c r="K35" s="193"/>
-    </row>
-    <row r="36" spans="2:15">
-      <c r="B36" s="193" t="s">
-        <v>180</v>
-      </c>
-      <c r="C36" s="193"/>
-      <c r="D36" s="193"/>
-      <c r="E36" s="193"/>
-      <c r="F36" s="193"/>
-      <c r="G36" s="193"/>
-      <c r="H36" s="193"/>
-      <c r="I36" s="193"/>
-      <c r="J36" s="193"/>
-      <c r="K36" s="193"/>
-    </row>
-    <row r="39" spans="2:15" ht="18">
-      <c r="B39" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="C39" s="70"/>
-    </row>
-    <row r="40" spans="2:15" ht="7" customHeight="1">
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-    </row>
-    <row r="41" spans="2:15" ht="15" customHeight="1">
-      <c r="B41" s="201" t="s">
-        <v>280</v>
-      </c>
-      <c r="C41" s="201"/>
-      <c r="D41" s="201"/>
-      <c r="E41" s="201"/>
-      <c r="F41" s="201"/>
-      <c r="G41" s="201"/>
-      <c r="H41" s="201"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="201"/>
-      <c r="K41" s="201"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-    </row>
-    <row r="42" spans="2:15" ht="46" customHeight="1">
-      <c r="B42" s="191" t="s">
-        <v>281</v>
-      </c>
-      <c r="C42" s="191"/>
-      <c r="D42" s="191"/>
-      <c r="E42" s="191"/>
-      <c r="F42" s="191"/>
-      <c r="G42" s="191"/>
-      <c r="H42" s="191"/>
-      <c r="I42" s="191"/>
-      <c r="J42" s="191"/>
-      <c r="K42" s="191"/>
-      <c r="L42" s="78"/>
-      <c r="M42" s="78"/>
-      <c r="N42" s="78"/>
-      <c r="O42" s="78"/>
-    </row>
-    <row r="43" spans="2:15" ht="39" customHeight="1">
-      <c r="B43" s="191" t="s">
-        <v>273</v>
-      </c>
-      <c r="C43" s="191"/>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="191"/>
-      <c r="K43" s="191"/>
-      <c r="L43" s="79"/>
-      <c r="M43" s="79"/>
-      <c r="N43" s="79"/>
-      <c r="O43" s="79"/>
-    </row>
-    <row r="44" spans="2:15" ht="56" customHeight="1">
-      <c r="B44" s="191" t="s">
-        <v>282</v>
-      </c>
-      <c r="C44" s="191"/>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="191"/>
-      <c r="K44" s="191"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="193"/>
+      <c r="E42" s="193"/>
+      <c r="F42" s="193"/>
+      <c r="G42" s="193"/>
+      <c r="H42" s="193"/>
+      <c r="I42" s="193"/>
+      <c r="J42" s="193"/>
+      <c r="K42" s="193"/>
+      <c r="L42" s="80"/>
+      <c r="M42" s="80"/>
+      <c r="N42" s="80"/>
+      <c r="O42" s="80"/>
+    </row>
+    <row r="43" spans="2:15" ht="46" customHeight="1">
+      <c r="B43" s="194" t="s">
+        <v>278</v>
+      </c>
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
+      <c r="I43" s="194"/>
+      <c r="J43" s="194"/>
+      <c r="K43" s="194"/>
+      <c r="L43" s="78"/>
+      <c r="M43" s="78"/>
+      <c r="N43" s="78"/>
+      <c r="O43" s="78"/>
+    </row>
+    <row r="44" spans="2:15" ht="39" customHeight="1">
+      <c r="B44" s="194" t="s">
+        <v>270</v>
+      </c>
+      <c r="C44" s="194"/>
+      <c r="D44" s="194"/>
+      <c r="E44" s="194"/>
+      <c r="F44" s="194"/>
+      <c r="G44" s="194"/>
+      <c r="H44" s="194"/>
+      <c r="I44" s="194"/>
+      <c r="J44" s="194"/>
+      <c r="K44" s="194"/>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
     </row>
-    <row r="45" spans="2:15" ht="84" customHeight="1">
-      <c r="B45" s="191" t="s">
-        <v>285</v>
-      </c>
-      <c r="C45" s="191"/>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="191"/>
-      <c r="K45" s="191"/>
+    <row r="45" spans="2:15" ht="56" customHeight="1">
+      <c r="B45" s="194" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="194"/>
+      <c r="D45" s="194"/>
+      <c r="E45" s="194"/>
+      <c r="F45" s="194"/>
+      <c r="G45" s="194"/>
+      <c r="H45" s="194"/>
+      <c r="I45" s="194"/>
+      <c r="J45" s="194"/>
+      <c r="K45" s="194"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
     </row>
-    <row r="46" spans="2:15" ht="99" customHeight="1">
-      <c r="B46" s="192" t="s">
-        <v>283</v>
-      </c>
-      <c r="C46" s="192"/>
-      <c r="D46" s="192"/>
-      <c r="E46" s="192"/>
-      <c r="F46" s="192"/>
-      <c r="G46" s="192"/>
-      <c r="H46" s="192"/>
-      <c r="I46" s="192"/>
-      <c r="J46" s="192"/>
-      <c r="K46" s="192"/>
-      <c r="L46" s="186"/>
-      <c r="M46" s="186"/>
-      <c r="N46" s="186"/>
-      <c r="O46" s="186"/>
-    </row>
-    <row r="47" spans="2:15" ht="90" customHeight="1">
-      <c r="B47" s="196" t="s">
-        <v>284</v>
-      </c>
-      <c r="C47" s="197"/>
-      <c r="D47" s="197"/>
-      <c r="E47" s="197"/>
-      <c r="F47" s="197"/>
-      <c r="G47" s="197"/>
-      <c r="H47" s="197"/>
-      <c r="I47" s="197"/>
-      <c r="J47" s="197"/>
-      <c r="K47" s="197"/>
-    </row>
-    <row r="48" spans="2:15" ht="33" customHeight="1">
-      <c r="B48" s="191" t="s">
-        <v>182</v>
-      </c>
-      <c r="C48" s="191"/>
-      <c r="D48" s="191"/>
-      <c r="E48" s="191"/>
-      <c r="F48" s="191"/>
-      <c r="G48" s="191"/>
-      <c r="H48" s="191"/>
-      <c r="I48" s="191"/>
-      <c r="J48" s="191"/>
-      <c r="K48" s="191"/>
+    <row r="46" spans="2:15" ht="84" customHeight="1">
+      <c r="B46" s="194" t="s">
+        <v>282</v>
+      </c>
+      <c r="C46" s="194"/>
+      <c r="D46" s="194"/>
+      <c r="E46" s="194"/>
+      <c r="F46" s="194"/>
+      <c r="G46" s="194"/>
+      <c r="H46" s="194"/>
+      <c r="I46" s="194"/>
+      <c r="J46" s="194"/>
+      <c r="K46" s="194"/>
+      <c r="L46" s="79"/>
+      <c r="M46" s="79"/>
+      <c r="N46" s="79"/>
+      <c r="O46" s="79"/>
+    </row>
+    <row r="47" spans="2:15" ht="99" customHeight="1">
+      <c r="B47" s="202" t="s">
+        <v>280</v>
+      </c>
+      <c r="C47" s="202"/>
+      <c r="D47" s="202"/>
+      <c r="E47" s="202"/>
+      <c r="F47" s="202"/>
+      <c r="G47" s="202"/>
+      <c r="H47" s="202"/>
+      <c r="I47" s="202"/>
+      <c r="J47" s="202"/>
+      <c r="K47" s="202"/>
+      <c r="L47" s="186"/>
+      <c r="M47" s="186"/>
+      <c r="N47" s="186"/>
+      <c r="O47" s="186"/>
+    </row>
+    <row r="48" spans="2:15" ht="90" customHeight="1">
+      <c r="B48" s="203" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" s="199"/>
+      <c r="D48" s="199"/>
+      <c r="E48" s="199"/>
+      <c r="F48" s="199"/>
+      <c r="G48" s="199"/>
+      <c r="H48" s="199"/>
+      <c r="I48" s="199"/>
+      <c r="J48" s="199"/>
+      <c r="K48" s="199"/>
+    </row>
+    <row r="49" spans="2:11" ht="33" customHeight="1">
+      <c r="B49" s="194" t="s">
+        <v>179</v>
+      </c>
+      <c r="C49" s="194"/>
+      <c r="D49" s="194"/>
+      <c r="E49" s="194"/>
+      <c r="F49" s="194"/>
+      <c r="G49" s="194"/>
+      <c r="H49" s="194"/>
+      <c r="I49" s="194"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="B41:K41"/>
+  <mergeCells count="37">
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B43:K43"/>
     <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D15:K15"/>
+    <mergeCell ref="D16:K16"/>
+    <mergeCell ref="D29:K29"/>
+    <mergeCell ref="B49:K49"/>
+    <mergeCell ref="B47:K47"/>
+    <mergeCell ref="D19:K19"/>
+    <mergeCell ref="D20:K20"/>
+    <mergeCell ref="D21:K21"/>
+    <mergeCell ref="B36:K36"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:K24"/>
+    <mergeCell ref="D25:K25"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B45:K45"/>
     <mergeCell ref="D18:K18"/>
     <mergeCell ref="B2:L2"/>
     <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B29:C29"/>
     <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
     <mergeCell ref="D22:K22"/>
     <mergeCell ref="D9:K9"/>
     <mergeCell ref="D10:K10"/>
@@ -3126,25 +3346,6 @@
     <mergeCell ref="D13:K13"/>
     <mergeCell ref="D14:K14"/>
     <mergeCell ref="D17:K17"/>
-    <mergeCell ref="D15:K15"/>
-    <mergeCell ref="D16:K16"/>
-    <mergeCell ref="D28:K28"/>
-    <mergeCell ref="B48:K48"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="D19:K19"/>
-    <mergeCell ref="D20:K20"/>
-    <mergeCell ref="D21:K21"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:K24"/>
-    <mergeCell ref="D25:K25"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="B47:K47"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B43:K43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3209,87 +3410,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>163</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -5349,7 +5550,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -5444,27 +5645,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5479,15 +5680,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -5502,15 +5703,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5525,15 +5726,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5719,6 +5920,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -5732,15 +5942,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5805,87 +6006,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>164</v>
-      </c>
-      <c r="B2" s="216"/>
+      <c r="A2" s="213" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="219"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -7945,7 +8146,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -7992,27 +8193,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -8027,15 +8228,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -8050,15 +8251,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -8073,15 +8274,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -8251,6 +8452,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -8264,15 +8474,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8337,87 +8538,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="216"/>
+      <c r="A2" s="213" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="219"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -10476,7 +10677,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -10571,12 +10772,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="H17" s="61"/>
@@ -10593,15 +10794,15 @@
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -10616,15 +10817,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -10639,15 +10840,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -10662,15 +10863,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -10840,6 +11041,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -10853,15 +11063,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10926,87 +11127,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>166</v>
-      </c>
-      <c r="B2" s="216"/>
+      <c r="A2" s="213" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="219"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -13067,7 +13268,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -13162,24 +13363,24 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -13194,15 +13395,15 @@
     </row>
     <row r="18" spans="2:18" ht="28" customHeight="1">
       <c r="B18" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="203" t="s">
-        <v>167</v>
-      </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+        <v>134</v>
+      </c>
+      <c r="C18" s="214" t="s">
+        <v>164</v>
+      </c>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -13217,15 +13418,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C19" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -13240,15 +13441,15 @@
     </row>
     <row r="20" spans="2:18" ht="28" customHeight="1">
       <c r="B20" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C20" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -13418,6 +13619,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -13431,15 +13641,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13504,87 +13705,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>168</v>
-      </c>
-      <c r="B2" s="216"/>
+      <c r="A2" s="213" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="219"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -15644,7 +15845,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -15739,27 +15940,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -15774,15 +15975,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -15797,15 +15998,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -15820,15 +16021,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -16014,6 +16215,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -16027,15 +16237,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16101,86 +16302,86 @@
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
       <c r="A2" s="81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -18239,7 +18440,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -18286,27 +18487,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -18321,15 +18522,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -18344,15 +18545,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -18367,15 +18568,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18545,11 +18746,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -18566,6 +18762,11 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18629,87 +18830,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -20768,7 +20969,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -20862,15 +21063,15 @@
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -20885,15 +21086,15 @@
     </row>
     <row r="18" spans="2:18" ht="29" customHeight="1">
       <c r="B18" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="203" t="s">
-        <v>170</v>
-      </c>
-      <c r="D18" s="203"/>
-      <c r="E18" s="203"/>
-      <c r="F18" s="203"/>
-      <c r="G18" s="203"/>
+        <v>134</v>
+      </c>
+      <c r="C18" s="214" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -20908,15 +21109,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
-      <c r="F19" s="204"/>
-      <c r="G19" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C19" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" s="215"/>
+      <c r="E19" s="215"/>
+      <c r="F19" s="215"/>
+      <c r="G19" s="215"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -20931,15 +21132,15 @@
     </row>
     <row r="20" spans="2:18" ht="28" customHeight="1">
       <c r="B20" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C20" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -21093,6 +21294,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -21105,14 +21314,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21177,87 +21378,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="13">
-      <c r="A2" s="202" t="s">
-        <v>172</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -23316,7 +23517,7 @@
     </row>
     <row r="15" spans="1:47" ht="13">
       <c r="A15" s="86" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -23411,72 +23612,69 @@
     <row r="16" spans="1:47" ht="13">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1"/>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="203" t="s">
-        <v>142</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
     </row>
     <row r="21" spans="2:7" ht="28">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -23486,11 +23684,14 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23529,49 +23730,49 @@
   <sheetData>
     <row r="2" spans="2:19" ht="16" customHeight="1">
       <c r="F2" s="69" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="14" thickBot="1"/>
     <row r="4" spans="2:19" ht="15.75" customHeight="1">
-      <c r="F4" s="242" t="s">
-        <v>173</v>
-      </c>
-      <c r="G4" s="243"/>
-      <c r="H4" s="243"/>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="243"/>
-      <c r="N4" s="244"/>
-      <c r="P4" s="223" t="s">
+      <c r="F4" s="224" t="s">
+        <v>170</v>
+      </c>
+      <c r="G4" s="225"/>
+      <c r="H4" s="225"/>
+      <c r="I4" s="225"/>
+      <c r="J4" s="225"/>
+      <c r="K4" s="225"/>
+      <c r="L4" s="225"/>
+      <c r="M4" s="225"/>
+      <c r="N4" s="226"/>
+      <c r="P4" s="238" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="224"/>
+      <c r="Q4" s="239"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B5" s="229" t="s">
-        <v>147</v>
-      </c>
-      <c r="C5" s="229"/>
-      <c r="D5" s="231"/>
+      <c r="B5" s="222" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="222"/>
+      <c r="D5" s="223"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="238" t="s">
+      <c r="F5" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="236"/>
-      <c r="H5" s="236"/>
-      <c r="I5" s="232" t="s">
+      <c r="G5" s="229"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="233"/>
-      <c r="K5" s="234"/>
-      <c r="L5" s="235" t="s">
+      <c r="J5" s="244"/>
+      <c r="K5" s="245"/>
+      <c r="L5" s="246" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="236"/>
-      <c r="N5" s="237"/>
+      <c r="M5" s="229"/>
+      <c r="N5" s="247"/>
       <c r="P5" s="103" t="s">
         <v>69</v>
       </c>
@@ -24100,8 +24301,8 @@
         <f>'Global Footprints'!AU13*$Q$7*$Q$5</f>
         <v>3072094861.660079</v>
       </c>
-      <c r="Q16" s="202"/>
-      <c r="R16" s="202"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="213"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" customHeight="1">
@@ -24156,7 +24357,7 @@
     </row>
     <row r="18" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="B18" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C18" s="3">
         <v>26565</v>
@@ -24216,42 +24417,42 @@
       <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F20" s="242" t="s">
+      <c r="F20" s="224" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="243"/>
-      <c r="H20" s="243"/>
-      <c r="I20" s="243"/>
-      <c r="J20" s="243"/>
-      <c r="K20" s="243"/>
-      <c r="L20" s="243"/>
-      <c r="M20" s="243"/>
-      <c r="N20" s="244"/>
+      <c r="G20" s="225"/>
+      <c r="H20" s="225"/>
+      <c r="I20" s="225"/>
+      <c r="J20" s="225"/>
+      <c r="K20" s="225"/>
+      <c r="L20" s="225"/>
+      <c r="M20" s="225"/>
+      <c r="N20" s="226"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B21" s="229" t="s">
-        <v>147</v>
-      </c>
-      <c r="C21" s="229"/>
-      <c r="D21" s="231"/>
-      <c r="F21" s="238" t="s">
+      <c r="B21" s="222" t="s">
+        <v>144</v>
+      </c>
+      <c r="C21" s="222"/>
+      <c r="D21" s="223"/>
+      <c r="F21" s="228" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="236"/>
-      <c r="H21" s="236"/>
-      <c r="I21" s="232" t="s">
+      <c r="G21" s="229"/>
+      <c r="H21" s="229"/>
+      <c r="I21" s="243" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="233"/>
-      <c r="K21" s="234"/>
-      <c r="L21" s="235" t="s">
+      <c r="J21" s="244"/>
+      <c r="K21" s="245"/>
+      <c r="L21" s="246" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="236"/>
-      <c r="N21" s="237"/>
+      <c r="M21" s="229"/>
+      <c r="N21" s="247"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
@@ -24894,7 +25095,7 @@
     </row>
     <row r="34" spans="2:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="B34" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" s="3">
         <v>26565</v>
@@ -24952,17 +25153,17 @@
       <c r="W35" s="60"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F36" s="225" t="s">
-        <v>183</v>
-      </c>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="226"/>
-      <c r="K36" s="226"/>
-      <c r="L36" s="226"/>
-      <c r="M36" s="226"/>
-      <c r="N36" s="227"/>
+      <c r="F36" s="240" t="s">
+        <v>180</v>
+      </c>
+      <c r="G36" s="241"/>
+      <c r="H36" s="241"/>
+      <c r="I36" s="241"/>
+      <c r="J36" s="241"/>
+      <c r="K36" s="241"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="241"/>
+      <c r="N36" s="242"/>
       <c r="O36" s="64"/>
       <c r="R36" s="64"/>
       <c r="T36" s="5"/>
@@ -24971,21 +25172,21 @@
       <c r="W36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F37" s="228" t="s">
+      <c r="F37" s="235" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37" s="222"/>
+      <c r="H37" s="222"/>
+      <c r="I37" s="227" t="s">
         <v>184</v>
       </c>
-      <c r="G37" s="229"/>
-      <c r="H37" s="229"/>
-      <c r="I37" s="230" t="s">
-        <v>187</v>
-      </c>
-      <c r="J37" s="229"/>
-      <c r="K37" s="229"/>
-      <c r="L37" s="230" t="s">
-        <v>188</v>
-      </c>
-      <c r="M37" s="229"/>
-      <c r="N37" s="231"/>
+      <c r="J37" s="222"/>
+      <c r="K37" s="222"/>
+      <c r="L37" s="227" t="s">
+        <v>185</v>
+      </c>
+      <c r="M37" s="222"/>
+      <c r="N37" s="223"/>
       <c r="O37" s="64"/>
       <c r="R37" s="64"/>
       <c r="T37" s="5"/>
@@ -24995,28 +25196,28 @@
     </row>
     <row r="38" spans="2:23" ht="15.75" customHeight="1">
       <c r="F38" s="108" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G38" s="73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="I38" s="73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J38" s="73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K38" s="73" t="s">
         <v>92</v>
       </c>
       <c r="L38" s="73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M38" s="73" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N38" s="109" t="s">
         <v>92</v>
@@ -25090,17 +25291,17 @@
       <c r="W41" s="60"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F42" s="225" t="s">
-        <v>189</v>
-      </c>
-      <c r="G42" s="226"/>
-      <c r="H42" s="226"/>
-      <c r="I42" s="226"/>
-      <c r="J42" s="226"/>
-      <c r="K42" s="226"/>
-      <c r="L42" s="226"/>
-      <c r="M42" s="226"/>
-      <c r="N42" s="227"/>
+      <c r="F42" s="240" t="s">
+        <v>186</v>
+      </c>
+      <c r="G42" s="241"/>
+      <c r="H42" s="241"/>
+      <c r="I42" s="241"/>
+      <c r="J42" s="241"/>
+      <c r="K42" s="241"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="241"/>
+      <c r="N42" s="242"/>
       <c r="O42" s="64"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="64"/>
@@ -25110,21 +25311,21 @@
       <c r="W42" s="60"/>
     </row>
     <row r="43" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F43" s="228" t="s">
-        <v>191</v>
-      </c>
-      <c r="G43" s="229"/>
-      <c r="H43" s="229"/>
-      <c r="I43" s="230" t="s">
-        <v>195</v>
-      </c>
-      <c r="J43" s="229"/>
-      <c r="K43" s="229"/>
-      <c r="L43" s="230" t="s">
-        <v>202</v>
-      </c>
-      <c r="M43" s="229"/>
-      <c r="N43" s="231"/>
+      <c r="F43" s="235" t="s">
+        <v>188</v>
+      </c>
+      <c r="G43" s="222"/>
+      <c r="H43" s="222"/>
+      <c r="I43" s="227" t="s">
+        <v>192</v>
+      </c>
+      <c r="J43" s="222"/>
+      <c r="K43" s="222"/>
+      <c r="L43" s="227" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43" s="222"/>
+      <c r="N43" s="223"/>
       <c r="O43" s="64"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="64"/>
@@ -25134,24 +25335,24 @@
       <c r="W43" s="60"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F44" s="221" t="s">
-        <v>192</v>
-      </c>
-      <c r="G44" s="222"/>
+      <c r="F44" s="236" t="s">
+        <v>189</v>
+      </c>
+      <c r="G44" s="237"/>
       <c r="H44" s="116">
         <f>G39*1000000</f>
         <v>34271985878260.867</v>
       </c>
-      <c r="I44" s="239" t="s">
-        <v>198</v>
-      </c>
-      <c r="J44" s="220"/>
+      <c r="I44" s="230" t="s">
+        <v>195</v>
+      </c>
+      <c r="J44" s="231"/>
       <c r="K44" s="117">
         <f>J39/1056</f>
         <v>751141372.67813277</v>
       </c>
       <c r="L44" s="119" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="M44" s="117">
         <f>M39*1000000000</f>
@@ -25167,24 +25368,24 @@
       <c r="W44" s="60"/>
     </row>
     <row r="45" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F45" s="221" t="s">
-        <v>193</v>
-      </c>
-      <c r="G45" s="222"/>
+      <c r="F45" s="236" t="s">
+        <v>190</v>
+      </c>
+      <c r="G45" s="237"/>
       <c r="H45" s="116">
         <f>G39*1000</f>
         <v>34271985878.260864</v>
       </c>
-      <c r="I45" s="239" t="s">
-        <v>199</v>
-      </c>
-      <c r="J45" s="220"/>
+      <c r="I45" s="230" t="s">
+        <v>196</v>
+      </c>
+      <c r="J45" s="231"/>
       <c r="K45" s="117">
         <f>J39/833</f>
         <v>952227238.35307097</v>
       </c>
       <c r="L45" s="119" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="M45" s="117">
         <f>M39*1000000</f>
@@ -25200,24 +25401,24 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="F46" s="221" t="s">
-        <v>194</v>
-      </c>
-      <c r="G46" s="222"/>
+      <c r="F46" s="236" t="s">
+        <v>191</v>
+      </c>
+      <c r="G46" s="237"/>
       <c r="H46" s="116">
         <f>G39</f>
         <v>34271985.878260866</v>
       </c>
-      <c r="I46" s="239" t="s">
-        <v>265</v>
-      </c>
-      <c r="J46" s="220"/>
+      <c r="I46" s="230" t="s">
+        <v>262</v>
+      </c>
+      <c r="J46" s="231"/>
       <c r="K46" s="117">
         <f>J39/287</f>
         <v>2763781496.6833038</v>
       </c>
       <c r="L46" s="119" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M46" s="117">
         <f>M39</f>
@@ -25232,24 +25433,24 @@
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F47" s="219" t="s">
+      <c r="F47" s="232" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="220"/>
+      <c r="G47" s="231"/>
       <c r="H47" s="123">
         <f>1/(0.000403)*G39</f>
         <v>85042148581.292465</v>
       </c>
-      <c r="I47" s="239" t="s">
-        <v>197</v>
-      </c>
-      <c r="J47" s="220"/>
+      <c r="I47" s="230" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="231"/>
       <c r="K47" s="117">
         <f>J39/200</f>
         <v>3966026447.740541</v>
       </c>
       <c r="L47" s="119" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M47" s="117">
         <f>M39*0.386102</f>
@@ -25264,24 +25465,24 @@
       <c r="V47" s="64"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F48" s="219" t="s">
+      <c r="F48" s="232" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="220"/>
+      <c r="G48" s="231"/>
       <c r="H48" s="123">
         <f>H44/8887</f>
         <v>3856417900.1081204</v>
       </c>
-      <c r="I48" s="239" t="s">
-        <v>200</v>
-      </c>
-      <c r="J48" s="220"/>
+      <c r="I48" s="230" t="s">
+        <v>197</v>
+      </c>
+      <c r="J48" s="231"/>
       <c r="K48" s="117">
         <f>J39/533</f>
         <v>1488190036.6756251</v>
       </c>
       <c r="L48" s="119" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M48" s="117">
         <f>M39*247.105</f>
@@ -25296,24 +25497,24 @@
       <c r="V48" s="64"/>
     </row>
     <row r="49" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F49" s="219" t="s">
+      <c r="F49" s="232" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="220"/>
+      <c r="G49" s="231"/>
       <c r="H49" s="123">
         <f>(1/8.67)*H46</f>
         <v>3952939.5476656132</v>
       </c>
-      <c r="I49" s="239" t="s">
-        <v>201</v>
-      </c>
-      <c r="J49" s="220"/>
+      <c r="I49" s="230" t="s">
+        <v>198</v>
+      </c>
+      <c r="J49" s="231"/>
       <c r="K49" s="117">
         <f>J39/296</f>
         <v>2679747599.8246899</v>
       </c>
       <c r="L49" s="119" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="M49" s="117">
         <f>M45/5350</f>
@@ -25328,18 +25529,18 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F50" s="219" t="s">
+      <c r="F50" s="232" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="220"/>
+      <c r="G50" s="231"/>
       <c r="H50" s="123">
         <f>(1/0.43)*(H46)</f>
         <v>79702292.740141556</v>
       </c>
-      <c r="I50" s="239" t="s">
-        <v>196</v>
-      </c>
-      <c r="J50" s="220"/>
+      <c r="I50" s="230" t="s">
+        <v>193</v>
+      </c>
+      <c r="J50" s="231"/>
       <c r="K50" s="117">
         <f>J39/15415</f>
         <v>51456716.804937281</v>
@@ -25355,18 +25556,18 @@
       <c r="V50" s="64"/>
     </row>
     <row r="51" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F51" s="219" t="s">
+      <c r="F51" s="232" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="220"/>
+      <c r="G51" s="231"/>
       <c r="H51" s="123">
         <f>(1/75.54)*H46</f>
         <v>453693.22052238369</v>
       </c>
-      <c r="I51" s="220" t="s">
+      <c r="I51" s="231" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="220"/>
+      <c r="J51" s="231"/>
       <c r="K51" s="117">
         <f>J39/2500000</f>
         <v>317282.11581924325</v>
@@ -25382,18 +25583,18 @@
       <c r="V51" s="64"/>
     </row>
     <row r="52" spans="6:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F52" s="240" t="s">
+      <c r="F52" s="233" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="241"/>
+      <c r="G52" s="234"/>
       <c r="H52" s="124">
         <f>1/(0.06)*H46</f>
         <v>571199764.63768113</v>
       </c>
-      <c r="I52" s="241" t="s">
+      <c r="I52" s="234" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="241"/>
+      <c r="J52" s="234"/>
       <c r="K52" s="120">
         <f>J39/(1000*100000)</f>
         <v>7932.0528954810816</v>
@@ -25417,17 +25618,17 @@
       <c r="V53" s="64"/>
     </row>
     <row r="54" spans="6:22" ht="23" customHeight="1">
-      <c r="F54" s="274" t="s">
-        <v>287</v>
-      </c>
-      <c r="G54" s="274"/>
-      <c r="H54" s="274"/>
-      <c r="I54" s="274"/>
-      <c r="J54" s="274"/>
-      <c r="K54" s="274"/>
-      <c r="L54" s="274"/>
-      <c r="M54" s="274"/>
-      <c r="N54" s="274"/>
+      <c r="F54" s="221" t="s">
+        <v>284</v>
+      </c>
+      <c r="G54" s="221"/>
+      <c r="H54" s="221"/>
+      <c r="I54" s="221"/>
+      <c r="J54" s="221"/>
+      <c r="K54" s="221"/>
+      <c r="L54" s="221"/>
+      <c r="M54" s="221"/>
+      <c r="N54" s="221"/>
     </row>
     <row r="55" spans="6:22" ht="15.75" customHeight="1"/>
     <row r="56" spans="6:22" ht="15.75" customHeight="1"/>
@@ -25454,6 +25655,29 @@
     <row r="77" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F36:N36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F54:N54"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B21:D21"/>
@@ -25470,29 +25694,6 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="I49:J49"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25566,149 +25767,149 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="125"/>
-      <c r="B3" s="259" t="s">
-        <v>209</v>
-      </c>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
-      <c r="E3" s="260"/>
-      <c r="F3" s="260"/>
-      <c r="G3" s="260"/>
-      <c r="H3" s="260"/>
-      <c r="I3" s="260"/>
-      <c r="J3" s="261"/>
+      <c r="B3" s="248" t="s">
+        <v>206</v>
+      </c>
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="249"/>
+      <c r="G3" s="249"/>
+      <c r="H3" s="249"/>
+      <c r="I3" s="249"/>
+      <c r="J3" s="250"/>
       <c r="K3" s="125"/>
-      <c r="L3" s="245" t="s">
-        <v>238</v>
-      </c>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="246"/>
-      <c r="Q3" s="246"/>
-      <c r="R3" s="247"/>
+      <c r="L3" s="254" t="s">
+        <v>235</v>
+      </c>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
+      <c r="Q3" s="255"/>
+      <c r="R3" s="256"/>
       <c r="S3" s="163"/>
-      <c r="T3" s="254" t="s">
-        <v>251</v>
-      </c>
-      <c r="U3" s="255"/>
-      <c r="V3" s="255"/>
-      <c r="W3" s="255"/>
-      <c r="X3" s="255"/>
-      <c r="Y3" s="256"/>
+      <c r="T3" s="263" t="s">
+        <v>248</v>
+      </c>
+      <c r="U3" s="264"/>
+      <c r="V3" s="264"/>
+      <c r="W3" s="264"/>
+      <c r="X3" s="264"/>
+      <c r="Y3" s="265"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="125"/>
-      <c r="B4" s="263" t="s">
+      <c r="B4" s="253" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="258" t="s">
+      <c r="C4" s="252" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="252"/>
+      <c r="E4" s="252" t="s">
+        <v>208</v>
+      </c>
+      <c r="F4" s="252"/>
+      <c r="G4" s="252" t="s">
+        <v>209</v>
+      </c>
+      <c r="H4" s="252"/>
+      <c r="I4" s="227" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="258"/>
-      <c r="E4" s="258" t="s">
-        <v>211</v>
-      </c>
-      <c r="F4" s="258"/>
-      <c r="G4" s="258" t="s">
-        <v>212</v>
-      </c>
-      <c r="H4" s="258"/>
-      <c r="I4" s="230" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="231"/>
+      <c r="J4" s="223"/>
       <c r="K4" s="125"/>
-      <c r="L4" s="248" t="s">
+      <c r="L4" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="258" t="s">
-        <v>239</v>
-      </c>
-      <c r="N4" s="258"/>
-      <c r="O4" s="258" t="s">
-        <v>240</v>
-      </c>
-      <c r="P4" s="258"/>
-      <c r="Q4" s="230" t="s">
-        <v>241</v>
-      </c>
-      <c r="R4" s="257"/>
+      <c r="M4" s="252" t="s">
+        <v>236</v>
+      </c>
+      <c r="N4" s="252"/>
+      <c r="O4" s="252" t="s">
+        <v>237</v>
+      </c>
+      <c r="P4" s="252"/>
+      <c r="Q4" s="227" t="s">
+        <v>238</v>
+      </c>
+      <c r="R4" s="260"/>
       <c r="S4" s="126"/>
       <c r="T4" s="158" t="s">
-        <v>243</v>
-      </c>
-      <c r="U4" s="250" t="s">
-        <v>244</v>
-      </c>
-      <c r="V4" s="250"/>
-      <c r="W4" s="250"/>
-      <c r="X4" s="250"/>
-      <c r="Y4" s="251"/>
+        <v>240</v>
+      </c>
+      <c r="U4" s="258" t="s">
+        <v>241</v>
+      </c>
+      <c r="V4" s="258"/>
+      <c r="W4" s="258"/>
+      <c r="X4" s="258"/>
+      <c r="Y4" s="259"/>
     </row>
     <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="125"/>
-      <c r="B5" s="263"/>
+      <c r="B5" s="253"/>
       <c r="C5" s="126" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="E5" s="126" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="G5" s="126" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H5" s="126" t="s">
         <v>92</v>
       </c>
       <c r="I5" s="73" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J5" s="109" t="s">
         <v>92</v>
       </c>
       <c r="K5" s="125"/>
-      <c r="L5" s="248"/>
+      <c r="L5" s="257"/>
       <c r="M5" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N5" s="163" t="s">
         <v>92</v>
       </c>
       <c r="O5" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="P5" s="163" t="s">
         <v>92</v>
       </c>
       <c r="Q5" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="R5" s="167" t="s">
         <v>92</v>
       </c>
       <c r="S5" s="163"/>
       <c r="T5" s="159" t="s">
-        <v>245</v>
-      </c>
-      <c r="U5" s="250" t="s">
-        <v>246</v>
-      </c>
-      <c r="V5" s="250"/>
-      <c r="W5" s="250"/>
-      <c r="X5" s="250"/>
-      <c r="Y5" s="251"/>
+        <v>242</v>
+      </c>
+      <c r="U5" s="258" t="s">
+        <v>243</v>
+      </c>
+      <c r="V5" s="258"/>
+      <c r="W5" s="258"/>
+      <c r="X5" s="258"/>
+      <c r="Y5" s="259"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="125"/>
       <c r="B6" s="136" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C6" s="128">
         <v>1</v>
@@ -25772,18 +25973,18 @@
       <c r="T6" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="250" t="s">
-        <v>247</v>
-      </c>
-      <c r="V6" s="250"/>
-      <c r="W6" s="250"/>
-      <c r="X6" s="250"/>
-      <c r="Y6" s="251"/>
+      <c r="U6" s="258" t="s">
+        <v>244</v>
+      </c>
+      <c r="V6" s="258"/>
+      <c r="W6" s="258"/>
+      <c r="X6" s="258"/>
+      <c r="Y6" s="259"/>
     </row>
     <row r="7" spans="1:25" ht="14">
       <c r="A7" s="125"/>
       <c r="B7" s="140" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C7" s="129">
         <v>1.35</v>
@@ -25847,18 +26048,18 @@
       <c r="T7" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="250" t="s">
-        <v>248</v>
-      </c>
-      <c r="V7" s="250"/>
-      <c r="W7" s="250"/>
-      <c r="X7" s="250"/>
-      <c r="Y7" s="251"/>
+      <c r="U7" s="258" t="s">
+        <v>245</v>
+      </c>
+      <c r="V7" s="258"/>
+      <c r="W7" s="258"/>
+      <c r="X7" s="258"/>
+      <c r="Y7" s="259"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="125"/>
       <c r="B8" s="140" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C8" s="129">
         <v>0.9</v>
@@ -25920,20 +26121,20 @@
       </c>
       <c r="S8" s="164"/>
       <c r="T8" s="162" t="s">
-        <v>249</v>
-      </c>
-      <c r="U8" s="252" t="s">
-        <v>250</v>
-      </c>
-      <c r="V8" s="252"/>
-      <c r="W8" s="252"/>
-      <c r="X8" s="252"/>
-      <c r="Y8" s="253"/>
+        <v>246</v>
+      </c>
+      <c r="U8" s="261" t="s">
+        <v>247</v>
+      </c>
+      <c r="V8" s="261"/>
+      <c r="W8" s="261"/>
+      <c r="X8" s="261"/>
+      <c r="Y8" s="262"/>
     </row>
     <row r="9" spans="1:25" ht="14">
       <c r="A9" s="125"/>
       <c r="B9" s="140" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C9" s="129">
         <v>0.22500000000000001</v>
@@ -25998,7 +26199,7 @@
     <row r="10" spans="1:25" ht="14">
       <c r="A10" s="125"/>
       <c r="B10" s="140" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C10" s="129" t="s">
         <v>9</v>
@@ -26027,7 +26228,7 @@
       </c>
       <c r="K10" s="125"/>
       <c r="L10" s="158" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="M10" s="178" t="s">
         <v>9</v>
@@ -26055,7 +26256,7 @@
     <row r="11" spans="1:25" ht="16">
       <c r="A11" s="125"/>
       <c r="B11" s="140" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C11" s="129">
         <v>0.1</v>
@@ -26125,7 +26326,7 @@
     <row r="12" spans="1:25" ht="16" customHeight="1">
       <c r="A12" s="125"/>
       <c r="B12" s="140" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C12" s="129">
         <v>0.54</v>
@@ -26159,7 +26360,7 @@
       </c>
       <c r="K12" s="125"/>
       <c r="L12" s="153" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M12" s="170">
         <f t="shared" ref="M12:M15" si="8">E12*15*4</f>
@@ -26195,7 +26396,7 @@
     <row r="13" spans="1:25" ht="16">
       <c r="A13" s="125"/>
       <c r="B13" s="140" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C13" s="129">
         <v>0.45</v>
@@ -26229,7 +26430,7 @@
       </c>
       <c r="K13" s="125"/>
       <c r="L13" s="153" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M13" s="170">
         <f t="shared" si="8"/>
@@ -26265,7 +26466,7 @@
     <row r="14" spans="1:25" ht="17">
       <c r="A14" s="125"/>
       <c r="B14" s="140" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C14" s="129" t="s">
         <v>9</v>
@@ -26296,7 +26497,7 @@
       </c>
       <c r="K14" s="125"/>
       <c r="L14" s="153" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M14" s="178" t="s">
         <v>9</v>
@@ -26329,7 +26530,7 @@
     <row r="15" spans="1:25" ht="27" customHeight="1">
       <c r="A15" s="125"/>
       <c r="B15" s="140" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C15" s="129">
         <v>0.27</v>
@@ -26363,7 +26564,7 @@
       </c>
       <c r="K15" s="125"/>
       <c r="L15" s="153" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="M15" s="170">
         <f t="shared" si="8"/>
@@ -26399,7 +26600,7 @@
     <row r="16" spans="1:25" ht="17">
       <c r="A16" s="125"/>
       <c r="B16" s="140" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C16" s="129" t="s">
         <v>9</v>
@@ -26430,7 +26631,7 @@
       </c>
       <c r="K16" s="125"/>
       <c r="L16" s="153" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="M16" s="178" t="s">
         <v>9</v>
@@ -26463,7 +26664,7 @@
     <row r="17" spans="1:27" ht="16">
       <c r="A17" s="125"/>
       <c r="B17" s="140" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C17" s="129">
         <v>0.09</v>
@@ -26533,7 +26734,7 @@
     <row r="18" spans="1:27" ht="17">
       <c r="A18" s="125"/>
       <c r="B18" s="140" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C18" s="129" t="s">
         <v>9</v>
@@ -26564,7 +26765,7 @@
       </c>
       <c r="K18" s="125"/>
       <c r="L18" s="154" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M18" s="172" t="s">
         <v>9</v>
@@ -26597,7 +26798,7 @@
     <row r="19" spans="1:27" ht="18" customHeight="1">
       <c r="A19" s="125"/>
       <c r="B19" s="140" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C19" s="129" t="s">
         <v>9</v>
@@ -26628,7 +26829,7 @@
       </c>
       <c r="K19" s="125"/>
       <c r="L19" s="154" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M19" s="172" t="s">
         <v>9</v>
@@ -26661,7 +26862,7 @@
     <row r="20" spans="1:27" ht="17">
       <c r="A20" s="125"/>
       <c r="B20" s="140" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C20" s="129" t="s">
         <v>9</v>
@@ -26691,7 +26892,7 @@
         <v>1.7709769696969699</v>
       </c>
       <c r="L20" s="154" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M20" s="172" t="s">
         <v>9</v>
@@ -26724,7 +26925,7 @@
     <row r="21" spans="1:27" ht="16">
       <c r="A21" s="125"/>
       <c r="B21" s="140" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C21" s="129">
         <v>0.48</v>
@@ -26757,7 +26958,7 @@
         <v>15.496048484848485</v>
       </c>
       <c r="L21" s="154" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M21" s="170">
         <f>E21*2*30</f>
@@ -26793,7 +26994,7 @@
     <row r="22" spans="1:27" ht="16">
       <c r="A22" s="125"/>
       <c r="B22" s="140" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C22" s="130">
         <v>8.0000000000000002E-3</v>
@@ -26826,7 +27027,7 @@
         <v>4.4274424242424244</v>
       </c>
       <c r="L22" s="155" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="M22" s="170">
         <f>E22*1*30</f>
@@ -26862,7 +27063,7 @@
     <row r="23" spans="1:27" ht="16">
       <c r="A23" s="125"/>
       <c r="B23" s="140" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C23" s="130">
         <v>4.0000000000000001E-3</v>
@@ -26895,7 +27096,7 @@
         <v>1.2175466666666668</v>
       </c>
       <c r="L23" s="155" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M23" s="170">
         <f>E23*1*30</f>
@@ -26931,7 +27132,7 @@
     <row r="24" spans="1:27" ht="16">
       <c r="A24" s="125"/>
       <c r="B24" s="140" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C24" s="130">
         <v>0.04</v>
@@ -26964,7 +27165,7 @@
         <v>3.3205818181818185</v>
       </c>
       <c r="L24" s="156" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="M24" s="170">
         <f>E24*4*30</f>
@@ -27000,7 +27201,7 @@
     <row r="25" spans="1:27" ht="18" thickBot="1">
       <c r="A25" s="125"/>
       <c r="B25" s="142" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C25" s="143" t="s">
         <v>9</v>
@@ -27030,7 +27231,7 @@
         <v>1.6602909090909093</v>
       </c>
       <c r="L25" s="157" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M25" s="173" t="s">
         <v>9</v>
@@ -27083,13 +27284,13 @@
       <c r="X26" s="102"/>
     </row>
     <row r="27" spans="1:27" ht="16">
-      <c r="B27" s="262" t="s">
-        <v>229</v>
-      </c>
-      <c r="C27" s="262"/>
-      <c r="D27" s="262"/>
-      <c r="E27" s="262"/>
-      <c r="F27" s="262"/>
+      <c r="B27" s="251" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="251"/>
+      <c r="D27" s="251"/>
+      <c r="E27" s="251"/>
+      <c r="F27" s="251"/>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="R27" s="150"/>
@@ -27101,7 +27302,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="B29" s="71" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -27144,19 +27345,19 @@
     </row>
     <row r="32" spans="1:27" ht="16">
       <c r="B32" s="125"/>
-      <c r="C32" s="245" t="s">
-        <v>266</v>
-      </c>
-      <c r="D32" s="246"/>
-      <c r="E32" s="246"/>
-      <c r="F32" s="246"/>
-      <c r="G32" s="246"/>
-      <c r="H32" s="246"/>
-      <c r="I32" s="246"/>
-      <c r="J32" s="246"/>
-      <c r="K32" s="246"/>
-      <c r="L32" s="246"/>
-      <c r="M32" s="247"/>
+      <c r="C32" s="254" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" s="255"/>
+      <c r="E32" s="255"/>
+      <c r="F32" s="255"/>
+      <c r="G32" s="255"/>
+      <c r="H32" s="255"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255"/>
+      <c r="K32" s="255"/>
+      <c r="L32" s="255"/>
+      <c r="M32" s="256"/>
       <c r="N32" s="151"/>
       <c r="O32" s="151"/>
       <c r="P32"/>
@@ -27174,31 +27375,31 @@
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="125"/>
-      <c r="C33" s="248" t="s">
+      <c r="C33" s="257" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="239" t="s">
+      <c r="D33" s="230" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="231"/>
+      <c r="F33" s="230" t="s">
+        <v>262</v>
+      </c>
+      <c r="G33" s="231"/>
+      <c r="H33" s="230" t="s">
+        <v>194</v>
+      </c>
+      <c r="I33" s="231"/>
+      <c r="J33" s="230" t="s">
+        <v>197</v>
+      </c>
+      <c r="K33" s="231"/>
+      <c r="L33" s="230" t="s">
         <v>198</v>
       </c>
-      <c r="E33" s="220"/>
-      <c r="F33" s="239" t="s">
-        <v>265</v>
-      </c>
-      <c r="G33" s="220"/>
-      <c r="H33" s="239" t="s">
-        <v>197</v>
-      </c>
-      <c r="I33" s="220"/>
-      <c r="J33" s="239" t="s">
-        <v>200</v>
-      </c>
-      <c r="K33" s="220"/>
-      <c r="L33" s="239" t="s">
-        <v>201</v>
-      </c>
-      <c r="M33" s="249"/>
-      <c r="N33" s="239"/>
-      <c r="O33" s="220"/>
+      <c r="M33" s="266"/>
+      <c r="N33" s="230"/>
+      <c r="O33" s="231"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -27214,36 +27415,36 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="125"/>
-      <c r="C34" s="248"/>
+      <c r="C34" s="257"/>
       <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="E34" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="G34" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="I34" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="K34" s="163" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L34" s="163" t="s">
         <v>92</v>
       </c>
       <c r="M34" s="167" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="N34" s="127"/>
       <c r="O34" s="127"/>
@@ -27494,7 +27695,7 @@
     </row>
     <row r="39" spans="2:27">
       <c r="C39" s="179" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D39" s="180" t="s">
         <v>9</v>
@@ -27589,7 +27790,7 @@
     </row>
     <row r="41" spans="2:27" ht="14">
       <c r="C41" s="140" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D41" s="168">
         <f t="shared" ref="D41:E41" si="40">O12/1056</f>
@@ -27639,7 +27840,7 @@
     </row>
     <row r="42" spans="2:27" ht="14">
       <c r="C42" s="140" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D42" s="168">
         <f t="shared" ref="D42:E42" si="45">O13/1056</f>
@@ -27689,7 +27890,7 @@
     </row>
     <row r="43" spans="2:27" ht="14">
       <c r="C43" s="140" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D43" s="180" t="s">
         <v>9</v>
@@ -27734,7 +27935,7 @@
     </row>
     <row r="44" spans="2:27" ht="28">
       <c r="C44" s="140" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D44" s="168">
         <f t="shared" ref="D44:E44" si="53">O15/1056</f>
@@ -27784,7 +27985,7 @@
     </row>
     <row r="45" spans="2:27" ht="14">
       <c r="C45" s="140" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D45" s="180" t="s">
         <v>9</v>
@@ -27879,7 +28080,7 @@
     </row>
     <row r="47" spans="2:27" ht="14">
       <c r="C47" s="140" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D47" s="180" t="s">
         <v>9</v>
@@ -27924,7 +28125,7 @@
     </row>
     <row r="48" spans="2:27" ht="14">
       <c r="C48" s="140" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D48" s="180" t="s">
         <v>9</v>
@@ -27969,7 +28170,7 @@
     </row>
     <row r="49" spans="3:27" ht="14">
       <c r="C49" s="140" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D49" s="180" t="s">
         <v>9</v>
@@ -28014,7 +28215,7 @@
     </row>
     <row r="50" spans="3:27" ht="14">
       <c r="C50" s="140" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D50" s="168">
         <f t="shared" ref="D50:E50" si="75">O21/1056</f>
@@ -28064,7 +28265,7 @@
     </row>
     <row r="51" spans="3:27" ht="14">
       <c r="C51" s="140" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D51" s="168">
         <f t="shared" ref="D51:E51" si="80">O22/1056</f>
@@ -28114,7 +28315,7 @@
     </row>
     <row r="52" spans="3:27" ht="14">
       <c r="C52" s="140" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D52" s="168">
         <f t="shared" ref="D52:E52" si="85">O23/1056</f>
@@ -28164,7 +28365,7 @@
     </row>
     <row r="53" spans="3:27" ht="28">
       <c r="C53" s="140" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D53" s="168">
         <f t="shared" ref="D53:E53" si="90">O24/1056</f>
@@ -28214,7 +28415,7 @@
     </row>
     <row r="54" spans="3:27" ht="15" thickBot="1">
       <c r="C54" s="142" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D54" s="182" t="s">
         <v>9</v>
@@ -28337,24 +28538,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="C33:C34"/>
@@ -28363,6 +28546,24 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28427,87 +28628,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="212" t="s">
-        <v>148</v>
-      </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="212" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="212" t="s">
-        <v>150</v>
-      </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="207" t="s">
+        <v>145</v>
+      </c>
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="207" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="207" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -30567,7 +30768,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -30616,37 +30817,37 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="47" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="203" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -30661,15 +30862,15 @@
     </row>
     <row r="20" spans="1:18" s="3" customFormat="1" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -30684,15 +30885,15 @@
     </row>
     <row r="21" spans="1:18" ht="31" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -30952,6 +31153,19 @@
     <row r="89" ht="13"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -30961,27 +31175,174 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2A6FD1-FB8A-0C40-B7E0-52A4266BB8F5}">
+  <dimension ref="B2:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" ht="16">
+      <c r="B2" s="281" t="s">
+        <v>286</v>
+      </c>
+      <c r="C2" s="281"/>
+      <c r="D2" s="281"/>
+      <c r="E2" s="281"/>
+      <c r="F2" s="281"/>
+      <c r="G2" s="281"/>
+      <c r="H2" s="281"/>
+      <c r="I2" s="281"/>
+    </row>
+    <row r="3" spans="2:9" ht="124" customHeight="1">
+      <c r="B3" s="194" t="s">
+        <v>288</v>
+      </c>
+      <c r="C3" s="280"/>
+      <c r="D3" s="280"/>
+      <c r="E3" s="280"/>
+      <c r="F3" s="280"/>
+      <c r="G3" s="280"/>
+      <c r="H3" s="280"/>
+      <c r="I3" s="280"/>
+    </row>
+    <row r="4" spans="2:9" s="192" customFormat="1" ht="7" customHeight="1">
+      <c r="B4" s="191"/>
+      <c r="C4" s="282"/>
+      <c r="D4" s="282"/>
+      <c r="E4" s="282"/>
+      <c r="F4" s="282"/>
+      <c r="G4" s="282"/>
+      <c r="H4" s="282"/>
+      <c r="I4" s="282"/>
+    </row>
+    <row r="5" spans="2:9" s="192" customFormat="1" ht="70" customHeight="1">
+      <c r="B5" s="194" t="s">
+        <v>304</v>
+      </c>
+      <c r="C5" s="194"/>
+      <c r="D5" s="194"/>
+      <c r="E5" s="194"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="194"/>
+      <c r="H5" s="194"/>
+      <c r="I5" s="194"/>
+    </row>
+    <row r="6" spans="2:9" ht="6" customHeight="1"/>
+    <row r="7" spans="2:9" ht="85" customHeight="1">
+      <c r="B7" s="194" t="s">
+        <v>296</v>
+      </c>
+      <c r="C7" s="280"/>
+      <c r="D7" s="280"/>
+      <c r="E7" s="280"/>
+      <c r="F7" s="280"/>
+      <c r="G7" s="280"/>
+      <c r="H7" s="280"/>
+      <c r="I7" s="280"/>
+    </row>
+    <row r="9" spans="2:9" ht="16">
+      <c r="B9" s="281" t="s">
+        <v>297</v>
+      </c>
+      <c r="C9" s="281"/>
+      <c r="D9" s="281"/>
+      <c r="E9" s="281"/>
+      <c r="F9" s="281"/>
+      <c r="G9" s="281"/>
+      <c r="H9" s="281"/>
+      <c r="I9" s="281"/>
+    </row>
+    <row r="10" spans="2:9" ht="33" customHeight="1">
+      <c r="B10" s="194" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="280"/>
+      <c r="D10" s="280"/>
+      <c r="E10" s="280"/>
+      <c r="F10" s="280"/>
+      <c r="G10" s="280"/>
+      <c r="H10" s="280"/>
+      <c r="I10" s="280"/>
+    </row>
+    <row r="11" spans="2:9" s="192" customFormat="1" ht="6" customHeight="1">
+      <c r="B11" s="191"/>
+      <c r="C11" s="282"/>
+      <c r="D11" s="282"/>
+      <c r="E11" s="282"/>
+      <c r="F11" s="282"/>
+      <c r="G11" s="282"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="282"/>
+    </row>
+    <row r="12" spans="2:9" ht="74" customHeight="1">
+      <c r="B12" s="194" t="s">
+        <v>299</v>
+      </c>
+      <c r="C12" s="280"/>
+      <c r="D12" s="280"/>
+      <c r="E12" s="280"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="280"/>
+      <c r="H12" s="280"/>
+      <c r="I12" s="280"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="279"/>
+    </row>
+    <row r="14" spans="2:9" ht="16">
+      <c r="B14" s="281" t="s">
+        <v>301</v>
+      </c>
+      <c r="C14" s="281"/>
+      <c r="D14" s="281"/>
+      <c r="E14" s="281"/>
+      <c r="F14" s="281"/>
+      <c r="G14" s="281"/>
+      <c r="H14" s="281"/>
+      <c r="I14" s="281"/>
+    </row>
+    <row r="15" spans="2:9" ht="94" customHeight="1">
+      <c r="B15" s="194" t="s">
+        <v>302</v>
+      </c>
+      <c r="C15" s="194"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="194"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B14:I14"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B3:I3"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B9:I9"/>
+    <mergeCell ref="B10:I10"/>
+    <mergeCell ref="B12:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B307FA-336F-214A-A577-25056E572739}">
-  <dimension ref="A2:O39"/>
+  <dimension ref="A2:O45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -30992,310 +31353,310 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16">
-      <c r="B2" s="265" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
-      <c r="E2" s="265"/>
-      <c r="F2" s="265"/>
-      <c r="G2" s="265"/>
-      <c r="H2" s="265"/>
-      <c r="I2" s="265"/>
-      <c r="J2" s="265"/>
-      <c r="K2" s="265"/>
-      <c r="L2" s="265"/>
-      <c r="M2" s="265"/>
-      <c r="N2" s="265"/>
-      <c r="O2" s="265"/>
+      <c r="B2" s="275" t="s">
+        <v>266</v>
+      </c>
+      <c r="C2" s="275"/>
+      <c r="D2" s="275"/>
+      <c r="E2" s="275"/>
+      <c r="F2" s="275"/>
+      <c r="G2" s="275"/>
+      <c r="H2" s="275"/>
+      <c r="I2" s="275"/>
+      <c r="J2" s="275"/>
+      <c r="K2" s="275"/>
+      <c r="L2" s="275"/>
+      <c r="M2" s="275"/>
+      <c r="N2" s="275"/>
+      <c r="O2" s="275"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="266" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="266"/>
-      <c r="E3" s="266"/>
-      <c r="F3" s="266"/>
-      <c r="G3" s="266"/>
-      <c r="H3" s="266"/>
-      <c r="I3" s="266"/>
-      <c r="J3" s="266"/>
-      <c r="K3" s="266"/>
-      <c r="L3" s="266"/>
-      <c r="M3" s="266"/>
-      <c r="N3" s="266"/>
-      <c r="O3" s="266"/>
+      <c r="C3" s="276" t="s">
+        <v>289</v>
+      </c>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="276"/>
+      <c r="H3" s="276"/>
+      <c r="I3" s="276"/>
+      <c r="J3" s="276"/>
+      <c r="K3" s="276"/>
+      <c r="L3" s="276"/>
+      <c r="M3" s="276"/>
+      <c r="N3" s="276"/>
+      <c r="O3" s="276"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="264" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="264"/>
-      <c r="F4" s="264"/>
-      <c r="G4" s="264"/>
-      <c r="H4" s="264"/>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="264"/>
-      <c r="N4" s="264"/>
-      <c r="O4" s="264"/>
+      <c r="C4" s="272" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="272"/>
+      <c r="E4" s="272"/>
+      <c r="F4" s="272"/>
+      <c r="G4" s="272"/>
+      <c r="H4" s="272"/>
+      <c r="I4" s="272"/>
+      <c r="J4" s="272"/>
+      <c r="K4" s="272"/>
+      <c r="L4" s="272"/>
+      <c r="M4" s="272"/>
+      <c r="N4" s="272"/>
+      <c r="O4" s="272"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="38" customHeight="1">
       <c r="B6" s="188">
         <v>4</v>
       </c>
-      <c r="C6" s="267" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="267"/>
-      <c r="E6" s="267"/>
-      <c r="F6" s="267"/>
-      <c r="G6" s="267"/>
-      <c r="H6" s="267"/>
-      <c r="I6" s="267"/>
-      <c r="J6" s="267"/>
-      <c r="K6" s="267"/>
-      <c r="L6" s="267"/>
-      <c r="M6" s="267"/>
-      <c r="N6" s="267"/>
-      <c r="O6" s="267"/>
+      <c r="C6" s="273" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
+      <c r="G6" s="273"/>
+      <c r="H6" s="273"/>
+      <c r="I6" s="273"/>
+      <c r="J6" s="273"/>
+      <c r="K6" s="273"/>
+      <c r="L6" s="273"/>
+      <c r="M6" s="273"/>
+      <c r="N6" s="273"/>
+      <c r="O6" s="273"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="204" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="204"/>
-      <c r="E7" s="204"/>
-      <c r="F7" s="204"/>
-      <c r="G7" s="204"/>
-      <c r="H7" s="204"/>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="204"/>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="204"/>
+      <c r="C7" s="193" t="s">
+        <v>291</v>
+      </c>
+      <c r="D7" s="215"/>
+      <c r="E7" s="215"/>
+      <c r="F7" s="215"/>
+      <c r="G7" s="215"/>
+      <c r="H7" s="215"/>
+      <c r="I7" s="215"/>
+      <c r="J7" s="215"/>
+      <c r="K7" s="215"/>
+      <c r="L7" s="215"/>
+      <c r="M7" s="215"/>
+      <c r="N7" s="215"/>
+      <c r="O7" s="215"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="264" t="s">
-        <v>139</v>
-      </c>
-      <c r="D8" s="264"/>
-      <c r="E8" s="264"/>
-      <c r="F8" s="264"/>
-      <c r="G8" s="264"/>
-      <c r="H8" s="264"/>
-      <c r="I8" s="264"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="264"/>
-      <c r="L8" s="264"/>
-      <c r="M8" s="264"/>
-      <c r="N8" s="264"/>
-      <c r="O8" s="264"/>
+      <c r="C8" s="272" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="272"/>
+      <c r="E8" s="272"/>
+      <c r="F8" s="272"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="272"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="272"/>
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="272"/>
     </row>
     <row r="9" spans="2:15" s="3" customFormat="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="204" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="204"/>
-      <c r="E9" s="204"/>
-      <c r="F9" s="204"/>
-      <c r="G9" s="204"/>
-      <c r="H9" s="204"/>
-      <c r="I9" s="204"/>
-      <c r="J9" s="204"/>
-      <c r="K9" s="204"/>
-      <c r="L9" s="204"/>
-      <c r="M9" s="204"/>
-      <c r="N9" s="204"/>
-      <c r="O9" s="204"/>
+      <c r="C9" s="215" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="215"/>
+      <c r="E9" s="215"/>
+      <c r="F9" s="215"/>
+      <c r="G9" s="215"/>
+      <c r="H9" s="215"/>
+      <c r="I9" s="215"/>
+      <c r="J9" s="215"/>
+      <c r="K9" s="215"/>
+      <c r="L9" s="215"/>
+      <c r="M9" s="215"/>
+      <c r="N9" s="215"/>
+      <c r="O9" s="215"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="204" t="s">
-        <v>144</v>
-      </c>
-      <c r="D10" s="204"/>
-      <c r="E10" s="204"/>
-      <c r="F10" s="204"/>
-      <c r="G10" s="204"/>
-      <c r="H10" s="204"/>
-      <c r="I10" s="204"/>
-      <c r="J10" s="204"/>
-      <c r="K10" s="204"/>
-      <c r="L10" s="204"/>
-      <c r="M10" s="204"/>
-      <c r="N10" s="204"/>
-      <c r="O10" s="204"/>
+      <c r="C10" s="215" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="215"/>
+      <c r="E10" s="215"/>
+      <c r="F10" s="215"/>
+      <c r="G10" s="215"/>
+      <c r="H10" s="215"/>
+      <c r="I10" s="215"/>
+      <c r="J10" s="215"/>
+      <c r="K10" s="215"/>
+      <c r="L10" s="215"/>
+      <c r="M10" s="215"/>
+      <c r="N10" s="215"/>
+      <c r="O10" s="215"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="201" t="s">
-        <v>271</v>
-      </c>
-      <c r="D11" s="204"/>
-      <c r="E11" s="204"/>
-      <c r="F11" s="204"/>
-      <c r="G11" s="204"/>
-      <c r="H11" s="204"/>
-      <c r="I11" s="204"/>
-      <c r="J11" s="204"/>
-      <c r="K11" s="204"/>
-      <c r="L11" s="204"/>
-      <c r="M11" s="204"/>
-      <c r="N11" s="204"/>
-      <c r="O11" s="204"/>
+      <c r="C11" s="193" t="s">
+        <v>268</v>
+      </c>
+      <c r="D11" s="215"/>
+      <c r="E11" s="215"/>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="215"/>
+      <c r="K11" s="215"/>
+      <c r="L11" s="215"/>
+      <c r="M11" s="215"/>
+      <c r="N11" s="215"/>
+      <c r="O11" s="215"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="201" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="204"/>
-      <c r="E12" s="204"/>
-      <c r="F12" s="204"/>
-      <c r="G12" s="204"/>
-      <c r="H12" s="204"/>
-      <c r="I12" s="204"/>
-      <c r="J12" s="204"/>
-      <c r="K12" s="204"/>
-      <c r="L12" s="204"/>
-      <c r="M12" s="204"/>
-      <c r="N12" s="204"/>
-      <c r="O12" s="204"/>
+      <c r="C12" s="193" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="215"/>
+      <c r="E12" s="215"/>
+      <c r="F12" s="215"/>
+      <c r="G12" s="215"/>
+      <c r="H12" s="215"/>
+      <c r="I12" s="215"/>
+      <c r="J12" s="215"/>
+      <c r="K12" s="215"/>
+      <c r="L12" s="215"/>
+      <c r="M12" s="215"/>
+      <c r="N12" s="215"/>
+      <c r="O12" s="215"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="204" t="s">
-        <v>141</v>
-      </c>
-      <c r="D13" s="204"/>
-      <c r="E13" s="204"/>
-      <c r="F13" s="204"/>
-      <c r="G13" s="204"/>
-      <c r="H13" s="204"/>
-      <c r="I13" s="204"/>
-      <c r="J13" s="204"/>
-      <c r="K13" s="204"/>
-      <c r="L13" s="204"/>
-      <c r="M13" s="204"/>
-      <c r="N13" s="204"/>
-      <c r="O13" s="204"/>
+      <c r="C13" s="215" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" s="215"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="215"/>
+      <c r="G13" s="215"/>
+      <c r="H13" s="215"/>
+      <c r="I13" s="215"/>
+      <c r="J13" s="215"/>
+      <c r="K13" s="215"/>
+      <c r="L13" s="215"/>
+      <c r="M13" s="215"/>
+      <c r="N13" s="215"/>
+      <c r="O13" s="215"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="264" t="s">
+      <c r="C14" s="272" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="264"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="264"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="264"/>
-      <c r="M14" s="264"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="264"/>
+      <c r="D14" s="272"/>
+      <c r="E14" s="272"/>
+      <c r="F14" s="272"/>
+      <c r="G14" s="272"/>
+      <c r="H14" s="272"/>
+      <c r="I14" s="272"/>
+      <c r="J14" s="272"/>
+      <c r="K14" s="272"/>
+      <c r="L14" s="272"/>
+      <c r="M14" s="272"/>
+      <c r="N14" s="272"/>
+      <c r="O14" s="272"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="264" t="s">
+      <c r="C15" s="272" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="264"/>
-      <c r="E15" s="264"/>
-      <c r="F15" s="264"/>
-      <c r="G15" s="264"/>
-      <c r="H15" s="264"/>
-      <c r="I15" s="264"/>
-      <c r="J15" s="264"/>
-      <c r="K15" s="264"/>
-      <c r="L15" s="264"/>
-      <c r="M15" s="264"/>
-      <c r="N15" s="264"/>
-      <c r="O15" s="264"/>
+      <c r="D15" s="272"/>
+      <c r="E15" s="272"/>
+      <c r="F15" s="272"/>
+      <c r="G15" s="272"/>
+      <c r="H15" s="272"/>
+      <c r="I15" s="272"/>
+      <c r="J15" s="272"/>
+      <c r="K15" s="272"/>
+      <c r="L15" s="272"/>
+      <c r="M15" s="272"/>
+      <c r="N15" s="272"/>
+      <c r="O15" s="272"/>
     </row>
     <row r="16" spans="2:15" ht="29" customHeight="1">
       <c r="B16" s="188">
         <v>14</v>
       </c>
-      <c r="C16" s="267" t="s">
-        <v>181</v>
-      </c>
-      <c r="D16" s="267"/>
-      <c r="E16" s="267"/>
-      <c r="F16" s="267"/>
-      <c r="G16" s="267"/>
-      <c r="H16" s="267"/>
-      <c r="I16" s="267"/>
-      <c r="J16" s="267"/>
-      <c r="K16" s="267"/>
-      <c r="L16" s="267"/>
-      <c r="M16" s="267"/>
-      <c r="N16" s="267"/>
-      <c r="O16" s="267"/>
+      <c r="C16" s="273" t="s">
+        <v>178</v>
+      </c>
+      <c r="D16" s="273"/>
+      <c r="E16" s="273"/>
+      <c r="F16" s="273"/>
+      <c r="G16" s="273"/>
+      <c r="H16" s="273"/>
+      <c r="I16" s="273"/>
+      <c r="J16" s="273"/>
+      <c r="K16" s="273"/>
+      <c r="L16" s="273"/>
+      <c r="M16" s="273"/>
+      <c r="N16" s="273"/>
+      <c r="O16" s="273"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="269" t="s">
+      <c r="C17" s="274" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="269"/>
-      <c r="E17" s="269"/>
-      <c r="F17" s="269"/>
-      <c r="G17" s="269"/>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="269"/>
-      <c r="N17" s="269"/>
-      <c r="O17" s="269"/>
+      <c r="D17" s="274"/>
+      <c r="E17" s="274"/>
+      <c r="F17" s="274"/>
+      <c r="G17" s="274"/>
+      <c r="H17" s="274"/>
+      <c r="I17" s="274"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="274"/>
+      <c r="L17" s="274"/>
+      <c r="M17" s="274"/>
+      <c r="N17" s="274"/>
+      <c r="O17" s="274"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
@@ -31381,21 +31742,21 @@
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="201" t="s">
-        <v>236</v>
-      </c>
-      <c r="D22" s="201"/>
-      <c r="E22" s="201"/>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201"/>
-      <c r="H22" s="201"/>
-      <c r="I22" s="201"/>
-      <c r="J22" s="201"/>
-      <c r="K22" s="201"/>
-      <c r="L22" s="201"/>
-      <c r="M22" s="201"/>
-      <c r="N22" s="201"/>
-      <c r="O22" s="201"/>
+      <c r="C22" s="193" t="s">
+        <v>233</v>
+      </c>
+      <c r="D22" s="193"/>
+      <c r="E22" s="193"/>
+      <c r="F22" s="193"/>
+      <c r="G22" s="193"/>
+      <c r="H22" s="193"/>
+      <c r="I22" s="193"/>
+      <c r="J22" s="193"/>
+      <c r="K22" s="193"/>
+      <c r="L22" s="193"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="193"/>
+      <c r="O22" s="193"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="3">
@@ -31661,99 +32022,216 @@
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="272" t="s">
+      <c r="C36" s="271" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="272"/>
-      <c r="E36" s="272"/>
-      <c r="F36" s="272"/>
-      <c r="G36" s="272"/>
-      <c r="H36" s="272"/>
-      <c r="I36" s="272"/>
-      <c r="J36" s="272"/>
-      <c r="K36" s="272"/>
-      <c r="L36" s="272"/>
-      <c r="M36" s="272"/>
-      <c r="N36" s="272"/>
-      <c r="O36" s="272"/>
+      <c r="D36" s="271"/>
+      <c r="E36" s="271"/>
+      <c r="F36" s="271"/>
+      <c r="G36" s="271"/>
+      <c r="H36" s="271"/>
+      <c r="I36" s="271"/>
+      <c r="J36" s="271"/>
+      <c r="K36" s="271"/>
+      <c r="L36" s="271"/>
+      <c r="M36" s="271"/>
+      <c r="N36" s="271"/>
+      <c r="O36" s="271"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="189">
         <v>35</v>
       </c>
-      <c r="C37" s="270" t="s">
-        <v>274</v>
-      </c>
-      <c r="D37" s="270"/>
-      <c r="E37" s="270"/>
-      <c r="F37" s="270"/>
-      <c r="G37" s="270"/>
-      <c r="H37" s="270"/>
-      <c r="I37" s="270"/>
-      <c r="J37" s="270"/>
-      <c r="K37" s="270"/>
-      <c r="L37" s="270"/>
-      <c r="M37" s="270"/>
-      <c r="N37" s="270"/>
-      <c r="O37" s="270"/>
+      <c r="C37" s="269" t="s">
+        <v>271</v>
+      </c>
+      <c r="D37" s="269"/>
+      <c r="E37" s="269"/>
+      <c r="F37" s="269"/>
+      <c r="G37" s="269"/>
+      <c r="H37" s="269"/>
+      <c r="I37" s="269"/>
+      <c r="J37" s="269"/>
+      <c r="K37" s="269"/>
+      <c r="L37" s="269"/>
+      <c r="M37" s="269"/>
+      <c r="N37" s="269"/>
+      <c r="O37" s="269"/>
     </row>
     <row r="38" spans="2:15" ht="29" customHeight="1">
       <c r="B38" s="188">
         <v>36</v>
       </c>
-      <c r="C38" s="271" t="s">
-        <v>275</v>
-      </c>
-      <c r="D38" s="271"/>
-      <c r="E38" s="271"/>
-      <c r="F38" s="271"/>
-      <c r="G38" s="271"/>
-      <c r="H38" s="271"/>
-      <c r="I38" s="271"/>
-      <c r="J38" s="271"/>
-      <c r="K38" s="271"/>
-      <c r="L38" s="271"/>
-      <c r="M38" s="271"/>
-      <c r="N38" s="271"/>
-      <c r="O38" s="271"/>
+      <c r="C38" s="270" t="s">
+        <v>272</v>
+      </c>
+      <c r="D38" s="270"/>
+      <c r="E38" s="270"/>
+      <c r="F38" s="270"/>
+      <c r="G38" s="270"/>
+      <c r="H38" s="270"/>
+      <c r="I38" s="270"/>
+      <c r="J38" s="270"/>
+      <c r="K38" s="270"/>
+      <c r="L38" s="270"/>
+      <c r="M38" s="270"/>
+      <c r="N38" s="270"/>
+      <c r="O38" s="270"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="190">
         <v>37</v>
       </c>
-      <c r="C39" s="273" t="s">
-        <v>286</v>
-      </c>
-      <c r="D39" s="273"/>
-      <c r="E39" s="273"/>
-      <c r="F39" s="273"/>
-      <c r="G39" s="273"/>
-      <c r="H39" s="273"/>
-      <c r="I39" s="273"/>
-      <c r="J39" s="273"/>
-      <c r="K39" s="273"/>
-      <c r="L39" s="273"/>
-      <c r="M39" s="273"/>
-      <c r="N39" s="273"/>
-      <c r="O39" s="273"/>
+      <c r="C39" s="267" t="s">
+        <v>283</v>
+      </c>
+      <c r="D39" s="267"/>
+      <c r="E39" s="267"/>
+      <c r="F39" s="267"/>
+      <c r="G39" s="267"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="267"/>
+      <c r="J39" s="267"/>
+      <c r="K39" s="267"/>
+      <c r="L39" s="267"/>
+      <c r="M39" s="267"/>
+      <c r="N39" s="267"/>
+      <c r="O39" s="267"/>
+    </row>
+    <row r="40" spans="2:15">
+      <c r="B40" s="192">
+        <v>38</v>
+      </c>
+      <c r="C40" s="272" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="272"/>
+      <c r="E40" s="272"/>
+      <c r="F40" s="272"/>
+      <c r="G40" s="272"/>
+      <c r="H40" s="272"/>
+      <c r="I40" s="272"/>
+      <c r="J40" s="272"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="272"/>
+      <c r="M40" s="272"/>
+      <c r="N40" s="272"/>
+      <c r="O40" s="272"/>
+    </row>
+    <row r="41" spans="2:15" ht="31" customHeight="1">
+      <c r="B41" s="188">
+        <v>39</v>
+      </c>
+      <c r="C41" s="194" t="s">
+        <v>292</v>
+      </c>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
+      <c r="I41" s="194"/>
+      <c r="J41" s="194"/>
+      <c r="K41" s="194"/>
+      <c r="L41" s="194"/>
+      <c r="M41" s="194"/>
+      <c r="N41" s="194"/>
+      <c r="O41" s="194"/>
+    </row>
+    <row r="42" spans="2:15">
+      <c r="B42" s="192">
+        <v>40</v>
+      </c>
+      <c r="C42" s="193" t="s">
+        <v>293</v>
+      </c>
+      <c r="D42" s="272"/>
+      <c r="E42" s="272"/>
+      <c r="F42" s="272"/>
+      <c r="G42" s="272"/>
+      <c r="H42" s="272"/>
+      <c r="I42" s="272"/>
+      <c r="J42" s="272"/>
+      <c r="K42" s="272"/>
+      <c r="L42" s="272"/>
+      <c r="M42" s="272"/>
+      <c r="N42" s="272"/>
+      <c r="O42" s="272"/>
+    </row>
+    <row r="43" spans="2:15">
+      <c r="B43" s="192">
+        <v>41</v>
+      </c>
+      <c r="C43" s="221" t="s">
+        <v>294</v>
+      </c>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="221"/>
+      <c r="L43" s="221"/>
+      <c r="M43" s="221"/>
+      <c r="N43" s="221"/>
+      <c r="O43" s="221"/>
+    </row>
+    <row r="44" spans="2:15">
+      <c r="B44" s="192">
+        <v>42</v>
+      </c>
+      <c r="C44" s="193" t="s">
+        <v>295</v>
+      </c>
+      <c r="D44" s="193"/>
+      <c r="E44" s="193"/>
+      <c r="F44" s="193"/>
+      <c r="G44" s="193"/>
+      <c r="H44" s="193"/>
+      <c r="I44" s="193"/>
+      <c r="J44" s="193"/>
+      <c r="K44" s="193"/>
+      <c r="L44" s="193"/>
+      <c r="M44" s="193"/>
+      <c r="N44" s="193"/>
+      <c r="O44" s="193"/>
+    </row>
+    <row r="45" spans="2:15" ht="28" customHeight="1">
+      <c r="B45" s="188">
+        <v>43</v>
+      </c>
+      <c r="C45" s="280" t="s">
+        <v>303</v>
+      </c>
+      <c r="D45" s="280"/>
+      <c r="E45" s="280"/>
+      <c r="F45" s="280"/>
+      <c r="G45" s="280"/>
+      <c r="H45" s="280"/>
+      <c r="I45" s="280"/>
+      <c r="J45" s="280"/>
+      <c r="K45" s="280"/>
+      <c r="L45" s="280"/>
+      <c r="M45" s="280"/>
+      <c r="N45" s="280"/>
+      <c r="O45" s="280"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="C39:O39"/>
-    <mergeCell ref="C30:O30"/>
-    <mergeCell ref="C31:O31"/>
-    <mergeCell ref="C37:O37"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="C32:O32"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C25:O25"/>
+  <mergeCells count="43">
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C41:O41"/>
+    <mergeCell ref="C42:O42"/>
+    <mergeCell ref="C43:O43"/>
+    <mergeCell ref="C44:O44"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:O7"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="C28:O28"/>
     <mergeCell ref="C29:O29"/>
@@ -31770,12 +32248,21 @@
     <mergeCell ref="C18:O18"/>
     <mergeCell ref="C19:O19"/>
     <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C32:O32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31839,87 +32326,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>152</v>
-      </c>
-      <c r="B2" s="216"/>
+      <c r="A2" s="213" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="219"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="217"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="218"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -34027,34 +34514,34 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="A16" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="68">
         <f>SUM(B4:B15)</f>
         <v>589.39900000000011</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -34069,15 +34556,15 @@
     </row>
     <row r="19" spans="2:18" ht="13">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -34092,15 +34579,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -34115,15 +34602,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -34293,6 +34780,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -34306,15 +34802,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34379,87 +34866,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="217"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="218"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -36612,34 +37099,34 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="A16" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B16" s="68">
         <f>SUM(B4:B15)</f>
         <v>6634.9010000000007</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -36654,15 +37141,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="203" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -36677,15 +37164,15 @@
     </row>
     <row r="20" spans="2:18" ht="13">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -36700,15 +37187,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -36739,7 +37226,7 @@
     </row>
     <row r="23" spans="2:18" ht="15.75" customHeight="1">
       <c r="B23" s="71" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C23" s="71"/>
       <c r="D23" s="71"/>
@@ -36883,13 +37370,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
     <mergeCell ref="AG16:AI16"/>
     <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
@@ -36898,13 +37385,13 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG2:AI2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -36969,87 +37456,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>156</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="218"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="220"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -39109,7 +39596,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -39157,12 +39644,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="68"/>
@@ -39170,15 +39657,15 @@
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -39193,15 +39680,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -39216,15 +39703,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -39239,15 +39726,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -39433,12 +39920,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:B2"/>
@@ -39455,6 +39936,12 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -39518,87 +40005,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -41661,7 +42148,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -41757,27 +42244,27 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -41792,15 +42279,15 @@
     </row>
     <row r="19" spans="2:18" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="203" t="s">
-        <v>158</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -41815,15 +42302,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -41838,15 +42325,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -42032,6 +42519,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -42045,15 +42541,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42116,87 +42603,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="216"/>
+      <c r="A2" s="213" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="219"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -44256,7 +44743,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -44351,12 +44838,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -44376,15 +44863,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="205"/>
-      <c r="E19" s="205"/>
-      <c r="F19" s="205"/>
-      <c r="G19" s="205"/>
+      <c r="D19" s="216"/>
+      <c r="E19" s="216"/>
+      <c r="F19" s="216"/>
+      <c r="G19" s="216"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -44399,15 +44886,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C20" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C20" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="203"/>
+      <c r="D20" s="214"/>
+      <c r="E20" s="214"/>
+      <c r="F20" s="214"/>
+      <c r="G20" s="214"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -44422,15 +44909,15 @@
     </row>
     <row r="21" spans="2:18" ht="15.75" customHeight="1">
       <c r="B21" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C21" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
-      <c r="F21" s="204"/>
-      <c r="G21" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C21" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" s="215"/>
+      <c r="E21" s="215"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="215"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -44445,15 +44932,15 @@
     </row>
     <row r="22" spans="2:18" ht="28" customHeight="1">
       <c r="B22" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C22" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="214"/>
+      <c r="E22" s="214"/>
+      <c r="F22" s="214"/>
+      <c r="G22" s="214"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -44623,6 +45110,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -44636,15 +45132,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -44709,87 +45196,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>158</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -46848,7 +47335,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="4">
         <f>SUM(B4:B14)</f>
@@ -46943,27 +47430,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -46978,15 +47465,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -47001,15 +47488,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -47024,15 +47511,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -47218,6 +47705,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -47231,15 +47727,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47303,87 +47790,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="202" t="s">
-        <v>162</v>
-      </c>
-      <c r="B2" s="202"/>
+      <c r="A2" s="213" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="213"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="206" t="s">
+      <c r="D2" s="204" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="207"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="209" t="s">
+      <c r="E2" s="205"/>
+      <c r="F2" s="206"/>
+      <c r="G2" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="214" t="s">
+      <c r="H2" s="205"/>
+      <c r="I2" s="205"/>
+      <c r="J2" s="208" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="214" t="s">
+      <c r="K2" s="205"/>
+      <c r="L2" s="205"/>
+      <c r="M2" s="208" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="207"/>
-      <c r="O2" s="208"/>
-      <c r="P2" s="213" t="s">
+      <c r="N2" s="205"/>
+      <c r="O2" s="206"/>
+      <c r="P2" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="207"/>
-      <c r="R2" s="208"/>
-      <c r="S2" s="215" t="s">
-        <v>278</v>
-      </c>
-      <c r="T2" s="208"/>
-      <c r="U2" s="206" t="s">
+      <c r="Q2" s="205"/>
+      <c r="R2" s="206"/>
+      <c r="S2" s="210" t="s">
+        <v>275</v>
+      </c>
+      <c r="T2" s="206"/>
+      <c r="U2" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="207"/>
-      <c r="W2" s="208"/>
-      <c r="X2" s="206" t="s">
+      <c r="V2" s="205"/>
+      <c r="W2" s="206"/>
+      <c r="X2" s="204" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="207"/>
-      <c r="Z2" s="208"/>
-      <c r="AA2" s="206" t="s">
+      <c r="Y2" s="205"/>
+      <c r="Z2" s="206"/>
+      <c r="AA2" s="204" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="207"/>
-      <c r="AC2" s="208"/>
-      <c r="AD2" s="209" t="s">
+      <c r="AB2" s="205"/>
+      <c r="AC2" s="206"/>
+      <c r="AD2" s="217" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="207"/>
-      <c r="AF2" s="208"/>
-      <c r="AG2" s="209" t="s">
+      <c r="AE2" s="205"/>
+      <c r="AF2" s="206"/>
+      <c r="AG2" s="217" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="207"/>
-      <c r="AI2" s="208"/>
-      <c r="AJ2" s="209" t="s">
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
+      <c r="AJ2" s="217" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="207"/>
-      <c r="AL2" s="208"/>
-      <c r="AM2" s="213" t="s">
+      <c r="AK2" s="205"/>
+      <c r="AL2" s="206"/>
+      <c r="AM2" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="207"/>
-      <c r="AO2" s="208"/>
-      <c r="AP2" s="213" t="s">
+      <c r="AN2" s="205"/>
+      <c r="AO2" s="206"/>
+      <c r="AP2" s="209" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="207"/>
-      <c r="AR2" s="208"/>
-      <c r="AS2" s="213" t="s">
+      <c r="AQ2" s="205"/>
+      <c r="AR2" s="206"/>
+      <c r="AS2" s="209" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="207"/>
-      <c r="AU2" s="208"/>
+      <c r="AT2" s="205"/>
+      <c r="AU2" s="206"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -49443,7 +49930,7 @@
     </row>
     <row r="15" spans="1:47" ht="15.75" customHeight="1">
       <c r="A15" s="81" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B15" s="68">
         <f>SUM(B4:B14)</f>
@@ -49538,27 +50025,27 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="210"/>
-      <c r="AH16" s="211"/>
-      <c r="AI16" s="211"/>
-      <c r="AP16" s="210"/>
-      <c r="AQ16" s="211"/>
-      <c r="AR16" s="211"/>
+      <c r="AG16" s="211"/>
+      <c r="AH16" s="212"/>
+      <c r="AI16" s="212"/>
+      <c r="AP16" s="211"/>
+      <c r="AQ16" s="212"/>
+      <c r="AR16" s="212"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="2:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="205" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="216" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="205"/>
+      <c r="D18" s="216"/>
+      <c r="E18" s="216"/>
+      <c r="F18" s="216"/>
+      <c r="G18" s="216"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -49573,15 +50060,15 @@
     </row>
     <row r="19" spans="2:18" ht="15.75" customHeight="1">
       <c r="B19" s="82" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="214" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="203" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
-      <c r="G19" s="203"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -49596,15 +50083,15 @@
     </row>
     <row r="20" spans="2:18" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="C20" s="201" t="s">
-        <v>279</v>
-      </c>
-      <c r="D20" s="204"/>
-      <c r="E20" s="204"/>
-      <c r="F20" s="204"/>
-      <c r="G20" s="204"/>
+        <v>143</v>
+      </c>
+      <c r="C20" s="193" t="s">
+        <v>276</v>
+      </c>
+      <c r="D20" s="215"/>
+      <c r="E20" s="215"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="215"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -49619,15 +50106,15 @@
     </row>
     <row r="21" spans="2:18" ht="28" customHeight="1">
       <c r="B21" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21" s="191" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
-      <c r="G21" s="203"/>
+        <v>148</v>
+      </c>
+      <c r="C21" s="194" t="s">
+        <v>269</v>
+      </c>
+      <c r="D21" s="214"/>
+      <c r="E21" s="214"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -49813,6 +50300,15 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -49826,15 +50322,6 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InternetFootprint_Final.xlsx
+++ b/InternetFootprint_Final.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robringer/Library/Mobile Documents/com~apple~CloudDocs/Documents/Research/2020_21/datafootprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467C614D-637A-8047-BA6D-9FA725DEFFE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08DC0D-F335-5C47-851E-BF1155F9FD20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33780" yWindow="1380" windowWidth="24580" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -910,12 +910,6 @@
     <t>Application-Based Monthly Water Footprints as…</t>
   </si>
   <si>
-    <t xml:space="preserve">This file serves as the supplementary material to a manuscript currently under review:  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Renee Obringer, Debora Maia-Silva, Benjamin Rachunok, Maryam Arbabzadeh, Roshanak Nateghi and Kaveh Madani. The overlooked environmental footprint of increased internet use. </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sources and References </t>
   </si>
   <si>
@@ -1242,6 +1236,12 @@
   </si>
   <si>
     <t>A common example [of unsustainable behavior becoming the norm, and therefore difficult to change] is the use of cars in the US. Despite the adverse environmental impacts of automobiles [43], the US continues to prioritize vehicle-focused infrastructure (e.g., interstates rather than long-distance trains). This has cemented driving not only as the norm, but also as a basic necessity for many people, imposing significant barriers to building a more sustainable society that is not highly reliant on fossil fuels and private transport modes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This file serves as the supplementary material to a manuscript:  </t>
+  </si>
+  <si>
+    <t>Renee Obringer, Debora Maia-Silva, Benjamin Rachunok, Maryam Arbabzadeh, Roshanak Nateghi and Kaveh Madani. The overlooked environmental footprint of increased internet use. Resources, Conservation &amp; Recycling. (2021). https://doi.org/10.1016/j.resconrec.2020.105389</t>
   </si>
 </sst>
 </file>
@@ -2236,60 +2236,49 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2302,66 +2291,38 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2378,6 +2339,18 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2386,24 +2359,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2417,11 +2409,11 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2433,14 +2425,53 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2450,37 +2481,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2717,35 +2717,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="B2" s="196" t="s">
-        <v>264</v>
-      </c>
-      <c r="C2" s="196"/>
-      <c r="D2" s="196"/>
-      <c r="E2" s="196"/>
-      <c r="F2" s="196"/>
-      <c r="G2" s="196"/>
-      <c r="H2" s="196"/>
-      <c r="I2" s="196"/>
-      <c r="J2" s="196"/>
-      <c r="K2" s="196"/>
-      <c r="L2" s="196"/>
+      <c r="B2" s="202" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="202"/>
+      <c r="D2" s="202"/>
+      <c r="E2" s="202"/>
+      <c r="F2" s="202"/>
+      <c r="G2" s="202"/>
+      <c r="H2" s="202"/>
+      <c r="I2" s="202"/>
+      <c r="J2" s="202"/>
+      <c r="K2" s="202"/>
+      <c r="L2" s="202"/>
     </row>
     <row r="3" spans="1:12" ht="28" customHeight="1">
       <c r="A3" s="187"/>
-      <c r="B3" s="197" t="s">
-        <v>265</v>
-      </c>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
+      <c r="B3" s="206" t="s">
+        <v>304</v>
+      </c>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
+      <c r="E3" s="206"/>
+      <c r="F3" s="206"/>
+      <c r="G3" s="206"/>
+      <c r="H3" s="206"/>
+      <c r="I3" s="206"/>
+      <c r="J3" s="206"/>
+      <c r="K3" s="206"/>
+      <c r="L3" s="206"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="187"/>
@@ -2767,336 +2767,336 @@
         <v>94</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="200" t="s">
+      <c r="D9" s="207" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="200"/>
-      <c r="F9" s="200"/>
-      <c r="G9" s="200"/>
-      <c r="H9" s="200"/>
-      <c r="I9" s="200"/>
-      <c r="J9" s="200"/>
-      <c r="K9" s="200"/>
+      <c r="E9" s="207"/>
+      <c r="F9" s="207"/>
+      <c r="G9" s="207"/>
+      <c r="H9" s="207"/>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="195" t="s">
+      <c r="D10" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="195"/>
-      <c r="F10" s="195"/>
-      <c r="G10" s="195"/>
-      <c r="H10" s="195"/>
-      <c r="I10" s="195"/>
-      <c r="J10" s="195"/>
-      <c r="K10" s="195"/>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="200"/>
+      <c r="H10" s="200"/>
+      <c r="I10" s="200"/>
+      <c r="J10" s="200"/>
+      <c r="K10" s="200"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="195" t="s">
+      <c r="D11" s="200" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="195"/>
-      <c r="F11" s="195"/>
-      <c r="G11" s="195"/>
-      <c r="H11" s="195"/>
-      <c r="I11" s="195"/>
-      <c r="J11" s="195"/>
-      <c r="K11" s="195"/>
+      <c r="E11" s="200"/>
+      <c r="F11" s="200"/>
+      <c r="G11" s="200"/>
+      <c r="H11" s="200"/>
+      <c r="I11" s="200"/>
+      <c r="J11" s="200"/>
+      <c r="K11" s="200"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="75"/>
-      <c r="D12" s="195" t="s">
+      <c r="D12" s="200" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
-      <c r="G12" s="195"/>
-      <c r="H12" s="195"/>
-      <c r="I12" s="195"/>
-      <c r="J12" s="195"/>
-      <c r="K12" s="195"/>
+      <c r="E12" s="200"/>
+      <c r="F12" s="200"/>
+      <c r="G12" s="200"/>
+      <c r="H12" s="200"/>
+      <c r="I12" s="200"/>
+      <c r="J12" s="200"/>
+      <c r="K12" s="200"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="195" t="s">
+      <c r="D13" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="195"/>
-      <c r="F13" s="195"/>
-      <c r="G13" s="195"/>
-      <c r="H13" s="195"/>
-      <c r="I13" s="195"/>
-      <c r="J13" s="195"/>
-      <c r="K13" s="195"/>
+      <c r="E13" s="200"/>
+      <c r="F13" s="200"/>
+      <c r="G13" s="200"/>
+      <c r="H13" s="200"/>
+      <c r="I13" s="200"/>
+      <c r="J13" s="200"/>
+      <c r="K13" s="200"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="75"/>
-      <c r="D14" s="195" t="s">
+      <c r="D14" s="200" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="195"/>
-      <c r="F14" s="195"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
-      <c r="J14" s="195"/>
-      <c r="K14" s="195"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="200"/>
+      <c r="H14" s="200"/>
+      <c r="I14" s="200"/>
+      <c r="J14" s="200"/>
+      <c r="K14" s="200"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="75"/>
-      <c r="D15" s="195" t="s">
+      <c r="D15" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
-      <c r="J15" s="195"/>
-      <c r="K15" s="195"/>
+      <c r="E15" s="200"/>
+      <c r="F15" s="200"/>
+      <c r="G15" s="200"/>
+      <c r="H15" s="200"/>
+      <c r="I15" s="200"/>
+      <c r="J15" s="200"/>
+      <c r="K15" s="200"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="75"/>
-      <c r="D16" s="195" t="s">
+      <c r="D16" s="200" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="195"/>
-      <c r="F16" s="195"/>
-      <c r="G16" s="195"/>
-      <c r="H16" s="195"/>
-      <c r="I16" s="195"/>
-      <c r="J16" s="195"/>
-      <c r="K16" s="195"/>
+      <c r="E16" s="200"/>
+      <c r="F16" s="200"/>
+      <c r="G16" s="200"/>
+      <c r="H16" s="200"/>
+      <c r="I16" s="200"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="200"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="75"/>
-      <c r="D17" s="195" t="s">
+      <c r="D17" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="195"/>
-      <c r="F17" s="195"/>
-      <c r="G17" s="195"/>
-      <c r="H17" s="195"/>
-      <c r="I17" s="195"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="195"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="200"/>
+      <c r="I17" s="200"/>
+      <c r="J17" s="200"/>
+      <c r="K17" s="200"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="195" t="s">
+      <c r="D18" s="200" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-      <c r="I18" s="195"/>
-      <c r="J18" s="195"/>
-      <c r="K18" s="195"/>
+      <c r="E18" s="200"/>
+      <c r="F18" s="200"/>
+      <c r="G18" s="200"/>
+      <c r="H18" s="200"/>
+      <c r="I18" s="200"/>
+      <c r="J18" s="200"/>
+      <c r="K18" s="200"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="75"/>
-      <c r="D19" s="195" t="s">
+      <c r="D19" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
-      <c r="H19" s="195"/>
-      <c r="I19" s="195"/>
-      <c r="J19" s="195"/>
-      <c r="K19" s="195"/>
+      <c r="E19" s="200"/>
+      <c r="F19" s="200"/>
+      <c r="G19" s="200"/>
+      <c r="H19" s="200"/>
+      <c r="I19" s="200"/>
+      <c r="J19" s="200"/>
+      <c r="K19" s="200"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="75"/>
-      <c r="D20" s="195" t="s">
+      <c r="D20" s="200" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="195"/>
+      <c r="E20" s="200"/>
+      <c r="F20" s="200"/>
+      <c r="G20" s="200"/>
+      <c r="H20" s="200"/>
+      <c r="I20" s="200"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="200"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="195" t="s">
+      <c r="D21" s="200" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="195"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="195"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
+      <c r="E21" s="200"/>
+      <c r="F21" s="200"/>
+      <c r="G21" s="200"/>
+      <c r="H21" s="200"/>
+      <c r="I21" s="200"/>
+      <c r="J21" s="200"/>
+      <c r="K21" s="200"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="195" t="s">
+      <c r="D22" s="200" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="195"/>
-      <c r="F22" s="195"/>
-      <c r="G22" s="195"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195"/>
+      <c r="E22" s="200"/>
+      <c r="F22" s="200"/>
+      <c r="G22" s="200"/>
+      <c r="H22" s="200"/>
+      <c r="I22" s="200"/>
+      <c r="J22" s="200"/>
+      <c r="K22" s="200"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="195" t="s">
+      <c r="D23" s="200" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="195"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="195"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="195"/>
+      <c r="E23" s="200"/>
+      <c r="F23" s="200"/>
+      <c r="G23" s="200"/>
+      <c r="H23" s="200"/>
+      <c r="I23" s="200"/>
+      <c r="J23" s="200"/>
+      <c r="K23" s="200"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="195" t="s">
+      <c r="D24" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="195"/>
-      <c r="F24" s="195"/>
-      <c r="G24" s="195"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195"/>
+      <c r="E24" s="200"/>
+      <c r="F24" s="200"/>
+      <c r="G24" s="200"/>
+      <c r="H24" s="200"/>
+      <c r="I24" s="200"/>
+      <c r="J24" s="200"/>
+      <c r="K24" s="200"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="75"/>
-      <c r="D25" s="195" t="s">
+      <c r="D25" s="200" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="195"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="195"/>
-      <c r="H25" s="195"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
+      <c r="E25" s="200"/>
+      <c r="F25" s="200"/>
+      <c r="G25" s="200"/>
+      <c r="H25" s="200"/>
+      <c r="I25" s="200"/>
+      <c r="J25" s="200"/>
+      <c r="K25" s="200"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="75"/>
-      <c r="D26" s="195" t="s">
+      <c r="D26" s="200" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="195"/>
-      <c r="F26" s="195"/>
-      <c r="G26" s="195"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195"/>
+      <c r="E26" s="200"/>
+      <c r="F26" s="200"/>
+      <c r="G26" s="200"/>
+      <c r="H26" s="200"/>
+      <c r="I26" s="200"/>
+      <c r="J26" s="200"/>
+      <c r="K26" s="200"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="201" t="s">
+      <c r="D27" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="201"/>
-      <c r="F27" s="201"/>
-      <c r="G27" s="201"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="201"/>
+      <c r="E27" s="199"/>
+      <c r="F27" s="199"/>
+      <c r="G27" s="199"/>
+      <c r="H27" s="199"/>
+      <c r="I27" s="199"/>
+      <c r="J27" s="199"/>
+      <c r="K27" s="199"/>
     </row>
     <row r="28" spans="2:11" ht="30" customHeight="1">
-      <c r="B28" s="277" t="s">
-        <v>285</v>
-      </c>
-      <c r="C28" s="198"/>
-      <c r="D28" s="278" t="s">
-        <v>300</v>
-      </c>
-      <c r="E28" s="201"/>
-      <c r="F28" s="201"/>
-      <c r="G28" s="201"/>
-      <c r="H28" s="201"/>
-      <c r="I28" s="201"/>
-      <c r="J28" s="201"/>
-      <c r="K28" s="201"/>
+      <c r="B28" s="196" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="197"/>
+      <c r="D28" s="198" t="s">
+        <v>298</v>
+      </c>
+      <c r="E28" s="199"/>
+      <c r="F28" s="199"/>
+      <c r="G28" s="199"/>
+      <c r="H28" s="199"/>
+      <c r="I28" s="199"/>
+      <c r="J28" s="199"/>
+      <c r="K28" s="199"/>
     </row>
     <row r="29" spans="2:11" ht="28" customHeight="1">
-      <c r="B29" s="198" t="s">
+      <c r="B29" s="197" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="198"/>
-      <c r="D29" s="201" t="s">
+      <c r="C29" s="197"/>
+      <c r="D29" s="199" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="201"/>
-      <c r="F29" s="201"/>
-      <c r="G29" s="201"/>
-      <c r="H29" s="201"/>
-      <c r="I29" s="201"/>
-      <c r="J29" s="201"/>
-      <c r="K29" s="201"/>
+      <c r="E29" s="199"/>
+      <c r="F29" s="199"/>
+      <c r="G29" s="199"/>
+      <c r="H29" s="199"/>
+      <c r="I29" s="199"/>
+      <c r="J29" s="199"/>
+      <c r="K29" s="199"/>
     </row>
     <row r="32" spans="2:11" ht="18">
       <c r="B32" s="70" t="s">
@@ -3106,60 +3106,60 @@
     </row>
     <row r="33" spans="2:15" ht="7" customHeight="1"/>
     <row r="34" spans="2:15">
-      <c r="B34" s="196" t="s">
-        <v>273</v>
-      </c>
-      <c r="C34" s="195"/>
-      <c r="D34" s="195"/>
-      <c r="E34" s="195"/>
-      <c r="F34" s="195"/>
-      <c r="G34" s="195"/>
-      <c r="H34" s="195"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
+      <c r="B34" s="202" t="s">
+        <v>271</v>
+      </c>
+      <c r="C34" s="200"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="200"/>
+      <c r="F34" s="200"/>
+      <c r="G34" s="200"/>
+      <c r="H34" s="200"/>
+      <c r="I34" s="200"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="200"/>
     </row>
     <row r="35" spans="2:15" ht="28" customHeight="1">
-      <c r="B35" s="199" t="s">
+      <c r="B35" s="204" t="s">
         <v>175</v>
       </c>
-      <c r="C35" s="199"/>
-      <c r="D35" s="199"/>
-      <c r="E35" s="199"/>
-      <c r="F35" s="199"/>
-      <c r="G35" s="199"/>
-      <c r="H35" s="199"/>
-      <c r="I35" s="199"/>
-      <c r="J35" s="199"/>
-      <c r="K35" s="199"/>
+      <c r="C35" s="204"/>
+      <c r="D35" s="204"/>
+      <c r="E35" s="204"/>
+      <c r="F35" s="204"/>
+      <c r="G35" s="204"/>
+      <c r="H35" s="204"/>
+      <c r="I35" s="204"/>
+      <c r="J35" s="204"/>
+      <c r="K35" s="204"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="196" t="s">
-        <v>274</v>
-      </c>
-      <c r="C36" s="195"/>
-      <c r="D36" s="195"/>
-      <c r="E36" s="195"/>
-      <c r="F36" s="195"/>
-      <c r="G36" s="195"/>
-      <c r="H36" s="195"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
+      <c r="B36" s="202" t="s">
+        <v>272</v>
+      </c>
+      <c r="C36" s="200"/>
+      <c r="D36" s="200"/>
+      <c r="E36" s="200"/>
+      <c r="F36" s="200"/>
+      <c r="G36" s="200"/>
+      <c r="H36" s="200"/>
+      <c r="I36" s="200"/>
+      <c r="J36" s="200"/>
+      <c r="K36" s="200"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="195" t="s">
+      <c r="B37" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="195"/>
-      <c r="D37" s="195"/>
-      <c r="E37" s="195"/>
-      <c r="F37" s="195"/>
-      <c r="G37" s="195"/>
-      <c r="H37" s="195"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="195"/>
+      <c r="C37" s="200"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="200"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="200"/>
+      <c r="H37" s="200"/>
+      <c r="I37" s="200"/>
+      <c r="J37" s="200"/>
+      <c r="K37" s="200"/>
     </row>
     <row r="40" spans="2:15" ht="18">
       <c r="B40" s="70" t="s">
@@ -3172,108 +3172,108 @@
       <c r="C41" s="70"/>
     </row>
     <row r="42" spans="2:15" ht="15" customHeight="1">
-      <c r="B42" s="193" t="s">
-        <v>277</v>
-      </c>
-      <c r="C42" s="193"/>
-      <c r="D42" s="193"/>
-      <c r="E42" s="193"/>
-      <c r="F42" s="193"/>
-      <c r="G42" s="193"/>
-      <c r="H42" s="193"/>
-      <c r="I42" s="193"/>
-      <c r="J42" s="193"/>
-      <c r="K42" s="193"/>
+      <c r="B42" s="205" t="s">
+        <v>275</v>
+      </c>
+      <c r="C42" s="205"/>
+      <c r="D42" s="205"/>
+      <c r="E42" s="205"/>
+      <c r="F42" s="205"/>
+      <c r="G42" s="205"/>
+      <c r="H42" s="205"/>
+      <c r="I42" s="205"/>
+      <c r="J42" s="205"/>
+      <c r="K42" s="205"/>
       <c r="L42" s="80"/>
       <c r="M42" s="80"/>
       <c r="N42" s="80"/>
       <c r="O42" s="80"/>
     </row>
     <row r="43" spans="2:15" ht="46" customHeight="1">
-      <c r="B43" s="194" t="s">
-        <v>278</v>
-      </c>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="194"/>
-      <c r="J43" s="194"/>
-      <c r="K43" s="194"/>
+      <c r="B43" s="195" t="s">
+        <v>276</v>
+      </c>
+      <c r="C43" s="195"/>
+      <c r="D43" s="195"/>
+      <c r="E43" s="195"/>
+      <c r="F43" s="195"/>
+      <c r="G43" s="195"/>
+      <c r="H43" s="195"/>
+      <c r="I43" s="195"/>
+      <c r="J43" s="195"/>
+      <c r="K43" s="195"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
       <c r="O43" s="78"/>
     </row>
     <row r="44" spans="2:15" ht="39" customHeight="1">
-      <c r="B44" s="194" t="s">
-        <v>270</v>
-      </c>
-      <c r="C44" s="194"/>
-      <c r="D44" s="194"/>
-      <c r="E44" s="194"/>
-      <c r="F44" s="194"/>
-      <c r="G44" s="194"/>
-      <c r="H44" s="194"/>
-      <c r="I44" s="194"/>
-      <c r="J44" s="194"/>
-      <c r="K44" s="194"/>
+      <c r="B44" s="195" t="s">
+        <v>268</v>
+      </c>
+      <c r="C44" s="195"/>
+      <c r="D44" s="195"/>
+      <c r="E44" s="195"/>
+      <c r="F44" s="195"/>
+      <c r="G44" s="195"/>
+      <c r="H44" s="195"/>
+      <c r="I44" s="195"/>
+      <c r="J44" s="195"/>
+      <c r="K44" s="195"/>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
     </row>
     <row r="45" spans="2:15" ht="56" customHeight="1">
-      <c r="B45" s="194" t="s">
-        <v>279</v>
-      </c>
-      <c r="C45" s="194"/>
-      <c r="D45" s="194"/>
-      <c r="E45" s="194"/>
-      <c r="F45" s="194"/>
-      <c r="G45" s="194"/>
-      <c r="H45" s="194"/>
-      <c r="I45" s="194"/>
-      <c r="J45" s="194"/>
-      <c r="K45" s="194"/>
+      <c r="B45" s="195" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="195"/>
+      <c r="D45" s="195"/>
+      <c r="E45" s="195"/>
+      <c r="F45" s="195"/>
+      <c r="G45" s="195"/>
+      <c r="H45" s="195"/>
+      <c r="I45" s="195"/>
+      <c r="J45" s="195"/>
+      <c r="K45" s="195"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
     </row>
     <row r="46" spans="2:15" ht="84" customHeight="1">
-      <c r="B46" s="194" t="s">
-        <v>282</v>
-      </c>
-      <c r="C46" s="194"/>
-      <c r="D46" s="194"/>
-      <c r="E46" s="194"/>
-      <c r="F46" s="194"/>
-      <c r="G46" s="194"/>
-      <c r="H46" s="194"/>
-      <c r="I46" s="194"/>
-      <c r="J46" s="194"/>
-      <c r="K46" s="194"/>
+      <c r="B46" s="195" t="s">
+        <v>280</v>
+      </c>
+      <c r="C46" s="195"/>
+      <c r="D46" s="195"/>
+      <c r="E46" s="195"/>
+      <c r="F46" s="195"/>
+      <c r="G46" s="195"/>
+      <c r="H46" s="195"/>
+      <c r="I46" s="195"/>
+      <c r="J46" s="195"/>
+      <c r="K46" s="195"/>
       <c r="L46" s="79"/>
       <c r="M46" s="79"/>
       <c r="N46" s="79"/>
       <c r="O46" s="79"/>
     </row>
     <row r="47" spans="2:15" ht="99" customHeight="1">
-      <c r="B47" s="202" t="s">
-        <v>280</v>
-      </c>
-      <c r="C47" s="202"/>
-      <c r="D47" s="202"/>
-      <c r="E47" s="202"/>
-      <c r="F47" s="202"/>
-      <c r="G47" s="202"/>
-      <c r="H47" s="202"/>
-      <c r="I47" s="202"/>
-      <c r="J47" s="202"/>
-      <c r="K47" s="202"/>
+      <c r="B47" s="201" t="s">
+        <v>278</v>
+      </c>
+      <c r="C47" s="201"/>
+      <c r="D47" s="201"/>
+      <c r="E47" s="201"/>
+      <c r="F47" s="201"/>
+      <c r="G47" s="201"/>
+      <c r="H47" s="201"/>
+      <c r="I47" s="201"/>
+      <c r="J47" s="201"/>
+      <c r="K47" s="201"/>
       <c r="L47" s="186"/>
       <c r="M47" s="186"/>
       <c r="N47" s="186"/>
@@ -3281,39 +3281,47 @@
     </row>
     <row r="48" spans="2:15" ht="90" customHeight="1">
       <c r="B48" s="203" t="s">
-        <v>281</v>
-      </c>
-      <c r="C48" s="199"/>
-      <c r="D48" s="199"/>
-      <c r="E48" s="199"/>
-      <c r="F48" s="199"/>
-      <c r="G48" s="199"/>
-      <c r="H48" s="199"/>
-      <c r="I48" s="199"/>
-      <c r="J48" s="199"/>
-      <c r="K48" s="199"/>
+        <v>279</v>
+      </c>
+      <c r="C48" s="204"/>
+      <c r="D48" s="204"/>
+      <c r="E48" s="204"/>
+      <c r="F48" s="204"/>
+      <c r="G48" s="204"/>
+      <c r="H48" s="204"/>
+      <c r="I48" s="204"/>
+      <c r="J48" s="204"/>
+      <c r="K48" s="204"/>
     </row>
     <row r="49" spans="2:11" ht="33" customHeight="1">
-      <c r="B49" s="194" t="s">
+      <c r="B49" s="195" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="194"/>
-      <c r="D49" s="194"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="194"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="195"/>
+      <c r="E49" s="195"/>
+      <c r="F49" s="195"/>
+      <c r="G49" s="195"/>
+      <c r="H49" s="195"/>
+      <c r="I49" s="195"/>
+      <c r="J49" s="195"/>
+      <c r="K49" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B43:K43"/>
-    <mergeCell ref="B44:K44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:K28"/>
+    <mergeCell ref="D18:K18"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="D22:K22"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="D11:K11"/>
+    <mergeCell ref="D12:K12"/>
+    <mergeCell ref="D13:K13"/>
+    <mergeCell ref="D14:K14"/>
+    <mergeCell ref="D17:K17"/>
     <mergeCell ref="D15:K15"/>
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D29:K29"/>
@@ -3330,22 +3338,14 @@
     <mergeCell ref="D26:K26"/>
     <mergeCell ref="D27:K27"/>
     <mergeCell ref="B48:K48"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B43:K43"/>
+    <mergeCell ref="B44:K44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:K28"/>
     <mergeCell ref="B42:K42"/>
     <mergeCell ref="B45:K45"/>
-    <mergeCell ref="D18:K18"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B34:K34"/>
     <mergeCell ref="B35:K35"/>
-    <mergeCell ref="D22:K22"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="D11:K11"/>
-    <mergeCell ref="D12:K12"/>
-    <mergeCell ref="D13:K13"/>
-    <mergeCell ref="D14:K14"/>
-    <mergeCell ref="D17:K17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3410,87 +3410,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -5645,12 +5645,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -5659,13 +5659,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5682,13 +5682,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -5705,13 +5705,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5728,13 +5728,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -5920,15 +5920,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -5942,6 +5933,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6006,87 +6006,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -8193,12 +8193,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -8207,13 +8207,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -8230,13 +8230,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -8253,13 +8253,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -8276,13 +8276,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -8452,15 +8452,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -8474,6 +8465,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8538,87 +8538,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -10772,12 +10772,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="H17" s="61"/>
@@ -10796,13 +10796,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -10819,13 +10819,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -10842,13 +10842,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -10865,13 +10865,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -11041,15 +11041,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -11063,6 +11054,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11127,87 +11127,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -13363,24 +13363,24 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="216" t="s">
+      <c r="C17" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -13397,13 +13397,13 @@
       <c r="B18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="214" t="s">
+      <c r="C18" s="209" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -13420,13 +13420,13 @@
       <c r="B19" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
+      <c r="C19" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -13443,13 +13443,13 @@
       <c r="B20" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
+      <c r="C20" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -13619,15 +13619,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -13641,6 +13632,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13705,87 +13705,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -15940,12 +15940,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -15954,13 +15954,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -15977,13 +15977,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -16000,13 +16000,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -16023,13 +16023,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -16215,15 +16215,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -16237,6 +16228,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16308,80 +16308,80 @@
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -18487,12 +18487,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -18501,13 +18501,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -18524,13 +18524,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -18547,13 +18547,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -18570,13 +18570,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18746,6 +18746,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="C18:G18"/>
     <mergeCell ref="C19:G19"/>
@@ -18762,11 +18767,6 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18830,87 +18830,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -21065,13 +21065,13 @@
       <c r="B17" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="216" t="s">
+      <c r="C17" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="216"/>
-      <c r="E17" s="216"/>
-      <c r="F17" s="216"/>
-      <c r="G17" s="216"/>
+      <c r="D17" s="211"/>
+      <c r="E17" s="211"/>
+      <c r="F17" s="211"/>
+      <c r="G17" s="211"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -21088,13 +21088,13 @@
       <c r="B18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="214" t="s">
+      <c r="C18" s="209" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="214"/>
-      <c r="E18" s="214"/>
-      <c r="F18" s="214"/>
-      <c r="G18" s="214"/>
+      <c r="D18" s="209"/>
+      <c r="E18" s="209"/>
+      <c r="F18" s="209"/>
+      <c r="G18" s="209"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -21111,13 +21111,13 @@
       <c r="B19" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D19" s="215"/>
-      <c r="E19" s="215"/>
-      <c r="F19" s="215"/>
-      <c r="G19" s="215"/>
+      <c r="C19" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -21134,13 +21134,13 @@
       <c r="B20" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
+      <c r="C20" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -21294,14 +21294,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -21314,6 +21306,14 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21378,87 +21378,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="13">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -23612,69 +23612,72 @@
     <row r="16" spans="1:47" ht="13">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1"/>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
     </row>
     <row r="21" spans="2:7" ht="28">
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AC2"/>
+    <mergeCell ref="AD2:AF2"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -23684,14 +23687,11 @@
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AC2"/>
-    <mergeCell ref="AD2:AF2"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23735,44 +23735,44 @@
     </row>
     <row r="3" spans="2:19" ht="14" thickBot="1"/>
     <row r="4" spans="2:19" ht="15.75" customHeight="1">
-      <c r="F4" s="224" t="s">
+      <c r="F4" s="248" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="225"/>
-      <c r="H4" s="225"/>
-      <c r="I4" s="225"/>
-      <c r="J4" s="225"/>
-      <c r="K4" s="225"/>
-      <c r="L4" s="225"/>
-      <c r="M4" s="225"/>
-      <c r="N4" s="226"/>
-      <c r="P4" s="238" t="s">
+      <c r="G4" s="249"/>
+      <c r="H4" s="249"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="249"/>
+      <c r="N4" s="250"/>
+      <c r="P4" s="225" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="239"/>
+      <c r="Q4" s="226"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B5" s="222" t="s">
+      <c r="B5" s="231" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="222"/>
-      <c r="D5" s="223"/>
+      <c r="C5" s="231"/>
+      <c r="D5" s="233"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="228" t="s">
+      <c r="F5" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="229"/>
-      <c r="H5" s="229"/>
-      <c r="I5" s="243" t="s">
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
+      <c r="I5" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="244"/>
-      <c r="K5" s="245"/>
-      <c r="L5" s="246" t="s">
+      <c r="J5" s="235"/>
+      <c r="K5" s="236"/>
+      <c r="L5" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="229"/>
-      <c r="N5" s="247"/>
+      <c r="M5" s="238"/>
+      <c r="N5" s="239"/>
       <c r="P5" s="103" t="s">
         <v>69</v>
       </c>
@@ -24301,8 +24301,8 @@
         <f>'Global Footprints'!AU13*$Q$7*$Q$5</f>
         <v>3072094861.660079</v>
       </c>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="213"/>
+      <c r="Q16" s="208"/>
+      <c r="R16" s="208"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" customHeight="1">
@@ -24417,42 +24417,42 @@
       <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F20" s="224" t="s">
+      <c r="F20" s="248" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="225"/>
-      <c r="H20" s="225"/>
-      <c r="I20" s="225"/>
-      <c r="J20" s="225"/>
-      <c r="K20" s="225"/>
-      <c r="L20" s="225"/>
-      <c r="M20" s="225"/>
-      <c r="N20" s="226"/>
+      <c r="G20" s="249"/>
+      <c r="H20" s="249"/>
+      <c r="I20" s="249"/>
+      <c r="J20" s="249"/>
+      <c r="K20" s="249"/>
+      <c r="L20" s="249"/>
+      <c r="M20" s="249"/>
+      <c r="N20" s="250"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B21" s="222" t="s">
+      <c r="B21" s="231" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="222"/>
-      <c r="D21" s="223"/>
-      <c r="F21" s="228" t="s">
+      <c r="C21" s="231"/>
+      <c r="D21" s="233"/>
+      <c r="F21" s="240" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="229"/>
-      <c r="H21" s="229"/>
-      <c r="I21" s="243" t="s">
+      <c r="G21" s="238"/>
+      <c r="H21" s="238"/>
+      <c r="I21" s="234" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="244"/>
-      <c r="K21" s="245"/>
-      <c r="L21" s="246" t="s">
+      <c r="J21" s="235"/>
+      <c r="K21" s="236"/>
+      <c r="L21" s="237" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="229"/>
-      <c r="N21" s="247"/>
+      <c r="M21" s="238"/>
+      <c r="N21" s="239"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
@@ -25153,17 +25153,17 @@
       <c r="W35" s="60"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F36" s="240" t="s">
+      <c r="F36" s="227" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="241"/>
-      <c r="H36" s="241"/>
-      <c r="I36" s="241"/>
-      <c r="J36" s="241"/>
-      <c r="K36" s="241"/>
-      <c r="L36" s="241"/>
-      <c r="M36" s="241"/>
-      <c r="N36" s="242"/>
+      <c r="G36" s="228"/>
+      <c r="H36" s="228"/>
+      <c r="I36" s="228"/>
+      <c r="J36" s="228"/>
+      <c r="K36" s="228"/>
+      <c r="L36" s="228"/>
+      <c r="M36" s="228"/>
+      <c r="N36" s="229"/>
       <c r="O36" s="64"/>
       <c r="R36" s="64"/>
       <c r="T36" s="5"/>
@@ -25172,21 +25172,21 @@
       <c r="W36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F37" s="235" t="s">
+      <c r="F37" s="230" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="222"/>
-      <c r="H37" s="222"/>
-      <c r="I37" s="227" t="s">
+      <c r="G37" s="231"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="232" t="s">
         <v>184</v>
       </c>
-      <c r="J37" s="222"/>
-      <c r="K37" s="222"/>
-      <c r="L37" s="227" t="s">
+      <c r="J37" s="231"/>
+      <c r="K37" s="231"/>
+      <c r="L37" s="232" t="s">
         <v>185</v>
       </c>
-      <c r="M37" s="222"/>
-      <c r="N37" s="223"/>
+      <c r="M37" s="231"/>
+      <c r="N37" s="233"/>
       <c r="O37" s="64"/>
       <c r="R37" s="64"/>
       <c r="T37" s="5"/>
@@ -25291,17 +25291,17 @@
       <c r="W41" s="60"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F42" s="240" t="s">
+      <c r="F42" s="227" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="241"/>
-      <c r="H42" s="241"/>
-      <c r="I42" s="241"/>
-      <c r="J42" s="241"/>
-      <c r="K42" s="241"/>
-      <c r="L42" s="241"/>
-      <c r="M42" s="241"/>
-      <c r="N42" s="242"/>
+      <c r="G42" s="228"/>
+      <c r="H42" s="228"/>
+      <c r="I42" s="228"/>
+      <c r="J42" s="228"/>
+      <c r="K42" s="228"/>
+      <c r="L42" s="228"/>
+      <c r="M42" s="228"/>
+      <c r="N42" s="229"/>
       <c r="O42" s="64"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="64"/>
@@ -25311,21 +25311,21 @@
       <c r="W42" s="60"/>
     </row>
     <row r="43" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F43" s="235" t="s">
+      <c r="F43" s="230" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="222"/>
-      <c r="H43" s="222"/>
-      <c r="I43" s="227" t="s">
+      <c r="G43" s="231"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="J43" s="222"/>
-      <c r="K43" s="222"/>
-      <c r="L43" s="227" t="s">
+      <c r="J43" s="231"/>
+      <c r="K43" s="231"/>
+      <c r="L43" s="232" t="s">
         <v>199</v>
       </c>
-      <c r="M43" s="222"/>
-      <c r="N43" s="223"/>
+      <c r="M43" s="231"/>
+      <c r="N43" s="233"/>
       <c r="O43" s="64"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="64"/>
@@ -25335,18 +25335,18 @@
       <c r="W43" s="60"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F44" s="236" t="s">
+      <c r="F44" s="245" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="237"/>
+      <c r="G44" s="246"/>
       <c r="H44" s="116">
         <f>G39*1000000</f>
         <v>34271985878260.867</v>
       </c>
-      <c r="I44" s="230" t="s">
+      <c r="I44" s="241" t="s">
         <v>195</v>
       </c>
-      <c r="J44" s="231"/>
+      <c r="J44" s="242"/>
       <c r="K44" s="117">
         <f>J39/1056</f>
         <v>751141372.67813277</v>
@@ -25368,18 +25368,18 @@
       <c r="W44" s="60"/>
     </row>
     <row r="45" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F45" s="236" t="s">
+      <c r="F45" s="245" t="s">
         <v>190</v>
       </c>
-      <c r="G45" s="237"/>
+      <c r="G45" s="246"/>
       <c r="H45" s="116">
         <f>G39*1000</f>
         <v>34271985878.260864</v>
       </c>
-      <c r="I45" s="230" t="s">
+      <c r="I45" s="241" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="231"/>
+      <c r="J45" s="242"/>
       <c r="K45" s="117">
         <f>J39/833</f>
         <v>952227238.35307097</v>
@@ -25401,18 +25401,18 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="F46" s="236" t="s">
+      <c r="F46" s="245" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="237"/>
+      <c r="G46" s="246"/>
       <c r="H46" s="116">
         <f>G39</f>
         <v>34271985.878260866</v>
       </c>
-      <c r="I46" s="230" t="s">
+      <c r="I46" s="241" t="s">
         <v>262</v>
       </c>
-      <c r="J46" s="231"/>
+      <c r="J46" s="242"/>
       <c r="K46" s="117">
         <f>J39/287</f>
         <v>2763781496.6833038</v>
@@ -25433,18 +25433,18 @@
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F47" s="232" t="s">
+      <c r="F47" s="244" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="231"/>
+      <c r="G47" s="242"/>
       <c r="H47" s="123">
         <f>1/(0.000403)*G39</f>
         <v>85042148581.292465</v>
       </c>
-      <c r="I47" s="230" t="s">
+      <c r="I47" s="241" t="s">
         <v>194</v>
       </c>
-      <c r="J47" s="231"/>
+      <c r="J47" s="242"/>
       <c r="K47" s="117">
         <f>J39/200</f>
         <v>3966026447.740541</v>
@@ -25465,18 +25465,18 @@
       <c r="V47" s="64"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F48" s="232" t="s">
+      <c r="F48" s="244" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="231"/>
+      <c r="G48" s="242"/>
       <c r="H48" s="123">
         <f>H44/8887</f>
         <v>3856417900.1081204</v>
       </c>
-      <c r="I48" s="230" t="s">
+      <c r="I48" s="241" t="s">
         <v>197</v>
       </c>
-      <c r="J48" s="231"/>
+      <c r="J48" s="242"/>
       <c r="K48" s="117">
         <f>J39/533</f>
         <v>1488190036.6756251</v>
@@ -25497,18 +25497,18 @@
       <c r="V48" s="64"/>
     </row>
     <row r="49" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F49" s="232" t="s">
+      <c r="F49" s="244" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="231"/>
+      <c r="G49" s="242"/>
       <c r="H49" s="123">
         <f>(1/8.67)*H46</f>
         <v>3952939.5476656132</v>
       </c>
-      <c r="I49" s="230" t="s">
+      <c r="I49" s="241" t="s">
         <v>198</v>
       </c>
-      <c r="J49" s="231"/>
+      <c r="J49" s="242"/>
       <c r="K49" s="117">
         <f>J39/296</f>
         <v>2679747599.8246899</v>
@@ -25529,18 +25529,18 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F50" s="232" t="s">
+      <c r="F50" s="244" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="231"/>
+      <c r="G50" s="242"/>
       <c r="H50" s="123">
         <f>(1/0.43)*(H46)</f>
         <v>79702292.740141556</v>
       </c>
-      <c r="I50" s="230" t="s">
+      <c r="I50" s="241" t="s">
         <v>193</v>
       </c>
-      <c r="J50" s="231"/>
+      <c r="J50" s="242"/>
       <c r="K50" s="117">
         <f>J39/15415</f>
         <v>51456716.804937281</v>
@@ -25556,18 +25556,18 @@
       <c r="V50" s="64"/>
     </row>
     <row r="51" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F51" s="232" t="s">
+      <c r="F51" s="244" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="231"/>
+      <c r="G51" s="242"/>
       <c r="H51" s="123">
         <f>(1/75.54)*H46</f>
         <v>453693.22052238369</v>
       </c>
-      <c r="I51" s="231" t="s">
+      <c r="I51" s="242" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="231"/>
+      <c r="J51" s="242"/>
       <c r="K51" s="117">
         <f>J39/2500000</f>
         <v>317282.11581924325</v>
@@ -25583,18 +25583,18 @@
       <c r="V51" s="64"/>
     </row>
     <row r="52" spans="6:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F52" s="233" t="s">
+      <c r="F52" s="251" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="234"/>
+      <c r="G52" s="243"/>
       <c r="H52" s="124">
         <f>1/(0.06)*H46</f>
         <v>571199764.63768113</v>
       </c>
-      <c r="I52" s="234" t="s">
+      <c r="I52" s="243" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="234"/>
+      <c r="J52" s="243"/>
       <c r="K52" s="120">
         <f>J39/(1000*100000)</f>
         <v>7932.0528954810816</v>
@@ -25618,17 +25618,17 @@
       <c r="V53" s="64"/>
     </row>
     <row r="54" spans="6:22" ht="23" customHeight="1">
-      <c r="F54" s="221" t="s">
-        <v>284</v>
-      </c>
-      <c r="G54" s="221"/>
-      <c r="H54" s="221"/>
-      <c r="I54" s="221"/>
-      <c r="J54" s="221"/>
-      <c r="K54" s="221"/>
-      <c r="L54" s="221"/>
-      <c r="M54" s="221"/>
-      <c r="N54" s="221"/>
+      <c r="F54" s="247" t="s">
+        <v>282</v>
+      </c>
+      <c r="G54" s="247"/>
+      <c r="H54" s="247"/>
+      <c r="I54" s="247"/>
+      <c r="J54" s="247"/>
+      <c r="K54" s="247"/>
+      <c r="L54" s="247"/>
+      <c r="M54" s="247"/>
+      <c r="N54" s="247"/>
     </row>
     <row r="55" spans="6:22" ht="15.75" customHeight="1"/>
     <row r="56" spans="6:22" ht="15.75" customHeight="1"/>
@@ -25655,29 +25655,6 @@
     <row r="77" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="F42:N42"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="F36:N36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="L37:N37"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="I50:J50"/>
-    <mergeCell ref="I51:J51"/>
-    <mergeCell ref="I52:J52"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
     <mergeCell ref="F54:N54"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B21:D21"/>
@@ -25694,6 +25671,29 @@
     <mergeCell ref="I47:J47"/>
     <mergeCell ref="I48:J48"/>
     <mergeCell ref="I49:J49"/>
+    <mergeCell ref="I50:J50"/>
+    <mergeCell ref="I51:J51"/>
+    <mergeCell ref="I52:J52"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="F42:N42"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="F36:N36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="L37:N37"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -25767,89 +25767,89 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="125"/>
-      <c r="B3" s="248" t="s">
+      <c r="B3" s="266" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="249"/>
-      <c r="D3" s="249"/>
-      <c r="E3" s="249"/>
-      <c r="F3" s="249"/>
-      <c r="G3" s="249"/>
-      <c r="H3" s="249"/>
-      <c r="I3" s="249"/>
-      <c r="J3" s="250"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
+      <c r="E3" s="267"/>
+      <c r="F3" s="267"/>
+      <c r="G3" s="267"/>
+      <c r="H3" s="267"/>
+      <c r="I3" s="267"/>
+      <c r="J3" s="268"/>
       <c r="K3" s="125"/>
-      <c r="L3" s="254" t="s">
+      <c r="L3" s="252" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="255"/>
-      <c r="N3" s="255"/>
-      <c r="O3" s="255"/>
-      <c r="P3" s="255"/>
-      <c r="Q3" s="255"/>
-      <c r="R3" s="256"/>
+      <c r="M3" s="253"/>
+      <c r="N3" s="253"/>
+      <c r="O3" s="253"/>
+      <c r="P3" s="253"/>
+      <c r="Q3" s="253"/>
+      <c r="R3" s="254"/>
       <c r="S3" s="163"/>
-      <c r="T3" s="263" t="s">
+      <c r="T3" s="261" t="s">
         <v>248</v>
       </c>
-      <c r="U3" s="264"/>
-      <c r="V3" s="264"/>
-      <c r="W3" s="264"/>
-      <c r="X3" s="264"/>
-      <c r="Y3" s="265"/>
+      <c r="U3" s="262"/>
+      <c r="V3" s="262"/>
+      <c r="W3" s="262"/>
+      <c r="X3" s="262"/>
+      <c r="Y3" s="263"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="125"/>
-      <c r="B4" s="253" t="s">
+      <c r="B4" s="270" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="265" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="252"/>
-      <c r="E4" s="252" t="s">
+      <c r="D4" s="265"/>
+      <c r="E4" s="265" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="252"/>
-      <c r="G4" s="252" t="s">
+      <c r="F4" s="265"/>
+      <c r="G4" s="265" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="252"/>
-      <c r="I4" s="227" t="s">
+      <c r="H4" s="265"/>
+      <c r="I4" s="232" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="223"/>
+      <c r="J4" s="233"/>
       <c r="K4" s="125"/>
-      <c r="L4" s="257" t="s">
+      <c r="L4" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="252" t="s">
+      <c r="M4" s="265" t="s">
         <v>236</v>
       </c>
-      <c r="N4" s="252"/>
-      <c r="O4" s="252" t="s">
+      <c r="N4" s="265"/>
+      <c r="O4" s="265" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="252"/>
-      <c r="Q4" s="227" t="s">
+      <c r="P4" s="265"/>
+      <c r="Q4" s="232" t="s">
         <v>238</v>
       </c>
-      <c r="R4" s="260"/>
+      <c r="R4" s="264"/>
       <c r="S4" s="126"/>
       <c r="T4" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="U4" s="258" t="s">
+      <c r="U4" s="257" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="258"/>
-      <c r="W4" s="258"/>
-      <c r="X4" s="258"/>
-      <c r="Y4" s="259"/>
+      <c r="V4" s="257"/>
+      <c r="W4" s="257"/>
+      <c r="X4" s="257"/>
+      <c r="Y4" s="258"/>
     </row>
     <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="125"/>
-      <c r="B5" s="253"/>
+      <c r="B5" s="270"/>
       <c r="C5" s="126" t="s">
         <v>225</v>
       </c>
@@ -25875,7 +25875,7 @@
         <v>92</v>
       </c>
       <c r="K5" s="125"/>
-      <c r="L5" s="257"/>
+      <c r="L5" s="255"/>
       <c r="M5" s="163" t="s">
         <v>182</v>
       </c>
@@ -25898,13 +25898,13 @@
       <c r="T5" s="159" t="s">
         <v>242</v>
       </c>
-      <c r="U5" s="258" t="s">
+      <c r="U5" s="257" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="258"/>
-      <c r="W5" s="258"/>
-      <c r="X5" s="258"/>
-      <c r="Y5" s="259"/>
+      <c r="V5" s="257"/>
+      <c r="W5" s="257"/>
+      <c r="X5" s="257"/>
+      <c r="Y5" s="258"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="125"/>
@@ -25973,13 +25973,13 @@
       <c r="T6" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="258" t="s">
+      <c r="U6" s="257" t="s">
         <v>244</v>
       </c>
-      <c r="V6" s="258"/>
-      <c r="W6" s="258"/>
-      <c r="X6" s="258"/>
-      <c r="Y6" s="259"/>
+      <c r="V6" s="257"/>
+      <c r="W6" s="257"/>
+      <c r="X6" s="257"/>
+      <c r="Y6" s="258"/>
     </row>
     <row r="7" spans="1:25" ht="14">
       <c r="A7" s="125"/>
@@ -26048,13 +26048,13 @@
       <c r="T7" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="258" t="s">
+      <c r="U7" s="257" t="s">
         <v>245</v>
       </c>
-      <c r="V7" s="258"/>
-      <c r="W7" s="258"/>
-      <c r="X7" s="258"/>
-      <c r="Y7" s="259"/>
+      <c r="V7" s="257"/>
+      <c r="W7" s="257"/>
+      <c r="X7" s="257"/>
+      <c r="Y7" s="258"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="125"/>
@@ -26123,13 +26123,13 @@
       <c r="T8" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="U8" s="261" t="s">
+      <c r="U8" s="259" t="s">
         <v>247</v>
       </c>
-      <c r="V8" s="261"/>
-      <c r="W8" s="261"/>
-      <c r="X8" s="261"/>
-      <c r="Y8" s="262"/>
+      <c r="V8" s="259"/>
+      <c r="W8" s="259"/>
+      <c r="X8" s="259"/>
+      <c r="Y8" s="260"/>
     </row>
     <row r="9" spans="1:25" ht="14">
       <c r="A9" s="125"/>
@@ -27284,13 +27284,13 @@
       <c r="X26" s="102"/>
     </row>
     <row r="27" spans="1:27" ht="16">
-      <c r="B27" s="251" t="s">
+      <c r="B27" s="269" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="251"/>
-      <c r="D27" s="251"/>
-      <c r="E27" s="251"/>
-      <c r="F27" s="251"/>
+      <c r="C27" s="269"/>
+      <c r="D27" s="269"/>
+      <c r="E27" s="269"/>
+      <c r="F27" s="269"/>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="R27" s="150"/>
@@ -27345,19 +27345,19 @@
     </row>
     <row r="32" spans="1:27" ht="16">
       <c r="B32" s="125"/>
-      <c r="C32" s="254" t="s">
+      <c r="C32" s="252" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="255"/>
-      <c r="E32" s="255"/>
-      <c r="F32" s="255"/>
-      <c r="G32" s="255"/>
-      <c r="H32" s="255"/>
-      <c r="I32" s="255"/>
-      <c r="J32" s="255"/>
-      <c r="K32" s="255"/>
-      <c r="L32" s="255"/>
-      <c r="M32" s="256"/>
+      <c r="D32" s="253"/>
+      <c r="E32" s="253"/>
+      <c r="F32" s="253"/>
+      <c r="G32" s="253"/>
+      <c r="H32" s="253"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="253"/>
+      <c r="M32" s="254"/>
       <c r="N32" s="151"/>
       <c r="O32" s="151"/>
       <c r="P32"/>
@@ -27375,31 +27375,31 @@
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="125"/>
-      <c r="C33" s="257" t="s">
+      <c r="C33" s="255" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="230" t="s">
+      <c r="D33" s="241" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="231"/>
-      <c r="F33" s="230" t="s">
+      <c r="E33" s="242"/>
+      <c r="F33" s="241" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="231"/>
-      <c r="H33" s="230" t="s">
+      <c r="G33" s="242"/>
+      <c r="H33" s="241" t="s">
         <v>194</v>
       </c>
-      <c r="I33" s="231"/>
-      <c r="J33" s="230" t="s">
+      <c r="I33" s="242"/>
+      <c r="J33" s="241" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="231"/>
-      <c r="L33" s="230" t="s">
+      <c r="K33" s="242"/>
+      <c r="L33" s="241" t="s">
         <v>198</v>
       </c>
-      <c r="M33" s="266"/>
-      <c r="N33" s="230"/>
-      <c r="O33" s="231"/>
+      <c r="M33" s="256"/>
+      <c r="N33" s="241"/>
+      <c r="O33" s="242"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -27415,7 +27415,7 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="125"/>
-      <c r="C34" s="257"/>
+      <c r="C34" s="255"/>
       <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
@@ -28538,6 +28538,24 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="U6:Y6"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="U7:Y7"/>
+    <mergeCell ref="U8:Y8"/>
+    <mergeCell ref="T3:Y3"/>
+    <mergeCell ref="U4:Y4"/>
+    <mergeCell ref="U5:Y5"/>
     <mergeCell ref="N33:O33"/>
     <mergeCell ref="C32:M32"/>
     <mergeCell ref="C33:C34"/>
@@ -28546,24 +28564,6 @@
     <mergeCell ref="H33:I33"/>
     <mergeCell ref="J33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="U7:Y7"/>
-    <mergeCell ref="U8:Y8"/>
-    <mergeCell ref="T3:Y3"/>
-    <mergeCell ref="U4:Y4"/>
-    <mergeCell ref="U5:Y5"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="U6:Y6"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28628,87 +28628,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="207" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="218" t="s">
         <v>145</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="207" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="218" t="s">
         <v>146</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="207" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -30817,37 +30817,37 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="47" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -30864,13 +30864,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -30887,13 +30887,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -31153,19 +31153,6 @@
     <row r="89" ht="13"/>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="AG16:AI16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
     <mergeCell ref="AA2:AC2"/>
     <mergeCell ref="AD2:AF2"/>
@@ -31175,6 +31162,19 @@
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG16:AI16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31193,136 +31193,136 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="16">
-      <c r="B2" s="281" t="s">
+      <c r="B2" s="271" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="271"/>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+    </row>
+    <row r="3" spans="2:9" ht="124" customHeight="1">
+      <c r="B3" s="195" t="s">
         <v>286</v>
       </c>
-      <c r="C2" s="281"/>
-      <c r="D2" s="281"/>
-      <c r="E2" s="281"/>
-      <c r="F2" s="281"/>
-      <c r="G2" s="281"/>
-      <c r="H2" s="281"/>
-      <c r="I2" s="281"/>
-    </row>
-    <row r="3" spans="2:9" ht="124" customHeight="1">
-      <c r="B3" s="194" t="s">
-        <v>288</v>
-      </c>
-      <c r="C3" s="280"/>
-      <c r="D3" s="280"/>
-      <c r="E3" s="280"/>
-      <c r="F3" s="280"/>
-      <c r="G3" s="280"/>
-      <c r="H3" s="280"/>
-      <c r="I3" s="280"/>
+      <c r="C3" s="272"/>
+      <c r="D3" s="272"/>
+      <c r="E3" s="272"/>
+      <c r="F3" s="272"/>
+      <c r="G3" s="272"/>
+      <c r="H3" s="272"/>
+      <c r="I3" s="272"/>
     </row>
     <row r="4" spans="2:9" s="192" customFormat="1" ht="7" customHeight="1">
       <c r="B4" s="191"/>
-      <c r="C4" s="282"/>
-      <c r="D4" s="282"/>
-      <c r="E4" s="282"/>
-      <c r="F4" s="282"/>
-      <c r="G4" s="282"/>
-      <c r="H4" s="282"/>
-      <c r="I4" s="282"/>
+      <c r="C4" s="194"/>
+      <c r="D4" s="194"/>
+      <c r="E4" s="194"/>
+      <c r="F4" s="194"/>
+      <c r="G4" s="194"/>
+      <c r="H4" s="194"/>
+      <c r="I4" s="194"/>
     </row>
     <row r="5" spans="2:9" s="192" customFormat="1" ht="70" customHeight="1">
-      <c r="B5" s="194" t="s">
-        <v>304</v>
-      </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194"/>
+      <c r="B5" s="195" t="s">
+        <v>302</v>
+      </c>
+      <c r="C5" s="195"/>
+      <c r="D5" s="195"/>
+      <c r="E5" s="195"/>
+      <c r="F5" s="195"/>
+      <c r="G5" s="195"/>
+      <c r="H5" s="195"/>
+      <c r="I5" s="195"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="85" customHeight="1">
-      <c r="B7" s="194" t="s">
+      <c r="B7" s="195" t="s">
+        <v>294</v>
+      </c>
+      <c r="C7" s="272"/>
+      <c r="D7" s="272"/>
+      <c r="E7" s="272"/>
+      <c r="F7" s="272"/>
+      <c r="G7" s="272"/>
+      <c r="H7" s="272"/>
+      <c r="I7" s="272"/>
+    </row>
+    <row r="9" spans="2:9" ht="16">
+      <c r="B9" s="271" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="271"/>
+      <c r="D9" s="271"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="271"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="271"/>
+      <c r="I9" s="271"/>
+    </row>
+    <row r="10" spans="2:9" ht="33" customHeight="1">
+      <c r="B10" s="195" t="s">
         <v>296</v>
       </c>
-      <c r="C7" s="280"/>
-      <c r="D7" s="280"/>
-      <c r="E7" s="280"/>
-      <c r="F7" s="280"/>
-      <c r="G7" s="280"/>
-      <c r="H7" s="280"/>
-      <c r="I7" s="280"/>
-    </row>
-    <row r="9" spans="2:9" ht="16">
-      <c r="B9" s="281" t="s">
-        <v>297</v>
-      </c>
-      <c r="C9" s="281"/>
-      <c r="D9" s="281"/>
-      <c r="E9" s="281"/>
-      <c r="F9" s="281"/>
-      <c r="G9" s="281"/>
-      <c r="H9" s="281"/>
-      <c r="I9" s="281"/>
-    </row>
-    <row r="10" spans="2:9" ht="33" customHeight="1">
-      <c r="B10" s="194" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="280"/>
-      <c r="D10" s="280"/>
-      <c r="E10" s="280"/>
-      <c r="F10" s="280"/>
-      <c r="G10" s="280"/>
-      <c r="H10" s="280"/>
-      <c r="I10" s="280"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
+      <c r="G10" s="272"/>
+      <c r="H10" s="272"/>
+      <c r="I10" s="272"/>
     </row>
     <row r="11" spans="2:9" s="192" customFormat="1" ht="6" customHeight="1">
       <c r="B11" s="191"/>
-      <c r="C11" s="282"/>
-      <c r="D11" s="282"/>
-      <c r="E11" s="282"/>
-      <c r="F11" s="282"/>
-      <c r="G11" s="282"/>
-      <c r="H11" s="282"/>
-      <c r="I11" s="282"/>
+      <c r="C11" s="194"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="194"/>
     </row>
     <row r="12" spans="2:9" ht="74" customHeight="1">
-      <c r="B12" s="194" t="s">
+      <c r="B12" s="195" t="s">
+        <v>297</v>
+      </c>
+      <c r="C12" s="272"/>
+      <c r="D12" s="272"/>
+      <c r="E12" s="272"/>
+      <c r="F12" s="272"/>
+      <c r="G12" s="272"/>
+      <c r="H12" s="272"/>
+      <c r="I12" s="272"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="193"/>
+    </row>
+    <row r="14" spans="2:9" ht="16">
+      <c r="B14" s="271" t="s">
         <v>299</v>
       </c>
-      <c r="C12" s="280"/>
-      <c r="D12" s="280"/>
-      <c r="E12" s="280"/>
-      <c r="F12" s="280"/>
-      <c r="G12" s="280"/>
-      <c r="H12" s="280"/>
-      <c r="I12" s="280"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="279"/>
-    </row>
-    <row r="14" spans="2:9" ht="16">
-      <c r="B14" s="281" t="s">
-        <v>301</v>
-      </c>
-      <c r="C14" s="281"/>
-      <c r="D14" s="281"/>
-      <c r="E14" s="281"/>
-      <c r="F14" s="281"/>
-      <c r="G14" s="281"/>
-      <c r="H14" s="281"/>
-      <c r="I14" s="281"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
+      <c r="E14" s="271"/>
+      <c r="F14" s="271"/>
+      <c r="G14" s="271"/>
+      <c r="H14" s="271"/>
+      <c r="I14" s="271"/>
     </row>
     <row r="15" spans="2:9" ht="94" customHeight="1">
-      <c r="B15" s="194" t="s">
-        <v>302</v>
-      </c>
-      <c r="C15" s="194"/>
-      <c r="D15" s="194"/>
-      <c r="E15" s="194"/>
-      <c r="F15" s="194"/>
-      <c r="G15" s="194"/>
-      <c r="H15" s="194"/>
-      <c r="I15" s="194"/>
+      <c r="B15" s="195" t="s">
+        <v>300</v>
+      </c>
+      <c r="C15" s="195"/>
+      <c r="D15" s="195"/>
+      <c r="E15" s="195"/>
+      <c r="F15" s="195"/>
+      <c r="G15" s="195"/>
+      <c r="H15" s="195"/>
+      <c r="I15" s="195"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -31353,62 +31353,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16">
-      <c r="B2" s="275" t="s">
-        <v>266</v>
-      </c>
-      <c r="C2" s="275"/>
-      <c r="D2" s="275"/>
-      <c r="E2" s="275"/>
-      <c r="F2" s="275"/>
-      <c r="G2" s="275"/>
-      <c r="H2" s="275"/>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
-      <c r="M2" s="275"/>
-      <c r="N2" s="275"/>
-      <c r="O2" s="275"/>
+      <c r="B2" s="274" t="s">
+        <v>264</v>
+      </c>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
+      <c r="J2" s="274"/>
+      <c r="K2" s="274"/>
+      <c r="L2" s="274"/>
+      <c r="M2" s="274"/>
+      <c r="N2" s="274"/>
+      <c r="O2" s="274"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="276" t="s">
-        <v>289</v>
-      </c>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="276"/>
-      <c r="H3" s="276"/>
-      <c r="I3" s="276"/>
-      <c r="J3" s="276"/>
-      <c r="K3" s="276"/>
-      <c r="L3" s="276"/>
-      <c r="M3" s="276"/>
-      <c r="N3" s="276"/>
-      <c r="O3" s="276"/>
+      <c r="C3" s="275" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
+      <c r="J3" s="275"/>
+      <c r="K3" s="275"/>
+      <c r="L3" s="275"/>
+      <c r="M3" s="275"/>
+      <c r="N3" s="275"/>
+      <c r="O3" s="275"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="272" t="s">
+      <c r="C4" s="273" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="272"/>
-      <c r="E4" s="272"/>
-      <c r="F4" s="272"/>
-      <c r="G4" s="272"/>
-      <c r="H4" s="272"/>
-      <c r="I4" s="272"/>
-      <c r="J4" s="272"/>
-      <c r="K4" s="272"/>
-      <c r="L4" s="272"/>
-      <c r="M4" s="272"/>
-      <c r="N4" s="272"/>
-      <c r="O4" s="272"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
+      <c r="F4" s="273"/>
+      <c r="G4" s="273"/>
+      <c r="H4" s="273"/>
+      <c r="I4" s="273"/>
+      <c r="J4" s="273"/>
+      <c r="K4" s="273"/>
+      <c r="L4" s="273"/>
+      <c r="M4" s="273"/>
+      <c r="N4" s="273"/>
+      <c r="O4" s="273"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5">
@@ -31422,816 +31422,819 @@
       <c r="B6" s="188">
         <v>4</v>
       </c>
-      <c r="C6" s="273" t="s">
-        <v>290</v>
-      </c>
-      <c r="D6" s="273"/>
-      <c r="E6" s="273"/>
-      <c r="F6" s="273"/>
-      <c r="G6" s="273"/>
-      <c r="H6" s="273"/>
-      <c r="I6" s="273"/>
-      <c r="J6" s="273"/>
-      <c r="K6" s="273"/>
-      <c r="L6" s="273"/>
-      <c r="M6" s="273"/>
-      <c r="N6" s="273"/>
-      <c r="O6" s="273"/>
+      <c r="C6" s="276" t="s">
+        <v>288</v>
+      </c>
+      <c r="D6" s="276"/>
+      <c r="E6" s="276"/>
+      <c r="F6" s="276"/>
+      <c r="G6" s="276"/>
+      <c r="H6" s="276"/>
+      <c r="I6" s="276"/>
+      <c r="J6" s="276"/>
+      <c r="K6" s="276"/>
+      <c r="L6" s="276"/>
+      <c r="M6" s="276"/>
+      <c r="N6" s="276"/>
+      <c r="O6" s="276"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="193" t="s">
-        <v>291</v>
-      </c>
-      <c r="D7" s="215"/>
-      <c r="E7" s="215"/>
-      <c r="F7" s="215"/>
-      <c r="G7" s="215"/>
-      <c r="H7" s="215"/>
-      <c r="I7" s="215"/>
-      <c r="J7" s="215"/>
-      <c r="K7" s="215"/>
-      <c r="L7" s="215"/>
-      <c r="M7" s="215"/>
-      <c r="N7" s="215"/>
-      <c r="O7" s="215"/>
+      <c r="C7" s="205" t="s">
+        <v>289</v>
+      </c>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="210"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="210"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="272" t="s">
+      <c r="C8" s="273" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="272"/>
-      <c r="E8" s="272"/>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="272"/>
-      <c r="K8" s="272"/>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="272"/>
-      <c r="O8" s="272"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
+      <c r="G8" s="273"/>
+      <c r="H8" s="273"/>
+      <c r="I8" s="273"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="273"/>
+      <c r="L8" s="273"/>
+      <c r="M8" s="273"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="273"/>
     </row>
     <row r="9" spans="2:15" s="3" customFormat="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="215" t="s">
+      <c r="C9" s="210" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="215"/>
-      <c r="E9" s="215"/>
-      <c r="F9" s="215"/>
-      <c r="G9" s="215"/>
-      <c r="H9" s="215"/>
-      <c r="I9" s="215"/>
-      <c r="J9" s="215"/>
-      <c r="K9" s="215"/>
-      <c r="L9" s="215"/>
-      <c r="M9" s="215"/>
-      <c r="N9" s="215"/>
-      <c r="O9" s="215"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
+      <c r="L9" s="210"/>
+      <c r="M9" s="210"/>
+      <c r="N9" s="210"/>
+      <c r="O9" s="210"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="215" t="s">
+      <c r="C10" s="210" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="215"/>
-      <c r="E10" s="215"/>
-      <c r="F10" s="215"/>
-      <c r="G10" s="215"/>
-      <c r="H10" s="215"/>
-      <c r="I10" s="215"/>
-      <c r="J10" s="215"/>
-      <c r="K10" s="215"/>
-      <c r="L10" s="215"/>
-      <c r="M10" s="215"/>
-      <c r="N10" s="215"/>
-      <c r="O10" s="215"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
+      <c r="G10" s="210"/>
+      <c r="H10" s="210"/>
+      <c r="I10" s="210"/>
+      <c r="J10" s="210"/>
+      <c r="K10" s="210"/>
+      <c r="L10" s="210"/>
+      <c r="M10" s="210"/>
+      <c r="N10" s="210"/>
+      <c r="O10" s="210"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="193" t="s">
-        <v>268</v>
-      </c>
-      <c r="D11" s="215"/>
-      <c r="E11" s="215"/>
-      <c r="F11" s="215"/>
-      <c r="G11" s="215"/>
-      <c r="H11" s="215"/>
-      <c r="I11" s="215"/>
-      <c r="J11" s="215"/>
-      <c r="K11" s="215"/>
-      <c r="L11" s="215"/>
-      <c r="M11" s="215"/>
-      <c r="N11" s="215"/>
-      <c r="O11" s="215"/>
+      <c r="C11" s="205" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
+      <c r="F11" s="210"/>
+      <c r="G11" s="210"/>
+      <c r="H11" s="210"/>
+      <c r="I11" s="210"/>
+      <c r="J11" s="210"/>
+      <c r="K11" s="210"/>
+      <c r="L11" s="210"/>
+      <c r="M11" s="210"/>
+      <c r="N11" s="210"/>
+      <c r="O11" s="210"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="193" t="s">
-        <v>267</v>
-      </c>
-      <c r="D12" s="215"/>
-      <c r="E12" s="215"/>
-      <c r="F12" s="215"/>
-      <c r="G12" s="215"/>
-      <c r="H12" s="215"/>
-      <c r="I12" s="215"/>
-      <c r="J12" s="215"/>
-      <c r="K12" s="215"/>
-      <c r="L12" s="215"/>
-      <c r="M12" s="215"/>
-      <c r="N12" s="215"/>
-      <c r="O12" s="215"/>
+      <c r="C12" s="205" t="s">
+        <v>265</v>
+      </c>
+      <c r="D12" s="210"/>
+      <c r="E12" s="210"/>
+      <c r="F12" s="210"/>
+      <c r="G12" s="210"/>
+      <c r="H12" s="210"/>
+      <c r="I12" s="210"/>
+      <c r="J12" s="210"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="210"/>
+      <c r="M12" s="210"/>
+      <c r="N12" s="210"/>
+      <c r="O12" s="210"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="215" t="s">
+      <c r="C13" s="210" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="215"/>
-      <c r="E13" s="215"/>
-      <c r="F13" s="215"/>
-      <c r="G13" s="215"/>
-      <c r="H13" s="215"/>
-      <c r="I13" s="215"/>
-      <c r="J13" s="215"/>
-      <c r="K13" s="215"/>
-      <c r="L13" s="215"/>
-      <c r="M13" s="215"/>
-      <c r="N13" s="215"/>
-      <c r="O13" s="215"/>
+      <c r="D13" s="210"/>
+      <c r="E13" s="210"/>
+      <c r="F13" s="210"/>
+      <c r="G13" s="210"/>
+      <c r="H13" s="210"/>
+      <c r="I13" s="210"/>
+      <c r="J13" s="210"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="210"/>
+      <c r="M13" s="210"/>
+      <c r="N13" s="210"/>
+      <c r="O13" s="210"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="272" t="s">
+      <c r="C14" s="273" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="272"/>
-      <c r="E14" s="272"/>
-      <c r="F14" s="272"/>
-      <c r="G14" s="272"/>
-      <c r="H14" s="272"/>
-      <c r="I14" s="272"/>
-      <c r="J14" s="272"/>
-      <c r="K14" s="272"/>
-      <c r="L14" s="272"/>
-      <c r="M14" s="272"/>
-      <c r="N14" s="272"/>
-      <c r="O14" s="272"/>
+      <c r="D14" s="273"/>
+      <c r="E14" s="273"/>
+      <c r="F14" s="273"/>
+      <c r="G14" s="273"/>
+      <c r="H14" s="273"/>
+      <c r="I14" s="273"/>
+      <c r="J14" s="273"/>
+      <c r="K14" s="273"/>
+      <c r="L14" s="273"/>
+      <c r="M14" s="273"/>
+      <c r="N14" s="273"/>
+      <c r="O14" s="273"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="272" t="s">
+      <c r="C15" s="273" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="272"/>
-      <c r="E15" s="272"/>
-      <c r="F15" s="272"/>
-      <c r="G15" s="272"/>
-      <c r="H15" s="272"/>
-      <c r="I15" s="272"/>
-      <c r="J15" s="272"/>
-      <c r="K15" s="272"/>
-      <c r="L15" s="272"/>
-      <c r="M15" s="272"/>
-      <c r="N15" s="272"/>
-      <c r="O15" s="272"/>
+      <c r="D15" s="273"/>
+      <c r="E15" s="273"/>
+      <c r="F15" s="273"/>
+      <c r="G15" s="273"/>
+      <c r="H15" s="273"/>
+      <c r="I15" s="273"/>
+      <c r="J15" s="273"/>
+      <c r="K15" s="273"/>
+      <c r="L15" s="273"/>
+      <c r="M15" s="273"/>
+      <c r="N15" s="273"/>
+      <c r="O15" s="273"/>
     </row>
     <row r="16" spans="2:15" ht="29" customHeight="1">
       <c r="B16" s="188">
         <v>14</v>
       </c>
-      <c r="C16" s="273" t="s">
+      <c r="C16" s="276" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="273"/>
-      <c r="E16" s="273"/>
-      <c r="F16" s="273"/>
-      <c r="G16" s="273"/>
-      <c r="H16" s="273"/>
-      <c r="I16" s="273"/>
-      <c r="J16" s="273"/>
-      <c r="K16" s="273"/>
-      <c r="L16" s="273"/>
-      <c r="M16" s="273"/>
-      <c r="N16" s="273"/>
-      <c r="O16" s="273"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="276"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="276"/>
+      <c r="I16" s="276"/>
+      <c r="J16" s="276"/>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="276"/>
+      <c r="N16" s="276"/>
+      <c r="O16" s="276"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="274" t="s">
+      <c r="C17" s="278" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="274"/>
-      <c r="G17" s="274"/>
-      <c r="H17" s="274"/>
-      <c r="I17" s="274"/>
-      <c r="J17" s="274"/>
-      <c r="K17" s="274"/>
-      <c r="L17" s="274"/>
-      <c r="M17" s="274"/>
-      <c r="N17" s="274"/>
-      <c r="O17" s="274"/>
+      <c r="D17" s="278"/>
+      <c r="E17" s="278"/>
+      <c r="F17" s="278"/>
+      <c r="G17" s="278"/>
+      <c r="H17" s="278"/>
+      <c r="I17" s="278"/>
+      <c r="J17" s="278"/>
+      <c r="K17" s="278"/>
+      <c r="L17" s="278"/>
+      <c r="M17" s="278"/>
+      <c r="N17" s="278"/>
+      <c r="O17" s="278"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="268" t="s">
+      <c r="C18" s="277" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="268"/>
-      <c r="E18" s="268"/>
-      <c r="F18" s="268"/>
-      <c r="G18" s="268"/>
-      <c r="H18" s="268"/>
-      <c r="I18" s="268"/>
-      <c r="J18" s="268"/>
-      <c r="K18" s="268"/>
-      <c r="L18" s="268"/>
-      <c r="M18" s="268"/>
-      <c r="N18" s="268"/>
-      <c r="O18" s="268"/>
+      <c r="D18" s="277"/>
+      <c r="E18" s="277"/>
+      <c r="F18" s="277"/>
+      <c r="G18" s="277"/>
+      <c r="H18" s="277"/>
+      <c r="I18" s="277"/>
+      <c r="J18" s="277"/>
+      <c r="K18" s="277"/>
+      <c r="L18" s="277"/>
+      <c r="M18" s="277"/>
+      <c r="N18" s="277"/>
+      <c r="O18" s="277"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="268" t="s">
+      <c r="C19" s="277" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="268"/>
-      <c r="E19" s="268"/>
-      <c r="F19" s="268"/>
-      <c r="G19" s="268"/>
-      <c r="H19" s="268"/>
-      <c r="I19" s="268"/>
-      <c r="J19" s="268"/>
-      <c r="K19" s="268"/>
-      <c r="L19" s="268"/>
-      <c r="M19" s="268"/>
-      <c r="N19" s="268"/>
-      <c r="O19" s="268"/>
+      <c r="D19" s="277"/>
+      <c r="E19" s="277"/>
+      <c r="F19" s="277"/>
+      <c r="G19" s="277"/>
+      <c r="H19" s="277"/>
+      <c r="I19" s="277"/>
+      <c r="J19" s="277"/>
+      <c r="K19" s="277"/>
+      <c r="L19" s="277"/>
+      <c r="M19" s="277"/>
+      <c r="N19" s="277"/>
+      <c r="O19" s="277"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="268" t="s">
+      <c r="C20" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="268"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="G20" s="268"/>
-      <c r="H20" s="268"/>
-      <c r="I20" s="268"/>
-      <c r="J20" s="268"/>
-      <c r="K20" s="268"/>
-      <c r="L20" s="268"/>
-      <c r="M20" s="268"/>
-      <c r="N20" s="268"/>
-      <c r="O20" s="268"/>
+      <c r="D20" s="277"/>
+      <c r="E20" s="277"/>
+      <c r="F20" s="277"/>
+      <c r="G20" s="277"/>
+      <c r="H20" s="277"/>
+      <c r="I20" s="277"/>
+      <c r="J20" s="277"/>
+      <c r="K20" s="277"/>
+      <c r="L20" s="277"/>
+      <c r="M20" s="277"/>
+      <c r="N20" s="277"/>
+      <c r="O20" s="277"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="268" t="s">
+      <c r="C21" s="277" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="268"/>
-      <c r="E21" s="268"/>
-      <c r="F21" s="268"/>
-      <c r="G21" s="268"/>
-      <c r="H21" s="268"/>
-      <c r="I21" s="268"/>
-      <c r="J21" s="268"/>
-      <c r="K21" s="268"/>
-      <c r="L21" s="268"/>
-      <c r="M21" s="268"/>
-      <c r="N21" s="268"/>
-      <c r="O21" s="268"/>
+      <c r="D21" s="277"/>
+      <c r="E21" s="277"/>
+      <c r="F21" s="277"/>
+      <c r="G21" s="277"/>
+      <c r="H21" s="277"/>
+      <c r="I21" s="277"/>
+      <c r="J21" s="277"/>
+      <c r="K21" s="277"/>
+      <c r="L21" s="277"/>
+      <c r="M21" s="277"/>
+      <c r="N21" s="277"/>
+      <c r="O21" s="277"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="193" t="s">
+      <c r="C22" s="205" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="193"/>
-      <c r="E22" s="193"/>
-      <c r="F22" s="193"/>
-      <c r="G22" s="193"/>
-      <c r="H22" s="193"/>
-      <c r="I22" s="193"/>
-      <c r="J22" s="193"/>
-      <c r="K22" s="193"/>
-      <c r="L22" s="193"/>
-      <c r="M22" s="193"/>
-      <c r="N22" s="193"/>
-      <c r="O22" s="193"/>
+      <c r="D22" s="205"/>
+      <c r="E22" s="205"/>
+      <c r="F22" s="205"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="205"/>
+      <c r="I22" s="205"/>
+      <c r="J22" s="205"/>
+      <c r="K22" s="205"/>
+      <c r="L22" s="205"/>
+      <c r="M22" s="205"/>
+      <c r="N22" s="205"/>
+      <c r="O22" s="205"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="268" t="s">
+      <c r="C23" s="277" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="268"/>
-      <c r="E23" s="268"/>
-      <c r="F23" s="268"/>
-      <c r="G23" s="268"/>
-      <c r="H23" s="268"/>
-      <c r="I23" s="268"/>
-      <c r="J23" s="268"/>
-      <c r="K23" s="268"/>
-      <c r="L23" s="268"/>
-      <c r="M23" s="268"/>
-      <c r="N23" s="268"/>
-      <c r="O23" s="268"/>
+      <c r="D23" s="277"/>
+      <c r="E23" s="277"/>
+      <c r="F23" s="277"/>
+      <c r="G23" s="277"/>
+      <c r="H23" s="277"/>
+      <c r="I23" s="277"/>
+      <c r="J23" s="277"/>
+      <c r="K23" s="277"/>
+      <c r="L23" s="277"/>
+      <c r="M23" s="277"/>
+      <c r="N23" s="277"/>
+      <c r="O23" s="277"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="268" t="s">
+      <c r="C24" s="277" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="268"/>
-      <c r="E24" s="268"/>
-      <c r="F24" s="268"/>
-      <c r="G24" s="268"/>
-      <c r="H24" s="268"/>
-      <c r="I24" s="268"/>
-      <c r="J24" s="268"/>
-      <c r="K24" s="268"/>
-      <c r="L24" s="268"/>
-      <c r="M24" s="268"/>
-      <c r="N24" s="268"/>
-      <c r="O24" s="268"/>
+      <c r="D24" s="277"/>
+      <c r="E24" s="277"/>
+      <c r="F24" s="277"/>
+      <c r="G24" s="277"/>
+      <c r="H24" s="277"/>
+      <c r="I24" s="277"/>
+      <c r="J24" s="277"/>
+      <c r="K24" s="277"/>
+      <c r="L24" s="277"/>
+      <c r="M24" s="277"/>
+      <c r="N24" s="277"/>
+      <c r="O24" s="277"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="268" t="s">
+      <c r="C25" s="277" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="268"/>
-      <c r="G25" s="268"/>
-      <c r="H25" s="268"/>
-      <c r="I25" s="268"/>
-      <c r="J25" s="268"/>
-      <c r="K25" s="268"/>
-      <c r="L25" s="268"/>
-      <c r="M25" s="268"/>
-      <c r="N25" s="268"/>
-      <c r="O25" s="268"/>
+      <c r="D25" s="277"/>
+      <c r="E25" s="277"/>
+      <c r="F25" s="277"/>
+      <c r="G25" s="277"/>
+      <c r="H25" s="277"/>
+      <c r="I25" s="277"/>
+      <c r="J25" s="277"/>
+      <c r="K25" s="277"/>
+      <c r="L25" s="277"/>
+      <c r="M25" s="277"/>
+      <c r="N25" s="277"/>
+      <c r="O25" s="277"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="268" t="s">
+      <c r="C26" s="277" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="268"/>
-      <c r="E26" s="268"/>
-      <c r="F26" s="268"/>
-      <c r="G26" s="268"/>
-      <c r="H26" s="268"/>
-      <c r="I26" s="268"/>
-      <c r="J26" s="268"/>
-      <c r="K26" s="268"/>
-      <c r="L26" s="268"/>
-      <c r="M26" s="268"/>
-      <c r="N26" s="268"/>
-      <c r="O26" s="268"/>
+      <c r="D26" s="277"/>
+      <c r="E26" s="277"/>
+      <c r="F26" s="277"/>
+      <c r="G26" s="277"/>
+      <c r="H26" s="277"/>
+      <c r="I26" s="277"/>
+      <c r="J26" s="277"/>
+      <c r="K26" s="277"/>
+      <c r="L26" s="277"/>
+      <c r="M26" s="277"/>
+      <c r="N26" s="277"/>
+      <c r="O26" s="277"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="268" t="s">
+      <c r="C27" s="277" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="268"/>
-      <c r="E27" s="268"/>
-      <c r="F27" s="268"/>
-      <c r="G27" s="268"/>
-      <c r="H27" s="268"/>
-      <c r="I27" s="268"/>
-      <c r="J27" s="268"/>
-      <c r="K27" s="268"/>
-      <c r="L27" s="268"/>
-      <c r="M27" s="268"/>
-      <c r="N27" s="268"/>
-      <c r="O27" s="268"/>
+      <c r="D27" s="277"/>
+      <c r="E27" s="277"/>
+      <c r="F27" s="277"/>
+      <c r="G27" s="277"/>
+      <c r="H27" s="277"/>
+      <c r="I27" s="277"/>
+      <c r="J27" s="277"/>
+      <c r="K27" s="277"/>
+      <c r="L27" s="277"/>
+      <c r="M27" s="277"/>
+      <c r="N27" s="277"/>
+      <c r="O27" s="277"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="268" t="s">
+      <c r="C28" s="277" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="268"/>
-      <c r="E28" s="268"/>
-      <c r="F28" s="268"/>
-      <c r="G28" s="268"/>
-      <c r="H28" s="268"/>
-      <c r="I28" s="268"/>
-      <c r="J28" s="268"/>
-      <c r="K28" s="268"/>
-      <c r="L28" s="268"/>
-      <c r="M28" s="268"/>
-      <c r="N28" s="268"/>
-      <c r="O28" s="268"/>
+      <c r="D28" s="277"/>
+      <c r="E28" s="277"/>
+      <c r="F28" s="277"/>
+      <c r="G28" s="277"/>
+      <c r="H28" s="277"/>
+      <c r="I28" s="277"/>
+      <c r="J28" s="277"/>
+      <c r="K28" s="277"/>
+      <c r="L28" s="277"/>
+      <c r="M28" s="277"/>
+      <c r="N28" s="277"/>
+      <c r="O28" s="277"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="268" t="s">
+      <c r="C29" s="277" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="268"/>
-      <c r="E29" s="268"/>
-      <c r="F29" s="268"/>
-      <c r="G29" s="268"/>
-      <c r="H29" s="268"/>
-      <c r="I29" s="268"/>
-      <c r="J29" s="268"/>
-      <c r="K29" s="268"/>
-      <c r="L29" s="268"/>
-      <c r="M29" s="268"/>
-      <c r="N29" s="268"/>
-      <c r="O29" s="268"/>
+      <c r="D29" s="277"/>
+      <c r="E29" s="277"/>
+      <c r="F29" s="277"/>
+      <c r="G29" s="277"/>
+      <c r="H29" s="277"/>
+      <c r="I29" s="277"/>
+      <c r="J29" s="277"/>
+      <c r="K29" s="277"/>
+      <c r="L29" s="277"/>
+      <c r="M29" s="277"/>
+      <c r="N29" s="277"/>
+      <c r="O29" s="277"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="268" t="s">
+      <c r="C30" s="277" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="268"/>
-      <c r="E30" s="268"/>
-      <c r="F30" s="268"/>
-      <c r="G30" s="268"/>
-      <c r="H30" s="268"/>
-      <c r="I30" s="268"/>
-      <c r="J30" s="268"/>
-      <c r="K30" s="268"/>
-      <c r="L30" s="268"/>
-      <c r="M30" s="268"/>
-      <c r="N30" s="268"/>
-      <c r="O30" s="268"/>
+      <c r="D30" s="277"/>
+      <c r="E30" s="277"/>
+      <c r="F30" s="277"/>
+      <c r="G30" s="277"/>
+      <c r="H30" s="277"/>
+      <c r="I30" s="277"/>
+      <c r="J30" s="277"/>
+      <c r="K30" s="277"/>
+      <c r="L30" s="277"/>
+      <c r="M30" s="277"/>
+      <c r="N30" s="277"/>
+      <c r="O30" s="277"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="268" t="s">
+      <c r="C31" s="277" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="268"/>
-      <c r="E31" s="268"/>
-      <c r="F31" s="268"/>
-      <c r="G31" s="268"/>
-      <c r="H31" s="268"/>
-      <c r="I31" s="268"/>
-      <c r="J31" s="268"/>
-      <c r="K31" s="268"/>
-      <c r="L31" s="268"/>
-      <c r="M31" s="268"/>
-      <c r="N31" s="268"/>
-      <c r="O31" s="268"/>
+      <c r="D31" s="277"/>
+      <c r="E31" s="277"/>
+      <c r="F31" s="277"/>
+      <c r="G31" s="277"/>
+      <c r="H31" s="277"/>
+      <c r="I31" s="277"/>
+      <c r="J31" s="277"/>
+      <c r="K31" s="277"/>
+      <c r="L31" s="277"/>
+      <c r="M31" s="277"/>
+      <c r="N31" s="277"/>
+      <c r="O31" s="277"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="268" t="s">
+      <c r="C32" s="277" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="268"/>
-      <c r="E32" s="268"/>
-      <c r="F32" s="268"/>
-      <c r="G32" s="268"/>
-      <c r="H32" s="268"/>
-      <c r="I32" s="268"/>
-      <c r="J32" s="268"/>
-      <c r="K32" s="268"/>
-      <c r="L32" s="268"/>
-      <c r="M32" s="268"/>
-      <c r="N32" s="268"/>
-      <c r="O32" s="268"/>
+      <c r="D32" s="277"/>
+      <c r="E32" s="277"/>
+      <c r="F32" s="277"/>
+      <c r="G32" s="277"/>
+      <c r="H32" s="277"/>
+      <c r="I32" s="277"/>
+      <c r="J32" s="277"/>
+      <c r="K32" s="277"/>
+      <c r="L32" s="277"/>
+      <c r="M32" s="277"/>
+      <c r="N32" s="277"/>
+      <c r="O32" s="277"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="268" t="s">
+      <c r="C33" s="277" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="268"/>
-      <c r="H33" s="268"/>
-      <c r="I33" s="268"/>
-      <c r="J33" s="268"/>
-      <c r="K33" s="268"/>
-      <c r="L33" s="268"/>
-      <c r="M33" s="268"/>
-      <c r="N33" s="268"/>
-      <c r="O33" s="268"/>
+      <c r="D33" s="277"/>
+      <c r="E33" s="277"/>
+      <c r="F33" s="277"/>
+      <c r="G33" s="277"/>
+      <c r="H33" s="277"/>
+      <c r="I33" s="277"/>
+      <c r="J33" s="277"/>
+      <c r="K33" s="277"/>
+      <c r="L33" s="277"/>
+      <c r="M33" s="277"/>
+      <c r="N33" s="277"/>
+      <c r="O33" s="277"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="268" t="s">
+      <c r="C34" s="277" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="268"/>
-      <c r="E34" s="268"/>
-      <c r="F34" s="268"/>
-      <c r="G34" s="268"/>
-      <c r="H34" s="268"/>
-      <c r="I34" s="268"/>
-      <c r="J34" s="268"/>
-      <c r="K34" s="268"/>
-      <c r="L34" s="268"/>
-      <c r="M34" s="268"/>
-      <c r="N34" s="268"/>
-      <c r="O34" s="268"/>
+      <c r="D34" s="277"/>
+      <c r="E34" s="277"/>
+      <c r="F34" s="277"/>
+      <c r="G34" s="277"/>
+      <c r="H34" s="277"/>
+      <c r="I34" s="277"/>
+      <c r="J34" s="277"/>
+      <c r="K34" s="277"/>
+      <c r="L34" s="277"/>
+      <c r="M34" s="277"/>
+      <c r="N34" s="277"/>
+      <c r="O34" s="277"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="268" t="s">
+      <c r="C35" s="277" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="268"/>
-      <c r="E35" s="268"/>
-      <c r="F35" s="268"/>
-      <c r="G35" s="268"/>
-      <c r="H35" s="268"/>
-      <c r="I35" s="268"/>
-      <c r="J35" s="268"/>
-      <c r="K35" s="268"/>
-      <c r="L35" s="268"/>
-      <c r="M35" s="268"/>
-      <c r="N35" s="268"/>
-      <c r="O35" s="268"/>
+      <c r="D35" s="277"/>
+      <c r="E35" s="277"/>
+      <c r="F35" s="277"/>
+      <c r="G35" s="277"/>
+      <c r="H35" s="277"/>
+      <c r="I35" s="277"/>
+      <c r="J35" s="277"/>
+      <c r="K35" s="277"/>
+      <c r="L35" s="277"/>
+      <c r="M35" s="277"/>
+      <c r="N35" s="277"/>
+      <c r="O35" s="277"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="271" t="s">
+      <c r="C36" s="282" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="271"/>
-      <c r="E36" s="271"/>
-      <c r="F36" s="271"/>
-      <c r="G36" s="271"/>
-      <c r="H36" s="271"/>
-      <c r="I36" s="271"/>
-      <c r="J36" s="271"/>
-      <c r="K36" s="271"/>
-      <c r="L36" s="271"/>
-      <c r="M36" s="271"/>
-      <c r="N36" s="271"/>
-      <c r="O36" s="271"/>
+      <c r="D36" s="282"/>
+      <c r="E36" s="282"/>
+      <c r="F36" s="282"/>
+      <c r="G36" s="282"/>
+      <c r="H36" s="282"/>
+      <c r="I36" s="282"/>
+      <c r="J36" s="282"/>
+      <c r="K36" s="282"/>
+      <c r="L36" s="282"/>
+      <c r="M36" s="282"/>
+      <c r="N36" s="282"/>
+      <c r="O36" s="282"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="189">
         <v>35</v>
       </c>
-      <c r="C37" s="269" t="s">
-        <v>271</v>
-      </c>
-      <c r="D37" s="269"/>
-      <c r="E37" s="269"/>
-      <c r="F37" s="269"/>
-      <c r="G37" s="269"/>
-      <c r="H37" s="269"/>
-      <c r="I37" s="269"/>
-      <c r="J37" s="269"/>
-      <c r="K37" s="269"/>
-      <c r="L37" s="269"/>
-      <c r="M37" s="269"/>
-      <c r="N37" s="269"/>
-      <c r="O37" s="269"/>
+      <c r="C37" s="280" t="s">
+        <v>269</v>
+      </c>
+      <c r="D37" s="280"/>
+      <c r="E37" s="280"/>
+      <c r="F37" s="280"/>
+      <c r="G37" s="280"/>
+      <c r="H37" s="280"/>
+      <c r="I37" s="280"/>
+      <c r="J37" s="280"/>
+      <c r="K37" s="280"/>
+      <c r="L37" s="280"/>
+      <c r="M37" s="280"/>
+      <c r="N37" s="280"/>
+      <c r="O37" s="280"/>
     </row>
     <row r="38" spans="2:15" ht="29" customHeight="1">
       <c r="B38" s="188">
         <v>36</v>
       </c>
-      <c r="C38" s="270" t="s">
-        <v>272</v>
-      </c>
-      <c r="D38" s="270"/>
-      <c r="E38" s="270"/>
-      <c r="F38" s="270"/>
-      <c r="G38" s="270"/>
-      <c r="H38" s="270"/>
-      <c r="I38" s="270"/>
-      <c r="J38" s="270"/>
-      <c r="K38" s="270"/>
-      <c r="L38" s="270"/>
-      <c r="M38" s="270"/>
-      <c r="N38" s="270"/>
-      <c r="O38" s="270"/>
+      <c r="C38" s="281" t="s">
+        <v>270</v>
+      </c>
+      <c r="D38" s="281"/>
+      <c r="E38" s="281"/>
+      <c r="F38" s="281"/>
+      <c r="G38" s="281"/>
+      <c r="H38" s="281"/>
+      <c r="I38" s="281"/>
+      <c r="J38" s="281"/>
+      <c r="K38" s="281"/>
+      <c r="L38" s="281"/>
+      <c r="M38" s="281"/>
+      <c r="N38" s="281"/>
+      <c r="O38" s="281"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="190">
         <v>37</v>
       </c>
-      <c r="C39" s="267" t="s">
-        <v>283</v>
-      </c>
-      <c r="D39" s="267"/>
-      <c r="E39" s="267"/>
-      <c r="F39" s="267"/>
-      <c r="G39" s="267"/>
-      <c r="H39" s="267"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="267"/>
-      <c r="K39" s="267"/>
-      <c r="L39" s="267"/>
-      <c r="M39" s="267"/>
-      <c r="N39" s="267"/>
-      <c r="O39" s="267"/>
+      <c r="C39" s="279" t="s">
+        <v>281</v>
+      </c>
+      <c r="D39" s="279"/>
+      <c r="E39" s="279"/>
+      <c r="F39" s="279"/>
+      <c r="G39" s="279"/>
+      <c r="H39" s="279"/>
+      <c r="I39" s="279"/>
+      <c r="J39" s="279"/>
+      <c r="K39" s="279"/>
+      <c r="L39" s="279"/>
+      <c r="M39" s="279"/>
+      <c r="N39" s="279"/>
+      <c r="O39" s="279"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="192">
         <v>38</v>
       </c>
-      <c r="C40" s="272" t="s">
-        <v>287</v>
-      </c>
-      <c r="D40" s="272"/>
-      <c r="E40" s="272"/>
-      <c r="F40" s="272"/>
-      <c r="G40" s="272"/>
-      <c r="H40" s="272"/>
-      <c r="I40" s="272"/>
-      <c r="J40" s="272"/>
-      <c r="K40" s="272"/>
-      <c r="L40" s="272"/>
-      <c r="M40" s="272"/>
-      <c r="N40" s="272"/>
-      <c r="O40" s="272"/>
+      <c r="C40" s="273" t="s">
+        <v>285</v>
+      </c>
+      <c r="D40" s="273"/>
+      <c r="E40" s="273"/>
+      <c r="F40" s="273"/>
+      <c r="G40" s="273"/>
+      <c r="H40" s="273"/>
+      <c r="I40" s="273"/>
+      <c r="J40" s="273"/>
+      <c r="K40" s="273"/>
+      <c r="L40" s="273"/>
+      <c r="M40" s="273"/>
+      <c r="N40" s="273"/>
+      <c r="O40" s="273"/>
     </row>
     <row r="41" spans="2:15" ht="31" customHeight="1">
       <c r="B41" s="188">
         <v>39</v>
       </c>
-      <c r="C41" s="194" t="s">
-        <v>292</v>
-      </c>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="194"/>
-      <c r="J41" s="194"/>
-      <c r="K41" s="194"/>
-      <c r="L41" s="194"/>
-      <c r="M41" s="194"/>
-      <c r="N41" s="194"/>
-      <c r="O41" s="194"/>
+      <c r="C41" s="195" t="s">
+        <v>290</v>
+      </c>
+      <c r="D41" s="195"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="195"/>
+      <c r="G41" s="195"/>
+      <c r="H41" s="195"/>
+      <c r="I41" s="195"/>
+      <c r="J41" s="195"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="195"/>
+      <c r="M41" s="195"/>
+      <c r="N41" s="195"/>
+      <c r="O41" s="195"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="192">
         <v>40</v>
       </c>
-      <c r="C42" s="193" t="s">
-        <v>293</v>
-      </c>
-      <c r="D42" s="272"/>
-      <c r="E42" s="272"/>
-      <c r="F42" s="272"/>
-      <c r="G42" s="272"/>
-      <c r="H42" s="272"/>
-      <c r="I42" s="272"/>
-      <c r="J42" s="272"/>
-      <c r="K42" s="272"/>
-      <c r="L42" s="272"/>
-      <c r="M42" s="272"/>
-      <c r="N42" s="272"/>
-      <c r="O42" s="272"/>
+      <c r="C42" s="205" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="273"/>
+      <c r="E42" s="273"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="273"/>
+      <c r="H42" s="273"/>
+      <c r="I42" s="273"/>
+      <c r="J42" s="273"/>
+      <c r="K42" s="273"/>
+      <c r="L42" s="273"/>
+      <c r="M42" s="273"/>
+      <c r="N42" s="273"/>
+      <c r="O42" s="273"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="192">
         <v>41</v>
       </c>
-      <c r="C43" s="221" t="s">
-        <v>294</v>
-      </c>
-      <c r="D43" s="221"/>
-      <c r="E43" s="221"/>
-      <c r="F43" s="221"/>
-      <c r="G43" s="221"/>
-      <c r="H43" s="221"/>
-      <c r="I43" s="221"/>
-      <c r="J43" s="221"/>
-      <c r="K43" s="221"/>
-      <c r="L43" s="221"/>
-      <c r="M43" s="221"/>
-      <c r="N43" s="221"/>
-      <c r="O43" s="221"/>
+      <c r="C43" s="247" t="s">
+        <v>292</v>
+      </c>
+      <c r="D43" s="247"/>
+      <c r="E43" s="247"/>
+      <c r="F43" s="247"/>
+      <c r="G43" s="247"/>
+      <c r="H43" s="247"/>
+      <c r="I43" s="247"/>
+      <c r="J43" s="247"/>
+      <c r="K43" s="247"/>
+      <c r="L43" s="247"/>
+      <c r="M43" s="247"/>
+      <c r="N43" s="247"/>
+      <c r="O43" s="247"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="192">
         <v>42</v>
       </c>
-      <c r="C44" s="193" t="s">
-        <v>295</v>
-      </c>
-      <c r="D44" s="193"/>
-      <c r="E44" s="193"/>
-      <c r="F44" s="193"/>
-      <c r="G44" s="193"/>
-      <c r="H44" s="193"/>
-      <c r="I44" s="193"/>
-      <c r="J44" s="193"/>
-      <c r="K44" s="193"/>
-      <c r="L44" s="193"/>
-      <c r="M44" s="193"/>
-      <c r="N44" s="193"/>
-      <c r="O44" s="193"/>
+      <c r="C44" s="205" t="s">
+        <v>293</v>
+      </c>
+      <c r="D44" s="205"/>
+      <c r="E44" s="205"/>
+      <c r="F44" s="205"/>
+      <c r="G44" s="205"/>
+      <c r="H44" s="205"/>
+      <c r="I44" s="205"/>
+      <c r="J44" s="205"/>
+      <c r="K44" s="205"/>
+      <c r="L44" s="205"/>
+      <c r="M44" s="205"/>
+      <c r="N44" s="205"/>
+      <c r="O44" s="205"/>
     </row>
     <row r="45" spans="2:15" ht="28" customHeight="1">
       <c r="B45" s="188">
         <v>43</v>
       </c>
-      <c r="C45" s="280" t="s">
-        <v>303</v>
-      </c>
-      <c r="D45" s="280"/>
-      <c r="E45" s="280"/>
-      <c r="F45" s="280"/>
-      <c r="G45" s="280"/>
-      <c r="H45" s="280"/>
-      <c r="I45" s="280"/>
-      <c r="J45" s="280"/>
-      <c r="K45" s="280"/>
-      <c r="L45" s="280"/>
-      <c r="M45" s="280"/>
-      <c r="N45" s="280"/>
-      <c r="O45" s="280"/>
+      <c r="C45" s="272" t="s">
+        <v>301</v>
+      </c>
+      <c r="D45" s="272"/>
+      <c r="E45" s="272"/>
+      <c r="F45" s="272"/>
+      <c r="G45" s="272"/>
+      <c r="H45" s="272"/>
+      <c r="I45" s="272"/>
+      <c r="J45" s="272"/>
+      <c r="K45" s="272"/>
+      <c r="L45" s="272"/>
+      <c r="M45" s="272"/>
+      <c r="N45" s="272"/>
+      <c r="O45" s="272"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="C45:O45"/>
-    <mergeCell ref="C40:O40"/>
-    <mergeCell ref="C41:O41"/>
-    <mergeCell ref="C42:O42"/>
-    <mergeCell ref="C43:O43"/>
-    <mergeCell ref="C44:O44"/>
-    <mergeCell ref="C8:O8"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C3:O3"/>
-    <mergeCell ref="C4:O4"/>
-    <mergeCell ref="C6:O6"/>
-    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C39:O39"/>
+    <mergeCell ref="C30:O30"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C37:O37"/>
+    <mergeCell ref="C38:O38"/>
+    <mergeCell ref="C33:O33"/>
+    <mergeCell ref="C34:O34"/>
+    <mergeCell ref="C35:O35"/>
+    <mergeCell ref="C36:O36"/>
+    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:O22"/>
+    <mergeCell ref="C23:O23"/>
+    <mergeCell ref="C24:O24"/>
+    <mergeCell ref="C25:O25"/>
     <mergeCell ref="C27:O27"/>
     <mergeCell ref="C28:O28"/>
     <mergeCell ref="C29:O29"/>
@@ -32248,21 +32251,18 @@
     <mergeCell ref="C18:O18"/>
     <mergeCell ref="C19:O19"/>
     <mergeCell ref="C20:O20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:O22"/>
-    <mergeCell ref="C23:O23"/>
-    <mergeCell ref="C24:O24"/>
-    <mergeCell ref="C25:O25"/>
-    <mergeCell ref="C39:O39"/>
-    <mergeCell ref="C30:O30"/>
-    <mergeCell ref="C31:O31"/>
-    <mergeCell ref="C37:O37"/>
-    <mergeCell ref="C38:O38"/>
-    <mergeCell ref="C33:O33"/>
-    <mergeCell ref="C34:O34"/>
-    <mergeCell ref="C35:O35"/>
-    <mergeCell ref="C36:O36"/>
-    <mergeCell ref="C32:O32"/>
+    <mergeCell ref="C8:O8"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C3:O3"/>
+    <mergeCell ref="C4:O4"/>
+    <mergeCell ref="C6:O6"/>
+    <mergeCell ref="C7:O7"/>
+    <mergeCell ref="C45:O45"/>
+    <mergeCell ref="C40:O40"/>
+    <mergeCell ref="C41:O41"/>
+    <mergeCell ref="C42:O42"/>
+    <mergeCell ref="C43:O43"/>
+    <mergeCell ref="C44:O44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -32326,87 +32326,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="218"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="223"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -34521,12 +34521,12 @@
         <v>589.39900000000011</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -34535,13 +34535,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -34558,13 +34558,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -34581,13 +34581,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -34604,13 +34604,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -34780,15 +34780,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -34802,6 +34793,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -34866,87 +34866,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="218"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="223"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -37106,12 +37106,12 @@
         <v>6634.9010000000007</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -37120,13 +37120,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -37143,13 +37143,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -37166,13 +37166,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -37189,13 +37189,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -37370,13 +37370,13 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="AG16:AI16"/>
     <mergeCell ref="AP16:AR16"/>
     <mergeCell ref="X2:Z2"/>
@@ -37385,13 +37385,13 @@
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="S2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -37456,87 +37456,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="220"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="224"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -39644,12 +39644,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="68"/>
@@ -39659,13 +39659,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -39682,13 +39682,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -39705,13 +39705,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -39728,13 +39728,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -39920,6 +39920,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="AP2:AR2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="M2:O2"/>
+    <mergeCell ref="P2:R2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="AS2:AU2"/>
     <mergeCell ref="A2:B2"/>
@@ -39936,12 +39942,6 @@
     <mergeCell ref="AD2:AF2"/>
     <mergeCell ref="AJ2:AL2"/>
     <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -40005,87 +40005,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -42244,12 +42244,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -42258,13 +42258,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -42281,13 +42281,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -42304,13 +42304,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -42327,13 +42327,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -42519,15 +42519,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -42541,6 +42532,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -42603,87 +42603,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="219"/>
+      <c r="B2" s="222"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -44838,12 +44838,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -44865,13 +44865,13 @@
       <c r="B19" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="216" t="s">
+      <c r="C19" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="216"/>
-      <c r="E19" s="216"/>
-      <c r="F19" s="216"/>
-      <c r="G19" s="216"/>
+      <c r="D19" s="211"/>
+      <c r="E19" s="211"/>
+      <c r="F19" s="211"/>
+      <c r="G19" s="211"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -44888,13 +44888,13 @@
       <c r="B20" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="214" t="s">
+      <c r="C20" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="214"/>
-      <c r="E20" s="214"/>
-      <c r="F20" s="214"/>
-      <c r="G20" s="214"/>
+      <c r="D20" s="209"/>
+      <c r="E20" s="209"/>
+      <c r="F20" s="209"/>
+      <c r="G20" s="209"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -44911,13 +44911,13 @@
       <c r="B21" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D21" s="215"/>
-      <c r="E21" s="215"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="215"/>
+      <c r="C21" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D21" s="210"/>
+      <c r="E21" s="210"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -44934,13 +44934,13 @@
       <c r="B22" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D22" s="214"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="214"/>
-      <c r="G22" s="214"/>
+      <c r="C22" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D22" s="209"/>
+      <c r="E22" s="209"/>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -45110,15 +45110,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C22:G22"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -45132,6 +45123,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -45196,87 +45196,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -47430,12 +47430,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -47444,13 +47444,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -47467,13 +47467,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -47490,13 +47490,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -47513,13 +47513,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -47705,15 +47705,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -47727,6 +47718,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -47790,87 +47790,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="213" t="s">
+      <c r="A2" s="208" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="213"/>
+      <c r="B2" s="208"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="204" t="s">
+      <c r="D2" s="212" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="205"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="217" t="s">
+      <c r="E2" s="213"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="215" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="205"/>
-      <c r="I2" s="205"/>
-      <c r="J2" s="208" t="s">
+      <c r="H2" s="213"/>
+      <c r="I2" s="213"/>
+      <c r="J2" s="220" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="205"/>
-      <c r="L2" s="205"/>
-      <c r="M2" s="208" t="s">
+      <c r="K2" s="213"/>
+      <c r="L2" s="213"/>
+      <c r="M2" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="205"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="209" t="s">
+      <c r="N2" s="213"/>
+      <c r="O2" s="214"/>
+      <c r="P2" s="219" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="205"/>
-      <c r="R2" s="206"/>
-      <c r="S2" s="210" t="s">
-        <v>275</v>
-      </c>
-      <c r="T2" s="206"/>
-      <c r="U2" s="204" t="s">
+      <c r="Q2" s="213"/>
+      <c r="R2" s="214"/>
+      <c r="S2" s="221" t="s">
+        <v>273</v>
+      </c>
+      <c r="T2" s="214"/>
+      <c r="U2" s="212" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="205"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="204" t="s">
+      <c r="V2" s="213"/>
+      <c r="W2" s="214"/>
+      <c r="X2" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="205"/>
-      <c r="Z2" s="206"/>
-      <c r="AA2" s="204" t="s">
+      <c r="Y2" s="213"/>
+      <c r="Z2" s="214"/>
+      <c r="AA2" s="212" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="205"/>
-      <c r="AC2" s="206"/>
-      <c r="AD2" s="217" t="s">
+      <c r="AB2" s="213"/>
+      <c r="AC2" s="214"/>
+      <c r="AD2" s="215" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="205"/>
-      <c r="AF2" s="206"/>
-      <c r="AG2" s="217" t="s">
+      <c r="AE2" s="213"/>
+      <c r="AF2" s="214"/>
+      <c r="AG2" s="215" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
-      <c r="AJ2" s="217" t="s">
+      <c r="AH2" s="213"/>
+      <c r="AI2" s="214"/>
+      <c r="AJ2" s="215" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="205"/>
-      <c r="AL2" s="206"/>
-      <c r="AM2" s="209" t="s">
+      <c r="AK2" s="213"/>
+      <c r="AL2" s="214"/>
+      <c r="AM2" s="219" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="205"/>
-      <c r="AO2" s="206"/>
-      <c r="AP2" s="209" t="s">
+      <c r="AN2" s="213"/>
+      <c r="AO2" s="214"/>
+      <c r="AP2" s="219" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="205"/>
-      <c r="AR2" s="206"/>
-      <c r="AS2" s="209" t="s">
+      <c r="AQ2" s="213"/>
+      <c r="AR2" s="214"/>
+      <c r="AS2" s="219" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="205"/>
-      <c r="AU2" s="206"/>
+      <c r="AT2" s="213"/>
+      <c r="AU2" s="214"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -50025,12 +50025,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="211"/>
-      <c r="AH16" s="212"/>
-      <c r="AI16" s="212"/>
-      <c r="AP16" s="211"/>
-      <c r="AQ16" s="212"/>
-      <c r="AR16" s="212"/>
+      <c r="AG16" s="216"/>
+      <c r="AH16" s="217"/>
+      <c r="AI16" s="217"/>
+      <c r="AP16" s="216"/>
+      <c r="AQ16" s="217"/>
+      <c r="AR16" s="217"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -50039,13 +50039,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="216" t="s">
+      <c r="C18" s="211" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="216"/>
-      <c r="E18" s="216"/>
-      <c r="F18" s="216"/>
-      <c r="G18" s="216"/>
+      <c r="D18" s="211"/>
+      <c r="E18" s="211"/>
+      <c r="F18" s="211"/>
+      <c r="G18" s="211"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -50062,13 +50062,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="214" t="s">
+      <c r="C19" s="209" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="214"/>
-      <c r="E19" s="214"/>
-      <c r="F19" s="214"/>
-      <c r="G19" s="214"/>
+      <c r="D19" s="209"/>
+      <c r="E19" s="209"/>
+      <c r="F19" s="209"/>
+      <c r="G19" s="209"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -50085,13 +50085,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="193" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="215"/>
-      <c r="E20" s="215"/>
-      <c r="F20" s="215"/>
-      <c r="G20" s="215"/>
+      <c r="C20" s="205" t="s">
+        <v>274</v>
+      </c>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -50108,13 +50108,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="194" t="s">
-        <v>269</v>
-      </c>
-      <c r="D21" s="214"/>
-      <c r="E21" s="214"/>
-      <c r="F21" s="214"/>
-      <c r="G21" s="214"/>
+      <c r="C21" s="195" t="s">
+        <v>267</v>
+      </c>
+      <c r="D21" s="209"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -50300,15 +50300,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="AS2:AU2"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AJ2:AL2"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AP2:AR2"/>
     <mergeCell ref="C21:G21"/>
     <mergeCell ref="S2:T2"/>
     <mergeCell ref="U2:W2"/>
@@ -50322,6 +50313,15 @@
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="AS2:AU2"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AJ2:AL2"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AP2:AR2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/InternetFootprint_Final.xlsx
+++ b/InternetFootprint_Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robringer/Library/Mobile Documents/com~apple~CloudDocs/Documents/Research/2020_21/datafootprint/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD08DC0D-F335-5C47-851E-BF1155F9FD20}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EF181D-B1E4-5B42-AD30-4F0117DCF00C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33780" yWindow="1380" windowWidth="24580" windowHeight="16220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="460" windowWidth="17960" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="28" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="305">
   <si>
     <t>Netflix</t>
   </si>
@@ -1252,7 +1252,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1482,6 +1482,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -1915,10 +1921,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2240,9 +2247,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2255,23 +2262,26 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2470,6 +2480,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2482,8 +2495,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2717,35 +2733,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="207" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="202"/>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="202"/>
-      <c r="I2" s="202"/>
-      <c r="J2" s="202"/>
-      <c r="K2" s="202"/>
-      <c r="L2" s="202"/>
+      <c r="C2" s="207"/>
+      <c r="D2" s="207"/>
+      <c r="E2" s="207"/>
+      <c r="F2" s="207"/>
+      <c r="G2" s="207"/>
+      <c r="H2" s="207"/>
+      <c r="I2" s="207"/>
+      <c r="J2" s="207"/>
+      <c r="K2" s="207"/>
+      <c r="L2" s="207"/>
     </row>
     <row r="3" spans="1:12" ht="28" customHeight="1">
       <c r="A3" s="187"/>
-      <c r="B3" s="206" t="s">
+      <c r="B3" s="209" t="s">
         <v>304</v>
       </c>
-      <c r="C3" s="206"/>
-      <c r="D3" s="206"/>
-      <c r="E3" s="206"/>
-      <c r="F3" s="206"/>
-      <c r="G3" s="206"/>
-      <c r="H3" s="206"/>
-      <c r="I3" s="206"/>
-      <c r="J3" s="206"/>
-      <c r="K3" s="206"/>
-      <c r="L3" s="206"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="209"/>
+      <c r="F3" s="209"/>
+      <c r="G3" s="209"/>
+      <c r="H3" s="209"/>
+      <c r="I3" s="209"/>
+      <c r="J3" s="209"/>
+      <c r="K3" s="209"/>
+      <c r="L3" s="209"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="187"/>
@@ -2767,336 +2783,336 @@
         <v>94</v>
       </c>
       <c r="C9" s="76"/>
-      <c r="D9" s="207" t="s">
+      <c r="D9" s="210" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="207"/>
-      <c r="F9" s="207"/>
-      <c r="G9" s="207"/>
-      <c r="H9" s="207"/>
-      <c r="I9" s="207"/>
-      <c r="J9" s="207"/>
-      <c r="K9" s="207"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="210"/>
+      <c r="I9" s="210"/>
+      <c r="J9" s="210"/>
+      <c r="K9" s="210"/>
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="75" t="s">
         <v>96</v>
       </c>
       <c r="C10" s="75"/>
-      <c r="D10" s="200" t="s">
+      <c r="D10" s="206" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="200"/>
-      <c r="F10" s="200"/>
-      <c r="G10" s="200"/>
-      <c r="H10" s="200"/>
-      <c r="I10" s="200"/>
-      <c r="J10" s="200"/>
-      <c r="K10" s="200"/>
+      <c r="E10" s="206"/>
+      <c r="F10" s="206"/>
+      <c r="G10" s="206"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="206"/>
+      <c r="J10" s="206"/>
+      <c r="K10" s="206"/>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="75" t="s">
         <v>97</v>
       </c>
       <c r="C11" s="75"/>
-      <c r="D11" s="200" t="s">
+      <c r="D11" s="206" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="200"/>
-      <c r="F11" s="200"/>
-      <c r="G11" s="200"/>
-      <c r="H11" s="200"/>
-      <c r="I11" s="200"/>
-      <c r="J11" s="200"/>
-      <c r="K11" s="200"/>
+      <c r="E11" s="206"/>
+      <c r="F11" s="206"/>
+      <c r="G11" s="206"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="206"/>
+      <c r="J11" s="206"/>
+      <c r="K11" s="206"/>
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="75" t="s">
         <v>100</v>
       </c>
       <c r="C12" s="75"/>
-      <c r="D12" s="200" t="s">
+      <c r="D12" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="200"/>
-      <c r="F12" s="200"/>
-      <c r="G12" s="200"/>
-      <c r="H12" s="200"/>
-      <c r="I12" s="200"/>
-      <c r="J12" s="200"/>
-      <c r="K12" s="200"/>
+      <c r="E12" s="206"/>
+      <c r="F12" s="206"/>
+      <c r="G12" s="206"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="206"/>
+      <c r="J12" s="206"/>
+      <c r="K12" s="206"/>
     </row>
     <row r="13" spans="1:12">
       <c r="B13" s="75" t="s">
         <v>101</v>
       </c>
       <c r="C13" s="75"/>
-      <c r="D13" s="200" t="s">
+      <c r="D13" s="206" t="s">
         <v>115</v>
       </c>
-      <c r="E13" s="200"/>
-      <c r="F13" s="200"/>
-      <c r="G13" s="200"/>
-      <c r="H13" s="200"/>
-      <c r="I13" s="200"/>
-      <c r="J13" s="200"/>
-      <c r="K13" s="200"/>
+      <c r="E13" s="206"/>
+      <c r="F13" s="206"/>
+      <c r="G13" s="206"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="206"/>
+      <c r="J13" s="206"/>
+      <c r="K13" s="206"/>
     </row>
     <row r="14" spans="1:12">
       <c r="B14" s="75" t="s">
         <v>102</v>
       </c>
       <c r="C14" s="75"/>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="206" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="200"/>
-      <c r="F14" s="200"/>
-      <c r="G14" s="200"/>
-      <c r="H14" s="200"/>
-      <c r="I14" s="200"/>
-      <c r="J14" s="200"/>
-      <c r="K14" s="200"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="206"/>
+      <c r="J14" s="206"/>
+      <c r="K14" s="206"/>
     </row>
     <row r="15" spans="1:12">
       <c r="B15" s="75" t="s">
         <v>103</v>
       </c>
       <c r="C15" s="75"/>
-      <c r="D15" s="200" t="s">
+      <c r="D15" s="206" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="200"/>
-      <c r="F15" s="200"/>
-      <c r="G15" s="200"/>
-      <c r="H15" s="200"/>
-      <c r="I15" s="200"/>
-      <c r="J15" s="200"/>
-      <c r="K15" s="200"/>
+      <c r="E15" s="206"/>
+      <c r="F15" s="206"/>
+      <c r="G15" s="206"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="206"/>
+      <c r="J15" s="206"/>
+      <c r="K15" s="206"/>
     </row>
     <row r="16" spans="1:12">
       <c r="B16" s="75" t="s">
         <v>104</v>
       </c>
       <c r="C16" s="75"/>
-      <c r="D16" s="200" t="s">
+      <c r="D16" s="206" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="200"/>
-      <c r="F16" s="200"/>
-      <c r="G16" s="200"/>
-      <c r="H16" s="200"/>
-      <c r="I16" s="200"/>
-      <c r="J16" s="200"/>
-      <c r="K16" s="200"/>
+      <c r="E16" s="206"/>
+      <c r="F16" s="206"/>
+      <c r="G16" s="206"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="206"/>
+      <c r="K16" s="206"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="75" t="s">
         <v>105</v>
       </c>
       <c r="C17" s="75"/>
-      <c r="D17" s="200" t="s">
+      <c r="D17" s="206" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="200"/>
-      <c r="F17" s="200"/>
-      <c r="G17" s="200"/>
-      <c r="H17" s="200"/>
-      <c r="I17" s="200"/>
-      <c r="J17" s="200"/>
-      <c r="K17" s="200"/>
+      <c r="E17" s="206"/>
+      <c r="F17" s="206"/>
+      <c r="G17" s="206"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="206"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="206"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="75" t="s">
         <v>106</v>
       </c>
       <c r="C18" s="75"/>
-      <c r="D18" s="200" t="s">
+      <c r="D18" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="200"/>
-      <c r="F18" s="200"/>
-      <c r="G18" s="200"/>
-      <c r="H18" s="200"/>
-      <c r="I18" s="200"/>
-      <c r="J18" s="200"/>
-      <c r="K18" s="200"/>
+      <c r="E18" s="206"/>
+      <c r="F18" s="206"/>
+      <c r="G18" s="206"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="206"/>
+      <c r="J18" s="206"/>
+      <c r="K18" s="206"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="75" t="s">
         <v>107</v>
       </c>
       <c r="C19" s="75"/>
-      <c r="D19" s="200" t="s">
+      <c r="D19" s="206" t="s">
         <v>120</v>
       </c>
-      <c r="E19" s="200"/>
-      <c r="F19" s="200"/>
-      <c r="G19" s="200"/>
-      <c r="H19" s="200"/>
-      <c r="I19" s="200"/>
-      <c r="J19" s="200"/>
-      <c r="K19" s="200"/>
+      <c r="E19" s="206"/>
+      <c r="F19" s="206"/>
+      <c r="G19" s="206"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="206"/>
+      <c r="J19" s="206"/>
+      <c r="K19" s="206"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="75" t="s">
         <v>108</v>
       </c>
       <c r="C20" s="75"/>
-      <c r="D20" s="200" t="s">
+      <c r="D20" s="206" t="s">
         <v>121</v>
       </c>
-      <c r="E20" s="200"/>
-      <c r="F20" s="200"/>
-      <c r="G20" s="200"/>
-      <c r="H20" s="200"/>
-      <c r="I20" s="200"/>
-      <c r="J20" s="200"/>
-      <c r="K20" s="200"/>
+      <c r="E20" s="206"/>
+      <c r="F20" s="206"/>
+      <c r="G20" s="206"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="206"/>
+      <c r="J20" s="206"/>
+      <c r="K20" s="206"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="75" t="s">
         <v>111</v>
       </c>
       <c r="C21" s="75"/>
-      <c r="D21" s="200" t="s">
+      <c r="D21" s="206" t="s">
         <v>122</v>
       </c>
-      <c r="E21" s="200"/>
-      <c r="F21" s="200"/>
-      <c r="G21" s="200"/>
-      <c r="H21" s="200"/>
-      <c r="I21" s="200"/>
-      <c r="J21" s="200"/>
-      <c r="K21" s="200"/>
+      <c r="E21" s="206"/>
+      <c r="F21" s="206"/>
+      <c r="G21" s="206"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="206"/>
+      <c r="J21" s="206"/>
+      <c r="K21" s="206"/>
     </row>
     <row r="22" spans="2:11">
       <c r="B22" s="75" t="s">
         <v>112</v>
       </c>
       <c r="C22" s="75"/>
-      <c r="D22" s="200" t="s">
+      <c r="D22" s="206" t="s">
         <v>123</v>
       </c>
-      <c r="E22" s="200"/>
-      <c r="F22" s="200"/>
-      <c r="G22" s="200"/>
-      <c r="H22" s="200"/>
-      <c r="I22" s="200"/>
-      <c r="J22" s="200"/>
-      <c r="K22" s="200"/>
+      <c r="E22" s="206"/>
+      <c r="F22" s="206"/>
+      <c r="G22" s="206"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="206"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="75" t="s">
         <v>109</v>
       </c>
       <c r="C23" s="75"/>
-      <c r="D23" s="200" t="s">
+      <c r="D23" s="206" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="200"/>
-      <c r="F23" s="200"/>
-      <c r="G23" s="200"/>
-      <c r="H23" s="200"/>
-      <c r="I23" s="200"/>
-      <c r="J23" s="200"/>
-      <c r="K23" s="200"/>
+      <c r="E23" s="206"/>
+      <c r="F23" s="206"/>
+      <c r="G23" s="206"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="206"/>
+      <c r="J23" s="206"/>
+      <c r="K23" s="206"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="75" t="s">
         <v>110</v>
       </c>
       <c r="C24" s="75"/>
-      <c r="D24" s="200" t="s">
+      <c r="D24" s="206" t="s">
         <v>125</v>
       </c>
-      <c r="E24" s="200"/>
-      <c r="F24" s="200"/>
-      <c r="G24" s="200"/>
-      <c r="H24" s="200"/>
-      <c r="I24" s="200"/>
-      <c r="J24" s="200"/>
-      <c r="K24" s="200"/>
+      <c r="E24" s="206"/>
+      <c r="F24" s="206"/>
+      <c r="G24" s="206"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="206"/>
+      <c r="J24" s="206"/>
+      <c r="K24" s="206"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="75" t="s">
         <v>113</v>
       </c>
       <c r="C25" s="75"/>
-      <c r="D25" s="200" t="s">
+      <c r="D25" s="206" t="s">
         <v>126</v>
       </c>
-      <c r="E25" s="200"/>
-      <c r="F25" s="200"/>
-      <c r="G25" s="200"/>
-      <c r="H25" s="200"/>
-      <c r="I25" s="200"/>
-      <c r="J25" s="200"/>
-      <c r="K25" s="200"/>
+      <c r="E25" s="206"/>
+      <c r="F25" s="206"/>
+      <c r="G25" s="206"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="206"/>
+      <c r="J25" s="206"/>
+      <c r="K25" s="206"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="75" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="75"/>
-      <c r="D26" s="200" t="s">
+      <c r="D26" s="206" t="s">
         <v>172</v>
       </c>
-      <c r="E26" s="200"/>
-      <c r="F26" s="200"/>
-      <c r="G26" s="200"/>
-      <c r="H26" s="200"/>
-      <c r="I26" s="200"/>
-      <c r="J26" s="200"/>
-      <c r="K26" s="200"/>
+      <c r="E26" s="206"/>
+      <c r="F26" s="206"/>
+      <c r="G26" s="206"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="206"/>
+      <c r="J26" s="206"/>
+      <c r="K26" s="206"/>
     </row>
     <row r="27" spans="2:11" ht="30" customHeight="1">
       <c r="B27" s="77" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="77"/>
-      <c r="D27" s="199" t="s">
+      <c r="D27" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="E27" s="199"/>
-      <c r="F27" s="199"/>
-      <c r="G27" s="199"/>
-      <c r="H27" s="199"/>
-      <c r="I27" s="199"/>
-      <c r="J27" s="199"/>
-      <c r="K27" s="199"/>
+      <c r="E27" s="201"/>
+      <c r="F27" s="201"/>
+      <c r="G27" s="201"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
+      <c r="J27" s="201"/>
+      <c r="K27" s="201"/>
     </row>
     <row r="28" spans="2:11" ht="30" customHeight="1">
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="198" t="s">
         <v>283</v>
       </c>
-      <c r="C28" s="197"/>
-      <c r="D28" s="198" t="s">
+      <c r="C28" s="199"/>
+      <c r="D28" s="200" t="s">
         <v>298</v>
       </c>
-      <c r="E28" s="199"/>
-      <c r="F28" s="199"/>
-      <c r="G28" s="199"/>
-      <c r="H28" s="199"/>
-      <c r="I28" s="199"/>
-      <c r="J28" s="199"/>
-      <c r="K28" s="199"/>
+      <c r="E28" s="201"/>
+      <c r="F28" s="201"/>
+      <c r="G28" s="201"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
+      <c r="J28" s="201"/>
+      <c r="K28" s="201"/>
     </row>
     <row r="29" spans="2:11" ht="28" customHeight="1">
-      <c r="B29" s="197" t="s">
+      <c r="B29" s="199" t="s">
         <v>173</v>
       </c>
-      <c r="C29" s="197"/>
-      <c r="D29" s="199" t="s">
+      <c r="C29" s="199"/>
+      <c r="D29" s="201" t="s">
         <v>174</v>
       </c>
-      <c r="E29" s="199"/>
-      <c r="F29" s="199"/>
-      <c r="G29" s="199"/>
-      <c r="H29" s="199"/>
-      <c r="I29" s="199"/>
-      <c r="J29" s="199"/>
-      <c r="K29" s="199"/>
+      <c r="E29" s="201"/>
+      <c r="F29" s="201"/>
+      <c r="G29" s="201"/>
+      <c r="H29" s="201"/>
+      <c r="I29" s="201"/>
+      <c r="J29" s="201"/>
+      <c r="K29" s="201"/>
     </row>
     <row r="32" spans="2:11" ht="18">
       <c r="B32" s="70" t="s">
@@ -3106,18 +3122,18 @@
     </row>
     <row r="33" spans="2:15" ht="7" customHeight="1"/>
     <row r="34" spans="2:15">
-      <c r="B34" s="202" t="s">
+      <c r="B34" s="207" t="s">
         <v>271</v>
       </c>
-      <c r="C34" s="200"/>
-      <c r="D34" s="200"/>
-      <c r="E34" s="200"/>
-      <c r="F34" s="200"/>
-      <c r="G34" s="200"/>
-      <c r="H34" s="200"/>
-      <c r="I34" s="200"/>
-      <c r="J34" s="200"/>
-      <c r="K34" s="200"/>
+      <c r="C34" s="206"/>
+      <c r="D34" s="206"/>
+      <c r="E34" s="206"/>
+      <c r="F34" s="206"/>
+      <c r="G34" s="206"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="206"/>
     </row>
     <row r="35" spans="2:15" ht="28" customHeight="1">
       <c r="B35" s="204" t="s">
@@ -3134,32 +3150,32 @@
       <c r="K35" s="204"/>
     </row>
     <row r="36" spans="2:15">
-      <c r="B36" s="202" t="s">
+      <c r="B36" s="207" t="s">
         <v>272</v>
       </c>
-      <c r="C36" s="200"/>
-      <c r="D36" s="200"/>
-      <c r="E36" s="200"/>
-      <c r="F36" s="200"/>
-      <c r="G36" s="200"/>
-      <c r="H36" s="200"/>
-      <c r="I36" s="200"/>
-      <c r="J36" s="200"/>
-      <c r="K36" s="200"/>
+      <c r="C36" s="206"/>
+      <c r="D36" s="206"/>
+      <c r="E36" s="206"/>
+      <c r="F36" s="206"/>
+      <c r="G36" s="206"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="206"/>
+      <c r="J36" s="206"/>
+      <c r="K36" s="206"/>
     </row>
     <row r="37" spans="2:15">
-      <c r="B37" s="200" t="s">
+      <c r="B37" s="206" t="s">
         <v>177</v>
       </c>
-      <c r="C37" s="200"/>
-      <c r="D37" s="200"/>
-      <c r="E37" s="200"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="200"/>
-      <c r="H37" s="200"/>
-      <c r="I37" s="200"/>
-      <c r="J37" s="200"/>
-      <c r="K37" s="200"/>
+      <c r="C37" s="206"/>
+      <c r="D37" s="206"/>
+      <c r="E37" s="206"/>
+      <c r="F37" s="206"/>
+      <c r="G37" s="206"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="206"/>
+      <c r="J37" s="206"/>
+      <c r="K37" s="206"/>
     </row>
     <row r="40" spans="2:15" ht="18">
       <c r="B40" s="70" t="s">
@@ -3172,115 +3188,115 @@
       <c r="C41" s="70"/>
     </row>
     <row r="42" spans="2:15" ht="15" customHeight="1">
-      <c r="B42" s="205" t="s">
+      <c r="B42" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="205"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="205"/>
-      <c r="K42" s="205"/>
+      <c r="C42" s="202"/>
+      <c r="D42" s="202"/>
+      <c r="E42" s="202"/>
+      <c r="F42" s="202"/>
+      <c r="G42" s="202"/>
+      <c r="H42" s="202"/>
+      <c r="I42" s="202"/>
+      <c r="J42" s="202"/>
+      <c r="K42" s="202"/>
       <c r="L42" s="80"/>
       <c r="M42" s="80"/>
       <c r="N42" s="80"/>
       <c r="O42" s="80"/>
     </row>
     <row r="43" spans="2:15" ht="46" customHeight="1">
-      <c r="B43" s="195" t="s">
+      <c r="B43" s="203" t="s">
         <v>276</v>
       </c>
-      <c r="C43" s="195"/>
-      <c r="D43" s="195"/>
-      <c r="E43" s="195"/>
-      <c r="F43" s="195"/>
-      <c r="G43" s="195"/>
-      <c r="H43" s="195"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
+      <c r="C43" s="203"/>
+      <c r="D43" s="203"/>
+      <c r="E43" s="203"/>
+      <c r="F43" s="203"/>
+      <c r="G43" s="203"/>
+      <c r="H43" s="203"/>
+      <c r="I43" s="203"/>
+      <c r="J43" s="203"/>
+      <c r="K43" s="203"/>
       <c r="L43" s="78"/>
       <c r="M43" s="78"/>
       <c r="N43" s="78"/>
       <c r="O43" s="78"/>
     </row>
     <row r="44" spans="2:15" ht="39" customHeight="1">
-      <c r="B44" s="195" t="s">
+      <c r="B44" s="203" t="s">
         <v>268</v>
       </c>
-      <c r="C44" s="195"/>
-      <c r="D44" s="195"/>
-      <c r="E44" s="195"/>
-      <c r="F44" s="195"/>
-      <c r="G44" s="195"/>
-      <c r="H44" s="195"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
+      <c r="C44" s="203"/>
+      <c r="D44" s="203"/>
+      <c r="E44" s="203"/>
+      <c r="F44" s="203"/>
+      <c r="G44" s="203"/>
+      <c r="H44" s="203"/>
+      <c r="I44" s="203"/>
+      <c r="J44" s="203"/>
+      <c r="K44" s="203"/>
       <c r="L44" s="79"/>
       <c r="M44" s="79"/>
       <c r="N44" s="79"/>
       <c r="O44" s="79"/>
     </row>
     <row r="45" spans="2:15" ht="56" customHeight="1">
-      <c r="B45" s="195" t="s">
+      <c r="B45" s="203" t="s">
         <v>277</v>
       </c>
-      <c r="C45" s="195"/>
-      <c r="D45" s="195"/>
-      <c r="E45" s="195"/>
-      <c r="F45" s="195"/>
-      <c r="G45" s="195"/>
-      <c r="H45" s="195"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="195"/>
-      <c r="K45" s="195"/>
+      <c r="C45" s="203"/>
+      <c r="D45" s="203"/>
+      <c r="E45" s="203"/>
+      <c r="F45" s="203"/>
+      <c r="G45" s="203"/>
+      <c r="H45" s="203"/>
+      <c r="I45" s="203"/>
+      <c r="J45" s="203"/>
+      <c r="K45" s="203"/>
       <c r="L45" s="79"/>
       <c r="M45" s="79"/>
       <c r="N45" s="79"/>
       <c r="O45" s="79"/>
     </row>
     <row r="46" spans="2:15" ht="84" customHeight="1">
-      <c r="B46" s="195" t="s">
+      <c r="B46" s="203" t="s">
         <v>280</v>
       </c>
-      <c r="C46" s="195"/>
-      <c r="D46" s="195"/>
-      <c r="E46" s="195"/>
-      <c r="F46" s="195"/>
-      <c r="G46" s="195"/>
-      <c r="H46" s="195"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
+      <c r="C46" s="203"/>
+      <c r="D46" s="203"/>
+      <c r="E46" s="203"/>
+      <c r="F46" s="203"/>
+      <c r="G46" s="203"/>
+      <c r="H46" s="203"/>
+      <c r="I46" s="203"/>
+      <c r="J46" s="203"/>
+      <c r="K46" s="203"/>
       <c r="L46" s="79"/>
       <c r="M46" s="79"/>
       <c r="N46" s="79"/>
       <c r="O46" s="79"/>
     </row>
     <row r="47" spans="2:15" ht="99" customHeight="1">
-      <c r="B47" s="201" t="s">
+      <c r="B47" s="205" t="s">
         <v>278</v>
       </c>
-      <c r="C47" s="201"/>
-      <c r="D47" s="201"/>
-      <c r="E47" s="201"/>
-      <c r="F47" s="201"/>
-      <c r="G47" s="201"/>
-      <c r="H47" s="201"/>
-      <c r="I47" s="201"/>
-      <c r="J47" s="201"/>
-      <c r="K47" s="201"/>
+      <c r="C47" s="205"/>
+      <c r="D47" s="205"/>
+      <c r="E47" s="205"/>
+      <c r="F47" s="205"/>
+      <c r="G47" s="205"/>
+      <c r="H47" s="205"/>
+      <c r="I47" s="205"/>
+      <c r="J47" s="205"/>
+      <c r="K47" s="205"/>
       <c r="L47" s="186"/>
       <c r="M47" s="186"/>
       <c r="N47" s="186"/>
       <c r="O47" s="186"/>
     </row>
     <row r="48" spans="2:15" ht="90" customHeight="1">
-      <c r="B48" s="203" t="s">
+      <c r="B48" s="208" t="s">
         <v>279</v>
       </c>
       <c r="C48" s="204"/>
@@ -3294,18 +3310,18 @@
       <c r="K48" s="204"/>
     </row>
     <row r="49" spans="2:11" ht="33" customHeight="1">
-      <c r="B49" s="195" t="s">
+      <c r="B49" s="203" t="s">
         <v>179</v>
       </c>
-      <c r="C49" s="195"/>
-      <c r="D49" s="195"/>
-      <c r="E49" s="195"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="195"/>
-      <c r="H49" s="195"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
-      <c r="K49" s="195"/>
+      <c r="C49" s="203"/>
+      <c r="D49" s="203"/>
+      <c r="E49" s="203"/>
+      <c r="F49" s="203"/>
+      <c r="G49" s="203"/>
+      <c r="H49" s="203"/>
+      <c r="I49" s="203"/>
+      <c r="J49" s="203"/>
+      <c r="K49" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="37">
@@ -3410,87 +3426,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>160</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -5645,12 +5661,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -5659,13 +5675,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -5682,13 +5698,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -5705,13 +5721,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -5728,13 +5744,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -6006,87 +6022,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -8193,12 +8209,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -8207,13 +8223,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -8230,13 +8246,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -8253,13 +8269,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -8276,13 +8292,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -8538,87 +8554,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -10772,12 +10788,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="H17" s="61"/>
@@ -10796,13 +10812,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -10819,13 +10835,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -10842,13 +10858,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -10865,13 +10881,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -11127,87 +11143,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -13363,24 +13379,24 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="211" t="s">
+      <c r="C17" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -13397,13 +13413,13 @@
       <c r="B18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="212" t="s">
         <v>164</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -13420,13 +13436,13 @@
       <c r="B19" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="205" t="s">
+      <c r="C19" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -13443,13 +13459,13 @@
       <c r="B20" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="195" t="s">
+      <c r="C20" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -13705,87 +13721,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -15940,12 +15956,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -15954,13 +15970,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -15977,13 +15993,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -16000,13 +16016,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -16023,13 +16039,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -16308,80 +16324,80 @@
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -18487,12 +18503,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -18501,13 +18517,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -18524,13 +18540,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -18547,13 +18563,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -18570,13 +18586,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -18830,87 +18846,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -21065,13 +21081,13 @@
       <c r="B17" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="211" t="s">
+      <c r="C17" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="211"/>
-      <c r="E17" s="211"/>
-      <c r="F17" s="211"/>
-      <c r="G17" s="211"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
+      <c r="F17" s="214"/>
+      <c r="G17" s="214"/>
       <c r="H17" s="61"/>
       <c r="I17" s="61"/>
       <c r="J17" s="61"/>
@@ -21088,13 +21104,13 @@
       <c r="B18" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C18" s="209" t="s">
+      <c r="C18" s="212" t="s">
         <v>167</v>
       </c>
-      <c r="D18" s="209"/>
-      <c r="E18" s="209"/>
-      <c r="F18" s="209"/>
-      <c r="G18" s="209"/>
+      <c r="D18" s="212"/>
+      <c r="E18" s="212"/>
+      <c r="F18" s="212"/>
+      <c r="G18" s="212"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -21111,13 +21127,13 @@
       <c r="B19" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="205" t="s">
+      <c r="C19" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="213"/>
+      <c r="F19" s="213"/>
+      <c r="G19" s="213"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -21134,13 +21150,13 @@
       <c r="B20" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="195" t="s">
+      <c r="C20" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -21378,87 +21394,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="13">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -23612,61 +23628,61 @@
     <row r="16" spans="1:47" ht="13">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:7" ht="15" customHeight="1"/>
     <row r="18" spans="2:7" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
     </row>
     <row r="19" spans="2:7" ht="30" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
     </row>
     <row r="20" spans="2:7" ht="15.75" customHeight="1">
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
     </row>
     <row r="21" spans="2:7" ht="28">
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -23701,12 +23717,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFD7B3E6-DEA7-A440-B622-4E527A2359AE}">
   <dimension ref="B2:W77"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="1.83203125" style="3" customWidth="1"/>
-    <col min="2" max="4" width="12.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="3" customWidth="1"/>
     <col min="5" max="5" width="1.6640625" style="3" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="3" customWidth="1"/>
@@ -23735,44 +23755,44 @@
     </row>
     <row r="3" spans="2:19" ht="14" thickBot="1"/>
     <row r="4" spans="2:19" ht="15.75" customHeight="1">
-      <c r="F4" s="248" t="s">
+      <c r="F4" s="251" t="s">
         <v>170</v>
       </c>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="249"/>
-      <c r="N4" s="250"/>
-      <c r="P4" s="225" t="s">
+      <c r="G4" s="252"/>
+      <c r="H4" s="252"/>
+      <c r="I4" s="252"/>
+      <c r="J4" s="252"/>
+      <c r="K4" s="252"/>
+      <c r="L4" s="252"/>
+      <c r="M4" s="252"/>
+      <c r="N4" s="253"/>
+      <c r="P4" s="228" t="s">
         <v>68</v>
       </c>
-      <c r="Q4" s="226"/>
+      <c r="Q4" s="229"/>
     </row>
     <row r="5" spans="2:19" ht="15.75" customHeight="1">
-      <c r="B5" s="231" t="s">
+      <c r="B5" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="231"/>
-      <c r="D5" s="233"/>
+      <c r="C5" s="234"/>
+      <c r="D5" s="236"/>
       <c r="E5" s="72"/>
-      <c r="F5" s="240" t="s">
+      <c r="F5" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="238"/>
-      <c r="H5" s="238"/>
-      <c r="I5" s="234" t="s">
+      <c r="G5" s="241"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="235"/>
-      <c r="K5" s="236"/>
-      <c r="L5" s="237" t="s">
+      <c r="J5" s="238"/>
+      <c r="K5" s="239"/>
+      <c r="L5" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="238"/>
-      <c r="N5" s="239"/>
+      <c r="M5" s="241"/>
+      <c r="N5" s="242"/>
       <c r="P5" s="103" t="s">
         <v>69</v>
       </c>
@@ -24301,8 +24321,8 @@
         <f>'Global Footprints'!AU13*$Q$7*$Q$5</f>
         <v>3072094861.660079</v>
       </c>
-      <c r="Q16" s="208"/>
-      <c r="R16" s="208"/>
+      <c r="Q16" s="211"/>
+      <c r="R16" s="211"/>
       <c r="S16" s="7"/>
     </row>
     <row r="17" spans="2:23" ht="15.75" customHeight="1">
@@ -24417,42 +24437,42 @@
       <c r="S19" s="64"/>
     </row>
     <row r="20" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F20" s="248" t="s">
+      <c r="F20" s="251" t="s">
         <v>1</v>
       </c>
-      <c r="G20" s="249"/>
-      <c r="H20" s="249"/>
-      <c r="I20" s="249"/>
-      <c r="J20" s="249"/>
-      <c r="K20" s="249"/>
-      <c r="L20" s="249"/>
-      <c r="M20" s="249"/>
-      <c r="N20" s="250"/>
+      <c r="G20" s="252"/>
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="252"/>
+      <c r="K20" s="252"/>
+      <c r="L20" s="252"/>
+      <c r="M20" s="252"/>
+      <c r="N20" s="253"/>
       <c r="Q20" s="19"/>
       <c r="R20" s="64"/>
       <c r="S20" s="64"/>
     </row>
     <row r="21" spans="2:23" ht="15.75" customHeight="1">
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="234" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="231"/>
-      <c r="D21" s="233"/>
-      <c r="F21" s="240" t="s">
+      <c r="C21" s="234"/>
+      <c r="D21" s="236"/>
+      <c r="F21" s="243" t="s">
         <v>50</v>
       </c>
-      <c r="G21" s="238"/>
-      <c r="H21" s="238"/>
-      <c r="I21" s="234" t="s">
+      <c r="G21" s="241"/>
+      <c r="H21" s="241"/>
+      <c r="I21" s="237" t="s">
         <v>5</v>
       </c>
-      <c r="J21" s="235"/>
-      <c r="K21" s="236"/>
-      <c r="L21" s="237" t="s">
+      <c r="J21" s="238"/>
+      <c r="K21" s="239"/>
+      <c r="L21" s="240" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="238"/>
-      <c r="N21" s="239"/>
+      <c r="M21" s="241"/>
+      <c r="N21" s="242"/>
       <c r="Q21" s="19"/>
       <c r="R21" s="64"/>
       <c r="S21" s="64"/>
@@ -25153,17 +25173,17 @@
       <c r="W35" s="60"/>
     </row>
     <row r="36" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F36" s="227" t="s">
+      <c r="F36" s="230" t="s">
         <v>180</v>
       </c>
-      <c r="G36" s="228"/>
-      <c r="H36" s="228"/>
-      <c r="I36" s="228"/>
-      <c r="J36" s="228"/>
-      <c r="K36" s="228"/>
-      <c r="L36" s="228"/>
-      <c r="M36" s="228"/>
-      <c r="N36" s="229"/>
+      <c r="G36" s="231"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="231"/>
+      <c r="J36" s="231"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="231"/>
+      <c r="M36" s="231"/>
+      <c r="N36" s="232"/>
       <c r="O36" s="64"/>
       <c r="R36" s="64"/>
       <c r="T36" s="5"/>
@@ -25172,21 +25192,22 @@
       <c r="W36" s="60"/>
     </row>
     <row r="37" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F37" s="230" t="s">
+      <c r="C37" s="287"/>
+      <c r="F37" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="G37" s="231"/>
-      <c r="H37" s="231"/>
-      <c r="I37" s="232" t="s">
+      <c r="G37" s="234"/>
+      <c r="H37" s="234"/>
+      <c r="I37" s="235" t="s">
         <v>184</v>
       </c>
-      <c r="J37" s="231"/>
-      <c r="K37" s="231"/>
-      <c r="L37" s="232" t="s">
+      <c r="J37" s="234"/>
+      <c r="K37" s="234"/>
+      <c r="L37" s="235" t="s">
         <v>185</v>
       </c>
-      <c r="M37" s="231"/>
-      <c r="N37" s="233"/>
+      <c r="M37" s="234"/>
+      <c r="N37" s="236"/>
       <c r="O37" s="64"/>
       <c r="R37" s="64"/>
       <c r="T37" s="5"/>
@@ -25291,17 +25312,17 @@
       <c r="W41" s="60"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F42" s="227" t="s">
+      <c r="F42" s="230" t="s">
         <v>186</v>
       </c>
-      <c r="G42" s="228"/>
-      <c r="H42" s="228"/>
-      <c r="I42" s="228"/>
-      <c r="J42" s="228"/>
-      <c r="K42" s="228"/>
-      <c r="L42" s="228"/>
-      <c r="M42" s="228"/>
-      <c r="N42" s="229"/>
+      <c r="G42" s="231"/>
+      <c r="H42" s="231"/>
+      <c r="I42" s="231"/>
+      <c r="J42" s="231"/>
+      <c r="K42" s="231"/>
+      <c r="L42" s="231"/>
+      <c r="M42" s="231"/>
+      <c r="N42" s="232"/>
       <c r="O42" s="64"/>
       <c r="Q42" s="5"/>
       <c r="R42" s="64"/>
@@ -25311,21 +25332,21 @@
       <c r="W42" s="60"/>
     </row>
     <row r="43" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F43" s="230" t="s">
+      <c r="F43" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="G43" s="231"/>
-      <c r="H43" s="231"/>
-      <c r="I43" s="232" t="s">
+      <c r="G43" s="234"/>
+      <c r="H43" s="234"/>
+      <c r="I43" s="235" t="s">
         <v>192</v>
       </c>
-      <c r="J43" s="231"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="232" t="s">
+      <c r="J43" s="234"/>
+      <c r="K43" s="234"/>
+      <c r="L43" s="235" t="s">
         <v>199</v>
       </c>
-      <c r="M43" s="231"/>
-      <c r="N43" s="233"/>
+      <c r="M43" s="234"/>
+      <c r="N43" s="236"/>
       <c r="O43" s="64"/>
       <c r="Q43" s="5"/>
       <c r="R43" s="64"/>
@@ -25335,18 +25356,18 @@
       <c r="W43" s="60"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F44" s="245" t="s">
+      <c r="F44" s="248" t="s">
         <v>189</v>
       </c>
-      <c r="G44" s="246"/>
+      <c r="G44" s="249"/>
       <c r="H44" s="116">
         <f>G39*1000000</f>
         <v>34271985878260.867</v>
       </c>
-      <c r="I44" s="241" t="s">
+      <c r="I44" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="J44" s="242"/>
+      <c r="J44" s="245"/>
       <c r="K44" s="117">
         <f>J39/1056</f>
         <v>751141372.67813277</v>
@@ -25368,18 +25389,18 @@
       <c r="W44" s="60"/>
     </row>
     <row r="45" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F45" s="245" t="s">
+      <c r="F45" s="248" t="s">
         <v>190</v>
       </c>
-      <c r="G45" s="246"/>
+      <c r="G45" s="249"/>
       <c r="H45" s="116">
         <f>G39*1000</f>
         <v>34271985878.260864</v>
       </c>
-      <c r="I45" s="241" t="s">
+      <c r="I45" s="244" t="s">
         <v>196</v>
       </c>
-      <c r="J45" s="242"/>
+      <c r="J45" s="245"/>
       <c r="K45" s="117">
         <f>J39/833</f>
         <v>952227238.35307097</v>
@@ -25401,18 +25422,18 @@
       <c r="W45" s="60"/>
     </row>
     <row r="46" spans="2:23">
-      <c r="F46" s="245" t="s">
+      <c r="F46" s="248" t="s">
         <v>191</v>
       </c>
-      <c r="G46" s="246"/>
+      <c r="G46" s="249"/>
       <c r="H46" s="116">
         <f>G39</f>
         <v>34271985.878260866</v>
       </c>
-      <c r="I46" s="241" t="s">
+      <c r="I46" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="J46" s="242"/>
+      <c r="J46" s="245"/>
       <c r="K46" s="117">
         <f>J39/287</f>
         <v>2763781496.6833038</v>
@@ -25433,18 +25454,18 @@
       <c r="V46" s="64"/>
     </row>
     <row r="47" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F47" s="244" t="s">
+      <c r="F47" s="247" t="s">
         <v>72</v>
       </c>
-      <c r="G47" s="242"/>
+      <c r="G47" s="245"/>
       <c r="H47" s="123">
         <f>1/(0.000403)*G39</f>
         <v>85042148581.292465</v>
       </c>
-      <c r="I47" s="241" t="s">
+      <c r="I47" s="244" t="s">
         <v>194</v>
       </c>
-      <c r="J47" s="242"/>
+      <c r="J47" s="245"/>
       <c r="K47" s="117">
         <f>J39/200</f>
         <v>3966026447.740541</v>
@@ -25465,18 +25486,18 @@
       <c r="V47" s="64"/>
     </row>
     <row r="48" spans="2:23" ht="15.75" customHeight="1">
-      <c r="F48" s="244" t="s">
+      <c r="F48" s="247" t="s">
         <v>73</v>
       </c>
-      <c r="G48" s="242"/>
+      <c r="G48" s="245"/>
       <c r="H48" s="123">
         <f>H44/8887</f>
         <v>3856417900.1081204</v>
       </c>
-      <c r="I48" s="241" t="s">
+      <c r="I48" s="244" t="s">
         <v>197</v>
       </c>
-      <c r="J48" s="242"/>
+      <c r="J48" s="245"/>
       <c r="K48" s="117">
         <f>J39/533</f>
         <v>1488190036.6756251</v>
@@ -25497,18 +25518,18 @@
       <c r="V48" s="64"/>
     </row>
     <row r="49" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F49" s="244" t="s">
+      <c r="F49" s="247" t="s">
         <v>74</v>
       </c>
-      <c r="G49" s="242"/>
+      <c r="G49" s="245"/>
       <c r="H49" s="123">
         <f>(1/8.67)*H46</f>
         <v>3952939.5476656132</v>
       </c>
-      <c r="I49" s="241" t="s">
+      <c r="I49" s="244" t="s">
         <v>198</v>
       </c>
-      <c r="J49" s="242"/>
+      <c r="J49" s="245"/>
       <c r="K49" s="117">
         <f>J39/296</f>
         <v>2679747599.8246899</v>
@@ -25529,18 +25550,18 @@
       <c r="V49" s="64"/>
     </row>
     <row r="50" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F50" s="244" t="s">
+      <c r="F50" s="247" t="s">
         <v>75</v>
       </c>
-      <c r="G50" s="242"/>
+      <c r="G50" s="245"/>
       <c r="H50" s="123">
         <f>(1/0.43)*(H46)</f>
         <v>79702292.740141556</v>
       </c>
-      <c r="I50" s="241" t="s">
+      <c r="I50" s="244" t="s">
         <v>193</v>
       </c>
-      <c r="J50" s="242"/>
+      <c r="J50" s="245"/>
       <c r="K50" s="117">
         <f>J39/15415</f>
         <v>51456716.804937281</v>
@@ -25556,18 +25577,18 @@
       <c r="V50" s="64"/>
     </row>
     <row r="51" spans="6:22" ht="15.75" customHeight="1">
-      <c r="F51" s="244" t="s">
+      <c r="F51" s="247" t="s">
         <v>76</v>
       </c>
-      <c r="G51" s="242"/>
+      <c r="G51" s="245"/>
       <c r="H51" s="123">
         <f>(1/75.54)*H46</f>
         <v>453693.22052238369</v>
       </c>
-      <c r="I51" s="242" t="s">
+      <c r="I51" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="J51" s="242"/>
+      <c r="J51" s="245"/>
       <c r="K51" s="117">
         <f>J39/2500000</f>
         <v>317282.11581924325</v>
@@ -25583,18 +25604,18 @@
       <c r="V51" s="64"/>
     </row>
     <row r="52" spans="6:22" ht="15.75" customHeight="1" thickBot="1">
-      <c r="F52" s="251" t="s">
+      <c r="F52" s="254" t="s">
         <v>77</v>
       </c>
-      <c r="G52" s="243"/>
+      <c r="G52" s="246"/>
       <c r="H52" s="124">
         <f>1/(0.06)*H46</f>
         <v>571199764.63768113</v>
       </c>
-      <c r="I52" s="243" t="s">
+      <c r="I52" s="246" t="s">
         <v>79</v>
       </c>
-      <c r="J52" s="243"/>
+      <c r="J52" s="246"/>
       <c r="K52" s="120">
         <f>J39/(1000*100000)</f>
         <v>7932.0528954810816</v>
@@ -25618,17 +25639,17 @@
       <c r="V53" s="64"/>
     </row>
     <row r="54" spans="6:22" ht="23" customHeight="1">
-      <c r="F54" s="247" t="s">
+      <c r="F54" s="250" t="s">
         <v>282</v>
       </c>
-      <c r="G54" s="247"/>
-      <c r="H54" s="247"/>
-      <c r="I54" s="247"/>
-      <c r="J54" s="247"/>
-      <c r="K54" s="247"/>
-      <c r="L54" s="247"/>
-      <c r="M54" s="247"/>
-      <c r="N54" s="247"/>
+      <c r="G54" s="250"/>
+      <c r="H54" s="250"/>
+      <c r="I54" s="250"/>
+      <c r="J54" s="250"/>
+      <c r="K54" s="250"/>
+      <c r="L54" s="250"/>
+      <c r="M54" s="250"/>
+      <c r="N54" s="250"/>
     </row>
     <row r="55" spans="6:22" ht="15.75" customHeight="1"/>
     <row r="56" spans="6:22" ht="15.75" customHeight="1"/>
@@ -25704,7 +25725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F7F493-4DF4-134A-A226-228CD7E1D96A}">
   <dimension ref="A1:AA60"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -25767,89 +25788,89 @@
     </row>
     <row r="3" spans="1:25" ht="16">
       <c r="A3" s="125"/>
-      <c r="B3" s="266" t="s">
+      <c r="B3" s="269" t="s">
         <v>206</v>
       </c>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
-      <c r="E3" s="267"/>
-      <c r="F3" s="267"/>
-      <c r="G3" s="267"/>
-      <c r="H3" s="267"/>
-      <c r="I3" s="267"/>
-      <c r="J3" s="268"/>
+      <c r="C3" s="270"/>
+      <c r="D3" s="270"/>
+      <c r="E3" s="270"/>
+      <c r="F3" s="270"/>
+      <c r="G3" s="270"/>
+      <c r="H3" s="270"/>
+      <c r="I3" s="270"/>
+      <c r="J3" s="271"/>
       <c r="K3" s="125"/>
-      <c r="L3" s="252" t="s">
+      <c r="L3" s="255" t="s">
         <v>235</v>
       </c>
-      <c r="M3" s="253"/>
-      <c r="N3" s="253"/>
-      <c r="O3" s="253"/>
-      <c r="P3" s="253"/>
-      <c r="Q3" s="253"/>
-      <c r="R3" s="254"/>
+      <c r="M3" s="256"/>
+      <c r="N3" s="256"/>
+      <c r="O3" s="256"/>
+      <c r="P3" s="256"/>
+      <c r="Q3" s="256"/>
+      <c r="R3" s="257"/>
       <c r="S3" s="163"/>
-      <c r="T3" s="261" t="s">
+      <c r="T3" s="264" t="s">
         <v>248</v>
       </c>
-      <c r="U3" s="262"/>
-      <c r="V3" s="262"/>
-      <c r="W3" s="262"/>
-      <c r="X3" s="262"/>
-      <c r="Y3" s="263"/>
+      <c r="U3" s="265"/>
+      <c r="V3" s="265"/>
+      <c r="W3" s="265"/>
+      <c r="X3" s="265"/>
+      <c r="Y3" s="266"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="125"/>
-      <c r="B4" s="270" t="s">
+      <c r="B4" s="273" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="265" t="s">
+      <c r="C4" s="268" t="s">
         <v>207</v>
       </c>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265" t="s">
+      <c r="D4" s="268"/>
+      <c r="E4" s="268" t="s">
         <v>208</v>
       </c>
-      <c r="F4" s="265"/>
-      <c r="G4" s="265" t="s">
+      <c r="F4" s="268"/>
+      <c r="G4" s="268" t="s">
         <v>209</v>
       </c>
-      <c r="H4" s="265"/>
-      <c r="I4" s="232" t="s">
+      <c r="H4" s="268"/>
+      <c r="I4" s="235" t="s">
         <v>210</v>
       </c>
-      <c r="J4" s="233"/>
+      <c r="J4" s="236"/>
       <c r="K4" s="125"/>
-      <c r="L4" s="255" t="s">
+      <c r="L4" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="M4" s="265" t="s">
+      <c r="M4" s="268" t="s">
         <v>236</v>
       </c>
-      <c r="N4" s="265"/>
-      <c r="O4" s="265" t="s">
+      <c r="N4" s="268"/>
+      <c r="O4" s="268" t="s">
         <v>237</v>
       </c>
-      <c r="P4" s="265"/>
-      <c r="Q4" s="232" t="s">
+      <c r="P4" s="268"/>
+      <c r="Q4" s="235" t="s">
         <v>238</v>
       </c>
-      <c r="R4" s="264"/>
+      <c r="R4" s="267"/>
       <c r="S4" s="126"/>
       <c r="T4" s="158" t="s">
         <v>240</v>
       </c>
-      <c r="U4" s="257" t="s">
+      <c r="U4" s="260" t="s">
         <v>241</v>
       </c>
-      <c r="V4" s="257"/>
-      <c r="W4" s="257"/>
-      <c r="X4" s="257"/>
-      <c r="Y4" s="258"/>
+      <c r="V4" s="260"/>
+      <c r="W4" s="260"/>
+      <c r="X4" s="260"/>
+      <c r="Y4" s="261"/>
     </row>
     <row r="5" spans="1:25" ht="13" customHeight="1">
       <c r="A5" s="125"/>
-      <c r="B5" s="270"/>
+      <c r="B5" s="273"/>
       <c r="C5" s="126" t="s">
         <v>225</v>
       </c>
@@ -25875,7 +25896,7 @@
         <v>92</v>
       </c>
       <c r="K5" s="125"/>
-      <c r="L5" s="255"/>
+      <c r="L5" s="258"/>
       <c r="M5" s="163" t="s">
         <v>182</v>
       </c>
@@ -25898,13 +25919,13 @@
       <c r="T5" s="159" t="s">
         <v>242</v>
       </c>
-      <c r="U5" s="257" t="s">
+      <c r="U5" s="260" t="s">
         <v>243</v>
       </c>
-      <c r="V5" s="257"/>
-      <c r="W5" s="257"/>
-      <c r="X5" s="257"/>
-      <c r="Y5" s="258"/>
+      <c r="V5" s="260"/>
+      <c r="W5" s="260"/>
+      <c r="X5" s="260"/>
+      <c r="Y5" s="261"/>
     </row>
     <row r="6" spans="1:25">
       <c r="A6" s="125"/>
@@ -25918,8 +25939,8 @@
         <v>7</v>
       </c>
       <c r="E6" s="137">
-        <f>C6*'Global Footprints'!$AA$15</f>
-        <v>28.056440579710138</v>
+        <f>C6*'Global Footprints'!$AC$15</f>
+        <v>62.937857707509885</v>
       </c>
       <c r="F6" s="137">
         <f>D6*'Global Footprints'!$AC$15</f>
@@ -25947,7 +25968,7 @@
       </c>
       <c r="M6" s="176">
         <f>E6*4*30</f>
-        <v>3366.7728695652168</v>
+        <v>7552.5429249011859</v>
       </c>
       <c r="N6" s="176">
         <f>F6*4*30</f>
@@ -25973,13 +25994,13 @@
       <c r="T6" s="160" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="257" t="s">
+      <c r="U6" s="260" t="s">
         <v>244</v>
       </c>
-      <c r="V6" s="257"/>
-      <c r="W6" s="257"/>
-      <c r="X6" s="257"/>
-      <c r="Y6" s="258"/>
+      <c r="V6" s="260"/>
+      <c r="W6" s="260"/>
+      <c r="X6" s="260"/>
+      <c r="Y6" s="261"/>
     </row>
     <row r="7" spans="1:25" ht="14">
       <c r="A7" s="125"/>
@@ -25993,8 +26014,8 @@
         <v>7.2</v>
       </c>
       <c r="E7" s="137">
-        <f>C7*'Global Footprints'!$AA$15</f>
-        <v>37.876194782608685</v>
+        <f>C7*'Global Footprints'!$AC$15</f>
+        <v>84.966107905138344</v>
       </c>
       <c r="F7" s="137">
         <f>D7*'Global Footprints'!$AC$15</f>
@@ -26022,7 +26043,7 @@
       </c>
       <c r="M7" s="176">
         <f t="shared" ref="M7:M9" si="1">E7*4*30</f>
-        <v>4545.1433739130425</v>
+        <v>10195.932948616601</v>
       </c>
       <c r="N7" s="176">
         <f t="shared" ref="N7:N10" si="2">F7*4*30</f>
@@ -26048,13 +26069,13 @@
       <c r="T7" s="161" t="s">
         <v>29</v>
       </c>
-      <c r="U7" s="257" t="s">
+      <c r="U7" s="260" t="s">
         <v>245</v>
       </c>
-      <c r="V7" s="257"/>
-      <c r="W7" s="257"/>
-      <c r="X7" s="257"/>
-      <c r="Y7" s="258"/>
+      <c r="V7" s="260"/>
+      <c r="W7" s="260"/>
+      <c r="X7" s="260"/>
+      <c r="Y7" s="261"/>
     </row>
     <row r="8" spans="1:25" ht="15" thickBot="1">
       <c r="A8" s="125"/>
@@ -26068,8 +26089,8 @@
         <v>7</v>
       </c>
       <c r="E8" s="137">
-        <f>C8*'Global Footprints'!$AA$15</f>
-        <v>25.250796521739126</v>
+        <f>C8*'Global Footprints'!$AC$15</f>
+        <v>56.644071936758898</v>
       </c>
       <c r="F8" s="137">
         <f>D8*'Global Footprints'!$AC$15</f>
@@ -26097,7 +26118,7 @@
       </c>
       <c r="M8" s="176">
         <f t="shared" si="1"/>
-        <v>3030.0955826086952</v>
+        <v>6797.2886324110677</v>
       </c>
       <c r="N8" s="176">
         <f t="shared" si="2"/>
@@ -26123,13 +26144,13 @@
       <c r="T8" s="162" t="s">
         <v>246</v>
       </c>
-      <c r="U8" s="259" t="s">
+      <c r="U8" s="262" t="s">
         <v>247</v>
       </c>
-      <c r="V8" s="259"/>
-      <c r="W8" s="259"/>
-      <c r="X8" s="259"/>
-      <c r="Y8" s="260"/>
+      <c r="V8" s="262"/>
+      <c r="W8" s="262"/>
+      <c r="X8" s="262"/>
+      <c r="Y8" s="263"/>
     </row>
     <row r="9" spans="1:25" ht="14">
       <c r="A9" s="125"/>
@@ -26143,8 +26164,8 @@
         <v>15.98</v>
       </c>
       <c r="E9" s="137">
-        <f>C9*'Global Footprints'!$AA$15</f>
-        <v>6.3126991304347815</v>
+        <f>C9*'Global Footprints'!$AC$15</f>
+        <v>14.161017984189725</v>
       </c>
       <c r="F9" s="137">
         <f>D9*'Global Footprints'!$AC$15</f>
@@ -26172,7 +26193,7 @@
       </c>
       <c r="M9" s="176">
         <f t="shared" si="1"/>
-        <v>757.52389565217379</v>
+        <v>1699.3221581027669</v>
       </c>
       <c r="N9" s="176">
         <f t="shared" si="2"/>
@@ -26207,7 +26228,9 @@
       <c r="D10" s="132">
         <v>0.04</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="197" t="s">
+        <v>9</v>
+      </c>
       <c r="F10" s="137">
         <f>D10*'Global Footprints'!$AC$15</f>
         <v>2.5175143083003952</v>
@@ -26265,8 +26288,8 @@
         <v>1.86</v>
       </c>
       <c r="E11" s="137">
-        <f>C11*'Global Footprints'!$AA$15</f>
-        <v>2.8056440579710138</v>
+        <f>C11*'Global Footprints'!$AC$15</f>
+        <v>6.293785770750989</v>
       </c>
       <c r="F11" s="137">
         <f>D11*'Global Footprints'!$AC$15</f>
@@ -26294,7 +26317,7 @@
       </c>
       <c r="M11" s="170">
         <f>E11*15*4</f>
-        <v>168.33864347826082</v>
+        <v>377.62714624505935</v>
       </c>
       <c r="N11" s="170">
         <f t="shared" ref="N11:R16" si="7">F11*15*4</f>
@@ -26335,8 +26358,8 @@
         <v>2.5</v>
       </c>
       <c r="E12" s="137">
-        <f>C12*'Global Footprints'!$AA$15</f>
-        <v>15.150477913043476</v>
+        <f>C12*'Global Footprints'!$AC$15</f>
+        <v>33.986443162055338</v>
       </c>
       <c r="F12" s="137">
         <f>D12*'Global Footprints'!$AC$15</f>
@@ -26364,7 +26387,7 @@
       </c>
       <c r="M12" s="170">
         <f t="shared" ref="M12:M15" si="8">E12*15*4</f>
-        <v>909.0286747826085</v>
+        <v>2039.1865897233201</v>
       </c>
       <c r="N12" s="170">
         <f t="shared" si="7"/>
@@ -26405,8 +26428,8 @@
         <v>2.58</v>
       </c>
       <c r="E13" s="137">
-        <f>C13*'Global Footprints'!$AA$15</f>
-        <v>12.625398260869563</v>
+        <f>C13*'Global Footprints'!$AC$15</f>
+        <v>28.322035968379449</v>
       </c>
       <c r="F13" s="137">
         <f>D13*'Global Footprints'!$AC$15</f>
@@ -26434,7 +26457,7 @@
       </c>
       <c r="M13" s="170">
         <f t="shared" si="8"/>
-        <v>757.52389565217379</v>
+        <v>1699.3221581027669</v>
       </c>
       <c r="N13" s="170">
         <f t="shared" si="7"/>
@@ -26539,8 +26562,8 @@
         <v>3.24</v>
       </c>
       <c r="E15" s="137">
-        <f>C15*'Global Footprints'!$AA$15</f>
-        <v>7.575238956521738</v>
+        <f>C15*'Global Footprints'!$AC$15</f>
+        <v>16.993221581027669</v>
       </c>
       <c r="F15" s="137">
         <f>D15*'Global Footprints'!$AC$15</f>
@@ -26568,7 +26591,7 @@
       </c>
       <c r="M15" s="170">
         <f t="shared" si="8"/>
-        <v>454.51433739130425</v>
+        <v>1019.5932948616601</v>
       </c>
       <c r="N15" s="170">
         <f t="shared" si="7"/>
@@ -26673,8 +26696,8 @@
         <v>0.156</v>
       </c>
       <c r="E17" s="137">
-        <f>C17*'Global Footprints'!$AA$15</f>
-        <v>2.5250796521739125</v>
+        <f>C17*'Global Footprints'!$AC$15</f>
+        <v>5.6644071936758893</v>
       </c>
       <c r="F17" s="137">
         <f>D17*'Global Footprints'!$AC$15</f>
@@ -26702,7 +26725,7 @@
       </c>
       <c r="M17" s="170">
         <f>E17*2*30</f>
-        <v>151.50477913043474</v>
+        <v>339.86443162055338</v>
       </c>
       <c r="N17" s="170">
         <f t="shared" ref="N17:R21" si="12">F17*2*30</f>
@@ -26934,8 +26957,8 @@
         <v>1.4</v>
       </c>
       <c r="E21" s="137">
-        <f>C21*'Global Footprints'!$AA$15</f>
-        <v>13.467091478260866</v>
+        <f>C21*'Global Footprints'!$AC$15</f>
+        <v>30.210171699604743</v>
       </c>
       <c r="F21" s="137">
         <f>D21*'Global Footprints'!$AC$15</f>
@@ -26962,7 +26985,7 @@
       </c>
       <c r="M21" s="170">
         <f>E21*2*30</f>
-        <v>808.02548869565192</v>
+        <v>1812.6103019762845</v>
       </c>
       <c r="N21" s="170">
         <f t="shared" si="12"/>
@@ -27003,8 +27026,8 @@
         <v>0.4</v>
       </c>
       <c r="E22" s="137">
-        <f>C22*'Global Footprints'!$AA$15</f>
-        <v>0.22445152463768112</v>
+        <f>C22*'Global Footprints'!$AC$15</f>
+        <v>0.50350286166007907</v>
       </c>
       <c r="F22" s="137">
         <f>D22*'Global Footprints'!$AC$15</f>
@@ -27031,7 +27054,7 @@
       </c>
       <c r="M22" s="170">
         <f>E22*1*30</f>
-        <v>6.7335457391304336</v>
+        <v>15.105085849802371</v>
       </c>
       <c r="N22" s="170">
         <f t="shared" ref="N22:R23" si="15">F22*1*30</f>
@@ -27072,8 +27095,8 @@
         <v>0.11</v>
       </c>
       <c r="E23" s="137">
-        <f>C23*'Global Footprints'!$AA$15</f>
-        <v>0.11222576231884056</v>
+        <f>C23*'Global Footprints'!$AC$15</f>
+        <v>0.25175143083003954</v>
       </c>
       <c r="F23" s="137">
         <f>D23*'Global Footprints'!$AC$15</f>
@@ -27100,7 +27123,7 @@
       </c>
       <c r="M23" s="170">
         <f>E23*1*30</f>
-        <v>3.3667728695652168</v>
+        <v>7.5525429249011857</v>
       </c>
       <c r="N23" s="170">
         <f t="shared" si="15"/>
@@ -27141,8 +27164,8 @@
         <v>0.3</v>
       </c>
       <c r="E24" s="137">
-        <f>C24*'Global Footprints'!$AA$15</f>
-        <v>1.1222576231884056</v>
+        <f>C24*'Global Footprints'!$AC$15</f>
+        <v>2.5175143083003952</v>
       </c>
       <c r="F24" s="137">
         <f>D24*'Global Footprints'!$AC$15</f>
@@ -27169,7 +27192,7 @@
       </c>
       <c r="M24" s="170">
         <f>E24*4*30</f>
-        <v>134.67091478260866</v>
+        <v>302.10171699604746</v>
       </c>
       <c r="N24" s="170">
         <f>F24*4*30</f>
@@ -27284,13 +27307,13 @@
       <c r="X26" s="102"/>
     </row>
     <row r="27" spans="1:27" ht="16">
-      <c r="B27" s="269" t="s">
+      <c r="B27" s="272" t="s">
         <v>226</v>
       </c>
-      <c r="C27" s="269"/>
-      <c r="D27" s="269"/>
-      <c r="E27" s="269"/>
-      <c r="F27" s="269"/>
+      <c r="C27" s="272"/>
+      <c r="D27" s="272"/>
+      <c r="E27" s="272"/>
+      <c r="F27" s="272"/>
       <c r="G27" s="125"/>
       <c r="H27" s="125"/>
       <c r="R27" s="150"/>
@@ -27300,10 +27323,16 @@
       <c r="W27" s="85"/>
       <c r="X27" s="102"/>
     </row>
+    <row r="28" spans="1:27">
+      <c r="G28" s="195"/>
+      <c r="H28" s="137"/>
+    </row>
     <row r="29" spans="1:27">
       <c r="B29" s="71" t="s">
         <v>234</v>
       </c>
+      <c r="F29" s="196"/>
+      <c r="H29" s="137"/>
     </row>
     <row r="30" spans="1:27">
       <c r="G30" s="3"/>
@@ -27312,6 +27341,7 @@
       <c r="J30" s="125"/>
       <c r="K30" s="125"/>
       <c r="L30" s="125"/>
+      <c r="P30" s="288"/>
       <c r="W30"/>
       <c r="X30"/>
       <c r="Y30"/>
@@ -27345,19 +27375,19 @@
     </row>
     <row r="32" spans="1:27" ht="16">
       <c r="B32" s="125"/>
-      <c r="C32" s="252" t="s">
+      <c r="C32" s="255" t="s">
         <v>263</v>
       </c>
-      <c r="D32" s="253"/>
-      <c r="E32" s="253"/>
-      <c r="F32" s="253"/>
-      <c r="G32" s="253"/>
-      <c r="H32" s="253"/>
-      <c r="I32" s="253"/>
-      <c r="J32" s="253"/>
-      <c r="K32" s="253"/>
-      <c r="L32" s="253"/>
-      <c r="M32" s="254"/>
+      <c r="D32" s="256"/>
+      <c r="E32" s="256"/>
+      <c r="F32" s="256"/>
+      <c r="G32" s="256"/>
+      <c r="H32" s="256"/>
+      <c r="I32" s="256"/>
+      <c r="J32" s="256"/>
+      <c r="K32" s="256"/>
+      <c r="L32" s="256"/>
+      <c r="M32" s="257"/>
       <c r="N32" s="151"/>
       <c r="O32" s="151"/>
       <c r="P32"/>
@@ -27375,31 +27405,31 @@
     </row>
     <row r="33" spans="2:27">
       <c r="B33" s="125"/>
-      <c r="C33" s="255" t="s">
+      <c r="C33" s="258" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="241" t="s">
+      <c r="D33" s="244" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="242"/>
-      <c r="F33" s="241" t="s">
+      <c r="E33" s="245"/>
+      <c r="F33" s="244" t="s">
         <v>262</v>
       </c>
-      <c r="G33" s="242"/>
-      <c r="H33" s="241" t="s">
+      <c r="G33" s="245"/>
+      <c r="H33" s="244" t="s">
         <v>194</v>
       </c>
-      <c r="I33" s="242"/>
-      <c r="J33" s="241" t="s">
+      <c r="I33" s="245"/>
+      <c r="J33" s="244" t="s">
         <v>197</v>
       </c>
-      <c r="K33" s="242"/>
-      <c r="L33" s="241" t="s">
+      <c r="K33" s="245"/>
+      <c r="L33" s="244" t="s">
         <v>198</v>
       </c>
-      <c r="M33" s="256"/>
-      <c r="N33" s="241"/>
-      <c r="O33" s="242"/>
+      <c r="M33" s="259"/>
+      <c r="N33" s="244"/>
+      <c r="O33" s="245"/>
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
@@ -27415,7 +27445,7 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="125"/>
-      <c r="C34" s="255"/>
+      <c r="C34" s="258"/>
       <c r="D34" s="163" t="s">
         <v>92</v>
       </c>
@@ -28576,7 +28606,9 @@
   </sheetPr>
   <dimension ref="A1:AU89"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC15" sqref="AC15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -28628,87 +28660,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="218" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="221" t="s">
         <v>145</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="218" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="221" t="s">
         <v>146</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="218" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="221" t="s">
         <v>147</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -30817,37 +30849,37 @@
     </row>
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="18" spans="1:18" ht="15.75" customHeight="1">
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="59"/>
     </row>
     <row r="19" spans="1:18" ht="47" customHeight="1">
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -30864,13 +30896,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -30887,13 +30919,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -31193,28 +31225,28 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="16">
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="274" t="s">
         <v>284</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="271"/>
-      <c r="E2" s="271"/>
-      <c r="F2" s="271"/>
-      <c r="G2" s="271"/>
-      <c r="H2" s="271"/>
-      <c r="I2" s="271"/>
+      <c r="C2" s="274"/>
+      <c r="D2" s="274"/>
+      <c r="E2" s="274"/>
+      <c r="F2" s="274"/>
+      <c r="G2" s="274"/>
+      <c r="H2" s="274"/>
+      <c r="I2" s="274"/>
     </row>
     <row r="3" spans="2:9" ht="124" customHeight="1">
-      <c r="B3" s="195" t="s">
+      <c r="B3" s="203" t="s">
         <v>286</v>
       </c>
-      <c r="C3" s="272"/>
-      <c r="D3" s="272"/>
-      <c r="E3" s="272"/>
-      <c r="F3" s="272"/>
-      <c r="G3" s="272"/>
-      <c r="H3" s="272"/>
-      <c r="I3" s="272"/>
+      <c r="C3" s="275"/>
+      <c r="D3" s="275"/>
+      <c r="E3" s="275"/>
+      <c r="F3" s="275"/>
+      <c r="G3" s="275"/>
+      <c r="H3" s="275"/>
+      <c r="I3" s="275"/>
     </row>
     <row r="4" spans="2:9" s="192" customFormat="1" ht="7" customHeight="1">
       <c r="B4" s="191"/>
@@ -31227,53 +31259,53 @@
       <c r="I4" s="194"/>
     </row>
     <row r="5" spans="2:9" s="192" customFormat="1" ht="70" customHeight="1">
-      <c r="B5" s="195" t="s">
+      <c r="B5" s="203" t="s">
         <v>302</v>
       </c>
-      <c r="C5" s="195"/>
-      <c r="D5" s="195"/>
-      <c r="E5" s="195"/>
-      <c r="F5" s="195"/>
-      <c r="G5" s="195"/>
-      <c r="H5" s="195"/>
-      <c r="I5" s="195"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="203"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
     </row>
     <row r="6" spans="2:9" ht="6" customHeight="1"/>
     <row r="7" spans="2:9" ht="85" customHeight="1">
-      <c r="B7" s="195" t="s">
+      <c r="B7" s="203" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="272"/>
-      <c r="D7" s="272"/>
-      <c r="E7" s="272"/>
-      <c r="F7" s="272"/>
-      <c r="G7" s="272"/>
-      <c r="H7" s="272"/>
-      <c r="I7" s="272"/>
+      <c r="C7" s="275"/>
+      <c r="D7" s="275"/>
+      <c r="E7" s="275"/>
+      <c r="F7" s="275"/>
+      <c r="G7" s="275"/>
+      <c r="H7" s="275"/>
+      <c r="I7" s="275"/>
     </row>
     <row r="9" spans="2:9" ht="16">
-      <c r="B9" s="271" t="s">
+      <c r="B9" s="274" t="s">
         <v>295</v>
       </c>
-      <c r="C9" s="271"/>
-      <c r="D9" s="271"/>
-      <c r="E9" s="271"/>
-      <c r="F9" s="271"/>
-      <c r="G9" s="271"/>
-      <c r="H9" s="271"/>
-      <c r="I9" s="271"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="274"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
     </row>
     <row r="10" spans="2:9" ht="33" customHeight="1">
-      <c r="B10" s="195" t="s">
+      <c r="B10" s="203" t="s">
         <v>296</v>
       </c>
-      <c r="C10" s="272"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
-      <c r="G10" s="272"/>
-      <c r="H10" s="272"/>
-      <c r="I10" s="272"/>
+      <c r="C10" s="275"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="275"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="275"/>
+      <c r="H10" s="275"/>
+      <c r="I10" s="275"/>
     </row>
     <row r="11" spans="2:9" s="192" customFormat="1" ht="6" customHeight="1">
       <c r="B11" s="191"/>
@@ -31286,43 +31318,43 @@
       <c r="I11" s="194"/>
     </row>
     <row r="12" spans="2:9" ht="74" customHeight="1">
-      <c r="B12" s="195" t="s">
+      <c r="B12" s="203" t="s">
         <v>297</v>
       </c>
-      <c r="C12" s="272"/>
-      <c r="D12" s="272"/>
-      <c r="E12" s="272"/>
-      <c r="F12" s="272"/>
-      <c r="G12" s="272"/>
-      <c r="H12" s="272"/>
-      <c r="I12" s="272"/>
+      <c r="C12" s="275"/>
+      <c r="D12" s="275"/>
+      <c r="E12" s="275"/>
+      <c r="F12" s="275"/>
+      <c r="G12" s="275"/>
+      <c r="H12" s="275"/>
+      <c r="I12" s="275"/>
     </row>
     <row r="13" spans="2:9">
       <c r="B13" s="193"/>
     </row>
     <row r="14" spans="2:9" ht="16">
-      <c r="B14" s="271" t="s">
+      <c r="B14" s="274" t="s">
         <v>299</v>
       </c>
-      <c r="C14" s="271"/>
-      <c r="D14" s="271"/>
-      <c r="E14" s="271"/>
-      <c r="F14" s="271"/>
-      <c r="G14" s="271"/>
-      <c r="H14" s="271"/>
-      <c r="I14" s="271"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="274"/>
+      <c r="E14" s="274"/>
+      <c r="F14" s="274"/>
+      <c r="G14" s="274"/>
+      <c r="H14" s="274"/>
+      <c r="I14" s="274"/>
     </row>
     <row r="15" spans="2:9" ht="94" customHeight="1">
-      <c r="B15" s="195" t="s">
+      <c r="B15" s="203" t="s">
         <v>300</v>
       </c>
-      <c r="C15" s="195"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="195"/>
-      <c r="F15" s="195"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
+      <c r="C15" s="203"/>
+      <c r="D15" s="203"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="203"/>
+      <c r="H15" s="203"/>
+      <c r="I15" s="203"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -31344,7 +31376,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81B307FA-336F-214A-A577-25056E572739}">
   <dimension ref="A2:O45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:O22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
@@ -31353,62 +31387,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="16">
-      <c r="B2" s="274" t="s">
+      <c r="B2" s="277" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="274"/>
-      <c r="D2" s="274"/>
-      <c r="E2" s="274"/>
-      <c r="F2" s="274"/>
-      <c r="G2" s="274"/>
-      <c r="H2" s="274"/>
-      <c r="I2" s="274"/>
-      <c r="J2" s="274"/>
-      <c r="K2" s="274"/>
-      <c r="L2" s="274"/>
-      <c r="M2" s="274"/>
-      <c r="N2" s="274"/>
-      <c r="O2" s="274"/>
+      <c r="C2" s="277"/>
+      <c r="D2" s="277"/>
+      <c r="E2" s="277"/>
+      <c r="F2" s="277"/>
+      <c r="G2" s="277"/>
+      <c r="H2" s="277"/>
+      <c r="I2" s="277"/>
+      <c r="J2" s="277"/>
+      <c r="K2" s="277"/>
+      <c r="L2" s="277"/>
+      <c r="M2" s="277"/>
+      <c r="N2" s="277"/>
+      <c r="O2" s="277"/>
     </row>
     <row r="3" spans="2:15">
       <c r="B3" s="71">
         <v>1</v>
       </c>
-      <c r="C3" s="275" t="s">
+      <c r="C3" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="D3" s="275"/>
-      <c r="E3" s="275"/>
-      <c r="F3" s="275"/>
-      <c r="G3" s="275"/>
-      <c r="H3" s="275"/>
-      <c r="I3" s="275"/>
-      <c r="J3" s="275"/>
-      <c r="K3" s="275"/>
-      <c r="L3" s="275"/>
-      <c r="M3" s="275"/>
-      <c r="N3" s="275"/>
-      <c r="O3" s="275"/>
+      <c r="D3" s="278"/>
+      <c r="E3" s="278"/>
+      <c r="F3" s="278"/>
+      <c r="G3" s="278"/>
+      <c r="H3" s="278"/>
+      <c r="I3" s="278"/>
+      <c r="J3" s="278"/>
+      <c r="K3" s="278"/>
+      <c r="L3" s="278"/>
+      <c r="M3" s="278"/>
+      <c r="N3" s="278"/>
+      <c r="O3" s="278"/>
     </row>
     <row r="4" spans="2:15">
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="C4" s="273" t="s">
+      <c r="C4" s="276" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
-      <c r="F4" s="273"/>
-      <c r="G4" s="273"/>
-      <c r="H4" s="273"/>
-      <c r="I4" s="273"/>
-      <c r="J4" s="273"/>
-      <c r="K4" s="273"/>
-      <c r="L4" s="273"/>
-      <c r="M4" s="273"/>
-      <c r="N4" s="273"/>
-      <c r="O4" s="273"/>
+      <c r="D4" s="276"/>
+      <c r="E4" s="276"/>
+      <c r="F4" s="276"/>
+      <c r="G4" s="276"/>
+      <c r="H4" s="276"/>
+      <c r="I4" s="276"/>
+      <c r="J4" s="276"/>
+      <c r="K4" s="276"/>
+      <c r="L4" s="276"/>
+      <c r="M4" s="276"/>
+      <c r="N4" s="276"/>
+      <c r="O4" s="276"/>
     </row>
     <row r="5" spans="2:15">
       <c r="B5">
@@ -31422,801 +31456,801 @@
       <c r="B6" s="188">
         <v>4</v>
       </c>
-      <c r="C6" s="276" t="s">
+      <c r="C6" s="279" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="276"/>
-      <c r="E6" s="276"/>
-      <c r="F6" s="276"/>
-      <c r="G6" s="276"/>
-      <c r="H6" s="276"/>
-      <c r="I6" s="276"/>
-      <c r="J6" s="276"/>
-      <c r="K6" s="276"/>
-      <c r="L6" s="276"/>
-      <c r="M6" s="276"/>
-      <c r="N6" s="276"/>
-      <c r="O6" s="276"/>
+      <c r="D6" s="279"/>
+      <c r="E6" s="279"/>
+      <c r="F6" s="279"/>
+      <c r="G6" s="279"/>
+      <c r="H6" s="279"/>
+      <c r="I6" s="279"/>
+      <c r="J6" s="279"/>
+      <c r="K6" s="279"/>
+      <c r="L6" s="279"/>
+      <c r="M6" s="279"/>
+      <c r="N6" s="279"/>
+      <c r="O6" s="279"/>
     </row>
     <row r="7" spans="2:15">
       <c r="B7">
         <v>5</v>
       </c>
-      <c r="C7" s="205" t="s">
+      <c r="C7" s="202" t="s">
         <v>289</v>
       </c>
-      <c r="D7" s="210"/>
-      <c r="E7" s="210"/>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="210"/>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="210"/>
+      <c r="D7" s="213"/>
+      <c r="E7" s="213"/>
+      <c r="F7" s="213"/>
+      <c r="G7" s="213"/>
+      <c r="H7" s="213"/>
+      <c r="I7" s="213"/>
+      <c r="J7" s="213"/>
+      <c r="K7" s="213"/>
+      <c r="L7" s="213"/>
+      <c r="M7" s="213"/>
+      <c r="N7" s="213"/>
+      <c r="O7" s="213"/>
     </row>
     <row r="8" spans="2:15">
       <c r="B8">
         <v>6</v>
       </c>
-      <c r="C8" s="273" t="s">
+      <c r="C8" s="276" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
-      <c r="G8" s="273"/>
-      <c r="H8" s="273"/>
-      <c r="I8" s="273"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="273"/>
-      <c r="L8" s="273"/>
-      <c r="M8" s="273"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="273"/>
+      <c r="D8" s="276"/>
+      <c r="E8" s="276"/>
+      <c r="F8" s="276"/>
+      <c r="G8" s="276"/>
+      <c r="H8" s="276"/>
+      <c r="I8" s="276"/>
+      <c r="J8" s="276"/>
+      <c r="K8" s="276"/>
+      <c r="L8" s="276"/>
+      <c r="M8" s="276"/>
+      <c r="N8" s="276"/>
+      <c r="O8" s="276"/>
     </row>
     <row r="9" spans="2:15" s="3" customFormat="1">
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="210" t="s">
+      <c r="C9" s="213" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="210"/>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="210"/>
-      <c r="H9" s="210"/>
-      <c r="I9" s="210"/>
-      <c r="J9" s="210"/>
-      <c r="K9" s="210"/>
-      <c r="L9" s="210"/>
-      <c r="M9" s="210"/>
-      <c r="N9" s="210"/>
-      <c r="O9" s="210"/>
+      <c r="D9" s="213"/>
+      <c r="E9" s="213"/>
+      <c r="F9" s="213"/>
+      <c r="G9" s="213"/>
+      <c r="H9" s="213"/>
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="213"/>
+      <c r="L9" s="213"/>
+      <c r="M9" s="213"/>
+      <c r="N9" s="213"/>
+      <c r="O9" s="213"/>
     </row>
     <row r="10" spans="2:15" s="3" customFormat="1">
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="210" t="s">
+      <c r="C10" s="213" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
-      <c r="I10" s="210"/>
-      <c r="J10" s="210"/>
-      <c r="K10" s="210"/>
-      <c r="L10" s="210"/>
-      <c r="M10" s="210"/>
-      <c r="N10" s="210"/>
-      <c r="O10" s="210"/>
+      <c r="D10" s="213"/>
+      <c r="E10" s="213"/>
+      <c r="F10" s="213"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="213"/>
+      <c r="L10" s="213"/>
+      <c r="M10" s="213"/>
+      <c r="N10" s="213"/>
+      <c r="O10" s="213"/>
     </row>
     <row r="11" spans="2:15">
       <c r="B11">
         <v>9</v>
       </c>
-      <c r="C11" s="205" t="s">
+      <c r="C11" s="202" t="s">
         <v>266</v>
       </c>
-      <c r="D11" s="210"/>
-      <c r="E11" s="210"/>
-      <c r="F11" s="210"/>
-      <c r="G11" s="210"/>
-      <c r="H11" s="210"/>
-      <c r="I11" s="210"/>
-      <c r="J11" s="210"/>
-      <c r="K11" s="210"/>
-      <c r="L11" s="210"/>
-      <c r="M11" s="210"/>
-      <c r="N11" s="210"/>
-      <c r="O11" s="210"/>
+      <c r="D11" s="213"/>
+      <c r="E11" s="213"/>
+      <c r="F11" s="213"/>
+      <c r="G11" s="213"/>
+      <c r="H11" s="213"/>
+      <c r="I11" s="213"/>
+      <c r="J11" s="213"/>
+      <c r="K11" s="213"/>
+      <c r="L11" s="213"/>
+      <c r="M11" s="213"/>
+      <c r="N11" s="213"/>
+      <c r="O11" s="213"/>
     </row>
     <row r="12" spans="2:15">
       <c r="B12">
         <v>10</v>
       </c>
-      <c r="C12" s="205" t="s">
+      <c r="C12" s="202" t="s">
         <v>265</v>
       </c>
-      <c r="D12" s="210"/>
-      <c r="E12" s="210"/>
-      <c r="F12" s="210"/>
-      <c r="G12" s="210"/>
-      <c r="H12" s="210"/>
-      <c r="I12" s="210"/>
-      <c r="J12" s="210"/>
-      <c r="K12" s="210"/>
-      <c r="L12" s="210"/>
-      <c r="M12" s="210"/>
-      <c r="N12" s="210"/>
-      <c r="O12" s="210"/>
+      <c r="D12" s="213"/>
+      <c r="E12" s="213"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="213"/>
+      <c r="H12" s="213"/>
+      <c r="I12" s="213"/>
+      <c r="J12" s="213"/>
+      <c r="K12" s="213"/>
+      <c r="L12" s="213"/>
+      <c r="M12" s="213"/>
+      <c r="N12" s="213"/>
+      <c r="O12" s="213"/>
     </row>
     <row r="13" spans="2:15">
       <c r="B13">
         <v>11</v>
       </c>
-      <c r="C13" s="210" t="s">
+      <c r="C13" s="213" t="s">
         <v>138</v>
       </c>
-      <c r="D13" s="210"/>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="210"/>
-      <c r="L13" s="210"/>
-      <c r="M13" s="210"/>
-      <c r="N13" s="210"/>
-      <c r="O13" s="210"/>
+      <c r="D13" s="213"/>
+      <c r="E13" s="213"/>
+      <c r="F13" s="213"/>
+      <c r="G13" s="213"/>
+      <c r="H13" s="213"/>
+      <c r="I13" s="213"/>
+      <c r="J13" s="213"/>
+      <c r="K13" s="213"/>
+      <c r="L13" s="213"/>
+      <c r="M13" s="213"/>
+      <c r="N13" s="213"/>
+      <c r="O13" s="213"/>
     </row>
     <row r="14" spans="2:15">
       <c r="B14">
         <v>12</v>
       </c>
-      <c r="C14" s="273" t="s">
+      <c r="C14" s="276" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="273"/>
-      <c r="E14" s="273"/>
-      <c r="F14" s="273"/>
-      <c r="G14" s="273"/>
-      <c r="H14" s="273"/>
-      <c r="I14" s="273"/>
-      <c r="J14" s="273"/>
-      <c r="K14" s="273"/>
-      <c r="L14" s="273"/>
-      <c r="M14" s="273"/>
-      <c r="N14" s="273"/>
-      <c r="O14" s="273"/>
+      <c r="D14" s="276"/>
+      <c r="E14" s="276"/>
+      <c r="F14" s="276"/>
+      <c r="G14" s="276"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="276"/>
+      <c r="J14" s="276"/>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="276"/>
+      <c r="N14" s="276"/>
+      <c r="O14" s="276"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15">
         <v>13</v>
       </c>
-      <c r="C15" s="273" t="s">
+      <c r="C15" s="276" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="273"/>
-      <c r="E15" s="273"/>
-      <c r="F15" s="273"/>
-      <c r="G15" s="273"/>
-      <c r="H15" s="273"/>
-      <c r="I15" s="273"/>
-      <c r="J15" s="273"/>
-      <c r="K15" s="273"/>
-      <c r="L15" s="273"/>
-      <c r="M15" s="273"/>
-      <c r="N15" s="273"/>
-      <c r="O15" s="273"/>
+      <c r="D15" s="276"/>
+      <c r="E15" s="276"/>
+      <c r="F15" s="276"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="276"/>
+      <c r="N15" s="276"/>
+      <c r="O15" s="276"/>
     </row>
     <row r="16" spans="2:15" ht="29" customHeight="1">
       <c r="B16" s="188">
         <v>14</v>
       </c>
-      <c r="C16" s="276" t="s">
+      <c r="C16" s="279" t="s">
         <v>178</v>
       </c>
-      <c r="D16" s="276"/>
-      <c r="E16" s="276"/>
-      <c r="F16" s="276"/>
-      <c r="G16" s="276"/>
-      <c r="H16" s="276"/>
-      <c r="I16" s="276"/>
-      <c r="J16" s="276"/>
-      <c r="K16" s="276"/>
-      <c r="L16" s="276"/>
-      <c r="M16" s="276"/>
-      <c r="N16" s="276"/>
-      <c r="O16" s="276"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
+      <c r="F16" s="279"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="279"/>
+      <c r="I16" s="279"/>
+      <c r="J16" s="279"/>
+      <c r="K16" s="279"/>
+      <c r="L16" s="279"/>
+      <c r="M16" s="279"/>
+      <c r="N16" s="279"/>
+      <c r="O16" s="279"/>
     </row>
     <row r="17" spans="2:15">
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="278" t="s">
+      <c r="C17" s="281" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="278"/>
-      <c r="E17" s="278"/>
-      <c r="F17" s="278"/>
-      <c r="G17" s="278"/>
-      <c r="H17" s="278"/>
-      <c r="I17" s="278"/>
-      <c r="J17" s="278"/>
-      <c r="K17" s="278"/>
-      <c r="L17" s="278"/>
-      <c r="M17" s="278"/>
-      <c r="N17" s="278"/>
-      <c r="O17" s="278"/>
+      <c r="D17" s="281"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="281"/>
+      <c r="H17" s="281"/>
+      <c r="I17" s="281"/>
+      <c r="J17" s="281"/>
+      <c r="K17" s="281"/>
+      <c r="L17" s="281"/>
+      <c r="M17" s="281"/>
+      <c r="N17" s="281"/>
+      <c r="O17" s="281"/>
     </row>
     <row r="18" spans="2:15">
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="277" t="s">
+      <c r="C18" s="280" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="277"/>
-      <c r="E18" s="277"/>
-      <c r="F18" s="277"/>
-      <c r="G18" s="277"/>
-      <c r="H18" s="277"/>
-      <c r="I18" s="277"/>
-      <c r="J18" s="277"/>
-      <c r="K18" s="277"/>
-      <c r="L18" s="277"/>
-      <c r="M18" s="277"/>
-      <c r="N18" s="277"/>
-      <c r="O18" s="277"/>
+      <c r="D18" s="280"/>
+      <c r="E18" s="280"/>
+      <c r="F18" s="280"/>
+      <c r="G18" s="280"/>
+      <c r="H18" s="280"/>
+      <c r="I18" s="280"/>
+      <c r="J18" s="280"/>
+      <c r="K18" s="280"/>
+      <c r="L18" s="280"/>
+      <c r="M18" s="280"/>
+      <c r="N18" s="280"/>
+      <c r="O18" s="280"/>
     </row>
     <row r="19" spans="2:15">
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="277" t="s">
+      <c r="C19" s="280" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="277"/>
-      <c r="E19" s="277"/>
-      <c r="F19" s="277"/>
-      <c r="G19" s="277"/>
-      <c r="H19" s="277"/>
-      <c r="I19" s="277"/>
-      <c r="J19" s="277"/>
-      <c r="K19" s="277"/>
-      <c r="L19" s="277"/>
-      <c r="M19" s="277"/>
-      <c r="N19" s="277"/>
-      <c r="O19" s="277"/>
+      <c r="D19" s="280"/>
+      <c r="E19" s="280"/>
+      <c r="F19" s="280"/>
+      <c r="G19" s="280"/>
+      <c r="H19" s="280"/>
+      <c r="I19" s="280"/>
+      <c r="J19" s="280"/>
+      <c r="K19" s="280"/>
+      <c r="L19" s="280"/>
+      <c r="M19" s="280"/>
+      <c r="N19" s="280"/>
+      <c r="O19" s="280"/>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="277" t="s">
+      <c r="C20" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="277"/>
-      <c r="E20" s="277"/>
-      <c r="F20" s="277"/>
-      <c r="G20" s="277"/>
-      <c r="H20" s="277"/>
-      <c r="I20" s="277"/>
-      <c r="J20" s="277"/>
-      <c r="K20" s="277"/>
-      <c r="L20" s="277"/>
-      <c r="M20" s="277"/>
-      <c r="N20" s="277"/>
-      <c r="O20" s="277"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="280"/>
+      <c r="F20" s="280"/>
+      <c r="G20" s="280"/>
+      <c r="H20" s="280"/>
+      <c r="I20" s="280"/>
+      <c r="J20" s="280"/>
+      <c r="K20" s="280"/>
+      <c r="L20" s="280"/>
+      <c r="M20" s="280"/>
+      <c r="N20" s="280"/>
+      <c r="O20" s="280"/>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="277" t="s">
+      <c r="C21" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="277"/>
-      <c r="E21" s="277"/>
-      <c r="F21" s="277"/>
-      <c r="G21" s="277"/>
-      <c r="H21" s="277"/>
-      <c r="I21" s="277"/>
-      <c r="J21" s="277"/>
-      <c r="K21" s="277"/>
-      <c r="L21" s="277"/>
-      <c r="M21" s="277"/>
-      <c r="N21" s="277"/>
-      <c r="O21" s="277"/>
+      <c r="D21" s="280"/>
+      <c r="E21" s="280"/>
+      <c r="F21" s="280"/>
+      <c r="G21" s="280"/>
+      <c r="H21" s="280"/>
+      <c r="I21" s="280"/>
+      <c r="J21" s="280"/>
+      <c r="K21" s="280"/>
+      <c r="L21" s="280"/>
+      <c r="M21" s="280"/>
+      <c r="N21" s="280"/>
+      <c r="O21" s="280"/>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="3">
         <v>20</v>
       </c>
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="282" t="s">
         <v>233</v>
       </c>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
-      <c r="K22" s="205"/>
-      <c r="L22" s="205"/>
-      <c r="M22" s="205"/>
-      <c r="N22" s="205"/>
-      <c r="O22" s="205"/>
+      <c r="D22" s="202"/>
+      <c r="E22" s="202"/>
+      <c r="F22" s="202"/>
+      <c r="G22" s="202"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="202"/>
+      <c r="K22" s="202"/>
+      <c r="L22" s="202"/>
+      <c r="M22" s="202"/>
+      <c r="N22" s="202"/>
+      <c r="O22" s="202"/>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="3">
         <v>21</v>
       </c>
-      <c r="C23" s="277" t="s">
+      <c r="C23" s="280" t="s">
         <v>17</v>
       </c>
-      <c r="D23" s="277"/>
-      <c r="E23" s="277"/>
-      <c r="F23" s="277"/>
-      <c r="G23" s="277"/>
-      <c r="H23" s="277"/>
-      <c r="I23" s="277"/>
-      <c r="J23" s="277"/>
-      <c r="K23" s="277"/>
-      <c r="L23" s="277"/>
-      <c r="M23" s="277"/>
-      <c r="N23" s="277"/>
-      <c r="O23" s="277"/>
+      <c r="D23" s="280"/>
+      <c r="E23" s="280"/>
+      <c r="F23" s="280"/>
+      <c r="G23" s="280"/>
+      <c r="H23" s="280"/>
+      <c r="I23" s="280"/>
+      <c r="J23" s="280"/>
+      <c r="K23" s="280"/>
+      <c r="L23" s="280"/>
+      <c r="M23" s="280"/>
+      <c r="N23" s="280"/>
+      <c r="O23" s="280"/>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="3">
         <v>22</v>
       </c>
-      <c r="C24" s="277" t="s">
+      <c r="C24" s="280" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="277"/>
-      <c r="E24" s="277"/>
-      <c r="F24" s="277"/>
-      <c r="G24" s="277"/>
-      <c r="H24" s="277"/>
-      <c r="I24" s="277"/>
-      <c r="J24" s="277"/>
-      <c r="K24" s="277"/>
-      <c r="L24" s="277"/>
-      <c r="M24" s="277"/>
-      <c r="N24" s="277"/>
-      <c r="O24" s="277"/>
+      <c r="D24" s="280"/>
+      <c r="E24" s="280"/>
+      <c r="F24" s="280"/>
+      <c r="G24" s="280"/>
+      <c r="H24" s="280"/>
+      <c r="I24" s="280"/>
+      <c r="J24" s="280"/>
+      <c r="K24" s="280"/>
+      <c r="L24" s="280"/>
+      <c r="M24" s="280"/>
+      <c r="N24" s="280"/>
+      <c r="O24" s="280"/>
     </row>
     <row r="25" spans="2:15">
       <c r="B25" s="3">
         <v>23</v>
       </c>
-      <c r="C25" s="277" t="s">
+      <c r="C25" s="280" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="277"/>
-      <c r="E25" s="277"/>
-      <c r="F25" s="277"/>
-      <c r="G25" s="277"/>
-      <c r="H25" s="277"/>
-      <c r="I25" s="277"/>
-      <c r="J25" s="277"/>
-      <c r="K25" s="277"/>
-      <c r="L25" s="277"/>
-      <c r="M25" s="277"/>
-      <c r="N25" s="277"/>
-      <c r="O25" s="277"/>
+      <c r="D25" s="280"/>
+      <c r="E25" s="280"/>
+      <c r="F25" s="280"/>
+      <c r="G25" s="280"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="280"/>
+      <c r="K25" s="280"/>
+      <c r="L25" s="280"/>
+      <c r="M25" s="280"/>
+      <c r="N25" s="280"/>
+      <c r="O25" s="280"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="3">
         <v>24</v>
       </c>
-      <c r="C26" s="277" t="s">
+      <c r="C26" s="280" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="277"/>
-      <c r="E26" s="277"/>
-      <c r="F26" s="277"/>
-      <c r="G26" s="277"/>
-      <c r="H26" s="277"/>
-      <c r="I26" s="277"/>
-      <c r="J26" s="277"/>
-      <c r="K26" s="277"/>
-      <c r="L26" s="277"/>
-      <c r="M26" s="277"/>
-      <c r="N26" s="277"/>
-      <c r="O26" s="277"/>
+      <c r="D26" s="280"/>
+      <c r="E26" s="280"/>
+      <c r="F26" s="280"/>
+      <c r="G26" s="280"/>
+      <c r="H26" s="280"/>
+      <c r="I26" s="280"/>
+      <c r="J26" s="280"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="280"/>
+      <c r="M26" s="280"/>
+      <c r="N26" s="280"/>
+      <c r="O26" s="280"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="3">
         <v>25</v>
       </c>
-      <c r="C27" s="277" t="s">
+      <c r="C27" s="280" t="s">
         <v>20</v>
       </c>
-      <c r="D27" s="277"/>
-      <c r="E27" s="277"/>
-      <c r="F27" s="277"/>
-      <c r="G27" s="277"/>
-      <c r="H27" s="277"/>
-      <c r="I27" s="277"/>
-      <c r="J27" s="277"/>
-      <c r="K27" s="277"/>
-      <c r="L27" s="277"/>
-      <c r="M27" s="277"/>
-      <c r="N27" s="277"/>
-      <c r="O27" s="277"/>
+      <c r="D27" s="280"/>
+      <c r="E27" s="280"/>
+      <c r="F27" s="280"/>
+      <c r="G27" s="280"/>
+      <c r="H27" s="280"/>
+      <c r="I27" s="280"/>
+      <c r="J27" s="280"/>
+      <c r="K27" s="280"/>
+      <c r="L27" s="280"/>
+      <c r="M27" s="280"/>
+      <c r="N27" s="280"/>
+      <c r="O27" s="280"/>
     </row>
     <row r="28" spans="2:15">
       <c r="B28" s="3">
         <v>26</v>
       </c>
-      <c r="C28" s="277" t="s">
+      <c r="C28" s="280" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="277"/>
-      <c r="E28" s="277"/>
-      <c r="F28" s="277"/>
-      <c r="G28" s="277"/>
-      <c r="H28" s="277"/>
-      <c r="I28" s="277"/>
-      <c r="J28" s="277"/>
-      <c r="K28" s="277"/>
-      <c r="L28" s="277"/>
-      <c r="M28" s="277"/>
-      <c r="N28" s="277"/>
-      <c r="O28" s="277"/>
+      <c r="D28" s="280"/>
+      <c r="E28" s="280"/>
+      <c r="F28" s="280"/>
+      <c r="G28" s="280"/>
+      <c r="H28" s="280"/>
+      <c r="I28" s="280"/>
+      <c r="J28" s="280"/>
+      <c r="K28" s="280"/>
+      <c r="L28" s="280"/>
+      <c r="M28" s="280"/>
+      <c r="N28" s="280"/>
+      <c r="O28" s="280"/>
     </row>
     <row r="29" spans="2:15">
       <c r="B29" s="3">
         <v>27</v>
       </c>
-      <c r="C29" s="277" t="s">
+      <c r="C29" s="280" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="277"/>
-      <c r="E29" s="277"/>
-      <c r="F29" s="277"/>
-      <c r="G29" s="277"/>
-      <c r="H29" s="277"/>
-      <c r="I29" s="277"/>
-      <c r="J29" s="277"/>
-      <c r="K29" s="277"/>
-      <c r="L29" s="277"/>
-      <c r="M29" s="277"/>
-      <c r="N29" s="277"/>
-      <c r="O29" s="277"/>
+      <c r="D29" s="280"/>
+      <c r="E29" s="280"/>
+      <c r="F29" s="280"/>
+      <c r="G29" s="280"/>
+      <c r="H29" s="280"/>
+      <c r="I29" s="280"/>
+      <c r="J29" s="280"/>
+      <c r="K29" s="280"/>
+      <c r="L29" s="280"/>
+      <c r="M29" s="280"/>
+      <c r="N29" s="280"/>
+      <c r="O29" s="280"/>
     </row>
     <row r="30" spans="2:15">
       <c r="B30" s="3">
         <v>28</v>
       </c>
-      <c r="C30" s="277" t="s">
+      <c r="C30" s="280" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="277"/>
-      <c r="E30" s="277"/>
-      <c r="F30" s="277"/>
-      <c r="G30" s="277"/>
-      <c r="H30" s="277"/>
-      <c r="I30" s="277"/>
-      <c r="J30" s="277"/>
-      <c r="K30" s="277"/>
-      <c r="L30" s="277"/>
-      <c r="M30" s="277"/>
-      <c r="N30" s="277"/>
-      <c r="O30" s="277"/>
+      <c r="D30" s="280"/>
+      <c r="E30" s="280"/>
+      <c r="F30" s="280"/>
+      <c r="G30" s="280"/>
+      <c r="H30" s="280"/>
+      <c r="I30" s="280"/>
+      <c r="J30" s="280"/>
+      <c r="K30" s="280"/>
+      <c r="L30" s="280"/>
+      <c r="M30" s="280"/>
+      <c r="N30" s="280"/>
+      <c r="O30" s="280"/>
     </row>
     <row r="31" spans="2:15">
       <c r="B31" s="3">
         <v>29</v>
       </c>
-      <c r="C31" s="277" t="s">
+      <c r="C31" s="280" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="277"/>
-      <c r="E31" s="277"/>
-      <c r="F31" s="277"/>
-      <c r="G31" s="277"/>
-      <c r="H31" s="277"/>
-      <c r="I31" s="277"/>
-      <c r="J31" s="277"/>
-      <c r="K31" s="277"/>
-      <c r="L31" s="277"/>
-      <c r="M31" s="277"/>
-      <c r="N31" s="277"/>
-      <c r="O31" s="277"/>
+      <c r="D31" s="280"/>
+      <c r="E31" s="280"/>
+      <c r="F31" s="280"/>
+      <c r="G31" s="280"/>
+      <c r="H31" s="280"/>
+      <c r="I31" s="280"/>
+      <c r="J31" s="280"/>
+      <c r="K31" s="280"/>
+      <c r="L31" s="280"/>
+      <c r="M31" s="280"/>
+      <c r="N31" s="280"/>
+      <c r="O31" s="280"/>
     </row>
     <row r="32" spans="2:15">
       <c r="B32" s="3">
         <v>30</v>
       </c>
-      <c r="C32" s="277" t="s">
+      <c r="C32" s="280" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="277"/>
-      <c r="E32" s="277"/>
-      <c r="F32" s="277"/>
-      <c r="G32" s="277"/>
-      <c r="H32" s="277"/>
-      <c r="I32" s="277"/>
-      <c r="J32" s="277"/>
-      <c r="K32" s="277"/>
-      <c r="L32" s="277"/>
-      <c r="M32" s="277"/>
-      <c r="N32" s="277"/>
-      <c r="O32" s="277"/>
+      <c r="D32" s="280"/>
+      <c r="E32" s="280"/>
+      <c r="F32" s="280"/>
+      <c r="G32" s="280"/>
+      <c r="H32" s="280"/>
+      <c r="I32" s="280"/>
+      <c r="J32" s="280"/>
+      <c r="K32" s="280"/>
+      <c r="L32" s="280"/>
+      <c r="M32" s="280"/>
+      <c r="N32" s="280"/>
+      <c r="O32" s="280"/>
     </row>
     <row r="33" spans="2:15">
       <c r="B33" s="3">
         <v>31</v>
       </c>
-      <c r="C33" s="277" t="s">
+      <c r="C33" s="280" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="277"/>
-      <c r="E33" s="277"/>
-      <c r="F33" s="277"/>
-      <c r="G33" s="277"/>
-      <c r="H33" s="277"/>
-      <c r="I33" s="277"/>
-      <c r="J33" s="277"/>
-      <c r="K33" s="277"/>
-      <c r="L33" s="277"/>
-      <c r="M33" s="277"/>
-      <c r="N33" s="277"/>
-      <c r="O33" s="277"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="280"/>
+      <c r="F33" s="280"/>
+      <c r="G33" s="280"/>
+      <c r="H33" s="280"/>
+      <c r="I33" s="280"/>
+      <c r="J33" s="280"/>
+      <c r="K33" s="280"/>
+      <c r="L33" s="280"/>
+      <c r="M33" s="280"/>
+      <c r="N33" s="280"/>
+      <c r="O33" s="280"/>
     </row>
     <row r="34" spans="2:15">
       <c r="B34" s="3">
         <v>32</v>
       </c>
-      <c r="C34" s="277" t="s">
+      <c r="C34" s="280" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="277"/>
-      <c r="E34" s="277"/>
-      <c r="F34" s="277"/>
-      <c r="G34" s="277"/>
-      <c r="H34" s="277"/>
-      <c r="I34" s="277"/>
-      <c r="J34" s="277"/>
-      <c r="K34" s="277"/>
-      <c r="L34" s="277"/>
-      <c r="M34" s="277"/>
-      <c r="N34" s="277"/>
-      <c r="O34" s="277"/>
+      <c r="D34" s="280"/>
+      <c r="E34" s="280"/>
+      <c r="F34" s="280"/>
+      <c r="G34" s="280"/>
+      <c r="H34" s="280"/>
+      <c r="I34" s="280"/>
+      <c r="J34" s="280"/>
+      <c r="K34" s="280"/>
+      <c r="L34" s="280"/>
+      <c r="M34" s="280"/>
+      <c r="N34" s="280"/>
+      <c r="O34" s="280"/>
     </row>
     <row r="35" spans="2:15">
       <c r="B35" s="3">
         <v>33</v>
       </c>
-      <c r="C35" s="277" t="s">
+      <c r="C35" s="280" t="s">
         <v>32</v>
       </c>
-      <c r="D35" s="277"/>
-      <c r="E35" s="277"/>
-      <c r="F35" s="277"/>
-      <c r="G35" s="277"/>
-      <c r="H35" s="277"/>
-      <c r="I35" s="277"/>
-      <c r="J35" s="277"/>
-      <c r="K35" s="277"/>
-      <c r="L35" s="277"/>
-      <c r="M35" s="277"/>
-      <c r="N35" s="277"/>
-      <c r="O35" s="277"/>
+      <c r="D35" s="280"/>
+      <c r="E35" s="280"/>
+      <c r="F35" s="280"/>
+      <c r="G35" s="280"/>
+      <c r="H35" s="280"/>
+      <c r="I35" s="280"/>
+      <c r="J35" s="280"/>
+      <c r="K35" s="280"/>
+      <c r="L35" s="280"/>
+      <c r="M35" s="280"/>
+      <c r="N35" s="280"/>
+      <c r="O35" s="280"/>
     </row>
     <row r="36" spans="2:15">
       <c r="B36" s="3">
         <v>34</v>
       </c>
-      <c r="C36" s="282" t="s">
+      <c r="C36" s="286" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="282"/>
-      <c r="E36" s="282"/>
-      <c r="F36" s="282"/>
-      <c r="G36" s="282"/>
-      <c r="H36" s="282"/>
-      <c r="I36" s="282"/>
-      <c r="J36" s="282"/>
-      <c r="K36" s="282"/>
-      <c r="L36" s="282"/>
-      <c r="M36" s="282"/>
-      <c r="N36" s="282"/>
-      <c r="O36" s="282"/>
+      <c r="D36" s="286"/>
+      <c r="E36" s="286"/>
+      <c r="F36" s="286"/>
+      <c r="G36" s="286"/>
+      <c r="H36" s="286"/>
+      <c r="I36" s="286"/>
+      <c r="J36" s="286"/>
+      <c r="K36" s="286"/>
+      <c r="L36" s="286"/>
+      <c r="M36" s="286"/>
+      <c r="N36" s="286"/>
+      <c r="O36" s="286"/>
     </row>
     <row r="37" spans="2:15">
       <c r="B37" s="189">
         <v>35</v>
       </c>
-      <c r="C37" s="280" t="s">
+      <c r="C37" s="284" t="s">
         <v>269</v>
       </c>
-      <c r="D37" s="280"/>
-      <c r="E37" s="280"/>
-      <c r="F37" s="280"/>
-      <c r="G37" s="280"/>
-      <c r="H37" s="280"/>
-      <c r="I37" s="280"/>
-      <c r="J37" s="280"/>
-      <c r="K37" s="280"/>
-      <c r="L37" s="280"/>
-      <c r="M37" s="280"/>
-      <c r="N37" s="280"/>
-      <c r="O37" s="280"/>
+      <c r="D37" s="284"/>
+      <c r="E37" s="284"/>
+      <c r="F37" s="284"/>
+      <c r="G37" s="284"/>
+      <c r="H37" s="284"/>
+      <c r="I37" s="284"/>
+      <c r="J37" s="284"/>
+      <c r="K37" s="284"/>
+      <c r="L37" s="284"/>
+      <c r="M37" s="284"/>
+      <c r="N37" s="284"/>
+      <c r="O37" s="284"/>
     </row>
     <row r="38" spans="2:15" ht="29" customHeight="1">
       <c r="B38" s="188">
         <v>36</v>
       </c>
-      <c r="C38" s="281" t="s">
+      <c r="C38" s="285" t="s">
         <v>270</v>
       </c>
-      <c r="D38" s="281"/>
-      <c r="E38" s="281"/>
-      <c r="F38" s="281"/>
-      <c r="G38" s="281"/>
-      <c r="H38" s="281"/>
-      <c r="I38" s="281"/>
-      <c r="J38" s="281"/>
-      <c r="K38" s="281"/>
-      <c r="L38" s="281"/>
-      <c r="M38" s="281"/>
-      <c r="N38" s="281"/>
-      <c r="O38" s="281"/>
+      <c r="D38" s="285"/>
+      <c r="E38" s="285"/>
+      <c r="F38" s="285"/>
+      <c r="G38" s="285"/>
+      <c r="H38" s="285"/>
+      <c r="I38" s="285"/>
+      <c r="J38" s="285"/>
+      <c r="K38" s="285"/>
+      <c r="L38" s="285"/>
+      <c r="M38" s="285"/>
+      <c r="N38" s="285"/>
+      <c r="O38" s="285"/>
     </row>
     <row r="39" spans="2:15">
       <c r="B39" s="190">
         <v>37</v>
       </c>
-      <c r="C39" s="279" t="s">
+      <c r="C39" s="283" t="s">
         <v>281</v>
       </c>
-      <c r="D39" s="279"/>
-      <c r="E39" s="279"/>
-      <c r="F39" s="279"/>
-      <c r="G39" s="279"/>
-      <c r="H39" s="279"/>
-      <c r="I39" s="279"/>
-      <c r="J39" s="279"/>
-      <c r="K39" s="279"/>
-      <c r="L39" s="279"/>
-      <c r="M39" s="279"/>
-      <c r="N39" s="279"/>
-      <c r="O39" s="279"/>
+      <c r="D39" s="283"/>
+      <c r="E39" s="283"/>
+      <c r="F39" s="283"/>
+      <c r="G39" s="283"/>
+      <c r="H39" s="283"/>
+      <c r="I39" s="283"/>
+      <c r="J39" s="283"/>
+      <c r="K39" s="283"/>
+      <c r="L39" s="283"/>
+      <c r="M39" s="283"/>
+      <c r="N39" s="283"/>
+      <c r="O39" s="283"/>
     </row>
     <row r="40" spans="2:15">
       <c r="B40" s="192">
         <v>38</v>
       </c>
-      <c r="C40" s="273" t="s">
+      <c r="C40" s="276" t="s">
         <v>285</v>
       </c>
-      <c r="D40" s="273"/>
-      <c r="E40" s="273"/>
-      <c r="F40" s="273"/>
-      <c r="G40" s="273"/>
-      <c r="H40" s="273"/>
-      <c r="I40" s="273"/>
-      <c r="J40" s="273"/>
-      <c r="K40" s="273"/>
-      <c r="L40" s="273"/>
-      <c r="M40" s="273"/>
-      <c r="N40" s="273"/>
-      <c r="O40" s="273"/>
+      <c r="D40" s="276"/>
+      <c r="E40" s="276"/>
+      <c r="F40" s="276"/>
+      <c r="G40" s="276"/>
+      <c r="H40" s="276"/>
+      <c r="I40" s="276"/>
+      <c r="J40" s="276"/>
+      <c r="K40" s="276"/>
+      <c r="L40" s="276"/>
+      <c r="M40" s="276"/>
+      <c r="N40" s="276"/>
+      <c r="O40" s="276"/>
     </row>
     <row r="41" spans="2:15" ht="31" customHeight="1">
       <c r="B41" s="188">
         <v>39</v>
       </c>
-      <c r="C41" s="195" t="s">
+      <c r="C41" s="203" t="s">
         <v>290</v>
       </c>
-      <c r="D41" s="195"/>
-      <c r="E41" s="195"/>
-      <c r="F41" s="195"/>
-      <c r="G41" s="195"/>
-      <c r="H41" s="195"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="195"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="195"/>
-      <c r="O41" s="195"/>
+      <c r="D41" s="203"/>
+      <c r="E41" s="203"/>
+      <c r="F41" s="203"/>
+      <c r="G41" s="203"/>
+      <c r="H41" s="203"/>
+      <c r="I41" s="203"/>
+      <c r="J41" s="203"/>
+      <c r="K41" s="203"/>
+      <c r="L41" s="203"/>
+      <c r="M41" s="203"/>
+      <c r="N41" s="203"/>
+      <c r="O41" s="203"/>
     </row>
     <row r="42" spans="2:15">
       <c r="B42" s="192">
         <v>40</v>
       </c>
-      <c r="C42" s="205" t="s">
+      <c r="C42" s="202" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="273"/>
-      <c r="E42" s="273"/>
-      <c r="F42" s="273"/>
-      <c r="G42" s="273"/>
-      <c r="H42" s="273"/>
-      <c r="I42" s="273"/>
-      <c r="J42" s="273"/>
-      <c r="K42" s="273"/>
-      <c r="L42" s="273"/>
-      <c r="M42" s="273"/>
-      <c r="N42" s="273"/>
-      <c r="O42" s="273"/>
+      <c r="D42" s="276"/>
+      <c r="E42" s="276"/>
+      <c r="F42" s="276"/>
+      <c r="G42" s="276"/>
+      <c r="H42" s="276"/>
+      <c r="I42" s="276"/>
+      <c r="J42" s="276"/>
+      <c r="K42" s="276"/>
+      <c r="L42" s="276"/>
+      <c r="M42" s="276"/>
+      <c r="N42" s="276"/>
+      <c r="O42" s="276"/>
     </row>
     <row r="43" spans="2:15">
       <c r="B43" s="192">
         <v>41</v>
       </c>
-      <c r="C43" s="247" t="s">
+      <c r="C43" s="250" t="s">
         <v>292</v>
       </c>
-      <c r="D43" s="247"/>
-      <c r="E43" s="247"/>
-      <c r="F43" s="247"/>
-      <c r="G43" s="247"/>
-      <c r="H43" s="247"/>
-      <c r="I43" s="247"/>
-      <c r="J43" s="247"/>
-      <c r="K43" s="247"/>
-      <c r="L43" s="247"/>
-      <c r="M43" s="247"/>
-      <c r="N43" s="247"/>
-      <c r="O43" s="247"/>
+      <c r="D43" s="250"/>
+      <c r="E43" s="250"/>
+      <c r="F43" s="250"/>
+      <c r="G43" s="250"/>
+      <c r="H43" s="250"/>
+      <c r="I43" s="250"/>
+      <c r="J43" s="250"/>
+      <c r="K43" s="250"/>
+      <c r="L43" s="250"/>
+      <c r="M43" s="250"/>
+      <c r="N43" s="250"/>
+      <c r="O43" s="250"/>
     </row>
     <row r="44" spans="2:15">
       <c r="B44" s="192">
         <v>42</v>
       </c>
-      <c r="C44" s="205" t="s">
+      <c r="C44" s="202" t="s">
         <v>293</v>
       </c>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
+      <c r="D44" s="202"/>
+      <c r="E44" s="202"/>
+      <c r="F44" s="202"/>
+      <c r="G44" s="202"/>
+      <c r="H44" s="202"/>
+      <c r="I44" s="202"/>
+      <c r="J44" s="202"/>
+      <c r="K44" s="202"/>
+      <c r="L44" s="202"/>
+      <c r="M44" s="202"/>
+      <c r="N44" s="202"/>
+      <c r="O44" s="202"/>
     </row>
     <row r="45" spans="2:15" ht="28" customHeight="1">
       <c r="B45" s="188">
         <v>43</v>
       </c>
-      <c r="C45" s="272" t="s">
+      <c r="C45" s="275" t="s">
         <v>301</v>
       </c>
-      <c r="D45" s="272"/>
-      <c r="E45" s="272"/>
-      <c r="F45" s="272"/>
-      <c r="G45" s="272"/>
-      <c r="H45" s="272"/>
-      <c r="I45" s="272"/>
-      <c r="J45" s="272"/>
-      <c r="K45" s="272"/>
-      <c r="L45" s="272"/>
-      <c r="M45" s="272"/>
-      <c r="N45" s="272"/>
-      <c r="O45" s="272"/>
+      <c r="D45" s="275"/>
+      <c r="E45" s="275"/>
+      <c r="F45" s="275"/>
+      <c r="G45" s="275"/>
+      <c r="H45" s="275"/>
+      <c r="I45" s="275"/>
+      <c r="J45" s="275"/>
+      <c r="K45" s="275"/>
+      <c r="L45" s="275"/>
+      <c r="M45" s="275"/>
+      <c r="N45" s="275"/>
+      <c r="O45" s="275"/>
     </row>
   </sheetData>
   <mergeCells count="43">
@@ -32264,6 +32298,9 @@
     <mergeCell ref="C43:O43"/>
     <mergeCell ref="C44:O44"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C22" r:id="rId1" xr:uid="{C7535751-CADB-964F-8ACE-B6E3E335E360}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -32326,87 +32363,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="223"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="226"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -34521,12 +34558,12 @@
         <v>589.39900000000011</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -34535,13 +34572,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -34558,13 +34595,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -34581,13 +34618,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -34604,13 +34641,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -34866,87 +34903,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>150</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="223"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="226"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -37106,12 +37143,12 @@
         <v>6634.9010000000007</v>
       </c>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -37120,13 +37157,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -37143,13 +37180,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -37166,13 +37203,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -37189,13 +37226,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -37456,87 +37493,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="224"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="227"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -39644,12 +39681,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="B17" s="68"/>
@@ -39659,13 +39696,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -39682,13 +39719,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -39705,13 +39742,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -39728,13 +39765,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -40005,87 +40042,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>154</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -42244,12 +42281,12 @@
       <c r="A16" s="81"/>
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -42258,13 +42295,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -42281,13 +42318,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -42304,13 +42341,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -42327,13 +42364,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -42603,87 +42640,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="222"/>
+      <c r="B2" s="225"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -44838,12 +44875,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -44865,13 +44902,13 @@
       <c r="B19" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="211" t="s">
+      <c r="C19" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="211"/>
+      <c r="D19" s="214"/>
+      <c r="E19" s="214"/>
+      <c r="F19" s="214"/>
+      <c r="G19" s="214"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -44888,13 +44925,13 @@
       <c r="B20" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C20" s="209" t="s">
+      <c r="C20" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="209"/>
-      <c r="E20" s="209"/>
-      <c r="F20" s="209"/>
-      <c r="G20" s="209"/>
+      <c r="D20" s="212"/>
+      <c r="E20" s="212"/>
+      <c r="F20" s="212"/>
+      <c r="G20" s="212"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -44911,13 +44948,13 @@
       <c r="B21" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D21" s="210"/>
-      <c r="E21" s="210"/>
-      <c r="F21" s="210"/>
-      <c r="G21" s="210"/>
+      <c r="D21" s="213"/>
+      <c r="E21" s="213"/>
+      <c r="F21" s="213"/>
+      <c r="G21" s="213"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -44934,13 +44971,13 @@
       <c r="B22" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C22" s="195" t="s">
+      <c r="C22" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="209"/>
-      <c r="E22" s="209"/>
-      <c r="F22" s="209"/>
-      <c r="G22" s="209"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
+      <c r="F22" s="212"/>
+      <c r="G22" s="212"/>
       <c r="H22" s="61"/>
       <c r="I22" s="61"/>
       <c r="J22" s="61"/>
@@ -45196,87 +45233,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -47430,12 +47467,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="4"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -47444,13 +47481,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -47467,13 +47504,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -47490,13 +47527,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -47513,13 +47550,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
@@ -47790,87 +47827,87 @@
   <sheetData>
     <row r="1" spans="1:47" s="3" customFormat="1" ht="15.75" customHeight="1"/>
     <row r="2" spans="1:47" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="211" t="s">
         <v>159</v>
       </c>
-      <c r="B2" s="208"/>
+      <c r="B2" s="211"/>
       <c r="C2" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="212" t="s">
+      <c r="D2" s="215" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="213"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="215" t="s">
+      <c r="E2" s="216"/>
+      <c r="F2" s="217"/>
+      <c r="G2" s="218" t="s">
         <v>37</v>
       </c>
-      <c r="H2" s="213"/>
-      <c r="I2" s="213"/>
-      <c r="J2" s="220" t="s">
+      <c r="H2" s="216"/>
+      <c r="I2" s="216"/>
+      <c r="J2" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="213"/>
-      <c r="L2" s="213"/>
-      <c r="M2" s="220" t="s">
+      <c r="K2" s="216"/>
+      <c r="L2" s="216"/>
+      <c r="M2" s="223" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="213"/>
-      <c r="O2" s="214"/>
-      <c r="P2" s="219" t="s">
+      <c r="N2" s="216"/>
+      <c r="O2" s="217"/>
+      <c r="P2" s="222" t="s">
         <v>40</v>
       </c>
-      <c r="Q2" s="213"/>
-      <c r="R2" s="214"/>
-      <c r="S2" s="221" t="s">
+      <c r="Q2" s="216"/>
+      <c r="R2" s="217"/>
+      <c r="S2" s="224" t="s">
         <v>273</v>
       </c>
-      <c r="T2" s="214"/>
-      <c r="U2" s="212" t="s">
+      <c r="T2" s="217"/>
+      <c r="U2" s="215" t="s">
         <v>41</v>
       </c>
-      <c r="V2" s="213"/>
-      <c r="W2" s="214"/>
-      <c r="X2" s="212" t="s">
+      <c r="V2" s="216"/>
+      <c r="W2" s="217"/>
+      <c r="X2" s="215" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" s="213"/>
-      <c r="Z2" s="214"/>
-      <c r="AA2" s="212" t="s">
+      <c r="Y2" s="216"/>
+      <c r="Z2" s="217"/>
+      <c r="AA2" s="215" t="s">
         <v>43</v>
       </c>
-      <c r="AB2" s="213"/>
-      <c r="AC2" s="214"/>
-      <c r="AD2" s="215" t="s">
+      <c r="AB2" s="216"/>
+      <c r="AC2" s="217"/>
+      <c r="AD2" s="218" t="s">
         <v>44</v>
       </c>
-      <c r="AE2" s="213"/>
-      <c r="AF2" s="214"/>
-      <c r="AG2" s="215" t="s">
+      <c r="AE2" s="216"/>
+      <c r="AF2" s="217"/>
+      <c r="AG2" s="218" t="s">
         <v>45</v>
       </c>
-      <c r="AH2" s="213"/>
-      <c r="AI2" s="214"/>
-      <c r="AJ2" s="215" t="s">
+      <c r="AH2" s="216"/>
+      <c r="AI2" s="217"/>
+      <c r="AJ2" s="218" t="s">
         <v>46</v>
       </c>
-      <c r="AK2" s="213"/>
-      <c r="AL2" s="214"/>
-      <c r="AM2" s="219" t="s">
+      <c r="AK2" s="216"/>
+      <c r="AL2" s="217"/>
+      <c r="AM2" s="222" t="s">
         <v>47</v>
       </c>
-      <c r="AN2" s="213"/>
-      <c r="AO2" s="214"/>
-      <c r="AP2" s="219" t="s">
+      <c r="AN2" s="216"/>
+      <c r="AO2" s="217"/>
+      <c r="AP2" s="222" t="s">
         <v>48</v>
       </c>
-      <c r="AQ2" s="213"/>
-      <c r="AR2" s="214"/>
-      <c r="AS2" s="219" t="s">
+      <c r="AQ2" s="216"/>
+      <c r="AR2" s="217"/>
+      <c r="AS2" s="222" t="s">
         <v>49</v>
       </c>
-      <c r="AT2" s="213"/>
-      <c r="AU2" s="214"/>
+      <c r="AT2" s="216"/>
+      <c r="AU2" s="217"/>
     </row>
     <row r="3" spans="1:47" ht="15">
       <c r="A3" s="1" t="s">
@@ -50025,12 +50062,12 @@
     <row r="16" spans="1:47" ht="15.75" customHeight="1">
       <c r="B16" s="68"/>
       <c r="G16" s="7"/>
-      <c r="AG16" s="216"/>
-      <c r="AH16" s="217"/>
-      <c r="AI16" s="217"/>
-      <c r="AP16" s="216"/>
-      <c r="AQ16" s="217"/>
-      <c r="AR16" s="217"/>
+      <c r="AG16" s="219"/>
+      <c r="AH16" s="220"/>
+      <c r="AI16" s="220"/>
+      <c r="AP16" s="219"/>
+      <c r="AQ16" s="220"/>
+      <c r="AR16" s="220"/>
     </row>
     <row r="17" spans="2:18" ht="15.75" customHeight="1">
       <c r="G17" s="7"/>
@@ -50039,13 +50076,13 @@
       <c r="B18" s="84" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="211" t="s">
+      <c r="C18" s="214" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="211"/>
-      <c r="E18" s="211"/>
-      <c r="F18" s="211"/>
-      <c r="G18" s="211"/>
+      <c r="D18" s="214"/>
+      <c r="E18" s="214"/>
+      <c r="F18" s="214"/>
+      <c r="G18" s="214"/>
       <c r="H18" s="61"/>
       <c r="I18" s="61"/>
       <c r="J18" s="61"/>
@@ -50062,13 +50099,13 @@
       <c r="B19" s="82" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="209" t="s">
+      <c r="C19" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="D19" s="209"/>
-      <c r="E19" s="209"/>
-      <c r="F19" s="209"/>
-      <c r="G19" s="209"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
+      <c r="F19" s="212"/>
+      <c r="G19" s="212"/>
       <c r="H19" s="61"/>
       <c r="I19" s="61"/>
       <c r="J19" s="61"/>
@@ -50085,13 +50122,13 @@
       <c r="B20" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="205" t="s">
+      <c r="C20" s="202" t="s">
         <v>274</v>
       </c>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
+      <c r="D20" s="213"/>
+      <c r="E20" s="213"/>
+      <c r="F20" s="213"/>
+      <c r="G20" s="213"/>
       <c r="H20" s="61"/>
       <c r="I20" s="61"/>
       <c r="J20" s="61"/>
@@ -50108,13 +50145,13 @@
       <c r="B21" s="83" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="195" t="s">
+      <c r="C21" s="203" t="s">
         <v>267</v>
       </c>
-      <c r="D21" s="209"/>
-      <c r="E21" s="209"/>
-      <c r="F21" s="209"/>
-      <c r="G21" s="209"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="212"/>
+      <c r="G21" s="212"/>
       <c r="H21" s="61"/>
       <c r="I21" s="61"/>
       <c r="J21" s="61"/>
